--- a/Projects/CCRU_SAND/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Hypermarket PoS 2018.xlsx
@@ -13,32 +13,33 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -65,7 +66,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 запрос Саше Юрьевой</t>
         </r>
       </text>
@@ -80,7 +81,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 запрос Тане Матвеевой</t>
         </r>
       </text>
@@ -95,7 +96,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 Замена или новый скю?</t>
         </r>
       </text>
@@ -110,7 +111,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 спросить у Ксюши Александровой
 </t>
         </r>
@@ -126,7 +127,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 Local question ID</t>
         </r>
       </text>
@@ -141,7 +142,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 запрос Саше Юрьевой</t>
         </r>
       </text>
@@ -156,7 +157,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 запрос Тане Матвеевой</t>
         </r>
       </text>
@@ -171,7 +172,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 Замена или новый скю?</t>
         </r>
       </text>
@@ -186,7 +187,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 спросить у Ксюши Александровой
 </t>
         </r>
@@ -202,7 +203,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Aleksandra Danilenko:
+          <t xml:space="preserve">Aleksandra Danilenko:
 Local question ID</t>
         </r>
       </text>
@@ -212,159 +213,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4548" uniqueCount="814">
-  <si>
-    <t>Sorting</t>
-  </si>
-  <si>
-    <t>SAP PoS</t>
-  </si>
-  <si>
-    <t>Channel</t>
-  </si>
-  <si>
-    <t>KPI Type</t>
-  </si>
-  <si>
-    <t>SAP KPI</t>
-  </si>
-  <si>
-    <t>KPI name Eng</t>
-  </si>
-  <si>
-    <t>KPI name Rus</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>target_min</t>
-  </si>
-  <si>
-    <t>target_max</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Logical Operator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Form Factor</t>
-  </si>
-  <si>
-    <t>Zone to include</t>
-  </si>
-  <si>
-    <t>Locations to exclude</t>
-  </si>
-  <si>
-    <t>Locations to include</t>
-  </si>
-  <si>
-    <t>Scenes to include</t>
-  </si>
-  <si>
-    <t>Scenes to exclude</t>
-  </si>
-  <si>
-    <t>Sub locations to include</t>
-  </si>
-  <si>
-    <t>Sub locations to exclude</t>
-  </si>
-  <si>
-    <t>shelf_number</t>
-  </si>
-  <si>
-    <t>Converted?</t>
-  </si>
-  <si>
-    <t>score_func</t>
-  </si>
-  <si>
-    <t>KPI Weight</t>
-  </si>
-  <si>
-    <t>score_min</t>
-  </si>
-  <si>
-    <t>score_max</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t>KPI from POS 2016</t>
-  </si>
-  <si>
-    <t>depends on</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>KPI ID</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>To include in first calculation?</t>
-  </si>
-  <si>
-    <t>RD38010001</t>
-  </si>
-  <si>
-    <t>Hypermarket</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>STANDARD 1</t>
-  </si>
-  <si>
-    <t>SSD Availability</t>
-  </si>
-  <si>
-    <t>Представленность SSD</t>
-  </si>
-  <si>
-    <t>Weighted Average </t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>2
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4548" uniqueCount="815">
+  <si>
+    <t xml:space="preserve">Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP PoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAP KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name Rus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenes to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub locations to exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converted?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_func</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI from POS 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To include in first calculation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD38010001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypermarket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2
 3
 4
 5
@@ -411,304 +412,304 @@
 46</t>
   </si>
   <si>
-    <t>Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 2л</t>
-  </si>
-  <si>
-    <t>number of facings</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>SKUs</t>
-  </si>
-  <si>
-    <t>Activation, Other</t>
-  </si>
-  <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
-    <t>BINARY</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.9л</t>
-  </si>
-  <si>
-    <t>Sprite - 2L</t>
-  </si>
-  <si>
-    <t>Спрайт - 2л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 2L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Sprite - 1.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.9л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.9л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Schweppes Bitter Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 2L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 2л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 2 x 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 2 x 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 1.5л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 1.5L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Pomegranate - 0.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Гранат - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.5л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 0.5L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 0.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.25L Glass</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.25л стекло</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.9L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.9л</t>
-  </si>
-  <si>
-    <t>Sprite Cucumber-Watermelon - 0.9L</t>
-  </si>
-  <si>
-    <t>Спрайт Огурец-Арбуз - 0.9л</t>
-  </si>
-  <si>
-    <t>Schweppes Mojito - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Мохито - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Pomegranate - 1.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Гранат - 1.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Pomegranate - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Гранат - 1л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 1.5L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 4 x 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 4 x 0.33л</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 1л</t>
-  </si>
-  <si>
-    <t>Schweppes Bitter Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон - 1л</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 0.9L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 0.9л</t>
-  </si>
-  <si>
-    <t>Fanta Citrus - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Цитрус - 0.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 0.5L</t>
-  </si>
-  <si>
-    <t>Швеппс Тоник - 0.5л</t>
-  </si>
-  <si>
-    <t>Schweppes Mojito - 1L</t>
-  </si>
-  <si>
-    <t>Швеппс Мохито - 1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.33л</t>
-  </si>
-  <si>
-    <t>Coca-Cola Zero Lemon - 0.33L</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро Лемон - 0.33л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 0.9L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 0.9л</t>
-  </si>
-  <si>
-    <t>Fanta Pear - 0.5L</t>
-  </si>
-  <si>
-    <t>Фанта Груша - 0.5л</t>
-  </si>
-  <si>
-    <t>STANDARD 2</t>
-  </si>
-  <si>
-    <t>Water Availability</t>
-  </si>
-  <si>
-    <t>Представленность Воды</t>
-  </si>
-  <si>
-    <t>48
+    <t xml:space="preserve">Coca-Cola - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activation, Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panoramic Photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 2 x 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 2 x 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Pomegranate - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Гранат - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.25L Glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 0.25л стекло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт Огурец-Арбуз - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Mojito - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Мохито - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Pomegranate - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Гранат - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Pomegranate - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Гранат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 4 x 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола - 4 x 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Bitter Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Биттер Лемон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Citrus - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Цитрус - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Тоник - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Mojito - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Швеппс Мохито - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Pear - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фанта Груша - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48
 49
 50
 51
@@ -721,79 +722,79 @@
 58</t>
   </si>
   <si>
-    <t>BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 2л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 1L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 2L</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 2л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 5л</t>
-  </si>
-  <si>
-    <t>BonAqua Viva - Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Вива - Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Viva - Lime - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Вива - Лайм - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 0.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Carb - 1L</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 1.5L</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 1.5л</t>
-  </si>
-  <si>
-    <t>BonAqua Viva - Apple - 0.5L</t>
-  </si>
-  <si>
-    <t>БонАква Вива - Яблоко - 0.5л</t>
-  </si>
-  <si>
-    <t>Energy Availability</t>
-  </si>
-  <si>
-    <t>Представленность Энергетиков</t>
-  </si>
-  <si>
-    <t>60
+    <t xml:space="preserve">BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Viva - Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Вива - Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Viva - Lime - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Вива - Лайм - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Carb - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Газ - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Негаз - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Viva - Apple - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БонАква Вива - Яблоко - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Энергетиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60
 61
 62
 63
@@ -803,61 +804,61 @@
 67</t>
   </si>
   <si>
-    <t>Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Apple Kiwi - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Яблоко-Киви - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Original - 0.33L</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.33л</t>
-  </si>
-  <si>
-    <t>Burn Passion Punch - 0.5L</t>
-  </si>
-  <si>
-    <t>Берн Тропический микс - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Rossi - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Росси - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Apple Kiwi - 0.33L</t>
-  </si>
-  <si>
-    <t>Берн Яблоко-Киви - 0.33л</t>
-  </si>
-  <si>
-    <t>Monster Assault - 0.5L</t>
-  </si>
-  <si>
-    <t>Монстер Ассалт - 0.5л</t>
-  </si>
-  <si>
-    <t>Tea Availability</t>
-  </si>
-  <si>
-    <t>Представленность Чая</t>
-  </si>
-  <si>
-    <t>69
+    <t xml:space="preserve">Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Apple Kiwi - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Яблоко-Киви - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Original - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Оригинальный - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Passion Punch - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Тропический микс - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Rossi - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Росси - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Apple Kiwi - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Берн Яблоко-Киви - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Assault - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Ассалт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Чая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69
 70
 71
 72
@@ -874,103 +875,103 @@
 83</t>
   </si>
   <si>
-    <t>Fuze Berry - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 1.5л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 1.5л</t>
-  </si>
-  <si>
-    <t>Fuze Green Citrus - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Цитрус - 1.5л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 1.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 1.5л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Mango-Camomile - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Манго-Ромашка - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 0.5L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 0.5л</t>
-  </si>
-  <si>
-    <t>Fuze Green Strawberry-Raspberry - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Клубника-Малина - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Green Citrus - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Зеленый Цитрус - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Mango-Camomile - 1L</t>
-  </si>
-  <si>
-    <t>Фьюз Манго-Ромашка - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 0.33L</t>
-  </si>
-  <si>
-    <t>Фьюз Лимон - 0.33л</t>
-  </si>
-  <si>
-    <t>Fuze Mango-Camomile - 0.33L</t>
-  </si>
-  <si>
-    <t>Фьюз Манго-Ромашка - 0.33л</t>
-  </si>
-  <si>
-    <t>Juice Availability</t>
-  </si>
-  <si>
-    <t>Представленность Сока</t>
-  </si>
-  <si>
-    <t>85
+    <t xml:space="preserve">Fuze Berry - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Citrus - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Цитрус - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Mango-Camomile - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Клубника-Малина - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Green Citrus - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Зеленый Цитрус - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Mango-Camomile - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Манго-Ромашка - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Лимон - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Mango-Camomile - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фьюз Манго-Ромашка - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Сока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85
 86
 87
 88
@@ -1062,1165 +1063,1165 @@
 174</t>
   </si>
   <si>
-    <t>Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Cloudy - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Деревенские яблочки - 2л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Mango-Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Манго-Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Томат - 1л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Pulpy - Orange - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Апельсин - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Cloudy - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Деревенские яблочки - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Berry Fruit - 2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Фруктово-Ягодный - 2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Multifruit - 2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Мультифрут - 2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple - 2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко - 2л</t>
-  </si>
-  <si>
-    <t>Pulpy - Tropical - 0.9L</t>
-  </si>
-  <si>
-    <t>Палпи - Тропик - 0.9л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pomegranate-Grape - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Гранат-Виноград - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pear - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Груша - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Vegetable Mix - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Овощной микс - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Grape - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Виноград - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Blackashberry Raspberry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Малина - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Blackashberry Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Bodriy Citrus - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Бодрый Цитрус - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pineapple - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Ананас - 1л</t>
-  </si>
-  <si>
-    <t>Pulpy - Mango Pineapple - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Манго Ананас - 0.45л</t>
-  </si>
-  <si>
-    <t>Pulpy - Grapefruit - 0.9L</t>
-  </si>
-  <si>
-    <t>Палпи - Грейпфрут - 0.9л</t>
-  </si>
-  <si>
-    <t>Dobriy - Plum-Currant-Apple-Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Слива-Смородина-Яблоко-Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Berry-Honey - 1L</t>
-  </si>
-  <si>
-    <t>Добрый Уголки - Медовые ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Pulpy - Tropical - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Тропик - 0.45л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Rich - Peach - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Персик - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Pomegranate - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Гранат - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Grapefruit - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Грейпфрут - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 0.9L NFC</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин NFC - 0.9л</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 0.9L NFC</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко NFC - 0.9л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Blackashberry Cherry - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Вишня - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple Blackashberry Raspberry - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Малина - 2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Citrus Mix - 2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Цитрус микс - 2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple-Peach-Apricot - 2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко-Персик-Абрикос - 2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple Blackashberry Cherry - 2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко-Вишня - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Mors Cranberry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Морс Клюква - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Mors Cloudberry-Cowberry - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Морс Брусника-Морошка - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.33л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.33л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple-Pear - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Груша - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple-Cherry - 0.2L</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Вишня - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Bodriy Citrus - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Бодрый Цитрус - 2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Berry Fruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Фруктово-Ягодный - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pineapple - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Ананас - 2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apricot - 2L</t>
-  </si>
-  <si>
-    <t>Добрый - Абрикос - 2л</t>
-  </si>
-  <si>
-    <t>Rich - Multifruit - 0.9L NFC</t>
-  </si>
-  <si>
-    <t>Рич - Мультифрут NFC - 0.9л</t>
-  </si>
-  <si>
-    <t>Rich - Pineapple - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Ананас - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Ruby Orange - 1L</t>
-  </si>
-  <si>
-    <t>Рич - Рубиновый Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Tomato - 2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Томат - 2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Citrus Mix - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Цитрус микс - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apricot - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Абрикос - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie1 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 1 - 0.11л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie2 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 2 - 0.11л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Multifruit - 0.2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Мультифрут - 0.2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple-Peach-Apricot - 0.2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко-Персик-Абрикос - 0.2л</t>
-  </si>
-  <si>
-    <t>Pulpy - Grapefruit - 0.45L</t>
-  </si>
-  <si>
-    <t>Палпи - Грейпфрут - 0.45л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple Blackashberry Cherry - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко-Вишня - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Tomato - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Томат - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Bodriy Mix - 1L</t>
-  </si>
-  <si>
-    <t>Добрый - Бодрый Микс - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya Compot - Cherry - 0.9L</t>
-  </si>
-  <si>
-    <t>Моя Семья Компот - Вишня - 0.9л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple - 0.2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Berry Fruit - 0.2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Фруктово-Ягодный - 0.2л</t>
-  </si>
-  <si>
-    <t>Dobriy - Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Dobriy - Peach-Apple - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Персик-Яблоко - 0.33л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 0.3L PET</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t>Rich - Apple - 0.3L PET</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t>Rich - Cherry - 0.3L PET</t>
-  </si>
-  <si>
-    <t>Рич - Вишня PET - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple-Peach-Apricot - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко-Персик-Абрикос - 1л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple-Grape - 1L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко-Виноград - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Tomato - 0.33L</t>
-  </si>
-  <si>
-    <t>Добрый - Томат - 0.33л</t>
-  </si>
-  <si>
-    <t>Dobriy - Pouch smoothie3 - 0.11L</t>
-  </si>
-  <si>
-    <t>Добрый - Смузи 3 - 0.11л</t>
-  </si>
-  <si>
-    <t>Moya Semya - Apple Blackashberry Cherry - 0.2L</t>
-  </si>
-  <si>
-    <t>Моя Семья - Яблоко-Вишня - 0.2л</t>
-  </si>
-  <si>
-    <t>Rich - Peach - 0.3L PET</t>
-  </si>
-  <si>
-    <t>Рич - Персик - 0.3л ПЭТ</t>
-  </si>
-  <si>
-    <t>STANDARD 19</t>
-  </si>
-  <si>
-    <t>SSD Display 1st</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed on the same scene</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
-    <t>SSD Displays</t>
-  </si>
-  <si>
-    <t>176
+    <t xml:space="preserve">Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Cloudy - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Деревенские яблочки - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Mango-Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Манго-Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Orange - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Апельсин - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Cloudy - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Деревенские яблочки - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Berry Fruit - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Multifruit - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Мультифрут - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Tropical - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Тропик - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pomegranate-Grape - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Гранат-Виноград - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pear - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Груша - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Vegetable Mix - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Овощной микс - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Grape - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Виноград - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Blackashberry Raspberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Малина - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Blackashberry Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Bodriy Citrus - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Бодрый Цитрус - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pineapple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Ананас - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Mango Pineapple - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Манго Ананас - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Grapefruit - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Грейпфрут - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Plum-Currant-Apple-Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Слива-Смородина-Яблоко-Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Berry-Honey - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый Уголки - Медовые ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Tropical - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Тропик - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Peach - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Персик - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Pomegranate - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Гранат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Grapefruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Грейпфрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 0.9L NFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин NFC - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 0.9L NFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко NFC - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Blackashberry Cherry - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Вишня - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple Blackashberry Raspberry - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Малина - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Citrus Mix - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Цитрус микс - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple-Peach-Apricot - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко-Персик-Абрикос - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple Blackashberry Cherry - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко-Вишня - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Mors Cranberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Морс Клюква - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Mors Cloudberry-Cowberry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Морс Брусника-Морошка - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Мультифрут - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple-Pear - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Груша - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple-Cherry - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Яблоко-Вишня - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Bodriy Citrus - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Бодрый Цитрус - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Berry Fruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pineapple - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Ананас - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apricot - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Абрикос - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Multifruit - 0.9L NFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Мультифрут NFC - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Pineapple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Ананас - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Ruby Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Рубиновый Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Tomato - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Томат - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Citrus Mix - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Цитрус микс - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apricot - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Абрикос - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie1 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 1 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie2 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 2 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Multifruit - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Мультифрут - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple-Peach-Apricot - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко-Персик-Абрикос - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulpy - Grapefruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Грейпфрут - 0.45л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple Blackashberry Cherry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко-Вишня - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Tomato - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Томат - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Bodriy Mix - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Бодрый Микс - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya Compot - Cherry - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья Компот - Вишня - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Berry Fruit - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Фруктово-Ягодный - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Peach-Apple - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Персик-Яблоко - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 0.3L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Апельсин PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Apple - 0.3L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Яблоко PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Cherry - 0.3L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Вишня PET - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple-Peach-Apricot - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко-Персик-Абрикос - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple-Grape - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко-Виноград - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Tomato - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Томат - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Pouch smoothie3 - 0.11L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый - Смузи 3 - 0.11л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moya Semya - Apple Blackashberry Cherry - 0.2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Моя Семья - Яблоко-Вишня - 0.2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Peach - 0.3L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рич - Персик - 0.3л ПЭТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed on the same scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176
 177
 178</t>
   </si>
   <si>
-    <t>SSD Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>Manufacturer: TCCC</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>MAN in CAT</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>number of scenes</t>
-  </si>
-  <si>
-    <t>SCENES</t>
-  </si>
-  <si>
-    <t>1/3 of the Store</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Lead SKU Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Основной СКЮ Кока-Кола 2</t>
-  </si>
-  <si>
-    <t>Lead SKU</t>
-  </si>
-  <si>
-    <t>Coca-Cola 2L share on Display</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 1st</t>
-  </si>
-  <si>
-    <t>180
+    <t xml:space="preserve">SSD Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN in CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of scenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Lead SKU Coca-Cola - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Основной СКЮ Кока-Кола 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola 2L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180
 181
 182</t>
   </si>
   <si>
-    <t>Displays Merch. Standards</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Coca-Cola - 2L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Кока-Кола - 2л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Sprite - 2L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Спрайт - 2л</t>
-  </si>
-  <si>
-    <t>SSD Display 1st: Fanta Orange - 2L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 1-й: Фанта Апельсин - 2л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й</t>
-  </si>
-  <si>
-    <t>Juice Displays</t>
-  </si>
-  <si>
-    <t>184
+    <t xml:space="preserve">Displays Merch. Standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Coca-Cola - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Кока-Кола - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Sprite - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Спрайт - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 1st: Fanta Orange - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 1-й: Фанта Апельсин - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184
 185
 186</t>
   </si>
   <si>
-    <t>Juice Display 1st: Facings</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>Juices</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Zone</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Зона</t>
-  </si>
-  <si>
-    <t>Produce</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>number of sub atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>187
+    <t xml:space="preserve">Juice Display 1st: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead SKU Dobriy - Apple/Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной СКЮ Добрый Яблоко/Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of sub atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187
 188</t>
   </si>
   <si>
-    <t>Juice Display 1st: Lead Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Apple - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Dobriy - Multifruit - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Merch. Standard</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed Juice Display 1st</t>
-  </si>
-  <si>
-    <t>190
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Apple - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Lead Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Основной Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy - Multifruit - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed Juice Display 1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190
 191
 192
 193</t>
   </si>
   <si>
-    <t>Juice Display 1st: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й</t>
-  </si>
-  <si>
-    <t>195
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 1st: Dobriy - Peach-Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 1-й: Добрый - Персик-Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195
 196
 197</t>
   </si>
   <si>
-    <t>SSD Display 2d: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Зона</t>
-  </si>
-  <si>
-    <t>Deli</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Lead SKU Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>Coca-Cola 1.5L share on Display</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Merch. Standard</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Мерч. Стандарт</t>
-  </si>
-  <si>
-    <t>Checked only for scene that passed SSD Display 2d</t>
-  </si>
-  <si>
-    <t>199
+    <t xml:space="preserve">SSD Display 2d: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Lead SKU Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola 1.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Merch. Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Мерч. Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked only for scene that passed SSD Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199
 200</t>
   </si>
   <si>
-    <t>SSD Display 2d: Coca-Cola - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола - 1.5л</t>
-  </si>
-  <si>
-    <t>SSD Display 2d: Coca-Cola Zero - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 2-й: Кока-Кола Зеро - 1.5л</t>
-  </si>
-  <si>
-    <t>Tea Display</t>
-  </si>
-  <si>
-    <t>Чай Дисплей</t>
-  </si>
-  <si>
-    <t>Tea Displays</t>
-  </si>
-  <si>
-    <t>202
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 2d: Coca-Cola Zero - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 2-й: Кока-Кола Зеро - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202
 203
 204</t>
   </si>
   <si>
-    <t>Tea Display: Facings</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>ice tea</t>
-  </si>
-  <si>
-    <t>Tea Display: Zone</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Confectionary/Biscuits section</t>
-  </si>
-  <si>
-    <t>Tea Display: Lead SKU Fuze Berry/Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной СКЮ Фьюз Лесн.ягоды/Лимон - 1л</t>
-  </si>
-  <si>
-    <t>205
+    <t xml:space="preserve">Tea Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confectionary/Biscuits section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Lead SKU Fuze Berry/Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной СКЮ Фьюз Лесн.ягоды/Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205
 206</t>
   </si>
   <si>
-    <t>Tea Display: Lead Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Berry - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Tea Display: Lead Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Чай Дисплей: Основной Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Fuze Lemon - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Water Display</t>
-  </si>
-  <si>
-    <t>Вода Дисплей</t>
-  </si>
-  <si>
-    <t>Water Displays</t>
-  </si>
-  <si>
-    <t>208
+    <t xml:space="preserve">Tea Display: Lead Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Berry - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Display: Lead Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чай Дисплей: Основной Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Lemon - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208
 209
 210</t>
   </si>
   <si>
-    <t>Water Display: Facings</t>
-  </si>
-  <si>
-    <t>Вода Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Water Display: Zone</t>
-  </si>
-  <si>
-    <t>Вода Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Entrance of Water Section</t>
-  </si>
-  <si>
-    <t>Water Display: Lead SKU BonAqua Still - 2L</t>
-  </si>
-  <si>
-    <t>Вода Дисплей: Основной СКЮ БонАква Негаз - 2л</t>
-  </si>
-  <si>
-    <t>BonAqua Still - 2L share on Display</t>
-  </si>
-  <si>
-    <t>SSD Display 3d</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й</t>
-  </si>
-  <si>
-    <t>212
+    <t xml:space="preserve">Water Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrance of Water Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Display: Lead SKU BonAqua Still - 2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода Дисплей: Основной СКЮ БонАква Негаз - 2л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 2L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212
 213
 214</t>
   </si>
   <si>
-    <t>SSD Display 3d: Facings</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>SSD Display 3d: Zone</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й: Зона</t>
-  </si>
-  <si>
-    <t>Entrance of SSD Section</t>
-  </si>
-  <si>
-    <t>SSD Display 3d: Lead SKU Fanta Orange - 1.5L</t>
-  </si>
-  <si>
-    <t>SSD Дисплей 3-й: Основной СКЮ Фанта Апельсин - 1.5л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 1.5L share on Display</t>
-  </si>
-  <si>
-    <t>Energy Display</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей</t>
-  </si>
-  <si>
-    <t>Energy Displays</t>
-  </si>
-  <si>
-    <t>216
+    <t xml:space="preserve">SSD Display 3d: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 3d: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrance of SSD Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Display 3d: Lead SKU Fanta Orange - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Дисплей 3-й: Основной СКЮ Фанта Апельсин - 1.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 1.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216
 217
 218</t>
   </si>
   <si>
-    <t>Energy Display: Facings</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Energy Display: Zone</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Beer Section</t>
-  </si>
-  <si>
-    <t>Energy Display: Lead SKU Burn Original/Monster Green 0.5L</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Основной СКЮ Берн Оригинальный - 0.5л/Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>219
+    <t xml:space="preserve">Energy Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beer Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display: Lead SKU Burn Original/Monster Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Основной СКЮ Берн Оригинальный - 0.5л/Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219
 220</t>
   </si>
   <si>
-    <t>Energy Display: Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Burn Original - 0.5L share on Display</t>
-  </si>
-  <si>
-    <t>Energy Display: Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Энергетики Дисплей: Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Monster Green - 0.5L share on Display</t>
-  </si>
-  <si>
-    <t>Juice Display 2d</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 2-й</t>
-  </si>
-  <si>
-    <t>222
+    <t xml:space="preserve">Energy Display: Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn Original - 0.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Display: Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики Дисплей: Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster Green - 0.5L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 2-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222
 223
 224</t>
   </si>
   <si>
-    <t>Juice Display 2d: Facings</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 2-й: Фейсинги</t>
-  </si>
-  <si>
-    <t>Juice Display 2d: Zone</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 2-й: Зона</t>
-  </si>
-  <si>
-    <t>Meat/Poultry/Seafood</t>
-  </si>
-  <si>
-    <t>Juice Display 2d: Lead SKU Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок Дисплей 2-й: Основной СКЮ Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Mixability Display</t>
-  </si>
-  <si>
-    <t>Миксабилити Дисплей</t>
-  </si>
-  <si>
-    <t>Other TCCC Displays</t>
-  </si>
-  <si>
-    <t>Company Display Mixability</t>
-  </si>
-  <si>
-    <t>226
+    <t xml:space="preserve">Juice Display 2d: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 2-й: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 2d: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 2-й: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meat/Poultry/Seafood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Display 2d: Lead SKU Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок Дисплей 2-й: Основной СКЮ Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixability Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миксабилити Дисплей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other TCCC Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company Display Mixability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226
 227
 228</t>
   </si>
   <si>
-    <t>Mixability Display: Facings</t>
-  </si>
-  <si>
-    <t>Миксабилити Дисплей: Фейсинги</t>
-  </si>
-  <si>
-    <t>Manufacturer: TCCC, CAMPARI</t>
-  </si>
-  <si>
-    <t>TCCC, CAMPARI</t>
-  </si>
-  <si>
-    <t>MAN</t>
-  </si>
-  <si>
-    <t>Mixability Display: Zone</t>
-  </si>
-  <si>
-    <t>Миксабилити Дисплей: Зона</t>
-  </si>
-  <si>
-    <t>Alcohol Section</t>
-  </si>
-  <si>
-    <t>Mixability Display: Lead SKU</t>
-  </si>
-  <si>
-    <t>Миксабилити Дисплей: Основной СКЮ</t>
-  </si>
-  <si>
-    <t>229
+    <t xml:space="preserve">Mixability Display: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миксабилити Дисплей: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: TCCC, CAMPARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC, CAMPARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixability Display: Zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миксабилити Дисплей: Зона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcohol Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixability Display: Lead SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миксабилити Дисплей: Основной СКЮ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229
 230
 231
 232</t>
   </si>
   <si>
-    <t>Mixability Display: Lead Coca-Cola - 0.9L</t>
-  </si>
-  <si>
-    <t>Миксабилити Дисплей: Основной Кока-Кола - 0.9л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L share on Display</t>
-  </si>
-  <si>
-    <t>Mixability Display: Lead Coca-Cola - 4 x 0.33L</t>
-  </si>
-  <si>
-    <t>Миксабилити Дисплей: Основной Кока-Кола - 4 x 0.33л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 4 x 0.33L share on Display</t>
-  </si>
-  <si>
-    <t>Mixability Display: Lead Schweppes Tonic - 1L</t>
-  </si>
-  <si>
-    <t>Миксабилити Дисплей: Основной Швеппс Тоник - 1л</t>
-  </si>
-  <si>
-    <t>Schweppes Tonic - 1L share on Display</t>
-  </si>
-  <si>
-    <t>Mixability Display: Lead Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Миксабилити Дисплей: Основной Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Rich - Orange - 1L share on Display</t>
-  </si>
-  <si>
-    <t>STANDARD 20</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>SSD полка: Доля полки</t>
-  </si>
-  <si>
-    <t>SOS</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>Warm Shelf</t>
-  </si>
-  <si>
-    <t>PROPORTIONAL</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>SSD полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>number of atomic KPI Passed</t>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>235
+    <t xml:space="preserve">Mixability Display: Lead Coca-Cola - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миксабилити Дисплей: Основной Кока-Кола - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixability Display: Lead Coca-Cola - 4 x 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миксабилити Дисплей: Основной Кока-Кола - 4 x 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 4 x 0.33L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixability Display: Lead Schweppes Tonic - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миксабилити Дисплей: Основной Швеппс Тоник - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes Tonic - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixability Display: Lead Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Миксабилити Дисплей: Основной Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich - Orange - 1L share on Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of atomic KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235
 236
 237
 238
@@ -2229,307 +2230,310 @@
 241</t>
   </si>
   <si>
-    <t>Shelf: SKU on Eye level</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Coca-Cola - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Кока-Кола - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Coca-Cola - 0.9L, Coca-Cola - 1L</t>
-  </si>
-  <si>
-    <t>5449000228970, 5449000054227</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Sprite - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Спрайт - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Sprite - 0.9L, Sprite - 1L</t>
-  </si>
-  <si>
-    <t>5449000228956, 5449000050939</t>
-  </si>
-  <si>
-    <t>SSD Shelf: Fanta Orange - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>SSD полка: Фанта Апельсин - 0.9/1л</t>
-  </si>
-  <si>
-    <t>Fanta Orange - 0.9L, Fanta Orange - 1L</t>
-  </si>
-  <si>
-    <t>5449000228963, 5449000006271</t>
-  </si>
-  <si>
-    <t>STANDARD 21</t>
-  </si>
-  <si>
-    <t>Water Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Вода полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Water Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Вода полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>Water Shelf: BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>Вода полка: БонАква Негаз - 1л</t>
-  </si>
-  <si>
-    <t>BonAqua Still 1L</t>
-  </si>
-  <si>
-    <t>STANDARD 23</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Сок полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Сок полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>247
+    <t xml:space="preserve">Shelf: SKU on Eye level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Coca-Cola - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Кока-Кола - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola - 0.9L, Coca-Cola - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228970, 5449000054227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Sprite - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Спрайт - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite - 0.9L, Sprite - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228956, 5449000050939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD Shelf: Fanta Orange - 0.9L/1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD полка: Фанта Апельсин - 0.9/1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange - 0.9L, Fanta Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000228963, 5449000006271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Shelf: BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вода полка: БонАква Негаз - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247
 248
 249
 250
 251</t>
   </si>
   <si>
-    <t>Juice Shelf: Dobriy - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Multifruit - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Мультифрут - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Dobriy - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Добрый - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Rich - Orange - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Рич - Апельсин - 1л</t>
-  </si>
-  <si>
-    <t>Juice Shelf: Rich - Apple - 1L</t>
-  </si>
-  <si>
-    <t>Сок полка: Рич - Яблоко - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 24</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Top Shelf</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t>254
+    <t xml:space="preserve">Juice Shelf: Dobriy - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Multifruit - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Мультифрут - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Dobriy - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Добрый - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Rich - Orange - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Рич - Апельсин - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juice Shelf: Rich - Apple - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сок полка: Рич - Яблоко - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Золотая Полка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">254
 255</t>
   </si>
   <si>
-    <t>Ice Tea Shelf: Fuze Lemon - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лимон - 1л</t>
-  </si>
-  <si>
-    <t>Ice Tea Shelf: Fuze Berry - 1L</t>
-  </si>
-  <si>
-    <t>Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
-  </si>
-  <si>
-    <t>STANDARD 25</t>
-  </si>
-  <si>
-    <t>Energy Shelf: Shelf share</t>
-  </si>
-  <si>
-    <t>Энергетики полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Spirits Availability</t>
-  </si>
-  <si>
-    <t>Представленность Алкоголя</t>
-  </si>
-  <si>
-    <t>Weighted Average</t>
-  </si>
-  <si>
-    <t>258
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Lemon - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лимон - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Berry - 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодный Чай полка: Фьюз Лесн.ягоды - 1л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Shelf: Shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энергетики полка: Доля полки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность Алкоголя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">258
 259
 260
 261</t>
   </si>
   <si>
-    <t>Red Hackle - 0.7L</t>
-  </si>
-  <si>
-    <t>Рэд Хакл - 0.7л</t>
-  </si>
-  <si>
-    <t>Wild Turkey 81 - 0.7L</t>
-  </si>
-  <si>
-    <t>Уайлд Тёки 81 - 0.7л</t>
-  </si>
-  <si>
-    <t>New Alco Brand</t>
-  </si>
-  <si>
-    <t>not defined</t>
-  </si>
-  <si>
-    <t>New Alco Brand 1</t>
-  </si>
-  <si>
-    <t>STANDARD 22</t>
-  </si>
-  <si>
-    <t>Cooler: Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей</t>
-  </si>
-  <si>
-    <t>sum of atomic KPI result</t>
-  </si>
-  <si>
-    <t>Plus</t>
-  </si>
-  <si>
-    <t>Store Master Data attr15</t>
-  </si>
-  <si>
-    <t>263
+    <t xml:space="preserve">Red Hackle - 0.7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рэд Хакл - 0.7л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Turkey 81 - 0.7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уайлд Тёки 81 - 0.7л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Alco Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not defined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Alco Brand 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of atomic KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store Master Data attr15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">263
 264</t>
   </si>
   <si>
-    <t>Cooler: CCH Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Компании</t>
-  </si>
-  <si>
-    <t>number of coolers with facings target and fullness target</t>
-  </si>
-  <si>
-    <t>TCCC</t>
-  </si>
-  <si>
-    <t>Cooler</t>
-  </si>
-  <si>
-    <t>Cooler: Customer Cooler Doors</t>
-  </si>
-  <si>
-    <t>Холодильники: Количество Дверей Холодильников Клиента</t>
-  </si>
-  <si>
-    <t>facings TCCC/40</t>
-  </si>
-  <si>
-    <t>Other Coolers, Cold Shelf</t>
-  </si>
-  <si>
-    <t>Cooler: Prime Position</t>
-  </si>
-  <si>
-    <t>Холодильники: Лучшее место</t>
-  </si>
-  <si>
-    <t>NUM_SCENES</t>
-  </si>
-  <si>
-    <t>1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
-  </si>
-  <si>
-    <t>Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
-  </si>
-  <si>
-    <t>CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
-  </si>
-  <si>
-    <t>Cooler: Max 23</t>
-  </si>
-  <si>
-    <t>Холодильники: Максимум 23 СКЮ на дверь</t>
-  </si>
-  <si>
-    <t>number of SKU per Door RANGE</t>
-  </si>
-  <si>
-    <t>Cooler: Merch Priorty STD</t>
-  </si>
-  <si>
-    <t>Холодильники: Мерч. Стандарты</t>
-  </si>
-  <si>
-    <t>268
+    <t xml:space="preserve">Cooler: CCH Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Компании</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of coolers with facings target and fullness target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Customer Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Количество Дверей Холодильников Клиента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facings TCCC/40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Prime Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Лучшее место</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM_SCENES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/3 of the Store, Beverage Section, Regular checkouts, Bakery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCH coolers quality (Prime Pos, Max15, Merch STD, Occupancy, Lights&amp;clean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Max 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Максимум 23 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of SKU per Door RANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Merch Priorty STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">268
 269
 270
 271
@@ -2547,341 +2551,341 @@
 283</t>
   </si>
   <si>
-    <t>Cooler: BonAqua Still - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Burn Original - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Берн Оригинальный - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Coca-Cola Zero - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Кока-Кола Зеро - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Fanta Orange - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фанта Апельсин - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Зеленый - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Green 0.5L</t>
-  </si>
-  <si>
-    <t>5449000233615, 5449000189370</t>
-  </si>
-  <si>
-    <t>Cooler: ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Фьюз Черный - 0.5л любой</t>
-  </si>
-  <si>
-    <t>ANY Fuze Black 0.5L</t>
-  </si>
-  <si>
-    <t>5449000189301, 5449000189332, 5449000193124</t>
-  </si>
-  <si>
-    <t>Cooler: Monster Green - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Монстер Грин - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.33L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.33л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.5L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.5л</t>
-  </si>
-  <si>
-    <t>Cooler: Sprite - 0.9L</t>
-  </si>
-  <si>
-    <t>Холодильники: Спрайт - 0.9л</t>
-  </si>
-  <si>
-    <t>Cooler:  w/o other products</t>
-  </si>
-  <si>
-    <t>Холодильники: Без чужой продукции</t>
-  </si>
-  <si>
-    <t>Share of CCH doors which have 98% TCCC facings</t>
-  </si>
-  <si>
-    <t>Spirits Shelf: RED Hackle facings</t>
-  </si>
-  <si>
-    <t>Полка алкоголя: Фейсинги RED Hackle</t>
-  </si>
-  <si>
-    <t>RED HACKLE</t>
-  </si>
-  <si>
-    <t>BRAND</t>
-  </si>
-  <si>
-    <t>Warm Shelf, Alco</t>
-  </si>
-  <si>
-    <t>Display Alcohol, Other alcohol location</t>
-  </si>
-  <si>
-    <t>Spirits shelf share</t>
-  </si>
-  <si>
-    <t>Spirits Shelf: Wild Turkey facings</t>
-  </si>
-  <si>
-    <t>Полка алкоголя: Фейсинги Wild Turkey</t>
-  </si>
-  <si>
-    <t>Wild Turkey</t>
-  </si>
-  <si>
-    <t>RGM Activations</t>
-  </si>
-  <si>
-    <t>RGM Активации</t>
-  </si>
-  <si>
-    <t>288
+    <t xml:space="preserve">Cooler: BonAqua Still - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Burn Original - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Берн Оригинальный - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Coca-Cola Zero - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Кока-Кола Зеро - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Fanta Orange - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фанта Апельсин - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Зеленый - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Green 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000233615, 5449000189370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Фьюз Черный - 0.5л любой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY Fuze Black 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000189301, 5449000189332, 5449000193124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Monster Green - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Монстер Грин - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.33л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler: Sprite - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Спрайт - 0.9л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooler:  w/o other products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Без чужой продукции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of CCH doors which have 98% TCCC facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits Shelf: RED Hackle facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полка алкоголя: Фейсинги RED Hackle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED HACKLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warm Shelf, Alco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Alcohol, Other alcohol location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits shelf share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spirits Shelf: Wild Turkey facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полка алкоголя: Фейсинги Wild Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">288
 289
 290
 291
 292</t>
   </si>
   <si>
-    <t>RGM Activations SAP</t>
-  </si>
-  <si>
-    <t>RGM Activations: SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: SSD с едой</t>
-  </si>
-  <si>
-    <t>SSD with Meal</t>
-  </si>
-  <si>
-    <t>RGM Activations: Juice &amp; Meal</t>
-  </si>
-  <si>
-    <t>RGM Активации: Сок с едой</t>
-  </si>
-  <si>
-    <t>Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
-  </si>
-  <si>
-    <t>RGM Activations: On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Активации: На ходу</t>
-  </si>
-  <si>
-    <t>On-the-go</t>
-  </si>
-  <si>
-    <t>RGM Activations: Screen time</t>
-  </si>
-  <si>
-    <t>RGM Активации: У Экрана</t>
-  </si>
-  <si>
-    <t>Screen time</t>
-  </si>
-  <si>
-    <t>RGM Activations: Premium Spirits displays</t>
-  </si>
-  <si>
-    <t>RGM Активации: Дисплеи алкоголя</t>
-  </si>
-  <si>
-    <t>Manufacturer: BF, CAMPARI</t>
-  </si>
-  <si>
-    <t>Display Alcohol</t>
-  </si>
-  <si>
-    <t>Promo Displays</t>
-  </si>
-  <si>
-    <t>Промо дисплеи</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>Promo displays SAP</t>
-  </si>
-  <si>
-    <t>Promo Displays: Facings</t>
-  </si>
-  <si>
-    <t>Промо дисплеи: Фейсинги</t>
-  </si>
-  <si>
-    <t>check_number_of_scenes_with_facings_target</t>
-  </si>
-  <si>
-    <t>COUNT</t>
-  </si>
-  <si>
-    <t>number of scenes with have at least target amount of facings</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>LOCAL 2</t>
-  </si>
-  <si>
-    <t>number of KPI Passed</t>
-  </si>
-  <si>
-    <t>Session level</t>
-  </si>
-  <si>
-    <t>LOCAL 4</t>
-  </si>
-  <si>
-    <t>sum of KPI result</t>
-  </si>
-  <si>
-    <t>LOCAL 6</t>
-  </si>
-  <si>
-    <t>KPI result</t>
-  </si>
-  <si>
-    <t>STANDARD 18</t>
-  </si>
-  <si>
-    <t>LOCAL 5</t>
-  </si>
-  <si>
-    <t>LOCAL 7</t>
-  </si>
-  <si>
-    <t>Scene Sub Type 2</t>
-  </si>
-  <si>
-    <t>Number of Cooler Doors</t>
-  </si>
-  <si>
-    <t>Number of doors according to guide for all Coolers</t>
-  </si>
-  <si>
-    <t>Scene level</t>
-  </si>
-  <si>
-    <t>Attribute 1</t>
-  </si>
-  <si>
-    <t>POP Activated</t>
-  </si>
-  <si>
-    <t>Y for all Displays</t>
-  </si>
-  <si>
-    <t>Attribute 2</t>
-  </si>
-  <si>
-    <t>Experiantial Activation</t>
-  </si>
-  <si>
-    <t>N for all Displays</t>
-  </si>
-  <si>
-    <t>Scene Sub Type 1</t>
-  </si>
-  <si>
-    <t>Coolers and Displays Zones</t>
-  </si>
-  <si>
-    <t>Scene attribute for all Cooler and Displays</t>
-  </si>
-  <si>
-    <t>Attribute 3</t>
-  </si>
-  <si>
-    <t>Displays Priority Occasion</t>
-  </si>
-  <si>
-    <t>No_O_A</t>
-  </si>
-  <si>
-    <t>MealsAtHo</t>
-  </si>
-  <si>
-    <t>MeTimeAtH</t>
-  </si>
-  <si>
-    <t>Scene</t>
-  </si>
-  <si>
-    <t>KPI Score Formula</t>
-  </si>
-  <si>
-    <t>KPI weighted Score</t>
-  </si>
-  <si>
-    <t>Will be added on the 16th of December</t>
+    <t xml:space="preserve">RGM Activations SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: SSD с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD with Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Juice &amp; Meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: Сок с едой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy 0.2L near infant Food, Pulpy 0.45L near Milk, Dobriy 0.33L in Bakery, Rich 1L near Cakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: На ходу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-the-go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: У Экрана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Activations: Premium Spirits displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGM Активации: Дисплеи алкоголя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer: BF, CAMPARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Alcohol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo displays SAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo Displays: Facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промо дисплеи: Фейсинги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check_number_of_scenes_with_facings_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of scenes with have at least target amount of facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of KPI Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum of KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCAL 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Cooler Doors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of doors according to guide for all Coolers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP Activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y for all Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiantial Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N for all Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Sub Type 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coolers and Displays Zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene attribute for all Cooler and Displays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays Priority Occasion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MealsAtHo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MeTimeAtH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Score Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI weighted Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will be added on the 16th of December</t>
   </si>
 </sst>
 </file>
@@ -2889,7 +2893,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -3136,7 +3140,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3405,6 +3409,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3581,33 +3597,33 @@
   </sheetPr>
   <dimension ref="A1:AP314"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="Z293" activeCellId="0" sqref="Z293"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="AD268" activeCellId="0" sqref="AD268:AG268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.2753036437247"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.0323886639676"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="29" min="19" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="39" min="31" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="42" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3238866396761"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7287449392713"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.0364372469636"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="47.3765182186235"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3036437246964"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="29" min="19" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="39" min="31" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="8.69230769230769"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="1025" min="42" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26359,7 +26375,7 @@
       </c>
       <c r="AP267" s="10"/>
     </row>
-    <row r="268" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="224.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="12" t="n">
         <v>267</v>
       </c>
@@ -26413,14 +26429,18 @@
       <c r="AC268" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AD268" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE268" s="20" t="n">
+      <c r="AD268" s="67" t="s">
+        <v>702</v>
+      </c>
+      <c r="AE268" s="68" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AF268" s="14"/>
-      <c r="AG268" s="14"/>
+      <c r="AF268" s="69" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AG268" s="36" t="n">
+        <v>1</v>
+      </c>
       <c r="AH268" s="65" t="s">
         <v>695</v>
       </c>
@@ -26436,7 +26456,7 @@
         <v>267</v>
       </c>
       <c r="AN268" s="33" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AO268" s="66" t="s">
         <v>696</v>
@@ -26460,10 +26480,10 @@
         <v>430</v>
       </c>
       <c r="F269" s="14" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G269" s="32" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H269" s="14" t="s">
         <v>53</v>
@@ -26548,10 +26568,10 @@
         <v>430</v>
       </c>
       <c r="F270" s="14" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G270" s="32" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H270" s="14" t="s">
         <v>53</v>
@@ -26636,10 +26656,10 @@
         <v>430</v>
       </c>
       <c r="F271" s="14" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G271" s="32" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H271" s="14" t="s">
         <v>53</v>
@@ -26724,10 +26744,10 @@
         <v>430</v>
       </c>
       <c r="F272" s="14" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G272" s="32" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H272" s="14" t="s">
         <v>53</v>
@@ -26812,10 +26832,10 @@
         <v>430</v>
       </c>
       <c r="F273" s="14" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G273" s="32" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H273" s="14" t="s">
         <v>53</v>
@@ -26900,10 +26920,10 @@
         <v>430</v>
       </c>
       <c r="F274" s="14" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G274" s="32" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H274" s="14" t="s">
         <v>53</v>
@@ -26988,10 +27008,10 @@
         <v>430</v>
       </c>
       <c r="F275" s="14" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G275" s="32" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H275" s="14" t="s">
         <v>53</v>
@@ -27076,10 +27096,10 @@
         <v>430</v>
       </c>
       <c r="F276" s="14" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G276" s="32" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H276" s="14" t="s">
         <v>53</v>
@@ -27164,10 +27184,10 @@
         <v>430</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G277" s="32" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H277" s="14" t="s">
         <v>53</v>
@@ -27252,10 +27272,10 @@
         <v>430</v>
       </c>
       <c r="F278" s="14" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G278" s="32" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H278" s="14" t="s">
         <v>53</v>
@@ -27340,10 +27360,10 @@
         <v>430</v>
       </c>
       <c r="F279" s="14" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G279" s="32" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H279" s="14" t="s">
         <v>53</v>
@@ -27354,10 +27374,10 @@
       <c r="J279" s="14"/>
       <c r="K279" s="14"/>
       <c r="L279" s="10" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M279" s="19" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="N279" s="30"/>
       <c r="O279" s="30"/>
@@ -27428,10 +27448,10 @@
         <v>430</v>
       </c>
       <c r="F280" s="14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G280" s="32" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H280" s="14" t="s">
         <v>53</v>
@@ -27442,10 +27462,10 @@
       <c r="J280" s="14"/>
       <c r="K280" s="14"/>
       <c r="L280" s="10" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M280" s="19" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N280" s="30"/>
       <c r="O280" s="30"/>
@@ -27516,10 +27536,10 @@
         <v>430</v>
       </c>
       <c r="F281" s="14" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G281" s="32" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H281" s="14" t="s">
         <v>53</v>
@@ -27604,10 +27624,10 @@
         <v>430</v>
       </c>
       <c r="F282" s="14" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G282" s="32" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H282" s="14" t="s">
         <v>53</v>
@@ -27692,10 +27712,10 @@
         <v>430</v>
       </c>
       <c r="F283" s="14" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G283" s="32" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H283" s="14" t="s">
         <v>53</v>
@@ -27780,10 +27800,10 @@
         <v>430</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="G284" s="32" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H284" s="14" t="s">
         <v>53</v>
@@ -27868,13 +27888,13 @@
         <v>430</v>
       </c>
       <c r="F285" s="14" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G285" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H285" s="54" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="I285" s="14"/>
       <c r="J285" s="14"/>
@@ -27950,10 +27970,10 @@
         <v>430</v>
       </c>
       <c r="F286" s="14" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G286" s="10" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H286" s="14" t="s">
         <v>53</v>
@@ -27965,29 +27985,29 @@
       <c r="K286" s="14"/>
       <c r="L286" s="41"/>
       <c r="M286" s="41" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N286" s="41"/>
       <c r="O286" s="41"/>
       <c r="P286" s="41" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Q286" s="14" t="s">
         <v>54</v>
       </c>
       <c r="R286" s="4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="S286" s="14"/>
       <c r="T286" s="14"/>
       <c r="U286" s="14"/>
       <c r="V286" s="14"/>
       <c r="W286" s="14" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="X286" s="14"/>
       <c r="Y286" s="14" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="Z286" s="54"/>
       <c r="AA286" s="14"/>
@@ -27998,7 +28018,7 @@
       <c r="AD286" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="AE286" s="67" t="n">
+      <c r="AE286" s="70" t="n">
         <v>0.005</v>
       </c>
       <c r="AF286" s="14"/>
@@ -28014,8 +28034,8 @@
         <v>285</v>
       </c>
       <c r="AN286" s="10"/>
-      <c r="AO286" s="68" t="s">
-        <v>748</v>
+      <c r="AO286" s="71" t="s">
+        <v>749</v>
       </c>
       <c r="AP286" s="10"/>
     </row>
@@ -28029,70 +28049,70 @@
       <c r="C287" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D287" s="69" t="s">
+      <c r="D287" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="E287" s="69" t="s">
+      <c r="E287" s="72" t="s">
         <v>430</v>
       </c>
-      <c r="F287" s="70" t="s">
-        <v>749</v>
+      <c r="F287" s="73" t="s">
+        <v>750</v>
       </c>
       <c r="G287" s="52" t="s">
-        <v>750</v>
-      </c>
-      <c r="H287" s="70" t="s">
+        <v>751</v>
+      </c>
+      <c r="H287" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="I287" s="70" t="n">
+      <c r="I287" s="73" t="n">
         <v>5</v>
       </c>
-      <c r="J287" s="70"/>
-      <c r="K287" s="70"/>
-      <c r="L287" s="70"/>
-      <c r="M287" s="71" t="s">
-        <v>751</v>
-      </c>
-      <c r="N287" s="71"/>
-      <c r="O287" s="71"/>
-      <c r="P287" s="71" t="s">
-        <v>751</v>
-      </c>
-      <c r="Q287" s="70" t="s">
+      <c r="J287" s="73"/>
+      <c r="K287" s="73"/>
+      <c r="L287" s="73"/>
+      <c r="M287" s="74" t="s">
+        <v>752</v>
+      </c>
+      <c r="N287" s="74"/>
+      <c r="O287" s="74"/>
+      <c r="P287" s="74" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q287" s="73" t="s">
         <v>54</v>
       </c>
       <c r="R287" s="4" t="s">
-        <v>745</v>
-      </c>
-      <c r="S287" s="70"/>
-      <c r="T287" s="70"/>
-      <c r="U287" s="70"/>
-      <c r="V287" s="70"/>
+        <v>746</v>
+      </c>
+      <c r="S287" s="73"/>
+      <c r="T287" s="73"/>
+      <c r="U287" s="73"/>
+      <c r="V287" s="73"/>
       <c r="W287" s="14" t="s">
-        <v>746</v>
-      </c>
-      <c r="X287" s="70"/>
+        <v>747</v>
+      </c>
+      <c r="X287" s="73"/>
       <c r="Y287" s="14" t="s">
-        <v>747</v>
-      </c>
-      <c r="Z287" s="72"/>
-      <c r="AA287" s="70"/>
-      <c r="AB287" s="70"/>
+        <v>748</v>
+      </c>
+      <c r="Z287" s="75"/>
+      <c r="AA287" s="73"/>
+      <c r="AB287" s="73"/>
       <c r="AC287" s="52" t="s">
         <v>49</v>
       </c>
       <c r="AD287" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="AE287" s="67" t="n">
+      <c r="AE287" s="70" t="n">
         <v>0.005</v>
       </c>
       <c r="AF287" s="14"/>
       <c r="AG287" s="14"/>
-      <c r="AH287" s="70"/>
-      <c r="AI287" s="70"/>
-      <c r="AJ287" s="70"/>
-      <c r="AK287" s="70"/>
+      <c r="AH287" s="73"/>
+      <c r="AI287" s="73"/>
+      <c r="AJ287" s="73"/>
+      <c r="AK287" s="73"/>
       <c r="AL287" s="52" t="n">
         <v>2</v>
       </c>
@@ -28100,8 +28120,8 @@
         <v>286</v>
       </c>
       <c r="AN287" s="52"/>
-      <c r="AO287" s="68" t="s">
-        <v>748</v>
+      <c r="AO287" s="71" t="s">
+        <v>749</v>
       </c>
       <c r="AP287" s="52"/>
     </row>
@@ -28122,10 +28142,10 @@
         <v>430</v>
       </c>
       <c r="F288" s="14" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G288" s="10" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H288" s="14" t="s">
         <v>602</v>
@@ -28176,10 +28196,10 @@
         <v>287</v>
       </c>
       <c r="AN288" s="33" t="s">
-        <v>754</v>
-      </c>
-      <c r="AO288" s="68" t="s">
         <v>755</v>
+      </c>
+      <c r="AO288" s="71" t="s">
+        <v>756</v>
       </c>
       <c r="AP288" s="10"/>
     </row>
@@ -28200,10 +28220,10 @@
         <v>430</v>
       </c>
       <c r="F289" s="14" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G289" s="10" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H289" s="10" t="s">
         <v>422</v>
@@ -28230,7 +28250,7 @@
       <c r="V289" s="14"/>
       <c r="W289" s="14"/>
       <c r="X289" s="4" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="Y289" s="14"/>
       <c r="Z289" s="14"/>
@@ -28259,7 +28279,7 @@
       </c>
       <c r="AN289" s="14"/>
       <c r="AO289" s="14" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AP289" s="10"/>
     </row>
@@ -28280,10 +28300,10 @@
         <v>430</v>
       </c>
       <c r="F290" s="14" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G290" s="10" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H290" s="10" t="s">
         <v>422</v>
@@ -28310,7 +28330,7 @@
       <c r="V290" s="14"/>
       <c r="W290" s="14"/>
       <c r="X290" s="4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="Y290" s="14"/>
       <c r="Z290" s="14"/>
@@ -28339,7 +28359,7 @@
       </c>
       <c r="AN290" s="14"/>
       <c r="AO290" s="14" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AP290" s="10"/>
     </row>
@@ -28360,10 +28380,10 @@
         <v>430</v>
       </c>
       <c r="F291" s="14" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G291" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H291" s="10" t="s">
         <v>422</v>
@@ -28390,7 +28410,7 @@
       <c r="V291" s="14"/>
       <c r="W291" s="14"/>
       <c r="X291" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="Y291" s="14"/>
       <c r="Z291" s="14"/>
@@ -28419,7 +28439,7 @@
       </c>
       <c r="AN291" s="14"/>
       <c r="AO291" s="14" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AP291" s="10"/>
     </row>
@@ -28440,10 +28460,10 @@
         <v>430</v>
       </c>
       <c r="F292" s="14" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G292" s="10" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H292" s="10" t="s">
         <v>422</v>
@@ -28470,7 +28490,7 @@
       <c r="V292" s="14"/>
       <c r="W292" s="14"/>
       <c r="X292" s="4" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="Y292" s="14"/>
       <c r="Z292" s="14"/>
@@ -28499,7 +28519,7 @@
       </c>
       <c r="AN292" s="14"/>
       <c r="AO292" s="14" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AP292" s="10"/>
     </row>
@@ -28520,10 +28540,10 @@
         <v>430</v>
       </c>
       <c r="F293" s="14" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G293" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H293" s="10" t="s">
         <v>422</v>
@@ -28534,7 +28554,7 @@
       <c r="J293" s="14"/>
       <c r="K293" s="14"/>
       <c r="L293" s="14" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M293" s="41"/>
       <c r="N293" s="41"/>
@@ -28552,7 +28572,7 @@
       <c r="V293" s="14"/>
       <c r="W293" s="14"/>
       <c r="X293" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="Y293" s="14"/>
       <c r="Z293" s="14"/>
@@ -28581,7 +28601,7 @@
       </c>
       <c r="AN293" s="14"/>
       <c r="AO293" s="14" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AP293" s="10"/>
     </row>
@@ -28598,16 +28618,16 @@
       <c r="D294" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="E294" s="73" t="s">
+      <c r="E294" s="76" t="s">
         <v>430</v>
       </c>
       <c r="F294" s="14" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G294" s="10" t="s">
-        <v>773</v>
-      </c>
-      <c r="H294" s="74" t="s">
+        <v>774</v>
+      </c>
+      <c r="H294" s="77" t="s">
         <v>678</v>
       </c>
       <c r="I294" s="14" t="n">
@@ -28629,7 +28649,7 @@
       <c r="U294" s="14"/>
       <c r="V294" s="14"/>
       <c r="W294" s="14" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="X294" s="14"/>
       <c r="Y294" s="14"/>
@@ -28658,10 +28678,10 @@
         <v>293</v>
       </c>
       <c r="AN294" s="55" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AO294" s="66" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AP294" s="10"/>
     </row>
@@ -28678,17 +28698,17 @@
       <c r="D295" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="E295" s="73" t="s">
+      <c r="E295" s="76" t="s">
         <v>430</v>
       </c>
       <c r="F295" s="14" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G295" s="10" t="s">
-        <v>777</v>
-      </c>
-      <c r="H295" s="75" t="s">
         <v>778</v>
+      </c>
+      <c r="H295" s="78" t="s">
+        <v>779</v>
       </c>
       <c r="I295" s="14" t="n">
         <v>1</v>
@@ -28717,7 +28737,7 @@
       <c r="U295" s="14"/>
       <c r="V295" s="14"/>
       <c r="W295" s="14" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="X295" s="14"/>
       <c r="Y295" s="14"/>
@@ -28728,7 +28748,7 @@
         <v>49</v>
       </c>
       <c r="AD295" s="14" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AE295" s="20" t="n">
         <v>0</v>
@@ -28736,7 +28756,7 @@
       <c r="AF295" s="14"/>
       <c r="AG295" s="14"/>
       <c r="AH295" s="14" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AI295" s="14"/>
       <c r="AJ295" s="14"/>
@@ -28748,8 +28768,8 @@
         <v>294</v>
       </c>
       <c r="AN295" s="10"/>
-      <c r="AO295" s="76" t="s">
-        <v>772</v>
+      <c r="AO295" s="79" t="s">
+        <v>773</v>
       </c>
       <c r="AP295" s="10"/>
     </row>
@@ -28757,1254 +28777,1254 @@
       <c r="A296" s="12" t="n">
         <v>295</v>
       </c>
-      <c r="B296" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C296" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D296" s="77" t="s">
-        <v>781</v>
+      <c r="B296" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C296" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D296" s="80" t="s">
+        <v>782</v>
       </c>
       <c r="E296" s="66" t="s">
-        <v>782</v>
-      </c>
-      <c r="F296" s="79" t="s">
+        <v>783</v>
+      </c>
+      <c r="F296" s="82" t="s">
         <v>605</v>
       </c>
-      <c r="G296" s="78"/>
-      <c r="H296" s="80" t="s">
-        <v>783</v>
-      </c>
-      <c r="I296" s="81" t="s">
+      <c r="G296" s="81"/>
+      <c r="H296" s="83" t="s">
         <v>784</v>
       </c>
-      <c r="J296" s="78"/>
-      <c r="K296" s="78"/>
-      <c r="L296" s="78"/>
-      <c r="M296" s="78"/>
-      <c r="N296" s="78"/>
-      <c r="O296" s="78"/>
-      <c r="P296" s="78"/>
-      <c r="Q296" s="78"/>
-      <c r="R296" s="78"/>
-      <c r="S296" s="78"/>
-      <c r="T296" s="78"/>
-      <c r="U296" s="78"/>
-      <c r="V296" s="78"/>
-      <c r="W296" s="78"/>
-      <c r="X296" s="78"/>
-      <c r="Y296" s="78"/>
-      <c r="Z296" s="78"/>
-      <c r="AA296" s="78"/>
-      <c r="AB296" s="78"/>
-      <c r="AC296" s="78"/>
-      <c r="AD296" s="78"/>
-      <c r="AE296" s="82" t="n">
+      <c r="I296" s="84" t="s">
+        <v>785</v>
+      </c>
+      <c r="J296" s="81"/>
+      <c r="K296" s="81"/>
+      <c r="L296" s="81"/>
+      <c r="M296" s="81"/>
+      <c r="N296" s="81"/>
+      <c r="O296" s="81"/>
+      <c r="P296" s="81"/>
+      <c r="Q296" s="81"/>
+      <c r="R296" s="81"/>
+      <c r="S296" s="81"/>
+      <c r="T296" s="81"/>
+      <c r="U296" s="81"/>
+      <c r="V296" s="81"/>
+      <c r="W296" s="81"/>
+      <c r="X296" s="81"/>
+      <c r="Y296" s="81"/>
+      <c r="Z296" s="81"/>
+      <c r="AA296" s="81"/>
+      <c r="AB296" s="81"/>
+      <c r="AC296" s="81"/>
+      <c r="AD296" s="81"/>
+      <c r="AE296" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AF296" s="78"/>
-      <c r="AG296" s="78"/>
-      <c r="AH296" s="78"/>
-      <c r="AI296" s="78"/>
-      <c r="AJ296" s="78"/>
-      <c r="AK296" s="78"/>
-      <c r="AL296" s="78" t="s">
+      <c r="AF296" s="81"/>
+      <c r="AG296" s="81"/>
+      <c r="AH296" s="81"/>
+      <c r="AI296" s="81"/>
+      <c r="AJ296" s="81"/>
+      <c r="AK296" s="81"/>
+      <c r="AL296" s="81" t="s">
         <v>430</v>
       </c>
       <c r="AM296" s="12" t="n">
         <v>295</v>
       </c>
-      <c r="AN296" s="78"/>
-      <c r="AO296" s="78"/>
-      <c r="AP296" s="78"/>
+      <c r="AN296" s="81"/>
+      <c r="AO296" s="81"/>
+      <c r="AP296" s="81"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="12" t="n">
         <v>296</v>
       </c>
-      <c r="B297" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C297" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D297" s="77" t="s">
-        <v>781</v>
+      <c r="B297" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C297" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D297" s="80" t="s">
+        <v>782</v>
       </c>
       <c r="E297" s="66" t="s">
+        <v>786</v>
+      </c>
+      <c r="F297" s="86" t="s">
+        <v>749</v>
+      </c>
+      <c r="G297" s="81"/>
+      <c r="H297" s="81" t="s">
+        <v>787</v>
+      </c>
+      <c r="I297" s="84" t="s">
         <v>785</v>
       </c>
-      <c r="F297" s="83" t="s">
-        <v>748</v>
-      </c>
-      <c r="G297" s="78"/>
-      <c r="H297" s="78" t="s">
-        <v>786</v>
-      </c>
-      <c r="I297" s="81" t="s">
-        <v>784</v>
-      </c>
-      <c r="J297" s="80"/>
-      <c r="K297" s="78"/>
-      <c r="L297" s="78"/>
-      <c r="M297" s="78"/>
-      <c r="N297" s="78"/>
-      <c r="O297" s="78"/>
-      <c r="P297" s="78"/>
-      <c r="Q297" s="78"/>
-      <c r="R297" s="78"/>
-      <c r="S297" s="78"/>
-      <c r="T297" s="78"/>
-      <c r="U297" s="78"/>
-      <c r="V297" s="78"/>
-      <c r="W297" s="78"/>
-      <c r="X297" s="78"/>
-      <c r="Y297" s="78"/>
-      <c r="Z297" s="78"/>
-      <c r="AA297" s="78"/>
-      <c r="AB297" s="78"/>
-      <c r="AC297" s="78"/>
-      <c r="AD297" s="78"/>
-      <c r="AE297" s="82" t="n">
+      <c r="J297" s="83"/>
+      <c r="K297" s="81"/>
+      <c r="L297" s="81"/>
+      <c r="M297" s="81"/>
+      <c r="N297" s="81"/>
+      <c r="O297" s="81"/>
+      <c r="P297" s="81"/>
+      <c r="Q297" s="81"/>
+      <c r="R297" s="81"/>
+      <c r="S297" s="81"/>
+      <c r="T297" s="81"/>
+      <c r="U297" s="81"/>
+      <c r="V297" s="81"/>
+      <c r="W297" s="81"/>
+      <c r="X297" s="81"/>
+      <c r="Y297" s="81"/>
+      <c r="Z297" s="81"/>
+      <c r="AA297" s="81"/>
+      <c r="AB297" s="81"/>
+      <c r="AC297" s="81"/>
+      <c r="AD297" s="81"/>
+      <c r="AE297" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AF297" s="78"/>
-      <c r="AG297" s="78"/>
-      <c r="AH297" s="78"/>
-      <c r="AI297" s="78"/>
-      <c r="AJ297" s="78"/>
-      <c r="AK297" s="78"/>
-      <c r="AL297" s="78" t="s">
+      <c r="AF297" s="81"/>
+      <c r="AG297" s="81"/>
+      <c r="AH297" s="81"/>
+      <c r="AI297" s="81"/>
+      <c r="AJ297" s="81"/>
+      <c r="AK297" s="81"/>
+      <c r="AL297" s="81" t="s">
         <v>430</v>
       </c>
       <c r="AM297" s="12" t="n">
         <v>296</v>
       </c>
-      <c r="AN297" s="78"/>
-      <c r="AO297" s="78"/>
-      <c r="AP297" s="78"/>
+      <c r="AN297" s="81"/>
+      <c r="AO297" s="81"/>
+      <c r="AP297" s="81"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="12" t="n">
         <v>297</v>
       </c>
-      <c r="B298" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C298" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D298" s="77" t="s">
-        <v>781</v>
+      <c r="B298" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C298" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D298" s="80" t="s">
+        <v>782</v>
       </c>
       <c r="E298" s="66" t="s">
-        <v>787</v>
-      </c>
-      <c r="F298" s="83" t="s">
-        <v>755</v>
-      </c>
-      <c r="G298" s="78"/>
-      <c r="H298" s="78" t="s">
         <v>788</v>
       </c>
-      <c r="I298" s="81" t="s">
-        <v>784</v>
-      </c>
-      <c r="J298" s="78"/>
-      <c r="K298" s="78"/>
-      <c r="L298" s="78"/>
-      <c r="M298" s="78"/>
-      <c r="N298" s="78"/>
-      <c r="O298" s="78"/>
-      <c r="P298" s="78"/>
-      <c r="Q298" s="78"/>
-      <c r="R298" s="78"/>
-      <c r="S298" s="78"/>
-      <c r="T298" s="78"/>
-      <c r="U298" s="78"/>
-      <c r="V298" s="78"/>
-      <c r="W298" s="78"/>
-      <c r="X298" s="78"/>
-      <c r="Y298" s="78"/>
-      <c r="Z298" s="78"/>
-      <c r="AA298" s="78"/>
-      <c r="AB298" s="78"/>
-      <c r="AC298" s="78"/>
-      <c r="AD298" s="78"/>
-      <c r="AE298" s="82" t="n">
+      <c r="F298" s="86" t="s">
+        <v>756</v>
+      </c>
+      <c r="G298" s="81"/>
+      <c r="H298" s="81" t="s">
+        <v>789</v>
+      </c>
+      <c r="I298" s="84" t="s">
+        <v>785</v>
+      </c>
+      <c r="J298" s="81"/>
+      <c r="K298" s="81"/>
+      <c r="L298" s="81"/>
+      <c r="M298" s="81"/>
+      <c r="N298" s="81"/>
+      <c r="O298" s="81"/>
+      <c r="P298" s="81"/>
+      <c r="Q298" s="81"/>
+      <c r="R298" s="81"/>
+      <c r="S298" s="81"/>
+      <c r="T298" s="81"/>
+      <c r="U298" s="81"/>
+      <c r="V298" s="81"/>
+      <c r="W298" s="81"/>
+      <c r="X298" s="81"/>
+      <c r="Y298" s="81"/>
+      <c r="Z298" s="81"/>
+      <c r="AA298" s="81"/>
+      <c r="AB298" s="81"/>
+      <c r="AC298" s="81"/>
+      <c r="AD298" s="81"/>
+      <c r="AE298" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AF298" s="78"/>
-      <c r="AG298" s="78"/>
-      <c r="AH298" s="78"/>
-      <c r="AI298" s="78"/>
-      <c r="AJ298" s="78"/>
-      <c r="AK298" s="78"/>
-      <c r="AL298" s="78" t="s">
+      <c r="AF298" s="81"/>
+      <c r="AG298" s="81"/>
+      <c r="AH298" s="81"/>
+      <c r="AI298" s="81"/>
+      <c r="AJ298" s="81"/>
+      <c r="AK298" s="81"/>
+      <c r="AL298" s="81" t="s">
         <v>430</v>
       </c>
       <c r="AM298" s="12" t="n">
         <v>297</v>
       </c>
-      <c r="AN298" s="78"/>
-      <c r="AO298" s="78"/>
-      <c r="AP298" s="78"/>
+      <c r="AN298" s="81"/>
+      <c r="AO298" s="81"/>
+      <c r="AP298" s="81"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="12" t="n">
         <v>298</v>
       </c>
-      <c r="B299" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C299" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D299" s="84" t="s">
-        <v>781</v>
+      <c r="B299" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C299" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D299" s="87" t="s">
+        <v>782</v>
       </c>
       <c r="E299" s="66" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F299" s="66" t="s">
         <v>696</v>
       </c>
-      <c r="G299" s="78"/>
-      <c r="H299" s="78" t="s">
-        <v>786</v>
-      </c>
-      <c r="I299" s="81" t="s">
-        <v>784</v>
-      </c>
-      <c r="J299" s="78"/>
-      <c r="K299" s="78"/>
-      <c r="L299" s="78"/>
-      <c r="M299" s="78"/>
-      <c r="N299" s="78"/>
-      <c r="O299" s="78"/>
-      <c r="P299" s="78"/>
-      <c r="Q299" s="78"/>
-      <c r="R299" s="78"/>
-      <c r="S299" s="78"/>
-      <c r="T299" s="78"/>
-      <c r="U299" s="78"/>
-      <c r="V299" s="78"/>
-      <c r="W299" s="78"/>
-      <c r="X299" s="78"/>
-      <c r="Y299" s="78"/>
-      <c r="Z299" s="78"/>
-      <c r="AA299" s="78"/>
-      <c r="AB299" s="78"/>
-      <c r="AC299" s="78"/>
-      <c r="AD299" s="78"/>
-      <c r="AE299" s="85" t="n">
+      <c r="G299" s="81"/>
+      <c r="H299" s="81" t="s">
+        <v>787</v>
+      </c>
+      <c r="I299" s="84" t="s">
+        <v>785</v>
+      </c>
+      <c r="J299" s="81"/>
+      <c r="K299" s="81"/>
+      <c r="L299" s="81"/>
+      <c r="M299" s="81"/>
+      <c r="N299" s="81"/>
+      <c r="O299" s="81"/>
+      <c r="P299" s="81"/>
+      <c r="Q299" s="81"/>
+      <c r="R299" s="81"/>
+      <c r="S299" s="81"/>
+      <c r="T299" s="81"/>
+      <c r="U299" s="81"/>
+      <c r="V299" s="81"/>
+      <c r="W299" s="81"/>
+      <c r="X299" s="81"/>
+      <c r="Y299" s="81"/>
+      <c r="Z299" s="81"/>
+      <c r="AA299" s="81"/>
+      <c r="AB299" s="81"/>
+      <c r="AC299" s="81"/>
+      <c r="AD299" s="81"/>
+      <c r="AE299" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="AF299" s="78"/>
-      <c r="AG299" s="78"/>
-      <c r="AH299" s="78"/>
-      <c r="AI299" s="78"/>
-      <c r="AJ299" s="78"/>
-      <c r="AK299" s="78"/>
-      <c r="AL299" s="78" t="s">
+      <c r="AF299" s="81"/>
+      <c r="AG299" s="81"/>
+      <c r="AH299" s="81"/>
+      <c r="AI299" s="81"/>
+      <c r="AJ299" s="81"/>
+      <c r="AK299" s="81"/>
+      <c r="AL299" s="81" t="s">
         <v>430</v>
       </c>
       <c r="AM299" s="12" t="n">
         <v>298</v>
       </c>
-      <c r="AN299" s="78"/>
-      <c r="AO299" s="78"/>
-      <c r="AP299" s="78"/>
+      <c r="AN299" s="81"/>
+      <c r="AO299" s="81"/>
+      <c r="AP299" s="81"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="12" t="n">
         <v>299</v>
       </c>
-      <c r="B300" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C300" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D300" s="84" t="s">
-        <v>781</v>
+      <c r="B300" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C300" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D300" s="87" t="s">
+        <v>782</v>
       </c>
       <c r="E300" s="66" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F300" s="66" t="s">
-        <v>775</v>
-      </c>
-      <c r="G300" s="78"/>
-      <c r="H300" s="78" t="s">
-        <v>788</v>
-      </c>
-      <c r="I300" s="81" t="s">
-        <v>784</v>
-      </c>
-      <c r="J300" s="78"/>
-      <c r="K300" s="78"/>
-      <c r="L300" s="78"/>
-      <c r="M300" s="78"/>
-      <c r="N300" s="78"/>
-      <c r="O300" s="78"/>
-      <c r="P300" s="78"/>
-      <c r="Q300" s="78"/>
-      <c r="R300" s="78"/>
-      <c r="S300" s="78"/>
-      <c r="T300" s="78"/>
-      <c r="U300" s="78"/>
-      <c r="V300" s="78"/>
-      <c r="W300" s="78"/>
-      <c r="X300" s="78"/>
-      <c r="Y300" s="78"/>
-      <c r="Z300" s="78"/>
-      <c r="AA300" s="78"/>
-      <c r="AB300" s="78"/>
-      <c r="AC300" s="78"/>
-      <c r="AD300" s="78"/>
-      <c r="AE300" s="85" t="n">
+        <v>776</v>
+      </c>
+      <c r="G300" s="81"/>
+      <c r="H300" s="81" t="s">
+        <v>789</v>
+      </c>
+      <c r="I300" s="84" t="s">
+        <v>785</v>
+      </c>
+      <c r="J300" s="81"/>
+      <c r="K300" s="81"/>
+      <c r="L300" s="81"/>
+      <c r="M300" s="81"/>
+      <c r="N300" s="81"/>
+      <c r="O300" s="81"/>
+      <c r="P300" s="81"/>
+      <c r="Q300" s="81"/>
+      <c r="R300" s="81"/>
+      <c r="S300" s="81"/>
+      <c r="T300" s="81"/>
+      <c r="U300" s="81"/>
+      <c r="V300" s="81"/>
+      <c r="W300" s="81"/>
+      <c r="X300" s="81"/>
+      <c r="Y300" s="81"/>
+      <c r="Z300" s="81"/>
+      <c r="AA300" s="81"/>
+      <c r="AB300" s="81"/>
+      <c r="AC300" s="81"/>
+      <c r="AD300" s="81"/>
+      <c r="AE300" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="AF300" s="78"/>
-      <c r="AG300" s="78"/>
-      <c r="AH300" s="78"/>
-      <c r="AI300" s="78"/>
-      <c r="AJ300" s="78"/>
-      <c r="AK300" s="78"/>
-      <c r="AL300" s="78"/>
+      <c r="AF300" s="81"/>
+      <c r="AG300" s="81"/>
+      <c r="AH300" s="81"/>
+      <c r="AI300" s="81"/>
+      <c r="AJ300" s="81"/>
+      <c r="AK300" s="81"/>
+      <c r="AL300" s="81"/>
       <c r="AM300" s="12" t="n">
         <v>299</v>
       </c>
-      <c r="AN300" s="78"/>
-      <c r="AO300" s="78"/>
-      <c r="AP300" s="78"/>
+      <c r="AN300" s="81"/>
+      <c r="AO300" s="81"/>
+      <c r="AP300" s="81"/>
     </row>
     <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="B301" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C301" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D301" s="84" t="s">
-        <v>781</v>
+      <c r="B301" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C301" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D301" s="87" t="s">
+        <v>782</v>
       </c>
       <c r="E301" s="66" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F301" s="66" t="s">
         <v>435</v>
       </c>
-      <c r="G301" s="78"/>
-      <c r="H301" s="80" t="s">
-        <v>783</v>
-      </c>
-      <c r="I301" s="81" t="s">
+      <c r="G301" s="81"/>
+      <c r="H301" s="83" t="s">
         <v>784</v>
       </c>
-      <c r="J301" s="78"/>
-      <c r="K301" s="78"/>
-      <c r="L301" s="78"/>
-      <c r="M301" s="78"/>
-      <c r="N301" s="78"/>
-      <c r="O301" s="78"/>
-      <c r="P301" s="78"/>
-      <c r="Q301" s="78"/>
-      <c r="R301" s="78"/>
-      <c r="S301" s="78"/>
-      <c r="T301" s="78"/>
-      <c r="U301" s="78"/>
-      <c r="V301" s="78"/>
-      <c r="W301" s="78"/>
-      <c r="X301" s="78"/>
-      <c r="Y301" s="78"/>
-      <c r="Z301" s="78"/>
-      <c r="AA301" s="78"/>
-      <c r="AB301" s="78"/>
-      <c r="AC301" s="78"/>
-      <c r="AD301" s="78"/>
-      <c r="AE301" s="85" t="n">
+      <c r="I301" s="84" t="s">
+        <v>785</v>
+      </c>
+      <c r="J301" s="81"/>
+      <c r="K301" s="81"/>
+      <c r="L301" s="81"/>
+      <c r="M301" s="81"/>
+      <c r="N301" s="81"/>
+      <c r="O301" s="81"/>
+      <c r="P301" s="81"/>
+      <c r="Q301" s="81"/>
+      <c r="R301" s="81"/>
+      <c r="S301" s="81"/>
+      <c r="T301" s="81"/>
+      <c r="U301" s="81"/>
+      <c r="V301" s="81"/>
+      <c r="W301" s="81"/>
+      <c r="X301" s="81"/>
+      <c r="Y301" s="81"/>
+      <c r="Z301" s="81"/>
+      <c r="AA301" s="81"/>
+      <c r="AB301" s="81"/>
+      <c r="AC301" s="81"/>
+      <c r="AD301" s="81"/>
+      <c r="AE301" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="AF301" s="78"/>
-      <c r="AG301" s="78"/>
-      <c r="AH301" s="78"/>
-      <c r="AI301" s="78"/>
-      <c r="AJ301" s="78"/>
-      <c r="AK301" s="78"/>
-      <c r="AL301" s="78"/>
+      <c r="AF301" s="81"/>
+      <c r="AG301" s="81"/>
+      <c r="AH301" s="81"/>
+      <c r="AI301" s="81"/>
+      <c r="AJ301" s="81"/>
+      <c r="AK301" s="81"/>
+      <c r="AL301" s="81"/>
       <c r="AM301" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="AN301" s="78"/>
-      <c r="AO301" s="78"/>
-      <c r="AP301" s="78"/>
+      <c r="AN301" s="81"/>
+      <c r="AO301" s="81"/>
+      <c r="AP301" s="81"/>
     </row>
     <row r="302" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="12" t="n">
         <v>301</v>
       </c>
-      <c r="B302" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C302" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D302" s="84" t="s">
-        <v>781</v>
+      <c r="B302" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C302" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D302" s="87" t="s">
+        <v>782</v>
       </c>
       <c r="E302" s="66" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F302" s="66" t="s">
-        <v>793</v>
-      </c>
-      <c r="G302" s="78"/>
-      <c r="H302" s="80" t="s">
         <v>794</v>
       </c>
-      <c r="I302" s="81" t="s">
+      <c r="G302" s="81"/>
+      <c r="H302" s="83" t="s">
         <v>795</v>
       </c>
-      <c r="J302" s="78"/>
-      <c r="K302" s="78"/>
-      <c r="L302" s="78"/>
-      <c r="M302" s="78"/>
-      <c r="N302" s="78"/>
-      <c r="O302" s="78"/>
-      <c r="P302" s="78"/>
-      <c r="Q302" s="78"/>
-      <c r="R302" s="78"/>
-      <c r="S302" s="78"/>
-      <c r="T302" s="78"/>
-      <c r="U302" s="78"/>
-      <c r="V302" s="78"/>
-      <c r="W302" s="78"/>
-      <c r="X302" s="78"/>
-      <c r="Y302" s="78"/>
-      <c r="Z302" s="78"/>
-      <c r="AA302" s="78"/>
-      <c r="AB302" s="78"/>
-      <c r="AC302" s="78"/>
-      <c r="AD302" s="78"/>
-      <c r="AE302" s="78" t="n">
+      <c r="I302" s="84" t="s">
+        <v>796</v>
+      </c>
+      <c r="J302" s="81"/>
+      <c r="K302" s="81"/>
+      <c r="L302" s="81"/>
+      <c r="M302" s="81"/>
+      <c r="N302" s="81"/>
+      <c r="O302" s="81"/>
+      <c r="P302" s="81"/>
+      <c r="Q302" s="81"/>
+      <c r="R302" s="81"/>
+      <c r="S302" s="81"/>
+      <c r="T302" s="81"/>
+      <c r="U302" s="81"/>
+      <c r="V302" s="81"/>
+      <c r="W302" s="81"/>
+      <c r="X302" s="81"/>
+      <c r="Y302" s="81"/>
+      <c r="Z302" s="81"/>
+      <c r="AA302" s="81"/>
+      <c r="AB302" s="81"/>
+      <c r="AC302" s="81"/>
+      <c r="AD302" s="81"/>
+      <c r="AE302" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="AF302" s="78"/>
-      <c r="AG302" s="78"/>
-      <c r="AH302" s="78"/>
-      <c r="AI302" s="78"/>
-      <c r="AJ302" s="78"/>
-      <c r="AK302" s="78"/>
-      <c r="AL302" s="78" t="s">
+      <c r="AF302" s="81"/>
+      <c r="AG302" s="81"/>
+      <c r="AH302" s="81"/>
+      <c r="AI302" s="81"/>
+      <c r="AJ302" s="81"/>
+      <c r="AK302" s="81"/>
+      <c r="AL302" s="81" t="s">
         <v>430</v>
       </c>
       <c r="AM302" s="12" t="n">
         <v>301</v>
       </c>
-      <c r="AN302" s="78"/>
-      <c r="AO302" s="78"/>
-      <c r="AP302" s="78"/>
+      <c r="AN302" s="81"/>
+      <c r="AO302" s="81"/>
+      <c r="AP302" s="81"/>
     </row>
     <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="12" t="n">
         <v>302</v>
       </c>
-      <c r="B303" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C303" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D303" s="84" t="s">
-        <v>781</v>
+      <c r="B303" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C303" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D303" s="87" t="s">
+        <v>782</v>
       </c>
       <c r="E303" s="66" t="s">
+        <v>797</v>
+      </c>
+      <c r="F303" s="66" t="s">
+        <v>798</v>
+      </c>
+      <c r="G303" s="81"/>
+      <c r="H303" s="83" t="s">
+        <v>799</v>
+      </c>
+      <c r="I303" s="84" t="s">
         <v>796</v>
       </c>
-      <c r="F303" s="66" t="s">
-        <v>797</v>
-      </c>
-      <c r="G303" s="78"/>
-      <c r="H303" s="80" t="s">
-        <v>798</v>
-      </c>
-      <c r="I303" s="81" t="s">
-        <v>795</v>
-      </c>
-      <c r="J303" s="78"/>
-      <c r="K303" s="78"/>
-      <c r="L303" s="78"/>
-      <c r="M303" s="78"/>
-      <c r="N303" s="78"/>
-      <c r="O303" s="78"/>
-      <c r="P303" s="78"/>
-      <c r="Q303" s="78"/>
-      <c r="R303" s="78"/>
-      <c r="S303" s="78"/>
-      <c r="T303" s="78"/>
-      <c r="U303" s="78"/>
-      <c r="V303" s="78"/>
-      <c r="W303" s="78"/>
-      <c r="X303" s="78"/>
-      <c r="Y303" s="78"/>
-      <c r="Z303" s="78"/>
-      <c r="AA303" s="78"/>
-      <c r="AB303" s="78"/>
-      <c r="AC303" s="78"/>
-      <c r="AD303" s="78"/>
-      <c r="AE303" s="78" t="n">
+      <c r="J303" s="81"/>
+      <c r="K303" s="81"/>
+      <c r="L303" s="81"/>
+      <c r="M303" s="81"/>
+      <c r="N303" s="81"/>
+      <c r="O303" s="81"/>
+      <c r="P303" s="81"/>
+      <c r="Q303" s="81"/>
+      <c r="R303" s="81"/>
+      <c r="S303" s="81"/>
+      <c r="T303" s="81"/>
+      <c r="U303" s="81"/>
+      <c r="V303" s="81"/>
+      <c r="W303" s="81"/>
+      <c r="X303" s="81"/>
+      <c r="Y303" s="81"/>
+      <c r="Z303" s="81"/>
+      <c r="AA303" s="81"/>
+      <c r="AB303" s="81"/>
+      <c r="AC303" s="81"/>
+      <c r="AD303" s="81"/>
+      <c r="AE303" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="AF303" s="78"/>
-      <c r="AG303" s="78"/>
-      <c r="AH303" s="78"/>
-      <c r="AI303" s="78"/>
-      <c r="AJ303" s="78"/>
-      <c r="AK303" s="78"/>
-      <c r="AL303" s="78" t="s">
+      <c r="AF303" s="81"/>
+      <c r="AG303" s="81"/>
+      <c r="AH303" s="81"/>
+      <c r="AI303" s="81"/>
+      <c r="AJ303" s="81"/>
+      <c r="AK303" s="81"/>
+      <c r="AL303" s="81" t="s">
         <v>430</v>
       </c>
       <c r="AM303" s="12" t="n">
         <v>302</v>
       </c>
-      <c r="AN303" s="78"/>
-      <c r="AO303" s="78"/>
-      <c r="AP303" s="78"/>
+      <c r="AN303" s="81"/>
+      <c r="AO303" s="81"/>
+      <c r="AP303" s="81"/>
     </row>
     <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="12" t="n">
         <v>303</v>
       </c>
-      <c r="B304" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C304" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D304" s="84" t="s">
-        <v>781</v>
+      <c r="B304" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C304" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D304" s="87" t="s">
+        <v>782</v>
       </c>
       <c r="E304" s="66" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F304" s="66" t="s">
-        <v>800</v>
-      </c>
-      <c r="G304" s="78"/>
-      <c r="H304" s="80" t="s">
         <v>801</v>
       </c>
-      <c r="I304" s="81" t="s">
-        <v>795</v>
-      </c>
-      <c r="J304" s="78"/>
-      <c r="K304" s="78"/>
-      <c r="L304" s="78"/>
-      <c r="M304" s="78"/>
-      <c r="N304" s="78"/>
-      <c r="O304" s="78"/>
-      <c r="P304" s="78"/>
-      <c r="Q304" s="78"/>
-      <c r="R304" s="78"/>
-      <c r="S304" s="78"/>
-      <c r="T304" s="78"/>
-      <c r="U304" s="78"/>
-      <c r="V304" s="78"/>
-      <c r="W304" s="78"/>
-      <c r="X304" s="78"/>
-      <c r="Y304" s="78"/>
-      <c r="Z304" s="78"/>
-      <c r="AA304" s="78"/>
-      <c r="AB304" s="78"/>
-      <c r="AC304" s="78"/>
-      <c r="AD304" s="78"/>
-      <c r="AE304" s="78" t="n">
+      <c r="G304" s="81"/>
+      <c r="H304" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="I304" s="84" t="s">
+        <v>796</v>
+      </c>
+      <c r="J304" s="81"/>
+      <c r="K304" s="81"/>
+      <c r="L304" s="81"/>
+      <c r="M304" s="81"/>
+      <c r="N304" s="81"/>
+      <c r="O304" s="81"/>
+      <c r="P304" s="81"/>
+      <c r="Q304" s="81"/>
+      <c r="R304" s="81"/>
+      <c r="S304" s="81"/>
+      <c r="T304" s="81"/>
+      <c r="U304" s="81"/>
+      <c r="V304" s="81"/>
+      <c r="W304" s="81"/>
+      <c r="X304" s="81"/>
+      <c r="Y304" s="81"/>
+      <c r="Z304" s="81"/>
+      <c r="AA304" s="81"/>
+      <c r="AB304" s="81"/>
+      <c r="AC304" s="81"/>
+      <c r="AD304" s="81"/>
+      <c r="AE304" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="AF304" s="78"/>
-      <c r="AG304" s="78"/>
-      <c r="AH304" s="78"/>
-      <c r="AI304" s="78"/>
-      <c r="AJ304" s="78"/>
-      <c r="AK304" s="78"/>
-      <c r="AL304" s="78" t="s">
+      <c r="AF304" s="81"/>
+      <c r="AG304" s="81"/>
+      <c r="AH304" s="81"/>
+      <c r="AI304" s="81"/>
+      <c r="AJ304" s="81"/>
+      <c r="AK304" s="81"/>
+      <c r="AL304" s="81" t="s">
         <v>430</v>
       </c>
       <c r="AM304" s="12" t="n">
         <v>303</v>
       </c>
-      <c r="AN304" s="78"/>
-      <c r="AO304" s="78"/>
-      <c r="AP304" s="78"/>
+      <c r="AN304" s="81"/>
+      <c r="AO304" s="81"/>
+      <c r="AP304" s="81"/>
     </row>
     <row r="305" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="12" t="n">
         <v>304</v>
       </c>
-      <c r="B305" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C305" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D305" s="84" t="s">
-        <v>781</v>
+      <c r="B305" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C305" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D305" s="87" t="s">
+        <v>782</v>
       </c>
       <c r="E305" s="66" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F305" s="66" t="s">
-        <v>803</v>
-      </c>
-      <c r="G305" s="78"/>
-      <c r="H305" s="80" t="s">
         <v>804</v>
       </c>
-      <c r="I305" s="81" t="s">
-        <v>795</v>
-      </c>
-      <c r="J305" s="78"/>
-      <c r="K305" s="78"/>
-      <c r="L305" s="78"/>
-      <c r="M305" s="78"/>
-      <c r="N305" s="78"/>
-      <c r="O305" s="78"/>
-      <c r="P305" s="78"/>
-      <c r="Q305" s="78"/>
-      <c r="R305" s="78"/>
-      <c r="S305" s="78"/>
-      <c r="T305" s="78"/>
-      <c r="U305" s="78"/>
-      <c r="V305" s="78"/>
-      <c r="W305" s="78"/>
-      <c r="X305" s="78"/>
-      <c r="Y305" s="78"/>
-      <c r="Z305" s="78"/>
-      <c r="AA305" s="78"/>
-      <c r="AB305" s="78"/>
-      <c r="AC305" s="78"/>
-      <c r="AD305" s="78"/>
-      <c r="AE305" s="78" t="n">
+      <c r="G305" s="81"/>
+      <c r="H305" s="83" t="s">
+        <v>805</v>
+      </c>
+      <c r="I305" s="84" t="s">
+        <v>796</v>
+      </c>
+      <c r="J305" s="81"/>
+      <c r="K305" s="81"/>
+      <c r="L305" s="81"/>
+      <c r="M305" s="81"/>
+      <c r="N305" s="81"/>
+      <c r="O305" s="81"/>
+      <c r="P305" s="81"/>
+      <c r="Q305" s="81"/>
+      <c r="R305" s="81"/>
+      <c r="S305" s="81"/>
+      <c r="T305" s="81"/>
+      <c r="U305" s="81"/>
+      <c r="V305" s="81"/>
+      <c r="W305" s="81"/>
+      <c r="X305" s="81"/>
+      <c r="Y305" s="81"/>
+      <c r="Z305" s="81"/>
+      <c r="AA305" s="81"/>
+      <c r="AB305" s="81"/>
+      <c r="AC305" s="81"/>
+      <c r="AD305" s="81"/>
+      <c r="AE305" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="AF305" s="78"/>
-      <c r="AG305" s="78"/>
-      <c r="AH305" s="78"/>
-      <c r="AI305" s="78"/>
-      <c r="AJ305" s="78"/>
-      <c r="AK305" s="78"/>
-      <c r="AL305" s="78" t="s">
+      <c r="AF305" s="81"/>
+      <c r="AG305" s="81"/>
+      <c r="AH305" s="81"/>
+      <c r="AI305" s="81"/>
+      <c r="AJ305" s="81"/>
+      <c r="AK305" s="81"/>
+      <c r="AL305" s="81" t="s">
         <v>430</v>
       </c>
       <c r="AM305" s="12" t="n">
         <v>304</v>
       </c>
-      <c r="AN305" s="78"/>
-      <c r="AO305" s="78"/>
-      <c r="AP305" s="78"/>
+      <c r="AN305" s="81"/>
+      <c r="AO305" s="81"/>
+      <c r="AP305" s="81"/>
     </row>
     <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="12" t="n">
         <v>305</v>
       </c>
-      <c r="B306" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C306" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D306" s="84" t="s">
-        <v>781</v>
+      <c r="B306" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C306" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D306" s="87" t="s">
+        <v>782</v>
       </c>
       <c r="E306" s="66" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F306" s="66" t="s">
-        <v>806</v>
-      </c>
-      <c r="G306" s="78" t="s">
+        <v>807</v>
+      </c>
+      <c r="G306" s="81" t="s">
         <v>409</v>
       </c>
-      <c r="H306" s="80" t="s">
-        <v>807</v>
-      </c>
-      <c r="I306" s="81" t="s">
-        <v>795</v>
-      </c>
-      <c r="J306" s="78"/>
-      <c r="K306" s="78"/>
-      <c r="L306" s="78"/>
-      <c r="M306" s="78"/>
-      <c r="N306" s="78"/>
-      <c r="O306" s="78"/>
-      <c r="P306" s="78"/>
-      <c r="Q306" s="78"/>
-      <c r="R306" s="78"/>
-      <c r="S306" s="78"/>
-      <c r="T306" s="78"/>
-      <c r="U306" s="78"/>
-      <c r="V306" s="78"/>
-      <c r="W306" s="78"/>
-      <c r="X306" s="78"/>
-      <c r="Y306" s="78"/>
-      <c r="Z306" s="78"/>
-      <c r="AA306" s="78"/>
-      <c r="AB306" s="78"/>
-      <c r="AC306" s="78"/>
-      <c r="AD306" s="78"/>
-      <c r="AE306" s="78" t="n">
+      <c r="H306" s="83" t="s">
+        <v>808</v>
+      </c>
+      <c r="I306" s="84" t="s">
+        <v>796</v>
+      </c>
+      <c r="J306" s="81"/>
+      <c r="K306" s="81"/>
+      <c r="L306" s="81"/>
+      <c r="M306" s="81"/>
+      <c r="N306" s="81"/>
+      <c r="O306" s="81"/>
+      <c r="P306" s="81"/>
+      <c r="Q306" s="81"/>
+      <c r="R306" s="81"/>
+      <c r="S306" s="81"/>
+      <c r="T306" s="81"/>
+      <c r="U306" s="81"/>
+      <c r="V306" s="81"/>
+      <c r="W306" s="81"/>
+      <c r="X306" s="81"/>
+      <c r="Y306" s="81"/>
+      <c r="Z306" s="81"/>
+      <c r="AA306" s="81"/>
+      <c r="AB306" s="81"/>
+      <c r="AC306" s="81"/>
+      <c r="AD306" s="81"/>
+      <c r="AE306" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="AF306" s="78"/>
-      <c r="AG306" s="78"/>
-      <c r="AH306" s="78"/>
-      <c r="AI306" s="78"/>
-      <c r="AJ306" s="78"/>
-      <c r="AK306" s="78"/>
-      <c r="AL306" s="78"/>
+      <c r="AF306" s="81"/>
+      <c r="AG306" s="81"/>
+      <c r="AH306" s="81"/>
+      <c r="AI306" s="81"/>
+      <c r="AJ306" s="81"/>
+      <c r="AK306" s="81"/>
+      <c r="AL306" s="81"/>
       <c r="AM306" s="12" t="n">
         <v>305</v>
       </c>
-      <c r="AN306" s="78"/>
-      <c r="AO306" s="78"/>
-      <c r="AP306" s="78"/>
+      <c r="AN306" s="81"/>
+      <c r="AO306" s="81"/>
+      <c r="AP306" s="81"/>
     </row>
     <row r="307" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="12" t="n">
         <v>306</v>
       </c>
-      <c r="B307" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C307" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D307" s="84" t="s">
-        <v>781</v>
+      <c r="B307" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C307" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D307" s="87" t="s">
+        <v>782</v>
       </c>
       <c r="E307" s="66" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F307" s="66" t="s">
-        <v>806</v>
-      </c>
-      <c r="G307" s="78" t="s">
+        <v>807</v>
+      </c>
+      <c r="G307" s="81" t="s">
         <v>442</v>
       </c>
-      <c r="H307" s="80" t="s">
-        <v>808</v>
-      </c>
-      <c r="I307" s="81" t="s">
-        <v>795</v>
-      </c>
-      <c r="J307" s="78"/>
-      <c r="K307" s="78"/>
-      <c r="L307" s="78"/>
-      <c r="M307" s="78"/>
-      <c r="N307" s="78"/>
-      <c r="O307" s="78"/>
-      <c r="P307" s="78"/>
-      <c r="Q307" s="78"/>
-      <c r="R307" s="78"/>
-      <c r="S307" s="78"/>
-      <c r="T307" s="78"/>
-      <c r="U307" s="78"/>
-      <c r="V307" s="78"/>
-      <c r="W307" s="78"/>
-      <c r="X307" s="78"/>
-      <c r="Y307" s="78"/>
-      <c r="Z307" s="78"/>
-      <c r="AA307" s="78"/>
-      <c r="AB307" s="78"/>
-      <c r="AC307" s="78"/>
-      <c r="AD307" s="78"/>
-      <c r="AE307" s="78" t="n">
+      <c r="H307" s="83" t="s">
+        <v>809</v>
+      </c>
+      <c r="I307" s="84" t="s">
+        <v>796</v>
+      </c>
+      <c r="J307" s="81"/>
+      <c r="K307" s="81"/>
+      <c r="L307" s="81"/>
+      <c r="M307" s="81"/>
+      <c r="N307" s="81"/>
+      <c r="O307" s="81"/>
+      <c r="P307" s="81"/>
+      <c r="Q307" s="81"/>
+      <c r="R307" s="81"/>
+      <c r="S307" s="81"/>
+      <c r="T307" s="81"/>
+      <c r="U307" s="81"/>
+      <c r="V307" s="81"/>
+      <c r="W307" s="81"/>
+      <c r="X307" s="81"/>
+      <c r="Y307" s="81"/>
+      <c r="Z307" s="81"/>
+      <c r="AA307" s="81"/>
+      <c r="AB307" s="81"/>
+      <c r="AC307" s="81"/>
+      <c r="AD307" s="81"/>
+      <c r="AE307" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="AF307" s="78"/>
-      <c r="AG307" s="78"/>
-      <c r="AH307" s="78"/>
-      <c r="AI307" s="78"/>
-      <c r="AJ307" s="78"/>
-      <c r="AK307" s="78"/>
-      <c r="AL307" s="78"/>
+      <c r="AF307" s="81"/>
+      <c r="AG307" s="81"/>
+      <c r="AH307" s="81"/>
+      <c r="AI307" s="81"/>
+      <c r="AJ307" s="81"/>
+      <c r="AK307" s="81"/>
+      <c r="AL307" s="81"/>
       <c r="AM307" s="12" t="n">
         <v>306</v>
       </c>
-      <c r="AN307" s="78"/>
-      <c r="AO307" s="78"/>
-      <c r="AP307" s="78"/>
+      <c r="AN307" s="81"/>
+      <c r="AO307" s="81"/>
+      <c r="AP307" s="81"/>
     </row>
     <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="12" t="n">
         <v>307</v>
       </c>
-      <c r="B308" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C308" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D308" s="84" t="s">
-        <v>781</v>
+      <c r="B308" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C308" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D308" s="87" t="s">
+        <v>782</v>
       </c>
       <c r="E308" s="66" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F308" s="66" t="s">
-        <v>806</v>
-      </c>
-      <c r="G308" s="78" t="s">
+        <v>807</v>
+      </c>
+      <c r="G308" s="81" t="s">
         <v>474</v>
       </c>
-      <c r="H308" s="80" t="s">
-        <v>808</v>
-      </c>
-      <c r="I308" s="81" t="s">
-        <v>795</v>
-      </c>
-      <c r="J308" s="78"/>
-      <c r="K308" s="78"/>
-      <c r="L308" s="78"/>
-      <c r="M308" s="78"/>
-      <c r="N308" s="78"/>
-      <c r="O308" s="78"/>
-      <c r="P308" s="78"/>
-      <c r="Q308" s="78"/>
-      <c r="R308" s="78"/>
-      <c r="S308" s="78"/>
-      <c r="T308" s="78"/>
-      <c r="U308" s="78"/>
-      <c r="V308" s="78"/>
-      <c r="W308" s="78"/>
-      <c r="X308" s="78"/>
-      <c r="Y308" s="78"/>
-      <c r="Z308" s="78"/>
-      <c r="AA308" s="78"/>
-      <c r="AB308" s="78"/>
-      <c r="AC308" s="78"/>
-      <c r="AD308" s="78"/>
-      <c r="AE308" s="78" t="n">
+      <c r="H308" s="83" t="s">
+        <v>809</v>
+      </c>
+      <c r="I308" s="84" t="s">
+        <v>796</v>
+      </c>
+      <c r="J308" s="81"/>
+      <c r="K308" s="81"/>
+      <c r="L308" s="81"/>
+      <c r="M308" s="81"/>
+      <c r="N308" s="81"/>
+      <c r="O308" s="81"/>
+      <c r="P308" s="81"/>
+      <c r="Q308" s="81"/>
+      <c r="R308" s="81"/>
+      <c r="S308" s="81"/>
+      <c r="T308" s="81"/>
+      <c r="U308" s="81"/>
+      <c r="V308" s="81"/>
+      <c r="W308" s="81"/>
+      <c r="X308" s="81"/>
+      <c r="Y308" s="81"/>
+      <c r="Z308" s="81"/>
+      <c r="AA308" s="81"/>
+      <c r="AB308" s="81"/>
+      <c r="AC308" s="81"/>
+      <c r="AD308" s="81"/>
+      <c r="AE308" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="AF308" s="78"/>
-      <c r="AG308" s="78"/>
-      <c r="AH308" s="78"/>
-      <c r="AI308" s="78"/>
-      <c r="AJ308" s="78"/>
-      <c r="AK308" s="78"/>
-      <c r="AL308" s="78"/>
+      <c r="AF308" s="81"/>
+      <c r="AG308" s="81"/>
+      <c r="AH308" s="81"/>
+      <c r="AI308" s="81"/>
+      <c r="AJ308" s="81"/>
+      <c r="AK308" s="81"/>
+      <c r="AL308" s="81"/>
       <c r="AM308" s="12" t="n">
         <v>307</v>
       </c>
-      <c r="AN308" s="78"/>
-      <c r="AO308" s="78"/>
-      <c r="AP308" s="78"/>
+      <c r="AN308" s="81"/>
+      <c r="AO308" s="81"/>
+      <c r="AP308" s="81"/>
     </row>
     <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="12" t="n">
         <v>308</v>
       </c>
-      <c r="B309" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C309" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D309" s="84" t="s">
-        <v>781</v>
+      <c r="B309" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C309" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D309" s="87" t="s">
+        <v>782</v>
       </c>
       <c r="E309" s="66" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F309" s="66" t="s">
-        <v>806</v>
-      </c>
-      <c r="G309" s="78" t="s">
+        <v>807</v>
+      </c>
+      <c r="G309" s="81" t="s">
         <v>493</v>
       </c>
-      <c r="H309" s="80" t="s">
-        <v>809</v>
-      </c>
-      <c r="I309" s="81" t="s">
-        <v>795</v>
-      </c>
-      <c r="J309" s="78"/>
-      <c r="K309" s="78"/>
-      <c r="L309" s="78"/>
-      <c r="M309" s="78"/>
-      <c r="N309" s="78"/>
-      <c r="O309" s="78"/>
-      <c r="P309" s="78"/>
-      <c r="Q309" s="78"/>
-      <c r="R309" s="78"/>
-      <c r="S309" s="78"/>
-      <c r="T309" s="78"/>
-      <c r="U309" s="78"/>
-      <c r="V309" s="78"/>
-      <c r="W309" s="78"/>
-      <c r="X309" s="78"/>
-      <c r="Y309" s="78"/>
-      <c r="Z309" s="78"/>
-      <c r="AA309" s="78"/>
-      <c r="AB309" s="78"/>
-      <c r="AC309" s="78"/>
-      <c r="AD309" s="78"/>
-      <c r="AE309" s="78" t="n">
+      <c r="H309" s="83" t="s">
+        <v>810</v>
+      </c>
+      <c r="I309" s="84" t="s">
+        <v>796</v>
+      </c>
+      <c r="J309" s="81"/>
+      <c r="K309" s="81"/>
+      <c r="L309" s="81"/>
+      <c r="M309" s="81"/>
+      <c r="N309" s="81"/>
+      <c r="O309" s="81"/>
+      <c r="P309" s="81"/>
+      <c r="Q309" s="81"/>
+      <c r="R309" s="81"/>
+      <c r="S309" s="81"/>
+      <c r="T309" s="81"/>
+      <c r="U309" s="81"/>
+      <c r="V309" s="81"/>
+      <c r="W309" s="81"/>
+      <c r="X309" s="81"/>
+      <c r="Y309" s="81"/>
+      <c r="Z309" s="81"/>
+      <c r="AA309" s="81"/>
+      <c r="AB309" s="81"/>
+      <c r="AC309" s="81"/>
+      <c r="AD309" s="81"/>
+      <c r="AE309" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="AF309" s="78"/>
-      <c r="AG309" s="78"/>
-      <c r="AH309" s="78"/>
-      <c r="AI309" s="78"/>
-      <c r="AJ309" s="78"/>
-      <c r="AK309" s="78"/>
-      <c r="AL309" s="78"/>
+      <c r="AF309" s="81"/>
+      <c r="AG309" s="81"/>
+      <c r="AH309" s="81"/>
+      <c r="AI309" s="81"/>
+      <c r="AJ309" s="81"/>
+      <c r="AK309" s="81"/>
+      <c r="AL309" s="81"/>
       <c r="AM309" s="12" t="n">
         <v>308</v>
       </c>
-      <c r="AN309" s="78"/>
-      <c r="AO309" s="78"/>
-      <c r="AP309" s="78"/>
+      <c r="AN309" s="81"/>
+      <c r="AO309" s="81"/>
+      <c r="AP309" s="81"/>
     </row>
     <row r="310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="12" t="n">
         <v>309</v>
       </c>
-      <c r="B310" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C310" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D310" s="84" t="s">
-        <v>781</v>
+      <c r="B310" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C310" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D310" s="87" t="s">
+        <v>782</v>
       </c>
       <c r="E310" s="66" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F310" s="66" t="s">
-        <v>806</v>
-      </c>
-      <c r="G310" s="78" t="s">
+        <v>807</v>
+      </c>
+      <c r="G310" s="81" t="s">
         <v>512</v>
       </c>
-      <c r="H310" s="80" t="s">
-        <v>807</v>
-      </c>
-      <c r="I310" s="81" t="s">
-        <v>795</v>
-      </c>
-      <c r="J310" s="78"/>
-      <c r="K310" s="78"/>
-      <c r="L310" s="78"/>
-      <c r="M310" s="78"/>
-      <c r="N310" s="78"/>
-      <c r="O310" s="78"/>
-      <c r="P310" s="78"/>
-      <c r="Q310" s="78"/>
-      <c r="R310" s="78"/>
-      <c r="S310" s="78"/>
-      <c r="T310" s="78"/>
-      <c r="U310" s="78"/>
-      <c r="V310" s="78"/>
-      <c r="W310" s="78"/>
-      <c r="X310" s="78"/>
-      <c r="Y310" s="78"/>
-      <c r="Z310" s="78"/>
-      <c r="AA310" s="78"/>
-      <c r="AB310" s="78"/>
-      <c r="AC310" s="78"/>
-      <c r="AD310" s="78"/>
-      <c r="AE310" s="78" t="n">
+      <c r="H310" s="83" t="s">
+        <v>808</v>
+      </c>
+      <c r="I310" s="84" t="s">
+        <v>796</v>
+      </c>
+      <c r="J310" s="81"/>
+      <c r="K310" s="81"/>
+      <c r="L310" s="81"/>
+      <c r="M310" s="81"/>
+      <c r="N310" s="81"/>
+      <c r="O310" s="81"/>
+      <c r="P310" s="81"/>
+      <c r="Q310" s="81"/>
+      <c r="R310" s="81"/>
+      <c r="S310" s="81"/>
+      <c r="T310" s="81"/>
+      <c r="U310" s="81"/>
+      <c r="V310" s="81"/>
+      <c r="W310" s="81"/>
+      <c r="X310" s="81"/>
+      <c r="Y310" s="81"/>
+      <c r="Z310" s="81"/>
+      <c r="AA310" s="81"/>
+      <c r="AB310" s="81"/>
+      <c r="AC310" s="81"/>
+      <c r="AD310" s="81"/>
+      <c r="AE310" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="AF310" s="78"/>
-      <c r="AG310" s="78"/>
-      <c r="AH310" s="78"/>
-      <c r="AI310" s="78"/>
-      <c r="AJ310" s="78"/>
-      <c r="AK310" s="78"/>
-      <c r="AL310" s="78"/>
+      <c r="AF310" s="81"/>
+      <c r="AG310" s="81"/>
+      <c r="AH310" s="81"/>
+      <c r="AI310" s="81"/>
+      <c r="AJ310" s="81"/>
+      <c r="AK310" s="81"/>
+      <c r="AL310" s="81"/>
       <c r="AM310" s="12" t="n">
         <v>309</v>
       </c>
-      <c r="AN310" s="78"/>
-      <c r="AO310" s="78"/>
-      <c r="AP310" s="78"/>
+      <c r="AN310" s="81"/>
+      <c r="AO310" s="81"/>
+      <c r="AP310" s="81"/>
     </row>
     <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="12" t="n">
         <v>310</v>
       </c>
-      <c r="B311" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C311" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D311" s="84" t="s">
-        <v>781</v>
+      <c r="B311" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C311" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D311" s="87" t="s">
+        <v>782</v>
       </c>
       <c r="E311" s="66" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F311" s="66" t="s">
-        <v>806</v>
-      </c>
-      <c r="G311" s="78" t="s">
+        <v>807</v>
+      </c>
+      <c r="G311" s="81" t="s">
         <v>525</v>
       </c>
-      <c r="H311" s="80" t="s">
-        <v>807</v>
-      </c>
-      <c r="I311" s="81" t="s">
-        <v>795</v>
-      </c>
-      <c r="J311" s="78"/>
-      <c r="K311" s="78"/>
-      <c r="L311" s="78"/>
-      <c r="M311" s="78"/>
-      <c r="N311" s="78"/>
-      <c r="O311" s="78"/>
-      <c r="P311" s="78"/>
-      <c r="Q311" s="78"/>
-      <c r="R311" s="78"/>
-      <c r="S311" s="78"/>
-      <c r="T311" s="78"/>
-      <c r="U311" s="78"/>
-      <c r="V311" s="78"/>
-      <c r="W311" s="78"/>
-      <c r="X311" s="78"/>
-      <c r="Y311" s="78"/>
-      <c r="Z311" s="78"/>
-      <c r="AA311" s="78"/>
-      <c r="AB311" s="78"/>
-      <c r="AC311" s="78"/>
-      <c r="AD311" s="78"/>
-      <c r="AE311" s="78" t="n">
+      <c r="H311" s="83" t="s">
+        <v>808</v>
+      </c>
+      <c r="I311" s="84" t="s">
+        <v>796</v>
+      </c>
+      <c r="J311" s="81"/>
+      <c r="K311" s="81"/>
+      <c r="L311" s="81"/>
+      <c r="M311" s="81"/>
+      <c r="N311" s="81"/>
+      <c r="O311" s="81"/>
+      <c r="P311" s="81"/>
+      <c r="Q311" s="81"/>
+      <c r="R311" s="81"/>
+      <c r="S311" s="81"/>
+      <c r="T311" s="81"/>
+      <c r="U311" s="81"/>
+      <c r="V311" s="81"/>
+      <c r="W311" s="81"/>
+      <c r="X311" s="81"/>
+      <c r="Y311" s="81"/>
+      <c r="Z311" s="81"/>
+      <c r="AA311" s="81"/>
+      <c r="AB311" s="81"/>
+      <c r="AC311" s="81"/>
+      <c r="AD311" s="81"/>
+      <c r="AE311" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="AF311" s="78"/>
-      <c r="AG311" s="78"/>
-      <c r="AH311" s="78"/>
-      <c r="AI311" s="78"/>
-      <c r="AJ311" s="78"/>
-      <c r="AK311" s="78"/>
-      <c r="AL311" s="78"/>
+      <c r="AF311" s="81"/>
+      <c r="AG311" s="81"/>
+      <c r="AH311" s="81"/>
+      <c r="AI311" s="81"/>
+      <c r="AJ311" s="81"/>
+      <c r="AK311" s="81"/>
+      <c r="AL311" s="81"/>
       <c r="AM311" s="12" t="n">
         <v>310</v>
       </c>
-      <c r="AN311" s="78"/>
-      <c r="AO311" s="78"/>
-      <c r="AP311" s="78"/>
+      <c r="AN311" s="81"/>
+      <c r="AO311" s="81"/>
+      <c r="AP311" s="81"/>
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="12" t="n">
         <v>311</v>
       </c>
-      <c r="B312" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C312" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D312" s="84" t="s">
-        <v>781</v>
+      <c r="B312" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C312" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D312" s="87" t="s">
+        <v>782</v>
       </c>
       <c r="E312" s="66" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F312" s="66" t="s">
-        <v>806</v>
-      </c>
-      <c r="G312" s="78" t="s">
+        <v>807</v>
+      </c>
+      <c r="G312" s="81" t="s">
         <v>536</v>
       </c>
-      <c r="H312" s="80" t="s">
-        <v>809</v>
-      </c>
-      <c r="I312" s="81" t="s">
-        <v>795</v>
-      </c>
-      <c r="J312" s="78"/>
-      <c r="K312" s="78"/>
-      <c r="L312" s="78"/>
-      <c r="M312" s="78"/>
-      <c r="N312" s="78"/>
-      <c r="O312" s="78"/>
-      <c r="P312" s="78"/>
-      <c r="Q312" s="78"/>
-      <c r="R312" s="78"/>
-      <c r="S312" s="78"/>
-      <c r="T312" s="78"/>
-      <c r="U312" s="78"/>
-      <c r="V312" s="78"/>
-      <c r="W312" s="78"/>
-      <c r="X312" s="78"/>
-      <c r="Y312" s="78"/>
-      <c r="Z312" s="78"/>
-      <c r="AA312" s="78"/>
-      <c r="AB312" s="78"/>
-      <c r="AC312" s="78"/>
-      <c r="AD312" s="78"/>
-      <c r="AE312" s="78" t="n">
+      <c r="H312" s="83" t="s">
+        <v>810</v>
+      </c>
+      <c r="I312" s="84" t="s">
+        <v>796</v>
+      </c>
+      <c r="J312" s="81"/>
+      <c r="K312" s="81"/>
+      <c r="L312" s="81"/>
+      <c r="M312" s="81"/>
+      <c r="N312" s="81"/>
+      <c r="O312" s="81"/>
+      <c r="P312" s="81"/>
+      <c r="Q312" s="81"/>
+      <c r="R312" s="81"/>
+      <c r="S312" s="81"/>
+      <c r="T312" s="81"/>
+      <c r="U312" s="81"/>
+      <c r="V312" s="81"/>
+      <c r="W312" s="81"/>
+      <c r="X312" s="81"/>
+      <c r="Y312" s="81"/>
+      <c r="Z312" s="81"/>
+      <c r="AA312" s="81"/>
+      <c r="AB312" s="81"/>
+      <c r="AC312" s="81"/>
+      <c r="AD312" s="81"/>
+      <c r="AE312" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="AF312" s="78"/>
-      <c r="AG312" s="78"/>
-      <c r="AH312" s="78"/>
-      <c r="AI312" s="78"/>
-      <c r="AJ312" s="78"/>
-      <c r="AK312" s="78"/>
-      <c r="AL312" s="78"/>
+      <c r="AF312" s="81"/>
+      <c r="AG312" s="81"/>
+      <c r="AH312" s="81"/>
+      <c r="AI312" s="81"/>
+      <c r="AJ312" s="81"/>
+      <c r="AK312" s="81"/>
+      <c r="AL312" s="81"/>
       <c r="AM312" s="12" t="n">
         <v>311</v>
       </c>
-      <c r="AN312" s="78"/>
-      <c r="AO312" s="78"/>
-      <c r="AP312" s="78"/>
+      <c r="AN312" s="81"/>
+      <c r="AO312" s="81"/>
+      <c r="AP312" s="81"/>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="12" t="n">
         <v>312</v>
       </c>
-      <c r="B313" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C313" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D313" s="84" t="s">
-        <v>781</v>
+      <c r="B313" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C313" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D313" s="87" t="s">
+        <v>782</v>
       </c>
       <c r="E313" s="66" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F313" s="66" t="s">
-        <v>806</v>
-      </c>
-      <c r="G313" s="78" t="s">
+        <v>807</v>
+      </c>
+      <c r="G313" s="81" t="s">
         <v>555</v>
       </c>
-      <c r="H313" s="80" t="s">
-        <v>808</v>
-      </c>
-      <c r="I313" s="81" t="s">
-        <v>795</v>
-      </c>
-      <c r="J313" s="78"/>
-      <c r="K313" s="78"/>
-      <c r="L313" s="78"/>
-      <c r="M313" s="78"/>
-      <c r="N313" s="78"/>
-      <c r="O313" s="78"/>
-      <c r="P313" s="78"/>
-      <c r="Q313" s="78"/>
-      <c r="R313" s="78"/>
-      <c r="S313" s="78"/>
-      <c r="T313" s="78"/>
-      <c r="U313" s="78"/>
-      <c r="V313" s="78"/>
-      <c r="W313" s="78"/>
-      <c r="X313" s="78"/>
-      <c r="Y313" s="78"/>
-      <c r="Z313" s="78"/>
-      <c r="AA313" s="78"/>
-      <c r="AB313" s="78"/>
-      <c r="AC313" s="78"/>
-      <c r="AD313" s="78"/>
-      <c r="AE313" s="78" t="n">
+      <c r="H313" s="83" t="s">
+        <v>809</v>
+      </c>
+      <c r="I313" s="84" t="s">
+        <v>796</v>
+      </c>
+      <c r="J313" s="81"/>
+      <c r="K313" s="81"/>
+      <c r="L313" s="81"/>
+      <c r="M313" s="81"/>
+      <c r="N313" s="81"/>
+      <c r="O313" s="81"/>
+      <c r="P313" s="81"/>
+      <c r="Q313" s="81"/>
+      <c r="R313" s="81"/>
+      <c r="S313" s="81"/>
+      <c r="T313" s="81"/>
+      <c r="U313" s="81"/>
+      <c r="V313" s="81"/>
+      <c r="W313" s="81"/>
+      <c r="X313" s="81"/>
+      <c r="Y313" s="81"/>
+      <c r="Z313" s="81"/>
+      <c r="AA313" s="81"/>
+      <c r="AB313" s="81"/>
+      <c r="AC313" s="81"/>
+      <c r="AD313" s="81"/>
+      <c r="AE313" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="AF313" s="78"/>
-      <c r="AG313" s="78"/>
-      <c r="AH313" s="78"/>
-      <c r="AI313" s="78"/>
-      <c r="AJ313" s="78"/>
-      <c r="AK313" s="78"/>
-      <c r="AL313" s="78"/>
+      <c r="AF313" s="81"/>
+      <c r="AG313" s="81"/>
+      <c r="AH313" s="81"/>
+      <c r="AI313" s="81"/>
+      <c r="AJ313" s="81"/>
+      <c r="AK313" s="81"/>
+      <c r="AL313" s="81"/>
       <c r="AM313" s="12" t="n">
         <v>312</v>
       </c>
-      <c r="AN313" s="78"/>
-      <c r="AO313" s="78"/>
-      <c r="AP313" s="78"/>
+      <c r="AN313" s="81"/>
+      <c r="AO313" s="81"/>
+      <c r="AP313" s="81"/>
     </row>
     <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="12" t="n">
         <v>313</v>
       </c>
-      <c r="B314" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C314" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="D314" s="84" t="s">
-        <v>781</v>
+      <c r="B314" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C314" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D314" s="87" t="s">
+        <v>782</v>
       </c>
       <c r="E314" s="66" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F314" s="66" t="s">
-        <v>806</v>
-      </c>
-      <c r="G314" s="78" t="s">
+        <v>807</v>
+      </c>
+      <c r="G314" s="81" t="s">
         <v>565</v>
       </c>
-      <c r="H314" s="80" t="s">
-        <v>809</v>
-      </c>
-      <c r="I314" s="81" t="s">
-        <v>795</v>
-      </c>
-      <c r="J314" s="78"/>
-      <c r="K314" s="78"/>
-      <c r="L314" s="78"/>
-      <c r="M314" s="78"/>
-      <c r="N314" s="78"/>
-      <c r="O314" s="78"/>
-      <c r="P314" s="78"/>
-      <c r="Q314" s="78"/>
-      <c r="R314" s="78"/>
-      <c r="S314" s="78"/>
-      <c r="T314" s="78"/>
-      <c r="U314" s="78"/>
-      <c r="V314" s="78"/>
-      <c r="W314" s="78"/>
-      <c r="X314" s="78"/>
-      <c r="Y314" s="78"/>
-      <c r="Z314" s="78"/>
-      <c r="AA314" s="78"/>
-      <c r="AB314" s="78"/>
-      <c r="AC314" s="78"/>
-      <c r="AD314" s="78"/>
-      <c r="AE314" s="78" t="n">
+      <c r="H314" s="83" t="s">
+        <v>810</v>
+      </c>
+      <c r="I314" s="84" t="s">
+        <v>796</v>
+      </c>
+      <c r="J314" s="81"/>
+      <c r="K314" s="81"/>
+      <c r="L314" s="81"/>
+      <c r="M314" s="81"/>
+      <c r="N314" s="81"/>
+      <c r="O314" s="81"/>
+      <c r="P314" s="81"/>
+      <c r="Q314" s="81"/>
+      <c r="R314" s="81"/>
+      <c r="S314" s="81"/>
+      <c r="T314" s="81"/>
+      <c r="U314" s="81"/>
+      <c r="V314" s="81"/>
+      <c r="W314" s="81"/>
+      <c r="X314" s="81"/>
+      <c r="Y314" s="81"/>
+      <c r="Z314" s="81"/>
+      <c r="AA314" s="81"/>
+      <c r="AB314" s="81"/>
+      <c r="AC314" s="81"/>
+      <c r="AD314" s="81"/>
+      <c r="AE314" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="AF314" s="78"/>
-      <c r="AG314" s="78"/>
-      <c r="AH314" s="78"/>
-      <c r="AI314" s="78"/>
-      <c r="AJ314" s="78"/>
-      <c r="AK314" s="78"/>
-      <c r="AL314" s="78"/>
+      <c r="AF314" s="81"/>
+      <c r="AG314" s="81"/>
+      <c r="AH314" s="81"/>
+      <c r="AI314" s="81"/>
+      <c r="AJ314" s="81"/>
+      <c r="AK314" s="81"/>
+      <c r="AL314" s="81"/>
       <c r="AM314" s="12" t="n">
         <v>313</v>
       </c>
-      <c r="AN314" s="78"/>
-      <c r="AO314" s="78"/>
-      <c r="AP314" s="78"/>
+      <c r="AN314" s="81"/>
+      <c r="AO314" s="81"/>
+      <c r="AP314" s="81"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP314"/>
+  <autoFilter ref="A1:AQ314"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -30025,17 +30045,17 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AD268:AG268 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="86" t="s">
-        <v>758</v>
+      <c r="A1" s="89" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30062,58 +30082,58 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AD268:AG268 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="88" t="s">
-        <v>810</v>
-      </c>
-      <c r="H1" s="88" t="s">
+      <c r="G1" s="91" t="s">
         <v>811</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="H1" s="91" t="s">
+        <v>812</v>
+      </c>
+      <c r="I1" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="88" t="s">
+      <c r="J1" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="88" t="s">
-        <v>812</v>
-      </c>
-      <c r="L1" s="88" t="s">
+      <c r="K1" s="91" t="s">
+        <v>813</v>
+      </c>
+      <c r="L1" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="91" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="89" t="s">
-        <v>813</v>
+      <c r="B4" s="92" t="s">
+        <v>814</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Hypermarket PoS 2018.xlsx
@@ -13,33 +13,34 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AP$314</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AQ$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -550,10 +551,10 @@
     <t xml:space="preserve">Кока-Кола - 2 x 1.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola Zero Lemon - 1.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Лемон - 1.5л</t>
+    <t xml:space="preserve">Coca-Cola Zero Cherry - 1.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Вишня - 1.5л</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite Cucumber-Watermelon - 1.5L</t>
@@ -568,10 +569,10 @@
     <t xml:space="preserve">Швеппс Гранат - 0.5л</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.5л</t>
+    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Вишня - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.5L</t>
@@ -586,10 +587,10 @@
     <t xml:space="preserve">Кока-Кола - 0.25л стекло</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.9L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.9л</t>
+    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.9L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Вишня- 0.9л</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite Cucumber-Watermelon - 0.9L</t>
@@ -676,10 +677,10 @@
     <t xml:space="preserve">Кока-Кола Зеро - 0.33л</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola Zero Lemon - 0.33L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кока-Кола Зеро Лемон - 0.33л</t>
+    <t xml:space="preserve">Coca-Cola Zero Cherry - 0.33L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кока-Кола Зеро Вишня - 0.33л</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite - 0.33L</t>
@@ -2900,7 +2901,7 @@
     <numFmt numFmtId="168" formatCode="D\-MMM"/>
     <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2959,6 +2960,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3008,12 +3016,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3076,12 +3090,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -3110,7 +3139,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3136,216 +3165,51 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3353,80 +3217,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3437,15 +3233,259 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3453,75 +3493,76 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="8" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="9" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="8" borderId="1" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="6" fillId="9" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Input" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3579,7 +3620,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF3F3F76"/>
       <rgbColor rgb="FF595959"/>
     </indexedColors>
   </colors>
@@ -3597,33 +3638,32 @@
   </sheetPr>
   <dimension ref="A1:AP314"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="AD268" activeCellId="0" sqref="AD268:AG268"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F44" activeCellId="0" sqref="F44:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3238866396761"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.7287449392713"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.0364372469636"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="47.3765182186235"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3036437246964"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="29" min="19" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="39" min="31" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="8.69230769230769"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="42" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.6882591093117"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.336032388664"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.1578947368421"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.5222672064777"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="48.4736842105263"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.5465587044534"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="29" min="19" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="9.66801619433198"/>
+    <col collapsed="false" hidden="false" max="39" min="31" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="1025" min="42" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5544,7 +5584,7 @@
       </c>
       <c r="AP22" s="11"/>
     </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="n">
         <v>22</v>
       </c>
@@ -5560,25 +5600,25 @@
       <c r="E23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="14" t="n">
+      <c r="I23" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14" t="s">
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="M23" s="18" t="n">
-        <v>4607042430848</v>
+      <c r="M23" s="25" t="n">
+        <v>5449000223586</v>
       </c>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
@@ -5802,7 +5842,7 @@
       </c>
       <c r="AP25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="n">
         <v>25</v>
       </c>
@@ -5818,25 +5858,25 @@
       <c r="E26" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="14" t="n">
+      <c r="I26" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14" t="s">
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="M26" s="18" t="n">
-        <v>4607042431029</v>
+      <c r="M26" s="25" t="n">
+        <v>5449000214744</v>
       </c>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
@@ -6060,7 +6100,7 @@
       </c>
       <c r="AP28" s="11"/>
     </row>
-    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="n">
         <v>28</v>
       </c>
@@ -6076,25 +6116,25 @@
       <c r="E29" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="14" t="n">
+      <c r="I29" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14" t="s">
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="M29" s="18" t="n">
-        <v>4607042430909</v>
+      <c r="M29" s="25" t="n">
+        <v>5449000251626</v>
       </c>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
@@ -7350,7 +7390,7 @@
       </c>
       <c r="AP43" s="11"/>
     </row>
-    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="n">
         <v>43</v>
       </c>
@@ -7366,24 +7406,24 @@
       <c r="E44" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I44" s="14" t="n">
+      <c r="I44" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14" t="s">
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="M44" s="18" t="n">
+      <c r="M44" s="25" t="n">
         <v>4607042431678</v>
       </c>
       <c r="N44" s="19"/>
@@ -7698,60 +7738,60 @@
       <c r="A48" s="12" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="27" t="s">
         <v>148</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="H48" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="24"/>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="23" t="s">
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AD48" s="23" t="s">
+      <c r="AD48" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AE48" s="24"/>
-      <c r="AF48" s="24"/>
-      <c r="AG48" s="24"/>
-      <c r="AH48" s="24"/>
-      <c r="AI48" s="24"/>
-      <c r="AJ48" s="24"/>
-      <c r="AK48" s="24"/>
+      <c r="AE48" s="28"/>
+      <c r="AF48" s="28"/>
+      <c r="AG48" s="28"/>
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="28"/>
+      <c r="AJ48" s="28"/>
+      <c r="AK48" s="28"/>
       <c r="AL48" s="16" t="n">
         <v>2</v>
       </c>
@@ -7761,8 +7801,8 @@
       <c r="AN48" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="AO48" s="26"/>
-      <c r="AP48" s="27"/>
+      <c r="AO48" s="30"/>
+      <c r="AP48" s="31"/>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="n">
@@ -8714,60 +8754,60 @@
       <c r="A60" s="12" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="23" t="s">
+      <c r="F60" s="27" t="s">
         <v>173</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="H60" s="23" t="s">
+      <c r="H60" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
-      <c r="U60" s="24"/>
-      <c r="V60" s="24"/>
-      <c r="W60" s="24"/>
-      <c r="X60" s="24"/>
-      <c r="Y60" s="24"/>
-      <c r="Z60" s="24"/>
-      <c r="AA60" s="24"/>
-      <c r="AB60" s="24"/>
-      <c r="AC60" s="23" t="s">
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="28"/>
+      <c r="AC60" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AD60" s="23" t="s">
+      <c r="AD60" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AE60" s="24"/>
-      <c r="AF60" s="24"/>
-      <c r="AG60" s="24"/>
-      <c r="AH60" s="24"/>
-      <c r="AI60" s="24"/>
-      <c r="AJ60" s="24"/>
-      <c r="AK60" s="24"/>
+      <c r="AE60" s="28"/>
+      <c r="AF60" s="28"/>
+      <c r="AG60" s="28"/>
+      <c r="AH60" s="28"/>
+      <c r="AI60" s="28"/>
+      <c r="AJ60" s="28"/>
+      <c r="AK60" s="28"/>
       <c r="AL60" s="16" t="n">
         <v>2</v>
       </c>
@@ -8777,8 +8817,8 @@
       <c r="AN60" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="AO60" s="26"/>
-      <c r="AP60" s="27"/>
+      <c r="AO60" s="30"/>
+      <c r="AP60" s="31"/>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="n">
@@ -9157,7 +9197,7 @@
       <c r="L65" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="M65" s="28" t="n">
+      <c r="M65" s="32" t="n">
         <v>5060466516038</v>
       </c>
       <c r="N65" s="19"/>
@@ -9472,60 +9512,60 @@
       <c r="A69" s="12" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E69" s="22" t="s">
+      <c r="E69" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F69" s="27" t="s">
         <v>192</v>
       </c>
       <c r="G69" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="H69" s="23" t="s">
+      <c r="H69" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="24"/>
-      <c r="T69" s="24"/>
-      <c r="U69" s="24"/>
-      <c r="V69" s="24"/>
-      <c r="W69" s="24"/>
-      <c r="X69" s="24"/>
-      <c r="Y69" s="24"/>
-      <c r="Z69" s="24"/>
-      <c r="AA69" s="24"/>
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="23" t="s">
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="28"/>
+      <c r="S69" s="28"/>
+      <c r="T69" s="28"/>
+      <c r="U69" s="28"/>
+      <c r="V69" s="28"/>
+      <c r="W69" s="28"/>
+      <c r="X69" s="28"/>
+      <c r="Y69" s="28"/>
+      <c r="Z69" s="28"/>
+      <c r="AA69" s="28"/>
+      <c r="AB69" s="28"/>
+      <c r="AC69" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AD69" s="23" t="s">
+      <c r="AD69" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AE69" s="24"/>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="24"/>
-      <c r="AH69" s="24"/>
-      <c r="AI69" s="24"/>
-      <c r="AJ69" s="24"/>
-      <c r="AK69" s="24"/>
+      <c r="AE69" s="28"/>
+      <c r="AF69" s="28"/>
+      <c r="AG69" s="28"/>
+      <c r="AH69" s="28"/>
+      <c r="AI69" s="28"/>
+      <c r="AJ69" s="28"/>
+      <c r="AK69" s="28"/>
       <c r="AL69" s="16" t="n">
         <v>2</v>
       </c>
@@ -9535,8 +9575,8 @@
       <c r="AN69" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="AO69" s="26"/>
-      <c r="AP69" s="27"/>
+      <c r="AO69" s="30"/>
+      <c r="AP69" s="31"/>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="n">
@@ -10832,60 +10872,60 @@
       <c r="A85" s="12" t="n">
         <v>84</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="22" t="s">
+      <c r="D85" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E85" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="F85" s="23" t="s">
+      <c r="F85" s="27" t="s">
         <v>225</v>
       </c>
       <c r="G85" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="H85" s="23" t="s">
+      <c r="H85" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="25"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="24"/>
-      <c r="S85" s="24"/>
-      <c r="T85" s="24"/>
-      <c r="U85" s="24"/>
-      <c r="V85" s="24"/>
-      <c r="W85" s="24"/>
-      <c r="X85" s="24"/>
-      <c r="Y85" s="24"/>
-      <c r="Z85" s="24"/>
-      <c r="AA85" s="24"/>
-      <c r="AB85" s="24"/>
-      <c r="AC85" s="23" t="s">
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="28"/>
+      <c r="R85" s="28"/>
+      <c r="S85" s="28"/>
+      <c r="T85" s="28"/>
+      <c r="U85" s="28"/>
+      <c r="V85" s="28"/>
+      <c r="W85" s="28"/>
+      <c r="X85" s="28"/>
+      <c r="Y85" s="28"/>
+      <c r="Z85" s="28"/>
+      <c r="AA85" s="28"/>
+      <c r="AB85" s="28"/>
+      <c r="AC85" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AD85" s="23" t="s">
+      <c r="AD85" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="AE85" s="24"/>
-      <c r="AF85" s="24"/>
-      <c r="AG85" s="24"/>
-      <c r="AH85" s="24"/>
-      <c r="AI85" s="24"/>
-      <c r="AJ85" s="24"/>
-      <c r="AK85" s="24"/>
+      <c r="AE85" s="28"/>
+      <c r="AF85" s="28"/>
+      <c r="AG85" s="28"/>
+      <c r="AH85" s="28"/>
+      <c r="AI85" s="28"/>
+      <c r="AJ85" s="28"/>
+      <c r="AK85" s="28"/>
       <c r="AL85" s="16" t="n">
         <v>2</v>
       </c>
@@ -10895,8 +10935,8 @@
       <c r="AN85" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="AO85" s="26"/>
-      <c r="AP85" s="27"/>
+      <c r="AO85" s="30"/>
+      <c r="AP85" s="31"/>
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="12" t="n">
@@ -13511,7 +13551,7 @@
       <c r="L116" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="M116" s="29" t="n">
+      <c r="M116" s="33" t="n">
         <v>4607174577947</v>
       </c>
       <c r="N116" s="19"/>
@@ -18669,24 +18709,24 @@
       <c r="J176" s="14"/>
       <c r="K176" s="14"/>
       <c r="L176" s="10"/>
-      <c r="M176" s="30"/>
-      <c r="N176" s="30"/>
-      <c r="O176" s="30"/>
-      <c r="P176" s="30"/>
+      <c r="M176" s="34"/>
+      <c r="N176" s="34"/>
+      <c r="O176" s="34"/>
+      <c r="P176" s="34"/>
       <c r="Q176" s="10" t="s">
         <v>412</v>
       </c>
       <c r="R176" s="10"/>
       <c r="S176" s="10"/>
       <c r="T176" s="10"/>
-      <c r="U176" s="31"/>
+      <c r="U176" s="35"/>
       <c r="V176" s="10"/>
       <c r="W176" s="10" t="s">
         <v>413</v>
       </c>
       <c r="X176" s="10"/>
       <c r="Y176" s="10"/>
-      <c r="Z176" s="32" t="n">
+      <c r="Z176" s="36" t="n">
         <v>101</v>
       </c>
       <c r="AA176" s="10"/>
@@ -18712,7 +18752,7 @@
       <c r="AM176" s="12" t="n">
         <v>175</v>
       </c>
-      <c r="AN176" s="33" t="s">
+      <c r="AN176" s="37" t="s">
         <v>414</v>
       </c>
       <c r="AO176" s="10"/>
@@ -18751,14 +18791,14 @@
       <c r="L177" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="M177" s="30" t="s">
+      <c r="M177" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="N177" s="30" t="s">
+      <c r="N177" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="O177" s="30"/>
-      <c r="P177" s="30"/>
+      <c r="O177" s="34"/>
+      <c r="P177" s="34"/>
       <c r="Q177" s="10" t="s">
         <v>54</v>
       </c>
@@ -18767,14 +18807,14 @@
       </c>
       <c r="S177" s="10"/>
       <c r="T177" s="10"/>
-      <c r="U177" s="31"/>
+      <c r="U177" s="35"/>
       <c r="V177" s="10"/>
       <c r="W177" s="10" t="s">
         <v>413</v>
       </c>
       <c r="X177" s="10"/>
       <c r="Y177" s="10"/>
-      <c r="Z177" s="32" t="n">
+      <c r="Z177" s="36" t="n">
         <v>101</v>
       </c>
       <c r="AA177" s="10"/>
@@ -18816,75 +18856,75 @@
       <c r="C178" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D178" s="34" t="s">
+      <c r="D178" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E178" s="34" t="s">
+      <c r="E178" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="F178" s="35" t="s">
+      <c r="F178" s="39" t="s">
         <v>420</v>
       </c>
-      <c r="G178" s="35" t="s">
+      <c r="G178" s="39" t="s">
         <v>421</v>
       </c>
-      <c r="H178" s="36" t="s">
+      <c r="H178" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="I178" s="36" t="n">
+      <c r="I178" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J178" s="36"/>
-      <c r="K178" s="36"/>
-      <c r="L178" s="35"/>
-      <c r="M178" s="37"/>
-      <c r="N178" s="37"/>
-      <c r="O178" s="37"/>
-      <c r="P178" s="37"/>
-      <c r="Q178" s="35" t="s">
+      <c r="J178" s="40"/>
+      <c r="K178" s="40"/>
+      <c r="L178" s="39"/>
+      <c r="M178" s="41"/>
+      <c r="N178" s="41"/>
+      <c r="O178" s="41"/>
+      <c r="P178" s="41"/>
+      <c r="Q178" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="R178" s="35" t="s">
+      <c r="R178" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="S178" s="35"/>
-      <c r="T178" s="35"/>
-      <c r="U178" s="36" t="s">
+      <c r="S178" s="39"/>
+      <c r="T178" s="39"/>
+      <c r="U178" s="40" t="s">
         <v>424</v>
       </c>
-      <c r="V178" s="35"/>
-      <c r="W178" s="35" t="s">
+      <c r="V178" s="39"/>
+      <c r="W178" s="39" t="s">
         <v>413</v>
       </c>
-      <c r="X178" s="35"/>
-      <c r="Y178" s="35"/>
-      <c r="Z178" s="32" t="n">
+      <c r="X178" s="39"/>
+      <c r="Y178" s="39"/>
+      <c r="Z178" s="36" t="n">
         <v>101</v>
       </c>
-      <c r="AA178" s="35"/>
-      <c r="AB178" s="35"/>
-      <c r="AC178" s="35" t="s">
+      <c r="AA178" s="39"/>
+      <c r="AB178" s="39"/>
+      <c r="AC178" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AD178" s="36" t="s">
+      <c r="AD178" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="AE178" s="38" t="n">
+      <c r="AE178" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AF178" s="36"/>
-      <c r="AG178" s="36"/>
-      <c r="AH178" s="36"/>
-      <c r="AI178" s="36"/>
-      <c r="AJ178" s="36"/>
-      <c r="AK178" s="36"/>
-      <c r="AL178" s="35" t="n">
+      <c r="AF178" s="40"/>
+      <c r="AG178" s="40"/>
+      <c r="AH178" s="40"/>
+      <c r="AI178" s="40"/>
+      <c r="AJ178" s="40"/>
+      <c r="AK178" s="40"/>
+      <c r="AL178" s="39" t="n">
         <v>3</v>
       </c>
       <c r="AM178" s="12" t="n">
         <v>177</v>
       </c>
-      <c r="AN178" s="35"/>
+      <c r="AN178" s="39"/>
       <c r="AO178" s="10" t="s">
         <v>409</v>
       </c>
@@ -18912,10 +18952,10 @@
       <c r="G179" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="H179" s="39" t="s">
+      <c r="H179" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="I179" s="40"/>
+      <c r="I179" s="44"/>
       <c r="J179" s="14"/>
       <c r="K179" s="14"/>
       <c r="L179" s="14" t="s">
@@ -18924,9 +18964,9 @@
       <c r="M179" s="18" t="n">
         <v>5449000000286</v>
       </c>
-      <c r="N179" s="30"/>
-      <c r="O179" s="30"/>
-      <c r="P179" s="30"/>
+      <c r="N179" s="34"/>
+      <c r="O179" s="34"/>
+      <c r="P179" s="34"/>
       <c r="Q179" s="10" t="s">
         <v>54</v>
       </c>
@@ -18935,14 +18975,14 @@
       </c>
       <c r="S179" s="10"/>
       <c r="T179" s="10"/>
-      <c r="U179" s="31"/>
+      <c r="U179" s="35"/>
       <c r="V179" s="10"/>
       <c r="W179" s="10" t="s">
         <v>413</v>
       </c>
       <c r="X179" s="10"/>
       <c r="Y179" s="10"/>
-      <c r="Z179" s="32" t="n">
+      <c r="Z179" s="36" t="n">
         <v>101</v>
       </c>
       <c r="AA179" s="10"/>
@@ -19007,24 +19047,24 @@
       <c r="J180" s="14"/>
       <c r="K180" s="14"/>
       <c r="L180" s="10"/>
-      <c r="M180" s="41"/>
-      <c r="N180" s="41"/>
-      <c r="O180" s="41"/>
-      <c r="P180" s="41"/>
+      <c r="M180" s="45"/>
+      <c r="N180" s="45"/>
+      <c r="O180" s="45"/>
+      <c r="P180" s="45"/>
       <c r="Q180" s="10" t="s">
         <v>412</v>
       </c>
       <c r="R180" s="10"/>
       <c r="S180" s="10"/>
       <c r="T180" s="10"/>
-      <c r="U180" s="31"/>
+      <c r="U180" s="35"/>
       <c r="V180" s="10"/>
       <c r="W180" s="10" t="s">
         <v>413</v>
       </c>
       <c r="X180" s="10"/>
       <c r="Y180" s="10"/>
-      <c r="Z180" s="32" t="n">
+      <c r="Z180" s="36" t="n">
         <v>101</v>
       </c>
       <c r="AA180" s="10"/>
@@ -19040,12 +19080,12 @@
       </c>
       <c r="AF180" s="14"/>
       <c r="AG180" s="14"/>
-      <c r="AH180" s="36" t="s">
+      <c r="AH180" s="40" t="s">
         <v>433</v>
       </c>
       <c r="AI180" s="14"/>
       <c r="AJ180" s="14"/>
-      <c r="AK180" s="42" t="s">
+      <c r="AK180" s="46" t="s">
         <v>409</v>
       </c>
       <c r="AL180" s="10" t="n">
@@ -19054,10 +19094,10 @@
       <c r="AM180" s="12" t="n">
         <v>179</v>
       </c>
-      <c r="AN180" s="33" t="s">
+      <c r="AN180" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="AO180" s="43" t="s">
+      <c r="AO180" s="47" t="s">
         <v>435</v>
       </c>
       <c r="AP180" s="10"/>
@@ -19081,7 +19121,7 @@
       <c r="F181" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="G181" s="23" t="s">
+      <c r="G181" s="27" t="s">
         <v>437</v>
       </c>
       <c r="H181" s="14" t="s">
@@ -19098,25 +19138,25 @@
       <c r="M181" s="18" t="n">
         <v>5449000000286</v>
       </c>
-      <c r="N181" s="30"/>
-      <c r="O181" s="30"/>
-      <c r="P181" s="30"/>
+      <c r="N181" s="34"/>
+      <c r="O181" s="34"/>
+      <c r="P181" s="34"/>
       <c r="Q181" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="R181" s="44" t="s">
+      <c r="R181" s="48" t="s">
         <v>55</v>
       </c>
       <c r="S181" s="10"/>
       <c r="T181" s="10"/>
-      <c r="U181" s="31"/>
+      <c r="U181" s="35"/>
       <c r="V181" s="10"/>
       <c r="W181" s="10" t="s">
         <v>413</v>
       </c>
       <c r="X181" s="10"/>
       <c r="Y181" s="10"/>
-      <c r="Z181" s="32" t="n">
+      <c r="Z181" s="36" t="n">
         <v>101</v>
       </c>
       <c r="AA181" s="10"/>
@@ -19167,7 +19207,7 @@
       <c r="F182" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="G182" s="23" t="s">
+      <c r="G182" s="27" t="s">
         <v>439</v>
       </c>
       <c r="H182" s="14" t="s">
@@ -19184,25 +19224,25 @@
       <c r="M182" s="18" t="n">
         <v>5449000004864</v>
       </c>
-      <c r="N182" s="30"/>
-      <c r="O182" s="30"/>
-      <c r="P182" s="30"/>
+      <c r="N182" s="34"/>
+      <c r="O182" s="34"/>
+      <c r="P182" s="34"/>
       <c r="Q182" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="R182" s="44" t="s">
+      <c r="R182" s="48" t="s">
         <v>55</v>
       </c>
       <c r="S182" s="10"/>
       <c r="T182" s="10"/>
-      <c r="U182" s="31"/>
+      <c r="U182" s="35"/>
       <c r="V182" s="10"/>
       <c r="W182" s="10" t="s">
         <v>413</v>
       </c>
       <c r="X182" s="10"/>
       <c r="Y182" s="10"/>
-      <c r="Z182" s="32" t="n">
+      <c r="Z182" s="36" t="n">
         <v>101</v>
       </c>
       <c r="AA182" s="10"/>
@@ -19253,7 +19293,7 @@
       <c r="F183" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="G183" s="23" t="s">
+      <c r="G183" s="27" t="s">
         <v>441</v>
       </c>
       <c r="H183" s="14" t="s">
@@ -19270,25 +19310,25 @@
       <c r="M183" s="18" t="n">
         <v>5449000004840</v>
       </c>
-      <c r="N183" s="30"/>
-      <c r="O183" s="30"/>
-      <c r="P183" s="30"/>
+      <c r="N183" s="34"/>
+      <c r="O183" s="34"/>
+      <c r="P183" s="34"/>
       <c r="Q183" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="R183" s="44" t="s">
+      <c r="R183" s="48" t="s">
         <v>55</v>
       </c>
       <c r="S183" s="10"/>
       <c r="T183" s="10"/>
-      <c r="U183" s="31"/>
+      <c r="U183" s="35"/>
       <c r="V183" s="10"/>
       <c r="W183" s="10" t="s">
         <v>413</v>
       </c>
       <c r="X183" s="10"/>
       <c r="Y183" s="10"/>
-      <c r="Z183" s="32" t="n">
+      <c r="Z183" s="36" t="n">
         <v>101</v>
       </c>
       <c r="AA183" s="10"/>
@@ -19351,24 +19391,24 @@
       <c r="J184" s="14"/>
       <c r="K184" s="14"/>
       <c r="L184" s="10"/>
-      <c r="M184" s="30"/>
-      <c r="N184" s="30"/>
-      <c r="O184" s="30"/>
-      <c r="P184" s="30"/>
+      <c r="M184" s="34"/>
+      <c r="N184" s="34"/>
+      <c r="O184" s="34"/>
+      <c r="P184" s="34"/>
       <c r="Q184" s="10" t="s">
         <v>412</v>
       </c>
       <c r="R184" s="10"/>
       <c r="S184" s="10"/>
       <c r="T184" s="10"/>
-      <c r="U184" s="31"/>
+      <c r="U184" s="35"/>
       <c r="V184" s="10"/>
       <c r="W184" s="10" t="s">
         <v>444</v>
       </c>
       <c r="X184" s="10"/>
       <c r="Y184" s="10"/>
-      <c r="Z184" s="32" t="n">
+      <c r="Z184" s="36" t="n">
         <v>1101</v>
       </c>
       <c r="AA184" s="10"/>
@@ -19394,7 +19434,7 @@
       <c r="AM184" s="12" t="n">
         <v>183</v>
       </c>
-      <c r="AN184" s="33" t="s">
+      <c r="AN184" s="37" t="s">
         <v>445</v>
       </c>
       <c r="AO184" s="10"/>
@@ -19433,14 +19473,14 @@
       <c r="L185" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="M185" s="30" t="s">
+      <c r="M185" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="N185" s="30" t="s">
+      <c r="N185" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="O185" s="30"/>
-      <c r="P185" s="30"/>
+      <c r="O185" s="34"/>
+      <c r="P185" s="34"/>
       <c r="Q185" s="10" t="s">
         <v>54</v>
       </c>
@@ -19449,14 +19489,14 @@
       </c>
       <c r="S185" s="10"/>
       <c r="T185" s="10"/>
-      <c r="U185" s="31"/>
+      <c r="U185" s="35"/>
       <c r="V185" s="10"/>
       <c r="W185" s="10" t="s">
         <v>444</v>
       </c>
       <c r="X185" s="10"/>
       <c r="Y185" s="10"/>
-      <c r="Z185" s="32" t="n">
+      <c r="Z185" s="36" t="n">
         <v>1101</v>
       </c>
       <c r="AA185" s="10"/>
@@ -19498,75 +19538,75 @@
       <c r="C186" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D186" s="34" t="s">
+      <c r="D186" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E186" s="34" t="s">
+      <c r="E186" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="F186" s="35" t="s">
+      <c r="F186" s="39" t="s">
         <v>449</v>
       </c>
-      <c r="G186" s="35" t="s">
+      <c r="G186" s="39" t="s">
         <v>450</v>
       </c>
-      <c r="H186" s="36" t="s">
+      <c r="H186" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="I186" s="36" t="n">
+      <c r="I186" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J186" s="36"/>
-      <c r="K186" s="36"/>
-      <c r="L186" s="35"/>
-      <c r="M186" s="37"/>
-      <c r="N186" s="37"/>
-      <c r="O186" s="37"/>
-      <c r="P186" s="37"/>
-      <c r="Q186" s="35" t="s">
+      <c r="J186" s="40"/>
+      <c r="K186" s="40"/>
+      <c r="L186" s="39"/>
+      <c r="M186" s="41"/>
+      <c r="N186" s="41"/>
+      <c r="O186" s="41"/>
+      <c r="P186" s="41"/>
+      <c r="Q186" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="R186" s="35" t="s">
+      <c r="R186" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="S186" s="35"/>
-      <c r="T186" s="35"/>
-      <c r="U186" s="36" t="s">
+      <c r="S186" s="39"/>
+      <c r="T186" s="39"/>
+      <c r="U186" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="V186" s="35"/>
-      <c r="W186" s="35" t="s">
+      <c r="V186" s="39"/>
+      <c r="W186" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="X186" s="35"/>
-      <c r="Y186" s="35"/>
-      <c r="Z186" s="32" t="n">
+      <c r="X186" s="39"/>
+      <c r="Y186" s="39"/>
+      <c r="Z186" s="36" t="n">
         <v>1101</v>
       </c>
-      <c r="AA186" s="35"/>
-      <c r="AB186" s="35"/>
-      <c r="AC186" s="35" t="s">
+      <c r="AA186" s="39"/>
+      <c r="AB186" s="39"/>
+      <c r="AC186" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AD186" s="36" t="s">
+      <c r="AD186" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="AE186" s="38" t="n">
+      <c r="AE186" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AF186" s="36"/>
-      <c r="AG186" s="36"/>
-      <c r="AH186" s="36"/>
-      <c r="AI186" s="36"/>
-      <c r="AJ186" s="36"/>
-      <c r="AK186" s="36"/>
-      <c r="AL186" s="35" t="n">
+      <c r="AF186" s="40"/>
+      <c r="AG186" s="40"/>
+      <c r="AH186" s="40"/>
+      <c r="AI186" s="40"/>
+      <c r="AJ186" s="40"/>
+      <c r="AK186" s="40"/>
+      <c r="AL186" s="39" t="n">
         <v>3</v>
       </c>
       <c r="AM186" s="12" t="n">
         <v>185</v>
       </c>
-      <c r="AN186" s="35"/>
+      <c r="AN186" s="39"/>
       <c r="AO186" s="10" t="s">
         <v>442</v>
       </c>
@@ -19582,16 +19622,16 @@
       <c r="C187" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D187" s="45" t="s">
+      <c r="D187" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E187" s="45" t="s">
+      <c r="E187" s="49" t="s">
         <v>408</v>
       </c>
       <c r="F187" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="G187" s="23" t="s">
+      <c r="G187" s="27" t="s">
         <v>453</v>
       </c>
       <c r="H187" s="14" t="s">
@@ -19603,24 +19643,24 @@
       <c r="J187" s="14"/>
       <c r="K187" s="14"/>
       <c r="L187" s="10"/>
-      <c r="M187" s="30"/>
-      <c r="N187" s="30"/>
-      <c r="O187" s="30"/>
-      <c r="P187" s="30"/>
+      <c r="M187" s="34"/>
+      <c r="N187" s="34"/>
+      <c r="O187" s="34"/>
+      <c r="P187" s="34"/>
       <c r="Q187" s="10" t="s">
         <v>54</v>
       </c>
       <c r="R187" s="10"/>
       <c r="S187" s="10"/>
       <c r="T187" s="10"/>
-      <c r="U187" s="31"/>
+      <c r="U187" s="35"/>
       <c r="V187" s="10"/>
       <c r="W187" s="10" t="s">
         <v>444</v>
       </c>
       <c r="X187" s="10"/>
       <c r="Y187" s="10"/>
-      <c r="Z187" s="32" t="n">
+      <c r="Z187" s="36" t="n">
         <v>1101</v>
       </c>
       <c r="AA187" s="10"/>
@@ -19646,7 +19686,7 @@
       <c r="AM187" s="12" t="n">
         <v>186</v>
       </c>
-      <c r="AN187" s="33" t="s">
+      <c r="AN187" s="37" t="s">
         <v>455</v>
       </c>
       <c r="AO187" s="10" t="s">
@@ -19673,19 +19713,19 @@
       <c r="F188" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="G188" s="23" t="s">
+      <c r="G188" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="H188" s="39" t="s">
+      <c r="H188" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="I188" s="40"/>
+      <c r="I188" s="44"/>
       <c r="J188" s="14"/>
       <c r="K188" s="14"/>
-      <c r="L188" s="44" t="s">
+      <c r="L188" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="M188" s="46" t="n">
+      <c r="M188" s="50" t="n">
         <v>4607042434877</v>
       </c>
       <c r="N188" s="19"/>
@@ -19699,14 +19739,14 @@
       </c>
       <c r="S188" s="10"/>
       <c r="T188" s="10"/>
-      <c r="U188" s="31"/>
+      <c r="U188" s="35"/>
       <c r="V188" s="10"/>
       <c r="W188" s="10" t="s">
         <v>444</v>
       </c>
       <c r="X188" s="10"/>
       <c r="Y188" s="10"/>
-      <c r="Z188" s="32" t="n">
+      <c r="Z188" s="36" t="n">
         <v>1101</v>
       </c>
       <c r="AA188" s="10"/>
@@ -19759,16 +19799,16 @@
       <c r="F189" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="G189" s="23" t="s">
+      <c r="G189" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="H189" s="39" t="s">
+      <c r="H189" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="I189" s="40"/>
+      <c r="I189" s="44"/>
       <c r="J189" s="14"/>
       <c r="K189" s="14"/>
-      <c r="L189" s="44" t="s">
+      <c r="L189" s="48" t="s">
         <v>230</v>
       </c>
       <c r="M189" s="19" t="n">
@@ -19785,14 +19825,14 @@
       </c>
       <c r="S189" s="10"/>
       <c r="T189" s="10"/>
-      <c r="U189" s="31"/>
+      <c r="U189" s="35"/>
       <c r="V189" s="10"/>
       <c r="W189" s="10" t="s">
         <v>444</v>
       </c>
       <c r="X189" s="10"/>
       <c r="Y189" s="10"/>
-      <c r="Z189" s="32" t="n">
+      <c r="Z189" s="36" t="n">
         <v>1101</v>
       </c>
       <c r="AA189" s="10"/>
@@ -19857,24 +19897,24 @@
       <c r="J190" s="14"/>
       <c r="K190" s="14"/>
       <c r="L190" s="10"/>
-      <c r="M190" s="41"/>
-      <c r="N190" s="41"/>
-      <c r="O190" s="41"/>
-      <c r="P190" s="41"/>
+      <c r="M190" s="45"/>
+      <c r="N190" s="45"/>
+      <c r="O190" s="45"/>
+      <c r="P190" s="45"/>
       <c r="Q190" s="10" t="s">
         <v>412</v>
       </c>
       <c r="R190" s="10"/>
       <c r="S190" s="10"/>
       <c r="T190" s="10"/>
-      <c r="U190" s="31"/>
+      <c r="U190" s="35"/>
       <c r="V190" s="10"/>
       <c r="W190" s="10" t="s">
         <v>444</v>
       </c>
       <c r="X190" s="10"/>
       <c r="Y190" s="10"/>
-      <c r="Z190" s="32" t="n">
+      <c r="Z190" s="36" t="n">
         <v>1101</v>
       </c>
       <c r="AA190" s="10"/>
@@ -19890,12 +19930,12 @@
       </c>
       <c r="AF190" s="14"/>
       <c r="AG190" s="14"/>
-      <c r="AH190" s="36" t="s">
+      <c r="AH190" s="40" t="s">
         <v>464</v>
       </c>
       <c r="AI190" s="14"/>
       <c r="AJ190" s="14"/>
-      <c r="AK190" s="42" t="s">
+      <c r="AK190" s="46" t="s">
         <v>442</v>
       </c>
       <c r="AL190" s="10" t="n">
@@ -19904,10 +19944,10 @@
       <c r="AM190" s="12" t="n">
         <v>189</v>
       </c>
-      <c r="AN190" s="33" t="s">
+      <c r="AN190" s="37" t="s">
         <v>465</v>
       </c>
-      <c r="AO190" s="43" t="s">
+      <c r="AO190" s="47" t="s">
         <v>435</v>
       </c>
       <c r="AP190" s="10"/>
@@ -19931,7 +19971,7 @@
       <c r="F191" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="G191" s="23" t="s">
+      <c r="G191" s="27" t="s">
         <v>467</v>
       </c>
       <c r="H191" s="14" t="s">
@@ -19942,10 +19982,10 @@
       </c>
       <c r="J191" s="14"/>
       <c r="K191" s="14"/>
-      <c r="L191" s="44" t="s">
+      <c r="L191" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="M191" s="46" t="n">
+      <c r="M191" s="50" t="n">
         <v>4607042434877</v>
       </c>
       <c r="N191" s="19"/>
@@ -19954,19 +19994,19 @@
       <c r="Q191" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="R191" s="44" t="s">
+      <c r="R191" s="48" t="s">
         <v>55</v>
       </c>
       <c r="S191" s="10"/>
       <c r="T191" s="10"/>
-      <c r="U191" s="31"/>
+      <c r="U191" s="35"/>
       <c r="V191" s="10"/>
       <c r="W191" s="10" t="s">
         <v>444</v>
       </c>
       <c r="X191" s="10"/>
       <c r="Y191" s="10"/>
-      <c r="Z191" s="32" t="n">
+      <c r="Z191" s="36" t="n">
         <v>1101</v>
       </c>
       <c r="AA191" s="10"/>
@@ -20017,7 +20057,7 @@
       <c r="F192" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="G192" s="23" t="s">
+      <c r="G192" s="27" t="s">
         <v>469</v>
       </c>
       <c r="H192" s="14" t="s">
@@ -20028,7 +20068,7 @@
       </c>
       <c r="J192" s="14"/>
       <c r="K192" s="14"/>
-      <c r="L192" s="44" t="s">
+      <c r="L192" s="48" t="s">
         <v>230</v>
       </c>
       <c r="M192" s="19" t="n">
@@ -20040,19 +20080,19 @@
       <c r="Q192" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="R192" s="44" t="s">
+      <c r="R192" s="48" t="s">
         <v>55</v>
       </c>
       <c r="S192" s="10"/>
       <c r="T192" s="10"/>
-      <c r="U192" s="31"/>
+      <c r="U192" s="35"/>
       <c r="V192" s="10"/>
       <c r="W192" s="10" t="s">
         <v>444</v>
       </c>
       <c r="X192" s="10"/>
       <c r="Y192" s="10"/>
-      <c r="Z192" s="32" t="n">
+      <c r="Z192" s="36" t="n">
         <v>1101</v>
       </c>
       <c r="AA192" s="10"/>
@@ -20103,7 +20143,7 @@
       <c r="F193" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="G193" s="23" t="s">
+      <c r="G193" s="27" t="s">
         <v>471</v>
       </c>
       <c r="H193" s="14" t="s">
@@ -20114,7 +20154,7 @@
       </c>
       <c r="J193" s="14"/>
       <c r="K193" s="14"/>
-      <c r="L193" s="44" t="s">
+      <c r="L193" s="48" t="s">
         <v>232</v>
       </c>
       <c r="M193" s="19" t="n">
@@ -20126,19 +20166,19 @@
       <c r="Q193" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="R193" s="44" t="s">
+      <c r="R193" s="48" t="s">
         <v>55</v>
       </c>
       <c r="S193" s="10"/>
       <c r="T193" s="10"/>
-      <c r="U193" s="31"/>
+      <c r="U193" s="35"/>
       <c r="V193" s="10"/>
       <c r="W193" s="10" t="s">
         <v>444</v>
       </c>
       <c r="X193" s="10"/>
       <c r="Y193" s="10"/>
-      <c r="Z193" s="32" t="n">
+      <c r="Z193" s="36" t="n">
         <v>1101</v>
       </c>
       <c r="AA193" s="10"/>
@@ -20189,7 +20229,7 @@
       <c r="F194" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="G194" s="23" t="s">
+      <c r="G194" s="27" t="s">
         <v>473</v>
       </c>
       <c r="H194" s="14" t="s">
@@ -20200,7 +20240,7 @@
       </c>
       <c r="J194" s="14"/>
       <c r="K194" s="14"/>
-      <c r="L194" s="44" t="s">
+      <c r="L194" s="48" t="s">
         <v>234</v>
       </c>
       <c r="M194" s="19" t="n">
@@ -20212,19 +20252,19 @@
       <c r="Q194" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="R194" s="44" t="s">
+      <c r="R194" s="48" t="s">
         <v>55</v>
       </c>
       <c r="S194" s="10"/>
       <c r="T194" s="10"/>
-      <c r="U194" s="31"/>
+      <c r="U194" s="35"/>
       <c r="V194" s="10"/>
       <c r="W194" s="10" t="s">
         <v>444</v>
       </c>
       <c r="X194" s="10"/>
       <c r="Y194" s="10"/>
-      <c r="Z194" s="32" t="n">
+      <c r="Z194" s="36" t="n">
         <v>1101</v>
       </c>
       <c r="AA194" s="10"/>
@@ -20287,24 +20327,24 @@
       <c r="J195" s="14"/>
       <c r="K195" s="14"/>
       <c r="L195" s="10"/>
-      <c r="M195" s="30"/>
-      <c r="N195" s="30"/>
-      <c r="O195" s="30"/>
-      <c r="P195" s="30"/>
+      <c r="M195" s="34"/>
+      <c r="N195" s="34"/>
+      <c r="O195" s="34"/>
+      <c r="P195" s="34"/>
       <c r="Q195" s="10" t="s">
         <v>412</v>
       </c>
       <c r="R195" s="10"/>
       <c r="S195" s="10"/>
       <c r="T195" s="10"/>
-      <c r="U195" s="31"/>
+      <c r="U195" s="35"/>
       <c r="V195" s="10"/>
       <c r="W195" s="10" t="s">
         <v>413</v>
       </c>
       <c r="X195" s="10"/>
       <c r="Y195" s="10"/>
-      <c r="Z195" s="32" t="n">
+      <c r="Z195" s="36" t="n">
         <v>102</v>
       </c>
       <c r="AA195" s="10"/>
@@ -20330,7 +20370,7 @@
       <c r="AM195" s="12" t="n">
         <v>194</v>
       </c>
-      <c r="AN195" s="33" t="s">
+      <c r="AN195" s="37" t="s">
         <v>476</v>
       </c>
       <c r="AO195" s="10"/>
@@ -20369,14 +20409,14 @@
       <c r="L196" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="M196" s="30" t="s">
+      <c r="M196" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="N196" s="30" t="s">
+      <c r="N196" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="O196" s="30"/>
-      <c r="P196" s="30"/>
+      <c r="O196" s="34"/>
+      <c r="P196" s="34"/>
       <c r="Q196" s="10" t="s">
         <v>54</v>
       </c>
@@ -20385,14 +20425,14 @@
       </c>
       <c r="S196" s="10"/>
       <c r="T196" s="10"/>
-      <c r="U196" s="31"/>
+      <c r="U196" s="35"/>
       <c r="V196" s="10"/>
       <c r="W196" s="10" t="s">
         <v>413</v>
       </c>
       <c r="X196" s="10"/>
       <c r="Y196" s="10"/>
-      <c r="Z196" s="32" t="n">
+      <c r="Z196" s="36" t="n">
         <v>102</v>
       </c>
       <c r="AA196" s="10"/>
@@ -20434,75 +20474,75 @@
       <c r="C197" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D197" s="34" t="s">
+      <c r="D197" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E197" s="34" t="s">
+      <c r="E197" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="F197" s="35" t="s">
+      <c r="F197" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="G197" s="35" t="s">
+      <c r="G197" s="39" t="s">
         <v>480</v>
       </c>
-      <c r="H197" s="36" t="s">
+      <c r="H197" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="I197" s="36" t="n">
+      <c r="I197" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J197" s="36"/>
-      <c r="K197" s="36"/>
-      <c r="L197" s="35"/>
-      <c r="M197" s="37"/>
-      <c r="N197" s="37"/>
-      <c r="O197" s="37"/>
-      <c r="P197" s="37"/>
-      <c r="Q197" s="35" t="s">
+      <c r="J197" s="40"/>
+      <c r="K197" s="40"/>
+      <c r="L197" s="39"/>
+      <c r="M197" s="41"/>
+      <c r="N197" s="41"/>
+      <c r="O197" s="41"/>
+      <c r="P197" s="41"/>
+      <c r="Q197" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="R197" s="35" t="s">
+      <c r="R197" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="S197" s="35"/>
-      <c r="T197" s="35"/>
-      <c r="U197" s="36" t="s">
+      <c r="S197" s="39"/>
+      <c r="T197" s="39"/>
+      <c r="U197" s="40" t="s">
         <v>481</v>
       </c>
-      <c r="V197" s="35"/>
-      <c r="W197" s="35" t="s">
+      <c r="V197" s="39"/>
+      <c r="W197" s="39" t="s">
         <v>413</v>
       </c>
-      <c r="X197" s="35"/>
-      <c r="Y197" s="35"/>
-      <c r="Z197" s="32" t="n">
+      <c r="X197" s="39"/>
+      <c r="Y197" s="39"/>
+      <c r="Z197" s="36" t="n">
         <v>102</v>
       </c>
-      <c r="AA197" s="35"/>
-      <c r="AB197" s="35"/>
-      <c r="AC197" s="35" t="s">
+      <c r="AA197" s="39"/>
+      <c r="AB197" s="39"/>
+      <c r="AC197" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AD197" s="36" t="s">
+      <c r="AD197" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="AE197" s="38" t="n">
+      <c r="AE197" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AF197" s="36"/>
-      <c r="AG197" s="36"/>
-      <c r="AH197" s="36"/>
-      <c r="AI197" s="36"/>
-      <c r="AJ197" s="36"/>
-      <c r="AK197" s="36"/>
-      <c r="AL197" s="35" t="n">
+      <c r="AF197" s="40"/>
+      <c r="AG197" s="40"/>
+      <c r="AH197" s="40"/>
+      <c r="AI197" s="40"/>
+      <c r="AJ197" s="40"/>
+      <c r="AK197" s="40"/>
+      <c r="AL197" s="39" t="n">
         <v>3</v>
       </c>
       <c r="AM197" s="12" t="n">
         <v>196</v>
       </c>
-      <c r="AN197" s="35"/>
+      <c r="AN197" s="39"/>
       <c r="AO197" s="10" t="s">
         <v>474</v>
       </c>
@@ -20518,28 +20558,28 @@
       <c r="C198" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D198" s="45" t="s">
+      <c r="D198" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E198" s="45" t="s">
+      <c r="E198" s="49" t="s">
         <v>408</v>
       </c>
       <c r="F198" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="G198" s="23" t="s">
+      <c r="G198" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="H198" s="39" t="s">
+      <c r="H198" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="I198" s="40"/>
+      <c r="I198" s="44"/>
       <c r="J198" s="14"/>
       <c r="K198" s="14"/>
       <c r="L198" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="M198" s="30" t="n">
+      <c r="M198" s="34" t="n">
         <v>5449000000439</v>
       </c>
       <c r="N198" s="19"/>
@@ -20553,14 +20593,14 @@
       </c>
       <c r="S198" s="10"/>
       <c r="T198" s="10"/>
-      <c r="U198" s="31"/>
+      <c r="U198" s="35"/>
       <c r="V198" s="10"/>
       <c r="W198" s="10" t="s">
         <v>413</v>
       </c>
       <c r="X198" s="10"/>
       <c r="Y198" s="10"/>
-      <c r="Z198" s="32" t="n">
+      <c r="Z198" s="36" t="n">
         <v>102</v>
       </c>
       <c r="AA198" s="10"/>
@@ -20625,24 +20665,24 @@
       <c r="J199" s="14"/>
       <c r="K199" s="14"/>
       <c r="L199" s="10"/>
-      <c r="M199" s="41"/>
-      <c r="N199" s="41"/>
-      <c r="O199" s="41"/>
-      <c r="P199" s="41"/>
+      <c r="M199" s="45"/>
+      <c r="N199" s="45"/>
+      <c r="O199" s="45"/>
+      <c r="P199" s="45"/>
       <c r="Q199" s="10" t="s">
         <v>412</v>
       </c>
       <c r="R199" s="10"/>
       <c r="S199" s="10"/>
       <c r="T199" s="10"/>
-      <c r="U199" s="31"/>
+      <c r="U199" s="35"/>
       <c r="V199" s="10"/>
       <c r="W199" s="10" t="s">
         <v>413</v>
       </c>
       <c r="X199" s="10"/>
       <c r="Y199" s="10"/>
-      <c r="Z199" s="32" t="n">
+      <c r="Z199" s="36" t="n">
         <v>102</v>
       </c>
       <c r="AA199" s="10"/>
@@ -20658,12 +20698,12 @@
       </c>
       <c r="AF199" s="14"/>
       <c r="AG199" s="14"/>
-      <c r="AH199" s="36" t="s">
+      <c r="AH199" s="40" t="s">
         <v>487</v>
       </c>
       <c r="AI199" s="14"/>
       <c r="AJ199" s="14"/>
-      <c r="AK199" s="42" t="s">
+      <c r="AK199" s="46" t="s">
         <v>474</v>
       </c>
       <c r="AL199" s="10" t="n">
@@ -20672,10 +20712,10 @@
       <c r="AM199" s="12" t="n">
         <v>198</v>
       </c>
-      <c r="AN199" s="33" t="s">
+      <c r="AN199" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="AO199" s="43" t="s">
+      <c r="AO199" s="47" t="s">
         <v>435</v>
       </c>
       <c r="AP199" s="10"/>
@@ -20722,19 +20762,19 @@
       <c r="Q200" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="R200" s="44" t="s">
+      <c r="R200" s="48" t="s">
         <v>55</v>
       </c>
       <c r="S200" s="10"/>
       <c r="T200" s="10"/>
-      <c r="U200" s="31"/>
+      <c r="U200" s="35"/>
       <c r="V200" s="10"/>
       <c r="W200" s="10" t="s">
         <v>413</v>
       </c>
       <c r="X200" s="10"/>
       <c r="Y200" s="10"/>
-      <c r="Z200" s="32" t="n">
+      <c r="Z200" s="36" t="n">
         <v>102</v>
       </c>
       <c r="AA200" s="10"/>
@@ -20808,19 +20848,19 @@
       <c r="Q201" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="R201" s="44" t="s">
+      <c r="R201" s="48" t="s">
         <v>55</v>
       </c>
       <c r="S201" s="10"/>
       <c r="T201" s="10"/>
-      <c r="U201" s="31"/>
+      <c r="U201" s="35"/>
       <c r="V201" s="10"/>
       <c r="W201" s="10" t="s">
         <v>413</v>
       </c>
       <c r="X201" s="10"/>
       <c r="Y201" s="10"/>
-      <c r="Z201" s="32" t="n">
+      <c r="Z201" s="36" t="n">
         <v>102</v>
       </c>
       <c r="AA201" s="10"/>
@@ -20883,17 +20923,17 @@
       <c r="J202" s="14"/>
       <c r="K202" s="14"/>
       <c r="L202" s="10"/>
-      <c r="M202" s="30"/>
-      <c r="N202" s="30"/>
-      <c r="O202" s="30"/>
-      <c r="P202" s="30"/>
+      <c r="M202" s="34"/>
+      <c r="N202" s="34"/>
+      <c r="O202" s="34"/>
+      <c r="P202" s="34"/>
       <c r="Q202" s="10" t="s">
         <v>412</v>
       </c>
       <c r="R202" s="10"/>
       <c r="S202" s="10"/>
       <c r="T202" s="10"/>
-      <c r="U202" s="31"/>
+      <c r="U202" s="35"/>
       <c r="V202" s="10"/>
       <c r="W202" s="10" t="s">
         <v>495</v>
@@ -20924,7 +20964,7 @@
       <c r="AM202" s="12" t="n">
         <v>201</v>
       </c>
-      <c r="AN202" s="33" t="s">
+      <c r="AN202" s="37" t="s">
         <v>496</v>
       </c>
       <c r="AO202" s="10"/>
@@ -20963,14 +21003,14 @@
       <c r="L203" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="M203" s="30" t="s">
+      <c r="M203" s="34" t="s">
         <v>499</v>
       </c>
-      <c r="N203" s="30" t="s">
+      <c r="N203" s="34" t="s">
         <v>499</v>
       </c>
-      <c r="O203" s="30"/>
-      <c r="P203" s="30"/>
+      <c r="O203" s="34"/>
+      <c r="P203" s="34"/>
       <c r="Q203" s="10" t="s">
         <v>54</v>
       </c>
@@ -20979,7 +21019,7 @@
       </c>
       <c r="S203" s="10"/>
       <c r="T203" s="10"/>
-      <c r="U203" s="31"/>
+      <c r="U203" s="35"/>
       <c r="V203" s="10"/>
       <c r="W203" s="10" t="s">
         <v>495</v>
@@ -21026,73 +21066,73 @@
       <c r="C204" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D204" s="34" t="s">
+      <c r="D204" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E204" s="34" t="s">
+      <c r="E204" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="F204" s="35" t="s">
+      <c r="F204" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="G204" s="35" t="s">
+      <c r="G204" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="H204" s="36" t="s">
+      <c r="H204" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="I204" s="36" t="n">
+      <c r="I204" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J204" s="36"/>
-      <c r="K204" s="36"/>
-      <c r="L204" s="35"/>
-      <c r="M204" s="37"/>
-      <c r="N204" s="37"/>
-      <c r="O204" s="37"/>
-      <c r="P204" s="37"/>
-      <c r="Q204" s="35" t="s">
+      <c r="J204" s="40"/>
+      <c r="K204" s="40"/>
+      <c r="L204" s="39"/>
+      <c r="M204" s="41"/>
+      <c r="N204" s="41"/>
+      <c r="O204" s="41"/>
+      <c r="P204" s="41"/>
+      <c r="Q204" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="R204" s="35" t="s">
+      <c r="R204" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="S204" s="35"/>
-      <c r="T204" s="35"/>
-      <c r="U204" s="36" t="s">
+      <c r="S204" s="39"/>
+      <c r="T204" s="39"/>
+      <c r="U204" s="40" t="s">
         <v>502</v>
       </c>
-      <c r="V204" s="35"/>
-      <c r="W204" s="35" t="s">
+      <c r="V204" s="39"/>
+      <c r="W204" s="39" t="s">
         <v>495</v>
       </c>
-      <c r="X204" s="35"/>
-      <c r="Y204" s="35"/>
-      <c r="Z204" s="36"/>
-      <c r="AA204" s="35"/>
-      <c r="AB204" s="35"/>
-      <c r="AC204" s="35" t="s">
+      <c r="X204" s="39"/>
+      <c r="Y204" s="39"/>
+      <c r="Z204" s="40"/>
+      <c r="AA204" s="39"/>
+      <c r="AB204" s="39"/>
+      <c r="AC204" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AD204" s="36" t="s">
+      <c r="AD204" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="AE204" s="38" t="n">
+      <c r="AE204" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AF204" s="36"/>
-      <c r="AG204" s="36"/>
-      <c r="AH204" s="36"/>
-      <c r="AI204" s="36"/>
-      <c r="AJ204" s="36"/>
-      <c r="AK204" s="36"/>
-      <c r="AL204" s="35" t="n">
+      <c r="AF204" s="40"/>
+      <c r="AG204" s="40"/>
+      <c r="AH204" s="40"/>
+      <c r="AI204" s="40"/>
+      <c r="AJ204" s="40"/>
+      <c r="AK204" s="40"/>
+      <c r="AL204" s="39" t="n">
         <v>3</v>
       </c>
       <c r="AM204" s="12" t="n">
         <v>203</v>
       </c>
-      <c r="AN204" s="35"/>
+      <c r="AN204" s="39"/>
       <c r="AO204" s="10" t="s">
         <v>493</v>
       </c>
@@ -21108,16 +21148,16 @@
       <c r="C205" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D205" s="45" t="s">
+      <c r="D205" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E205" s="45" t="s">
+      <c r="E205" s="49" t="s">
         <v>408</v>
       </c>
       <c r="F205" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="G205" s="23" t="s">
+      <c r="G205" s="27" t="s">
         <v>504</v>
       </c>
       <c r="H205" s="14" t="s">
@@ -21129,17 +21169,17 @@
       <c r="J205" s="14"/>
       <c r="K205" s="14"/>
       <c r="L205" s="10"/>
-      <c r="M205" s="30"/>
-      <c r="N205" s="30"/>
-      <c r="O205" s="30"/>
-      <c r="P205" s="30"/>
+      <c r="M205" s="34"/>
+      <c r="N205" s="34"/>
+      <c r="O205" s="34"/>
+      <c r="P205" s="34"/>
       <c r="Q205" s="10" t="s">
         <v>54</v>
       </c>
       <c r="R205" s="10"/>
       <c r="S205" s="10"/>
       <c r="T205" s="10"/>
-      <c r="U205" s="31"/>
+      <c r="U205" s="35"/>
       <c r="V205" s="10"/>
       <c r="W205" s="10" t="s">
         <v>495</v>
@@ -21170,7 +21210,7 @@
       <c r="AM205" s="12" t="n">
         <v>204</v>
       </c>
-      <c r="AN205" s="33" t="s">
+      <c r="AN205" s="37" t="s">
         <v>505</v>
       </c>
       <c r="AO205" s="10" t="s">
@@ -21188,7 +21228,7 @@
       <c r="C206" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D206" s="45" t="s">
+      <c r="D206" s="49" t="s">
         <v>44</v>
       </c>
       <c r="E206" s="13" t="s">
@@ -21197,13 +21237,13 @@
       <c r="F206" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="G206" s="23" t="s">
+      <c r="G206" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="H206" s="39" t="s">
+      <c r="H206" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="I206" s="40"/>
+      <c r="I206" s="44"/>
       <c r="J206" s="14"/>
       <c r="K206" s="14"/>
       <c r="L206" s="14" t="s">
@@ -21223,7 +21263,7 @@
       </c>
       <c r="S206" s="10"/>
       <c r="T206" s="10"/>
-      <c r="U206" s="31"/>
+      <c r="U206" s="35"/>
       <c r="V206" s="10"/>
       <c r="W206" s="10" t="s">
         <v>495</v>
@@ -21272,7 +21312,7 @@
       <c r="C207" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D207" s="45" t="s">
+      <c r="D207" s="49" t="s">
         <v>44</v>
       </c>
       <c r="E207" s="13" t="s">
@@ -21281,13 +21321,13 @@
       <c r="F207" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="G207" s="23" t="s">
+      <c r="G207" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="H207" s="39" t="s">
+      <c r="H207" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="I207" s="40"/>
+      <c r="I207" s="44"/>
       <c r="J207" s="14"/>
       <c r="K207" s="14"/>
       <c r="L207" s="14" t="s">
@@ -21307,7 +21347,7 @@
       </c>
       <c r="S207" s="10"/>
       <c r="T207" s="10"/>
-      <c r="U207" s="31"/>
+      <c r="U207" s="35"/>
       <c r="V207" s="10"/>
       <c r="W207" s="10" t="s">
         <v>495</v>
@@ -21377,17 +21417,17 @@
       <c r="J208" s="14"/>
       <c r="K208" s="14"/>
       <c r="L208" s="10"/>
-      <c r="M208" s="30"/>
-      <c r="N208" s="30"/>
-      <c r="O208" s="30"/>
-      <c r="P208" s="30"/>
+      <c r="M208" s="34"/>
+      <c r="N208" s="34"/>
+      <c r="O208" s="34"/>
+      <c r="P208" s="34"/>
       <c r="Q208" s="10" t="s">
         <v>412</v>
       </c>
       <c r="R208" s="10"/>
       <c r="S208" s="10"/>
       <c r="T208" s="10"/>
-      <c r="U208" s="31"/>
+      <c r="U208" s="35"/>
       <c r="V208" s="10"/>
       <c r="W208" s="10" t="s">
         <v>514</v>
@@ -21418,7 +21458,7 @@
       <c r="AM208" s="12" t="n">
         <v>207</v>
       </c>
-      <c r="AN208" s="33" t="s">
+      <c r="AN208" s="37" t="s">
         <v>515</v>
       </c>
       <c r="AO208" s="10"/>
@@ -21457,14 +21497,14 @@
       <c r="L209" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="M209" s="30" t="s">
+      <c r="M209" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="N209" s="30" t="s">
+      <c r="N209" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="O209" s="30"/>
-      <c r="P209" s="30"/>
+      <c r="O209" s="34"/>
+      <c r="P209" s="34"/>
       <c r="Q209" s="10" t="s">
         <v>54</v>
       </c>
@@ -21473,7 +21513,7 @@
       </c>
       <c r="S209" s="10"/>
       <c r="T209" s="10"/>
-      <c r="U209" s="31"/>
+      <c r="U209" s="35"/>
       <c r="V209" s="10"/>
       <c r="W209" s="10" t="s">
         <v>514</v>
@@ -21520,73 +21560,73 @@
       <c r="C210" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D210" s="34" t="s">
+      <c r="D210" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E210" s="34" t="s">
+      <c r="E210" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="F210" s="35" t="s">
+      <c r="F210" s="39" t="s">
         <v>519</v>
       </c>
-      <c r="G210" s="35" t="s">
+      <c r="G210" s="39" t="s">
         <v>520</v>
       </c>
-      <c r="H210" s="36" t="s">
+      <c r="H210" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="I210" s="36" t="n">
+      <c r="I210" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J210" s="36"/>
-      <c r="K210" s="36"/>
-      <c r="L210" s="35"/>
-      <c r="M210" s="37"/>
-      <c r="N210" s="37"/>
-      <c r="O210" s="37"/>
-      <c r="P210" s="37"/>
-      <c r="Q210" s="35" t="s">
+      <c r="J210" s="40"/>
+      <c r="K210" s="40"/>
+      <c r="L210" s="39"/>
+      <c r="M210" s="41"/>
+      <c r="N210" s="41"/>
+      <c r="O210" s="41"/>
+      <c r="P210" s="41"/>
+      <c r="Q210" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="R210" s="35" t="s">
+      <c r="R210" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="S210" s="35"/>
-      <c r="T210" s="35"/>
-      <c r="U210" s="36" t="s">
+      <c r="S210" s="39"/>
+      <c r="T210" s="39"/>
+      <c r="U210" s="40" t="s">
         <v>521</v>
       </c>
-      <c r="V210" s="35"/>
-      <c r="W210" s="35" t="s">
+      <c r="V210" s="39"/>
+      <c r="W210" s="39" t="s">
         <v>514</v>
       </c>
-      <c r="X210" s="35"/>
-      <c r="Y210" s="35"/>
-      <c r="Z210" s="36"/>
-      <c r="AA210" s="35"/>
-      <c r="AB210" s="35"/>
-      <c r="AC210" s="35" t="s">
+      <c r="X210" s="39"/>
+      <c r="Y210" s="39"/>
+      <c r="Z210" s="40"/>
+      <c r="AA210" s="39"/>
+      <c r="AB210" s="39"/>
+      <c r="AC210" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AD210" s="36" t="s">
+      <c r="AD210" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="AE210" s="38" t="n">
+      <c r="AE210" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AF210" s="36"/>
-      <c r="AG210" s="36"/>
-      <c r="AH210" s="36"/>
-      <c r="AI210" s="36"/>
-      <c r="AJ210" s="36"/>
-      <c r="AK210" s="36"/>
-      <c r="AL210" s="35" t="n">
+      <c r="AF210" s="40"/>
+      <c r="AG210" s="40"/>
+      <c r="AH210" s="40"/>
+      <c r="AI210" s="40"/>
+      <c r="AJ210" s="40"/>
+      <c r="AK210" s="40"/>
+      <c r="AL210" s="39" t="n">
         <v>3</v>
       </c>
       <c r="AM210" s="12" t="n">
         <v>209</v>
       </c>
-      <c r="AN210" s="35"/>
+      <c r="AN210" s="39"/>
       <c r="AO210" s="10" t="s">
         <v>512</v>
       </c>
@@ -21611,13 +21651,13 @@
       <c r="F211" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="G211" s="32" t="s">
+      <c r="G211" s="36" t="s">
         <v>523</v>
       </c>
-      <c r="H211" s="39" t="s">
+      <c r="H211" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="I211" s="40"/>
+      <c r="I211" s="44"/>
       <c r="J211" s="14"/>
       <c r="K211" s="14"/>
       <c r="L211" s="14" t="s">
@@ -21626,9 +21666,9 @@
       <c r="M211" s="18" t="n">
         <v>5449000032805</v>
       </c>
-      <c r="N211" s="30"/>
-      <c r="O211" s="30"/>
-      <c r="P211" s="30"/>
+      <c r="N211" s="34"/>
+      <c r="O211" s="34"/>
+      <c r="P211" s="34"/>
       <c r="Q211" s="10" t="s">
         <v>54</v>
       </c>
@@ -21637,7 +21677,7 @@
       </c>
       <c r="S211" s="10"/>
       <c r="T211" s="10"/>
-      <c r="U211" s="31"/>
+      <c r="U211" s="35"/>
       <c r="V211" s="10"/>
       <c r="W211" s="10" t="s">
         <v>514</v>
@@ -21707,24 +21747,24 @@
       <c r="J212" s="14"/>
       <c r="K212" s="14"/>
       <c r="L212" s="10"/>
-      <c r="M212" s="30"/>
-      <c r="N212" s="30"/>
-      <c r="O212" s="30"/>
-      <c r="P212" s="30"/>
+      <c r="M212" s="34"/>
+      <c r="N212" s="34"/>
+      <c r="O212" s="34"/>
+      <c r="P212" s="34"/>
       <c r="Q212" s="10" t="s">
         <v>412</v>
       </c>
       <c r="R212" s="10"/>
       <c r="S212" s="10"/>
       <c r="T212" s="10"/>
-      <c r="U212" s="31"/>
+      <c r="U212" s="35"/>
       <c r="V212" s="10"/>
       <c r="W212" s="10" t="s">
         <v>413</v>
       </c>
       <c r="X212" s="10"/>
       <c r="Y212" s="10"/>
-      <c r="Z212" s="32" t="n">
+      <c r="Z212" s="36" t="n">
         <v>103</v>
       </c>
       <c r="AA212" s="10"/>
@@ -21750,7 +21790,7 @@
       <c r="AM212" s="12" t="n">
         <v>211</v>
       </c>
-      <c r="AN212" s="33" t="s">
+      <c r="AN212" s="37" t="s">
         <v>527</v>
       </c>
       <c r="AO212" s="10"/>
@@ -21789,14 +21829,14 @@
       <c r="L213" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="M213" s="30" t="s">
+      <c r="M213" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="N213" s="30" t="s">
+      <c r="N213" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="O213" s="30"/>
-      <c r="P213" s="30"/>
+      <c r="O213" s="34"/>
+      <c r="P213" s="34"/>
       <c r="Q213" s="10" t="s">
         <v>54</v>
       </c>
@@ -21805,14 +21845,14 @@
       </c>
       <c r="S213" s="10"/>
       <c r="T213" s="10"/>
-      <c r="U213" s="31"/>
+      <c r="U213" s="35"/>
       <c r="V213" s="10"/>
       <c r="W213" s="10" t="s">
         <v>413</v>
       </c>
       <c r="X213" s="10"/>
       <c r="Y213" s="10"/>
-      <c r="Z213" s="32" t="n">
+      <c r="Z213" s="36" t="n">
         <v>103</v>
       </c>
       <c r="AA213" s="10"/>
@@ -21854,75 +21894,75 @@
       <c r="C214" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D214" s="34" t="s">
+      <c r="D214" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E214" s="34" t="s">
+      <c r="E214" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="F214" s="35" t="s">
+      <c r="F214" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="G214" s="35" t="s">
+      <c r="G214" s="39" t="s">
         <v>531</v>
       </c>
-      <c r="H214" s="36" t="s">
+      <c r="H214" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="I214" s="36" t="n">
+      <c r="I214" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J214" s="36"/>
-      <c r="K214" s="36"/>
-      <c r="L214" s="35"/>
-      <c r="M214" s="37"/>
-      <c r="N214" s="37"/>
-      <c r="O214" s="37"/>
-      <c r="P214" s="37"/>
-      <c r="Q214" s="35" t="s">
+      <c r="J214" s="40"/>
+      <c r="K214" s="40"/>
+      <c r="L214" s="39"/>
+      <c r="M214" s="41"/>
+      <c r="N214" s="41"/>
+      <c r="O214" s="41"/>
+      <c r="P214" s="41"/>
+      <c r="Q214" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="R214" s="35" t="s">
+      <c r="R214" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="S214" s="35"/>
-      <c r="T214" s="35"/>
-      <c r="U214" s="36" t="s">
+      <c r="S214" s="39"/>
+      <c r="T214" s="39"/>
+      <c r="U214" s="40" t="s">
         <v>532</v>
       </c>
-      <c r="V214" s="35"/>
-      <c r="W214" s="35" t="s">
+      <c r="V214" s="39"/>
+      <c r="W214" s="39" t="s">
         <v>413</v>
       </c>
-      <c r="X214" s="35"/>
-      <c r="Y214" s="35"/>
-      <c r="Z214" s="32" t="n">
+      <c r="X214" s="39"/>
+      <c r="Y214" s="39"/>
+      <c r="Z214" s="36" t="n">
         <v>103</v>
       </c>
-      <c r="AA214" s="35"/>
-      <c r="AB214" s="35"/>
-      <c r="AC214" s="35" t="s">
+      <c r="AA214" s="39"/>
+      <c r="AB214" s="39"/>
+      <c r="AC214" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AD214" s="36" t="s">
+      <c r="AD214" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="AE214" s="38" t="n">
+      <c r="AE214" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AF214" s="36"/>
-      <c r="AG214" s="36"/>
-      <c r="AH214" s="36"/>
-      <c r="AI214" s="36"/>
-      <c r="AJ214" s="36"/>
-      <c r="AK214" s="36"/>
-      <c r="AL214" s="35" t="n">
+      <c r="AF214" s="40"/>
+      <c r="AG214" s="40"/>
+      <c r="AH214" s="40"/>
+      <c r="AI214" s="40"/>
+      <c r="AJ214" s="40"/>
+      <c r="AK214" s="40"/>
+      <c r="AL214" s="39" t="n">
         <v>3</v>
       </c>
       <c r="AM214" s="12" t="n">
         <v>213</v>
       </c>
-      <c r="AN214" s="35"/>
+      <c r="AN214" s="39"/>
       <c r="AO214" s="10" t="s">
         <v>525</v>
       </c>
@@ -21938,22 +21978,22 @@
       <c r="C215" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D215" s="45" t="s">
+      <c r="D215" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E215" s="45" t="s">
+      <c r="E215" s="49" t="s">
         <v>408</v>
       </c>
       <c r="F215" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="G215" s="32" t="s">
+      <c r="G215" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="H215" s="39" t="s">
+      <c r="H215" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="I215" s="40"/>
+      <c r="I215" s="44"/>
       <c r="J215" s="14"/>
       <c r="K215" s="14"/>
       <c r="L215" s="14" t="s">
@@ -21973,14 +22013,14 @@
       </c>
       <c r="S215" s="10"/>
       <c r="T215" s="10"/>
-      <c r="U215" s="31"/>
+      <c r="U215" s="35"/>
       <c r="V215" s="10"/>
       <c r="W215" s="10" t="s">
         <v>413</v>
       </c>
       <c r="X215" s="10"/>
       <c r="Y215" s="10"/>
-      <c r="Z215" s="32" t="n">
+      <c r="Z215" s="36" t="n">
         <v>103</v>
       </c>
       <c r="AA215" s="10"/>
@@ -22045,17 +22085,17 @@
       <c r="J216" s="14"/>
       <c r="K216" s="14"/>
       <c r="L216" s="10"/>
-      <c r="M216" s="30"/>
-      <c r="N216" s="30"/>
-      <c r="O216" s="30"/>
-      <c r="P216" s="30"/>
+      <c r="M216" s="34"/>
+      <c r="N216" s="34"/>
+      <c r="O216" s="34"/>
+      <c r="P216" s="34"/>
       <c r="Q216" s="10" t="s">
         <v>412</v>
       </c>
       <c r="R216" s="10"/>
       <c r="S216" s="10"/>
       <c r="T216" s="10"/>
-      <c r="U216" s="31"/>
+      <c r="U216" s="35"/>
       <c r="V216" s="10"/>
       <c r="W216" s="10" t="s">
         <v>538</v>
@@ -22086,7 +22126,7 @@
       <c r="AM216" s="12" t="n">
         <v>215</v>
       </c>
-      <c r="AN216" s="33" t="s">
+      <c r="AN216" s="37" t="s">
         <v>539</v>
       </c>
       <c r="AO216" s="10"/>
@@ -22125,14 +22165,14 @@
       <c r="L217" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="M217" s="30" t="s">
+      <c r="M217" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="N217" s="30" t="s">
+      <c r="N217" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="O217" s="30"/>
-      <c r="P217" s="30"/>
+      <c r="O217" s="34"/>
+      <c r="P217" s="34"/>
       <c r="Q217" s="10" t="s">
         <v>54</v>
       </c>
@@ -22141,7 +22181,7 @@
       </c>
       <c r="S217" s="10"/>
       <c r="T217" s="10"/>
-      <c r="U217" s="31"/>
+      <c r="U217" s="35"/>
       <c r="V217" s="10"/>
       <c r="W217" s="10" t="s">
         <v>538</v>
@@ -22188,73 +22228,73 @@
       <c r="C218" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D218" s="34" t="s">
+      <c r="D218" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E218" s="34" t="s">
+      <c r="E218" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="F218" s="35" t="s">
+      <c r="F218" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="G218" s="35" t="s">
+      <c r="G218" s="39" t="s">
         <v>544</v>
       </c>
-      <c r="H218" s="36" t="s">
+      <c r="H218" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="I218" s="36" t="n">
+      <c r="I218" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J218" s="36"/>
-      <c r="K218" s="36"/>
-      <c r="L218" s="35"/>
-      <c r="M218" s="37"/>
-      <c r="N218" s="37"/>
-      <c r="O218" s="37"/>
-      <c r="P218" s="37"/>
-      <c r="Q218" s="35" t="s">
+      <c r="J218" s="40"/>
+      <c r="K218" s="40"/>
+      <c r="L218" s="39"/>
+      <c r="M218" s="41"/>
+      <c r="N218" s="41"/>
+      <c r="O218" s="41"/>
+      <c r="P218" s="41"/>
+      <c r="Q218" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="R218" s="35" t="s">
+      <c r="R218" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="S218" s="35"/>
-      <c r="T218" s="35"/>
-      <c r="U218" s="36" t="s">
+      <c r="S218" s="39"/>
+      <c r="T218" s="39"/>
+      <c r="U218" s="40" t="s">
         <v>545</v>
       </c>
-      <c r="V218" s="35"/>
-      <c r="W218" s="35" t="s">
+      <c r="V218" s="39"/>
+      <c r="W218" s="39" t="s">
         <v>538</v>
       </c>
-      <c r="X218" s="35"/>
-      <c r="Y218" s="35"/>
-      <c r="Z218" s="36"/>
-      <c r="AA218" s="35"/>
-      <c r="AB218" s="35"/>
-      <c r="AC218" s="35" t="s">
+      <c r="X218" s="39"/>
+      <c r="Y218" s="39"/>
+      <c r="Z218" s="40"/>
+      <c r="AA218" s="39"/>
+      <c r="AB218" s="39"/>
+      <c r="AC218" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AD218" s="36" t="s">
+      <c r="AD218" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="AE218" s="38" t="n">
+      <c r="AE218" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AF218" s="36"/>
-      <c r="AG218" s="36"/>
-      <c r="AH218" s="36"/>
-      <c r="AI218" s="36"/>
-      <c r="AJ218" s="36"/>
-      <c r="AK218" s="36"/>
-      <c r="AL218" s="35" t="n">
+      <c r="AF218" s="40"/>
+      <c r="AG218" s="40"/>
+      <c r="AH218" s="40"/>
+      <c r="AI218" s="40"/>
+      <c r="AJ218" s="40"/>
+      <c r="AK218" s="40"/>
+      <c r="AL218" s="39" t="n">
         <v>3</v>
       </c>
       <c r="AM218" s="12" t="n">
         <v>217</v>
       </c>
-      <c r="AN218" s="35"/>
+      <c r="AN218" s="39"/>
       <c r="AO218" s="10" t="s">
         <v>536</v>
       </c>
@@ -22270,16 +22310,16 @@
       <c r="C219" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D219" s="45" t="s">
+      <c r="D219" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E219" s="45" t="s">
+      <c r="E219" s="49" t="s">
         <v>408</v>
       </c>
       <c r="F219" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="G219" s="32" t="s">
+      <c r="G219" s="36" t="s">
         <v>547</v>
       </c>
       <c r="H219" s="14" t="s">
@@ -22291,17 +22331,17 @@
       <c r="J219" s="14"/>
       <c r="K219" s="14"/>
       <c r="L219" s="10"/>
-      <c r="M219" s="30"/>
-      <c r="N219" s="30"/>
-      <c r="O219" s="30"/>
-      <c r="P219" s="30"/>
+      <c r="M219" s="34"/>
+      <c r="N219" s="34"/>
+      <c r="O219" s="34"/>
+      <c r="P219" s="34"/>
       <c r="Q219" s="10" t="s">
         <v>54</v>
       </c>
       <c r="R219" s="10"/>
       <c r="S219" s="10"/>
       <c r="T219" s="10"/>
-      <c r="U219" s="31"/>
+      <c r="U219" s="35"/>
       <c r="V219" s="10"/>
       <c r="W219" s="10" t="s">
         <v>538</v>
@@ -22332,7 +22372,7 @@
       <c r="AM219" s="12" t="n">
         <v>218</v>
       </c>
-      <c r="AN219" s="33" t="s">
+      <c r="AN219" s="37" t="s">
         <v>548</v>
       </c>
       <c r="AO219" s="10" t="s">
@@ -22350,7 +22390,7 @@
       <c r="C220" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D220" s="45" t="s">
+      <c r="D220" s="49" t="s">
         <v>44</v>
       </c>
       <c r="E220" s="13" t="s">
@@ -22359,13 +22399,13 @@
       <c r="F220" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="G220" s="32" t="s">
+      <c r="G220" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="H220" s="39" t="s">
+      <c r="H220" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="I220" s="40"/>
+      <c r="I220" s="44"/>
       <c r="J220" s="14"/>
       <c r="K220" s="14"/>
       <c r="L220" s="14" t="s">
@@ -22385,7 +22425,7 @@
       </c>
       <c r="S220" s="10"/>
       <c r="T220" s="10"/>
-      <c r="U220" s="31"/>
+      <c r="U220" s="35"/>
       <c r="V220" s="10"/>
       <c r="W220" s="10" t="s">
         <v>538</v>
@@ -22434,7 +22474,7 @@
       <c r="C221" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D221" s="45" t="s">
+      <c r="D221" s="49" t="s">
         <v>44</v>
       </c>
       <c r="E221" s="13" t="s">
@@ -22443,13 +22483,13 @@
       <c r="F221" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="G221" s="32" t="s">
+      <c r="G221" s="36" t="s">
         <v>553</v>
       </c>
-      <c r="H221" s="39" t="s">
+      <c r="H221" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="I221" s="40"/>
+      <c r="I221" s="44"/>
       <c r="J221" s="14"/>
       <c r="K221" s="14"/>
       <c r="L221" s="14" t="s">
@@ -22469,7 +22509,7 @@
       </c>
       <c r="S221" s="10"/>
       <c r="T221" s="10"/>
-      <c r="U221" s="31"/>
+      <c r="U221" s="35"/>
       <c r="V221" s="10"/>
       <c r="W221" s="10" t="s">
         <v>538</v>
@@ -22539,17 +22579,17 @@
       <c r="J222" s="14"/>
       <c r="K222" s="14"/>
       <c r="L222" s="10"/>
-      <c r="M222" s="30"/>
-      <c r="N222" s="30"/>
-      <c r="O222" s="30"/>
-      <c r="P222" s="30"/>
+      <c r="M222" s="34"/>
+      <c r="N222" s="34"/>
+      <c r="O222" s="34"/>
+      <c r="P222" s="34"/>
       <c r="Q222" s="10" t="s">
         <v>412</v>
       </c>
       <c r="R222" s="10"/>
       <c r="S222" s="10"/>
       <c r="T222" s="10"/>
-      <c r="U222" s="31"/>
+      <c r="U222" s="35"/>
       <c r="V222" s="10"/>
       <c r="W222" s="10" t="s">
         <v>444</v>
@@ -22582,7 +22622,7 @@
       <c r="AM222" s="12" t="n">
         <v>221</v>
       </c>
-      <c r="AN222" s="33" t="s">
+      <c r="AN222" s="37" t="s">
         <v>557</v>
       </c>
       <c r="AO222" s="10"/>
@@ -22621,14 +22661,14 @@
       <c r="L223" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="M223" s="30" t="s">
+      <c r="M223" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="N223" s="30" t="s">
+      <c r="N223" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="O223" s="30"/>
-      <c r="P223" s="30"/>
+      <c r="O223" s="34"/>
+      <c r="P223" s="34"/>
       <c r="Q223" s="10" t="s">
         <v>54</v>
       </c>
@@ -22637,7 +22677,7 @@
       </c>
       <c r="S223" s="10"/>
       <c r="T223" s="10"/>
-      <c r="U223" s="31"/>
+      <c r="U223" s="35"/>
       <c r="V223" s="10"/>
       <c r="W223" s="10" t="s">
         <v>444</v>
@@ -22686,75 +22726,75 @@
       <c r="C224" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D224" s="34" t="s">
+      <c r="D224" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E224" s="34" t="s">
+      <c r="E224" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="F224" s="35" t="s">
+      <c r="F224" s="39" t="s">
         <v>560</v>
       </c>
-      <c r="G224" s="35" t="s">
+      <c r="G224" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="H224" s="36" t="s">
+      <c r="H224" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="I224" s="36" t="n">
+      <c r="I224" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J224" s="36"/>
-      <c r="K224" s="36"/>
-      <c r="L224" s="35"/>
-      <c r="M224" s="37"/>
-      <c r="N224" s="37"/>
-      <c r="O224" s="37"/>
-      <c r="P224" s="37"/>
-      <c r="Q224" s="35" t="s">
+      <c r="J224" s="40"/>
+      <c r="K224" s="40"/>
+      <c r="L224" s="39"/>
+      <c r="M224" s="41"/>
+      <c r="N224" s="41"/>
+      <c r="O224" s="41"/>
+      <c r="P224" s="41"/>
+      <c r="Q224" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="R224" s="35" t="s">
+      <c r="R224" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="S224" s="35"/>
-      <c r="T224" s="35"/>
-      <c r="U224" s="36" t="s">
+      <c r="S224" s="39"/>
+      <c r="T224" s="39"/>
+      <c r="U224" s="40" t="s">
         <v>562</v>
       </c>
-      <c r="V224" s="35"/>
-      <c r="W224" s="35" t="s">
+      <c r="V224" s="39"/>
+      <c r="W224" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="X224" s="35"/>
-      <c r="Y224" s="35"/>
-      <c r="Z224" s="36" t="n">
+      <c r="X224" s="39"/>
+      <c r="Y224" s="39"/>
+      <c r="Z224" s="40" t="n">
         <v>1102</v>
       </c>
-      <c r="AA224" s="35"/>
-      <c r="AB224" s="35"/>
-      <c r="AC224" s="35" t="s">
+      <c r="AA224" s="39"/>
+      <c r="AB224" s="39"/>
+      <c r="AC224" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AD224" s="36" t="s">
+      <c r="AD224" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="AE224" s="38" t="n">
+      <c r="AE224" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AF224" s="36"/>
-      <c r="AG224" s="36"/>
-      <c r="AH224" s="36"/>
-      <c r="AI224" s="36"/>
-      <c r="AJ224" s="36"/>
-      <c r="AK224" s="36"/>
-      <c r="AL224" s="35" t="n">
+      <c r="AF224" s="40"/>
+      <c r="AG224" s="40"/>
+      <c r="AH224" s="40"/>
+      <c r="AI224" s="40"/>
+      <c r="AJ224" s="40"/>
+      <c r="AK224" s="40"/>
+      <c r="AL224" s="39" t="n">
         <v>3</v>
       </c>
       <c r="AM224" s="12" t="n">
         <v>223</v>
       </c>
-      <c r="AN224" s="35"/>
+      <c r="AN224" s="39"/>
       <c r="AO224" s="10" t="s">
         <v>555</v>
       </c>
@@ -22770,28 +22810,28 @@
       <c r="C225" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D225" s="45" t="s">
+      <c r="D225" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E225" s="45" t="s">
+      <c r="E225" s="49" t="s">
         <v>408</v>
       </c>
       <c r="F225" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="G225" s="32" t="s">
+      <c r="G225" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="H225" s="39" t="s">
+      <c r="H225" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="I225" s="40"/>
+      <c r="I225" s="44"/>
       <c r="J225" s="14"/>
       <c r="K225" s="14"/>
       <c r="L225" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="M225" s="46" t="n">
+      <c r="M225" s="50" t="n">
         <v>4607042434877</v>
       </c>
       <c r="N225" s="19"/>
@@ -22805,7 +22845,7 @@
       </c>
       <c r="S225" s="10"/>
       <c r="T225" s="10"/>
-      <c r="U225" s="31"/>
+      <c r="U225" s="35"/>
       <c r="V225" s="10"/>
       <c r="W225" s="10" t="s">
         <v>444</v>
@@ -22877,17 +22917,17 @@
       <c r="J226" s="14"/>
       <c r="K226" s="14"/>
       <c r="L226" s="10"/>
-      <c r="M226" s="30"/>
-      <c r="N226" s="30"/>
-      <c r="O226" s="30"/>
-      <c r="P226" s="30"/>
+      <c r="M226" s="34"/>
+      <c r="N226" s="34"/>
+      <c r="O226" s="34"/>
+      <c r="P226" s="34"/>
       <c r="Q226" s="10" t="s">
         <v>412</v>
       </c>
       <c r="R226" s="10"/>
       <c r="S226" s="10"/>
       <c r="T226" s="10"/>
-      <c r="U226" s="31"/>
+      <c r="U226" s="35"/>
       <c r="V226" s="10"/>
       <c r="W226" s="14" t="s">
         <v>567</v>
@@ -22920,7 +22960,7 @@
       <c r="AM226" s="12" t="n">
         <v>225</v>
       </c>
-      <c r="AN226" s="33" t="s">
+      <c r="AN226" s="37" t="s">
         <v>569</v>
       </c>
       <c r="AO226" s="10"/>
@@ -22959,14 +22999,14 @@
       <c r="L227" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="M227" s="30" t="s">
+      <c r="M227" s="34" t="s">
         <v>573</v>
       </c>
-      <c r="N227" s="47"/>
-      <c r="O227" s="47" t="s">
+      <c r="N227" s="51"/>
+      <c r="O227" s="51" t="s">
         <v>573</v>
       </c>
-      <c r="P227" s="30"/>
+      <c r="P227" s="34"/>
       <c r="Q227" s="10" t="s">
         <v>54</v>
       </c>
@@ -22975,7 +23015,7 @@
       </c>
       <c r="S227" s="10"/>
       <c r="T227" s="10"/>
-      <c r="U227" s="31"/>
+      <c r="U227" s="35"/>
       <c r="V227" s="10"/>
       <c r="W227" s="14" t="s">
         <v>567</v>
@@ -23024,75 +23064,75 @@
       <c r="C228" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D228" s="34" t="s">
+      <c r="D228" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E228" s="34" t="s">
+      <c r="E228" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="F228" s="35" t="s">
+      <c r="F228" s="39" t="s">
         <v>575</v>
       </c>
-      <c r="G228" s="35" t="s">
+      <c r="G228" s="39" t="s">
         <v>576</v>
       </c>
-      <c r="H228" s="36" t="s">
+      <c r="H228" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="I228" s="36" t="n">
+      <c r="I228" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="J228" s="36"/>
-      <c r="K228" s="36"/>
-      <c r="L228" s="35"/>
-      <c r="M228" s="37"/>
-      <c r="N228" s="37"/>
-      <c r="O228" s="37"/>
-      <c r="P228" s="37"/>
-      <c r="Q228" s="35" t="s">
+      <c r="J228" s="40"/>
+      <c r="K228" s="40"/>
+      <c r="L228" s="39"/>
+      <c r="M228" s="41"/>
+      <c r="N228" s="41"/>
+      <c r="O228" s="41"/>
+      <c r="P228" s="41"/>
+      <c r="Q228" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="R228" s="35" t="s">
+      <c r="R228" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="S228" s="35"/>
-      <c r="T228" s="35"/>
-      <c r="U228" s="36" t="s">
+      <c r="S228" s="39"/>
+      <c r="T228" s="39"/>
+      <c r="U228" s="40" t="s">
         <v>577</v>
       </c>
-      <c r="V228" s="35"/>
-      <c r="W228" s="36" t="s">
+      <c r="V228" s="39"/>
+      <c r="W228" s="40" t="s">
         <v>567</v>
       </c>
-      <c r="X228" s="35" t="s">
+      <c r="X228" s="39" t="s">
         <v>568</v>
       </c>
-      <c r="Y228" s="35"/>
-      <c r="Z228" s="36"/>
-      <c r="AA228" s="35"/>
-      <c r="AB228" s="35"/>
-      <c r="AC228" s="35" t="s">
+      <c r="Y228" s="39"/>
+      <c r="Z228" s="40"/>
+      <c r="AA228" s="39"/>
+      <c r="AB228" s="39"/>
+      <c r="AC228" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="AD228" s="36" t="s">
+      <c r="AD228" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="AE228" s="38" t="n">
+      <c r="AE228" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="AF228" s="36"/>
-      <c r="AG228" s="36"/>
-      <c r="AH228" s="36"/>
-      <c r="AI228" s="36"/>
-      <c r="AJ228" s="36"/>
-      <c r="AK228" s="36"/>
-      <c r="AL228" s="35" t="n">
+      <c r="AF228" s="40"/>
+      <c r="AG228" s="40"/>
+      <c r="AH228" s="40"/>
+      <c r="AI228" s="40"/>
+      <c r="AJ228" s="40"/>
+      <c r="AK228" s="40"/>
+      <c r="AL228" s="39" t="n">
         <v>3</v>
       </c>
       <c r="AM228" s="12" t="n">
         <v>227</v>
       </c>
-      <c r="AN228" s="48"/>
+      <c r="AN228" s="52"/>
       <c r="AO228" s="10" t="s">
         <v>565</v>
       </c>
@@ -23108,10 +23148,10 @@
       <c r="C229" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D229" s="45" t="s">
+      <c r="D229" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E229" s="45" t="s">
+      <c r="E229" s="49" t="s">
         <v>408</v>
       </c>
       <c r="F229" s="14" t="s">
@@ -23129,17 +23169,17 @@
       <c r="J229" s="14"/>
       <c r="K229" s="14"/>
       <c r="L229" s="10"/>
-      <c r="M229" s="30"/>
-      <c r="N229" s="30"/>
-      <c r="O229" s="30"/>
-      <c r="P229" s="30"/>
+      <c r="M229" s="34"/>
+      <c r="N229" s="34"/>
+      <c r="O229" s="34"/>
+      <c r="P229" s="34"/>
       <c r="Q229" s="10" t="s">
         <v>54</v>
       </c>
       <c r="R229" s="10"/>
       <c r="S229" s="10"/>
       <c r="T229" s="10"/>
-      <c r="U229" s="31"/>
+      <c r="U229" s="35"/>
       <c r="V229" s="10"/>
       <c r="W229" s="14" t="s">
         <v>567</v>
@@ -23172,7 +23212,7 @@
       <c r="AM229" s="12" t="n">
         <v>228</v>
       </c>
-      <c r="AN229" s="33" t="s">
+      <c r="AN229" s="37" t="s">
         <v>580</v>
       </c>
       <c r="AO229" s="10" t="s">
@@ -23190,7 +23230,7 @@
       <c r="C230" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D230" s="45" t="s">
+      <c r="D230" s="49" t="s">
         <v>44</v>
       </c>
       <c r="E230" s="13" t="s">
@@ -23199,19 +23239,19 @@
       <c r="F230" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="G230" s="32" t="s">
+      <c r="G230" s="36" t="s">
         <v>582</v>
       </c>
-      <c r="H230" s="39" t="s">
+      <c r="H230" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="I230" s="40"/>
+      <c r="I230" s="44"/>
       <c r="J230" s="14"/>
       <c r="K230" s="14"/>
       <c r="L230" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M230" s="49" t="n">
+      <c r="M230" s="53" t="n">
         <v>5449000228970</v>
       </c>
       <c r="N230" s="19"/>
@@ -23225,7 +23265,7 @@
       </c>
       <c r="S230" s="10"/>
       <c r="T230" s="10"/>
-      <c r="U230" s="31"/>
+      <c r="U230" s="35"/>
       <c r="V230" s="10"/>
       <c r="W230" s="14" t="s">
         <v>567</v>
@@ -23276,7 +23316,7 @@
       <c r="C231" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D231" s="45" t="s">
+      <c r="D231" s="49" t="s">
         <v>44</v>
       </c>
       <c r="E231" s="13" t="s">
@@ -23285,19 +23325,19 @@
       <c r="F231" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="G231" s="32" t="s">
+      <c r="G231" s="36" t="s">
         <v>585</v>
       </c>
-      <c r="H231" s="39" t="s">
+      <c r="H231" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="I231" s="40"/>
+      <c r="I231" s="44"/>
       <c r="J231" s="14"/>
       <c r="K231" s="14"/>
       <c r="L231" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="M231" s="50" t="n">
+      <c r="M231" s="54" t="n">
         <v>5449000000996</v>
       </c>
       <c r="N231" s="19"/>
@@ -23311,7 +23351,7 @@
       </c>
       <c r="S231" s="10"/>
       <c r="T231" s="10"/>
-      <c r="U231" s="31"/>
+      <c r="U231" s="35"/>
       <c r="V231" s="10"/>
       <c r="W231" s="14" t="s">
         <v>567</v>
@@ -23362,7 +23402,7 @@
       <c r="C232" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D232" s="45" t="s">
+      <c r="D232" s="49" t="s">
         <v>44</v>
       </c>
       <c r="E232" s="13" t="s">
@@ -23371,19 +23411,19 @@
       <c r="F232" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="G232" s="32" t="s">
+      <c r="G232" s="36" t="s">
         <v>588</v>
       </c>
-      <c r="H232" s="39" t="s">
+      <c r="H232" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="I232" s="40"/>
+      <c r="I232" s="44"/>
       <c r="J232" s="14"/>
       <c r="K232" s="14"/>
       <c r="L232" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="M232" s="49" t="n">
+      <c r="M232" s="53" t="n">
         <v>5449000044808</v>
       </c>
       <c r="N232" s="19"/>
@@ -23397,7 +23437,7 @@
       </c>
       <c r="S232" s="10"/>
       <c r="T232" s="10"/>
-      <c r="U232" s="31"/>
+      <c r="U232" s="35"/>
       <c r="V232" s="10"/>
       <c r="W232" s="14" t="s">
         <v>567</v>
@@ -23448,7 +23488,7 @@
       <c r="C233" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D233" s="45" t="s">
+      <c r="D233" s="49" t="s">
         <v>44</v>
       </c>
       <c r="E233" s="13" t="s">
@@ -23457,19 +23497,19 @@
       <c r="F233" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="G233" s="32" t="s">
+      <c r="G233" s="36" t="s">
         <v>591</v>
       </c>
-      <c r="H233" s="39" t="s">
+      <c r="H233" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="I233" s="40"/>
+      <c r="I233" s="44"/>
       <c r="J233" s="14"/>
       <c r="K233" s="14"/>
       <c r="L233" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="M233" s="50" t="n">
+      <c r="M233" s="54" t="n">
         <v>4607042439155</v>
       </c>
       <c r="N233" s="19"/>
@@ -23483,7 +23523,7 @@
       </c>
       <c r="S233" s="10"/>
       <c r="T233" s="10"/>
-      <c r="U233" s="31"/>
+      <c r="U233" s="35"/>
       <c r="V233" s="10"/>
       <c r="W233" s="14" t="s">
         <v>567</v>
@@ -23557,14 +23597,14 @@
       <c r="L234" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="M234" s="30" t="s">
+      <c r="M234" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="N234" s="30" t="s">
+      <c r="N234" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="O234" s="30"/>
-      <c r="P234" s="30"/>
+      <c r="O234" s="34"/>
+      <c r="P234" s="34"/>
       <c r="Q234" s="10"/>
       <c r="R234" s="10" t="s">
         <v>419</v>
@@ -23587,7 +23627,7 @@
       <c r="AD234" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="AE234" s="51" t="n">
+      <c r="AE234" s="55" t="n">
         <v>0.05</v>
       </c>
       <c r="AF234" s="14"/>
@@ -23603,7 +23643,7 @@
         <v>233</v>
       </c>
       <c r="AN234" s="10"/>
-      <c r="AO234" s="52"/>
+      <c r="AO234" s="56"/>
       <c r="AP234" s="10"/>
     </row>
     <row r="235" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23637,10 +23677,10 @@
       <c r="J235" s="14"/>
       <c r="K235" s="14"/>
       <c r="L235" s="10"/>
-      <c r="M235" s="30"/>
-      <c r="N235" s="30"/>
-      <c r="O235" s="30"/>
-      <c r="P235" s="30"/>
+      <c r="M235" s="34"/>
+      <c r="N235" s="34"/>
+      <c r="O235" s="34"/>
+      <c r="P235" s="34"/>
       <c r="Q235" s="14" t="s">
         <v>412</v>
       </c>
@@ -23665,7 +23705,7 @@
       <c r="AD235" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AE235" s="51" t="n">
+      <c r="AE235" s="55" t="n">
         <v>0.01</v>
       </c>
       <c r="AF235" s="14"/>
@@ -23680,10 +23720,10 @@
       <c r="AM235" s="12" t="n">
         <v>234</v>
       </c>
-      <c r="AN235" s="33" t="s">
+      <c r="AN235" s="37" t="s">
         <v>604</v>
       </c>
-      <c r="AO235" s="53" t="s">
+      <c r="AO235" s="57" t="s">
         <v>605</v>
       </c>
       <c r="AP235" s="10"/>
@@ -23707,7 +23747,7 @@
       <c r="F236" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="G236" s="32" t="s">
+      <c r="G236" s="36" t="s">
         <v>607</v>
       </c>
       <c r="H236" s="14" t="s">
@@ -23718,7 +23758,7 @@
       </c>
       <c r="J236" s="14"/>
       <c r="K236" s="14"/>
-      <c r="L236" s="54" t="s">
+      <c r="L236" s="58" t="s">
         <v>65</v>
       </c>
       <c r="M236" s="19" t="n">
@@ -23727,10 +23767,10 @@
       <c r="N236" s="19"/>
       <c r="O236" s="19"/>
       <c r="P236" s="19"/>
-      <c r="Q236" s="54" t="s">
+      <c r="Q236" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="R236" s="54" t="s">
+      <c r="R236" s="58" t="s">
         <v>55</v>
       </c>
       <c r="S236" s="10"/>
@@ -23753,7 +23793,7 @@
       <c r="AD236" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AE236" s="51" t="n">
+      <c r="AE236" s="55" t="n">
         <v>0</v>
       </c>
       <c r="AF236" s="14"/>
@@ -23793,7 +23833,7 @@
       <c r="F237" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="G237" s="32" t="s">
+      <c r="G237" s="36" t="s">
         <v>609</v>
       </c>
       <c r="H237" s="14" t="s">
@@ -23804,7 +23844,7 @@
       </c>
       <c r="J237" s="14"/>
       <c r="K237" s="14"/>
-      <c r="L237" s="54" t="s">
+      <c r="L237" s="58" t="s">
         <v>93</v>
       </c>
       <c r="M237" s="19" t="n">
@@ -23813,10 +23853,10 @@
       <c r="N237" s="19"/>
       <c r="O237" s="19"/>
       <c r="P237" s="19"/>
-      <c r="Q237" s="54" t="s">
+      <c r="Q237" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="R237" s="54" t="s">
+      <c r="R237" s="58" t="s">
         <v>55</v>
       </c>
       <c r="S237" s="10"/>
@@ -23839,7 +23879,7 @@
       <c r="AD237" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AE237" s="51" t="n">
+      <c r="AE237" s="55" t="n">
         <v>0</v>
       </c>
       <c r="AF237" s="14"/>
@@ -23879,7 +23919,7 @@
       <c r="F238" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="G238" s="32" t="s">
+      <c r="G238" s="36" t="s">
         <v>611</v>
       </c>
       <c r="H238" s="14" t="s">
@@ -23899,10 +23939,10 @@
       <c r="N238" s="19"/>
       <c r="O238" s="19"/>
       <c r="P238" s="19"/>
-      <c r="Q238" s="54" t="s">
+      <c r="Q238" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="R238" s="54" t="s">
+      <c r="R238" s="58" t="s">
         <v>55</v>
       </c>
       <c r="S238" s="10"/>
@@ -23925,7 +23965,7 @@
       <c r="AD238" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AE238" s="51" t="n">
+      <c r="AE238" s="55" t="n">
         <v>0</v>
       </c>
       <c r="AF238" s="14"/>
@@ -23965,7 +24005,7 @@
       <c r="F239" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="G239" s="32" t="s">
+      <c r="G239" s="36" t="s">
         <v>613</v>
       </c>
       <c r="H239" s="14" t="s">
@@ -23979,16 +24019,16 @@
       <c r="L239" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="M239" s="41" t="n">
+      <c r="M239" s="45" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="N239" s="41"/>
-      <c r="O239" s="41"/>
-      <c r="P239" s="41"/>
-      <c r="Q239" s="54" t="s">
+      <c r="N239" s="45"/>
+      <c r="O239" s="45"/>
+      <c r="P239" s="45"/>
+      <c r="Q239" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="R239" s="54" t="s">
+      <c r="R239" s="58" t="s">
         <v>55</v>
       </c>
       <c r="S239" s="10"/>
@@ -24011,7 +24051,7 @@
       <c r="AD239" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AE239" s="51" t="n">
+      <c r="AE239" s="55" t="n">
         <v>0</v>
       </c>
       <c r="AF239" s="14"/>
@@ -24051,7 +24091,7 @@
       <c r="F240" s="14" t="s">
         <v>614</v>
       </c>
-      <c r="G240" s="32" t="s">
+      <c r="G240" s="36" t="s">
         <v>615</v>
       </c>
       <c r="H240" s="14" t="s">
@@ -24071,10 +24111,10 @@
       <c r="N240" s="19"/>
       <c r="O240" s="19"/>
       <c r="P240" s="19"/>
-      <c r="Q240" s="54" t="s">
+      <c r="Q240" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="R240" s="54" t="s">
+      <c r="R240" s="58" t="s">
         <v>55</v>
       </c>
       <c r="S240" s="10"/>
@@ -24097,7 +24137,7 @@
       <c r="AD240" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AE240" s="51" t="n">
+      <c r="AE240" s="55" t="n">
         <v>0</v>
       </c>
       <c r="AF240" s="14"/>
@@ -24137,7 +24177,7 @@
       <c r="F241" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="G241" s="32" t="s">
+      <c r="G241" s="36" t="s">
         <v>619</v>
       </c>
       <c r="H241" s="14" t="s">
@@ -24157,10 +24197,10 @@
       <c r="N241" s="19"/>
       <c r="O241" s="19"/>
       <c r="P241" s="19"/>
-      <c r="Q241" s="54" t="s">
+      <c r="Q241" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="R241" s="54" t="s">
+      <c r="R241" s="58" t="s">
         <v>55</v>
       </c>
       <c r="S241" s="10"/>
@@ -24183,7 +24223,7 @@
       <c r="AD241" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AE241" s="51" t="n">
+      <c r="AE241" s="55" t="n">
         <v>0</v>
       </c>
       <c r="AF241" s="14"/>
@@ -24223,7 +24263,7 @@
       <c r="F242" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="G242" s="32" t="s">
+      <c r="G242" s="36" t="s">
         <v>623</v>
       </c>
       <c r="H242" s="14" t="s">
@@ -24243,10 +24283,10 @@
       <c r="N242" s="19"/>
       <c r="O242" s="19"/>
       <c r="P242" s="19"/>
-      <c r="Q242" s="54" t="s">
+      <c r="Q242" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="R242" s="54" t="s">
+      <c r="R242" s="58" t="s">
         <v>55</v>
       </c>
       <c r="S242" s="10"/>
@@ -24269,7 +24309,7 @@
       <c r="AD242" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AE242" s="51" t="n">
+      <c r="AE242" s="55" t="n">
         <v>0</v>
       </c>
       <c r="AF242" s="14"/>
@@ -24323,14 +24363,14 @@
       <c r="L243" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="M243" s="30" t="s">
+      <c r="M243" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="N243" s="30" t="s">
+      <c r="N243" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="O243" s="30"/>
-      <c r="P243" s="30"/>
+      <c r="O243" s="34"/>
+      <c r="P243" s="34"/>
       <c r="Q243" s="10"/>
       <c r="R243" s="10" t="s">
         <v>419</v>
@@ -24369,7 +24409,7 @@
         <v>242</v>
       </c>
       <c r="AN243" s="10"/>
-      <c r="AO243" s="52"/>
+      <c r="AO243" s="56"/>
       <c r="AP243" s="10"/>
     </row>
     <row r="244" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24403,11 +24443,11 @@
       <c r="J244" s="14"/>
       <c r="K244" s="14"/>
       <c r="L244" s="10"/>
-      <c r="M244" s="30"/>
-      <c r="N244" s="30"/>
-      <c r="O244" s="30"/>
-      <c r="P244" s="30"/>
-      <c r="Q244" s="54" t="s">
+      <c r="M244" s="34"/>
+      <c r="N244" s="34"/>
+      <c r="O244" s="34"/>
+      <c r="P244" s="34"/>
+      <c r="Q244" s="58" t="s">
         <v>412</v>
       </c>
       <c r="R244" s="10"/>
@@ -24446,10 +24486,10 @@
       <c r="AM244" s="12" t="n">
         <v>243</v>
       </c>
-      <c r="AN244" s="55" t="s">
+      <c r="AN244" s="59" t="s">
         <v>631</v>
       </c>
-      <c r="AO244" s="53" t="s">
+      <c r="AO244" s="57" t="s">
         <v>605</v>
       </c>
       <c r="AP244" s="10"/>
@@ -24473,7 +24513,7 @@
       <c r="F245" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="G245" s="32" t="s">
+      <c r="G245" s="36" t="s">
         <v>633</v>
       </c>
       <c r="H245" s="14" t="s">
@@ -24484,7 +24524,7 @@
       </c>
       <c r="J245" s="14"/>
       <c r="K245" s="14"/>
-      <c r="L245" s="44" t="s">
+      <c r="L245" s="48" t="s">
         <v>634</v>
       </c>
       <c r="M245" s="19" t="n">
@@ -24493,10 +24533,10 @@
       <c r="N245" s="19"/>
       <c r="O245" s="19"/>
       <c r="P245" s="19"/>
-      <c r="Q245" s="54" t="s">
+      <c r="Q245" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="R245" s="44" t="s">
+      <c r="R245" s="48" t="s">
         <v>55</v>
       </c>
       <c r="S245" s="10"/>
@@ -24573,14 +24613,14 @@
       <c r="L246" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="M246" s="30" t="s">
+      <c r="M246" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="N246" s="30" t="s">
+      <c r="N246" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="O246" s="30"/>
-      <c r="P246" s="30"/>
+      <c r="O246" s="34"/>
+      <c r="P246" s="34"/>
       <c r="Q246" s="10"/>
       <c r="R246" s="10" t="s">
         <v>419</v>
@@ -24619,7 +24659,7 @@
         <v>245</v>
       </c>
       <c r="AN246" s="10"/>
-      <c r="AO246" s="52"/>
+      <c r="AO246" s="56"/>
       <c r="AP246" s="10"/>
     </row>
     <row r="247" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24653,10 +24693,10 @@
       <c r="J247" s="14"/>
       <c r="K247" s="14"/>
       <c r="L247" s="10"/>
-      <c r="M247" s="30"/>
-      <c r="N247" s="30"/>
-      <c r="O247" s="30"/>
-      <c r="P247" s="30"/>
+      <c r="M247" s="34"/>
+      <c r="N247" s="34"/>
+      <c r="O247" s="34"/>
+      <c r="P247" s="34"/>
       <c r="Q247" s="14" t="s">
         <v>412</v>
       </c>
@@ -24696,10 +24736,10 @@
       <c r="AM247" s="12" t="n">
         <v>246</v>
       </c>
-      <c r="AN247" s="33" t="s">
+      <c r="AN247" s="37" t="s">
         <v>640</v>
       </c>
-      <c r="AO247" s="53" t="s">
+      <c r="AO247" s="57" t="s">
         <v>605</v>
       </c>
       <c r="AP247" s="10"/>
@@ -24723,7 +24763,7 @@
       <c r="F248" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="G248" s="32" t="s">
+      <c r="G248" s="36" t="s">
         <v>642</v>
       </c>
       <c r="H248" s="14" t="s">
@@ -24734,19 +24774,19 @@
       </c>
       <c r="J248" s="14"/>
       <c r="K248" s="14"/>
-      <c r="L248" s="44" t="s">
+      <c r="L248" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="M248" s="56" t="n">
+      <c r="M248" s="60" t="n">
         <v>4607042434877</v>
       </c>
       <c r="N248" s="19"/>
       <c r="O248" s="19"/>
       <c r="P248" s="19"/>
-      <c r="Q248" s="44" t="s">
+      <c r="Q248" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="R248" s="44" t="s">
+      <c r="R248" s="48" t="s">
         <v>55</v>
       </c>
       <c r="S248" s="10"/>
@@ -24809,7 +24849,7 @@
       <c r="F249" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="G249" s="32" t="s">
+      <c r="G249" s="36" t="s">
         <v>644</v>
       </c>
       <c r="H249" s="14" t="s">
@@ -24820,7 +24860,7 @@
       </c>
       <c r="J249" s="14"/>
       <c r="K249" s="14"/>
-      <c r="L249" s="44" t="s">
+      <c r="L249" s="48" t="s">
         <v>230</v>
       </c>
       <c r="M249" s="19" t="n">
@@ -24829,10 +24869,10 @@
       <c r="N249" s="19"/>
       <c r="O249" s="19"/>
       <c r="P249" s="19"/>
-      <c r="Q249" s="44" t="s">
+      <c r="Q249" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="R249" s="44" t="s">
+      <c r="R249" s="48" t="s">
         <v>55</v>
       </c>
       <c r="S249" s="10"/>
@@ -24895,7 +24935,7 @@
       <c r="F250" s="14" t="s">
         <v>645</v>
       </c>
-      <c r="G250" s="32" t="s">
+      <c r="G250" s="36" t="s">
         <v>646</v>
       </c>
       <c r="H250" s="14" t="s">
@@ -24906,7 +24946,7 @@
       </c>
       <c r="J250" s="14"/>
       <c r="K250" s="14"/>
-      <c r="L250" s="44" t="s">
+      <c r="L250" s="48" t="s">
         <v>232</v>
       </c>
       <c r="M250" s="19" t="n">
@@ -24915,10 +24955,10 @@
       <c r="N250" s="19"/>
       <c r="O250" s="19"/>
       <c r="P250" s="19"/>
-      <c r="Q250" s="44" t="s">
+      <c r="Q250" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="R250" s="44" t="s">
+      <c r="R250" s="48" t="s">
         <v>55</v>
       </c>
       <c r="S250" s="10"/>
@@ -24981,7 +25021,7 @@
       <c r="F251" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="G251" s="32" t="s">
+      <c r="G251" s="36" t="s">
         <v>648</v>
       </c>
       <c r="H251" s="14" t="s">
@@ -24992,19 +25032,19 @@
       </c>
       <c r="J251" s="14"/>
       <c r="K251" s="14"/>
-      <c r="L251" s="44" t="s">
+      <c r="L251" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="M251" s="46" t="n">
+      <c r="M251" s="50" t="n">
         <v>4607042439155</v>
       </c>
-      <c r="N251" s="57"/>
-      <c r="O251" s="57"/>
-      <c r="P251" s="57"/>
-      <c r="Q251" s="44" t="s">
+      <c r="N251" s="61"/>
+      <c r="O251" s="61"/>
+      <c r="P251" s="61"/>
+      <c r="Q251" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="R251" s="44" t="s">
+      <c r="R251" s="48" t="s">
         <v>55</v>
       </c>
       <c r="S251" s="10"/>
@@ -25067,7 +25107,7 @@
       <c r="F252" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="G252" s="32" t="s">
+      <c r="G252" s="36" t="s">
         <v>650</v>
       </c>
       <c r="H252" s="14" t="s">
@@ -25078,19 +25118,19 @@
       </c>
       <c r="J252" s="14"/>
       <c r="K252" s="14"/>
-      <c r="L252" s="44" t="s">
+      <c r="L252" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="M252" s="58" t="n">
+      <c r="M252" s="62" t="n">
         <v>4607042439216</v>
       </c>
-      <c r="N252" s="57"/>
-      <c r="O252" s="57"/>
-      <c r="P252" s="57"/>
-      <c r="Q252" s="44" t="s">
+      <c r="N252" s="61"/>
+      <c r="O252" s="61"/>
+      <c r="P252" s="61"/>
+      <c r="Q252" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="R252" s="44" t="s">
+      <c r="R252" s="48" t="s">
         <v>55</v>
       </c>
       <c r="S252" s="10"/>
@@ -25167,15 +25207,15 @@
       <c r="L253" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="M253" s="41" t="s">
+      <c r="M253" s="45" t="s">
         <v>499</v>
       </c>
-      <c r="N253" s="41" t="s">
+      <c r="N253" s="45" t="s">
         <v>499</v>
       </c>
-      <c r="O253" s="41"/>
-      <c r="P253" s="41"/>
-      <c r="Q253" s="44"/>
+      <c r="O253" s="45"/>
+      <c r="P253" s="45"/>
+      <c r="Q253" s="48"/>
       <c r="R253" s="10" t="s">
         <v>419</v>
       </c>
@@ -25213,7 +25253,7 @@
         <v>252</v>
       </c>
       <c r="AN253" s="10"/>
-      <c r="AO253" s="52"/>
+      <c r="AO253" s="56"/>
       <c r="AP253" s="10"/>
     </row>
     <row r="254" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25247,11 +25287,11 @@
       <c r="J254" s="14"/>
       <c r="K254" s="14"/>
       <c r="L254" s="10"/>
-      <c r="M254" s="41"/>
-      <c r="N254" s="41"/>
-      <c r="O254" s="41"/>
-      <c r="P254" s="41"/>
-      <c r="Q254" s="54" t="s">
+      <c r="M254" s="45"/>
+      <c r="N254" s="45"/>
+      <c r="O254" s="45"/>
+      <c r="P254" s="45"/>
+      <c r="Q254" s="58" t="s">
         <v>412</v>
       </c>
       <c r="R254" s="10"/>
@@ -25290,10 +25330,10 @@
       <c r="AM254" s="12" t="n">
         <v>253</v>
       </c>
-      <c r="AN254" s="33" t="s">
+      <c r="AN254" s="37" t="s">
         <v>656</v>
       </c>
-      <c r="AO254" s="53" t="s">
+      <c r="AO254" s="57" t="s">
         <v>605</v>
       </c>
       <c r="AP254" s="10"/>
@@ -25317,7 +25357,7 @@
       <c r="F255" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="G255" s="32" t="s">
+      <c r="G255" s="36" t="s">
         <v>658</v>
       </c>
       <c r="H255" s="14" t="s">
@@ -25331,16 +25371,16 @@
       <c r="L255" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="M255" s="59" t="n">
+      <c r="M255" s="63" t="n">
         <v>5449000189318</v>
       </c>
-      <c r="N255" s="59"/>
-      <c r="O255" s="59"/>
-      <c r="P255" s="59"/>
-      <c r="Q255" s="54" t="s">
+      <c r="N255" s="63"/>
+      <c r="O255" s="63"/>
+      <c r="P255" s="63"/>
+      <c r="Q255" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="R255" s="44" t="s">
+      <c r="R255" s="48" t="s">
         <v>55</v>
       </c>
       <c r="S255" s="10"/>
@@ -25403,7 +25443,7 @@
       <c r="F256" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="G256" s="32" t="s">
+      <c r="G256" s="36" t="s">
         <v>660</v>
       </c>
       <c r="H256" s="14" t="s">
@@ -25417,16 +25457,16 @@
       <c r="L256" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="M256" s="59" t="n">
+      <c r="M256" s="63" t="n">
         <v>5449000233509</v>
       </c>
-      <c r="N256" s="59"/>
-      <c r="O256" s="59"/>
-      <c r="P256" s="59"/>
-      <c r="Q256" s="54" t="s">
+      <c r="N256" s="63"/>
+      <c r="O256" s="63"/>
+      <c r="P256" s="63"/>
+      <c r="Q256" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="R256" s="44" t="s">
+      <c r="R256" s="48" t="s">
         <v>55</v>
       </c>
       <c r="S256" s="10"/>
@@ -25503,14 +25543,14 @@
       <c r="L257" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="M257" s="41" t="s">
+      <c r="M257" s="45" t="s">
         <v>542</v>
       </c>
-      <c r="N257" s="41" t="s">
+      <c r="N257" s="45" t="s">
         <v>542</v>
       </c>
-      <c r="O257" s="41"/>
-      <c r="P257" s="41"/>
+      <c r="O257" s="45"/>
+      <c r="P257" s="45"/>
       <c r="Q257" s="10"/>
       <c r="R257" s="10" t="s">
         <v>419</v>
@@ -25562,10 +25602,10 @@
       <c r="C258" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D258" s="60" t="s">
+      <c r="D258" s="64" t="s">
         <v>429</v>
       </c>
-      <c r="E258" s="60" t="s">
+      <c r="E258" s="64" t="s">
         <v>430</v>
       </c>
       <c r="F258" s="14" t="s">
@@ -25616,7 +25656,7 @@
       <c r="AM258" s="12" t="n">
         <v>257</v>
       </c>
-      <c r="AN258" s="33" t="s">
+      <c r="AN258" s="37" t="s">
         <v>667</v>
       </c>
       <c r="AO258" s="10"/>
@@ -25632,16 +25672,16 @@
       <c r="C259" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D259" s="60" t="s">
+      <c r="D259" s="64" t="s">
         <v>429</v>
       </c>
-      <c r="E259" s="60" t="s">
+      <c r="E259" s="64" t="s">
         <v>430</v>
       </c>
-      <c r="F259" s="60" t="s">
+      <c r="F259" s="64" t="s">
         <v>668</v>
       </c>
-      <c r="G259" s="61" t="s">
+      <c r="G259" s="65" t="s">
         <v>669</v>
       </c>
       <c r="H259" s="14" t="s">
@@ -25652,7 +25692,7 @@
       </c>
       <c r="J259" s="14"/>
       <c r="K259" s="14"/>
-      <c r="L259" s="60" t="s">
+      <c r="L259" s="64" t="s">
         <v>668</v>
       </c>
       <c r="M259" s="18" t="n">
@@ -25703,7 +25743,7 @@
         <v>258</v>
       </c>
       <c r="AN259" s="10"/>
-      <c r="AO259" s="62" t="s">
+      <c r="AO259" s="66" t="s">
         <v>664</v>
       </c>
       <c r="AP259" s="11"/>
@@ -25718,16 +25758,16 @@
       <c r="C260" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D260" s="60" t="s">
+      <c r="D260" s="64" t="s">
         <v>429</v>
       </c>
-      <c r="E260" s="60" t="s">
+      <c r="E260" s="64" t="s">
         <v>430</v>
       </c>
-      <c r="F260" s="60" t="s">
+      <c r="F260" s="64" t="s">
         <v>670</v>
       </c>
-      <c r="G260" s="61" t="s">
+      <c r="G260" s="65" t="s">
         <v>671</v>
       </c>
       <c r="H260" s="14" t="s">
@@ -25738,7 +25778,7 @@
       </c>
       <c r="J260" s="14"/>
       <c r="K260" s="14"/>
-      <c r="L260" s="60" t="s">
+      <c r="L260" s="64" t="s">
         <v>670</v>
       </c>
       <c r="M260" s="18" t="n">
@@ -25789,7 +25829,7 @@
         <v>259</v>
       </c>
       <c r="AN260" s="10"/>
-      <c r="AO260" s="62" t="s">
+      <c r="AO260" s="66" t="s">
         <v>664</v>
       </c>
       <c r="AP260" s="11"/>
@@ -25804,10 +25844,10 @@
       <c r="C261" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D261" s="60" t="s">
+      <c r="D261" s="64" t="s">
         <v>429</v>
       </c>
-      <c r="E261" s="60" t="s">
+      <c r="E261" s="64" t="s">
         <v>430</v>
       </c>
       <c r="F261" s="10" t="s">
@@ -25875,7 +25915,7 @@
         <v>260</v>
       </c>
       <c r="AN261" s="10"/>
-      <c r="AO261" s="62" t="s">
+      <c r="AO261" s="66" t="s">
         <v>664</v>
       </c>
       <c r="AP261" s="11"/>
@@ -25890,10 +25930,10 @@
       <c r="C262" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D262" s="60" t="s">
+      <c r="D262" s="64" t="s">
         <v>429</v>
       </c>
-      <c r="E262" s="60" t="s">
+      <c r="E262" s="64" t="s">
         <v>430</v>
       </c>
       <c r="F262" s="10" t="s">
@@ -25961,7 +26001,7 @@
         <v>261</v>
       </c>
       <c r="AN262" s="10"/>
-      <c r="AO262" s="62" t="s">
+      <c r="AO262" s="66" t="s">
         <v>664</v>
       </c>
       <c r="AP262" s="11"/>
@@ -25994,10 +26034,10 @@
       <c r="J263" s="14"/>
       <c r="K263" s="14"/>
       <c r="L263" s="10"/>
-      <c r="M263" s="30"/>
-      <c r="N263" s="30"/>
-      <c r="O263" s="30"/>
-      <c r="P263" s="30"/>
+      <c r="M263" s="34"/>
+      <c r="N263" s="34"/>
+      <c r="O263" s="34"/>
+      <c r="P263" s="34"/>
       <c r="Q263" s="2" t="s">
         <v>679</v>
       </c>
@@ -26023,7 +26063,7 @@
       </c>
       <c r="AF263" s="14"/>
       <c r="AG263" s="14"/>
-      <c r="AH263" s="63" t="s">
+      <c r="AH263" s="24" t="s">
         <v>680</v>
       </c>
       <c r="AI263" s="14"/>
@@ -26035,7 +26075,7 @@
       <c r="AM263" s="12" t="n">
         <v>262</v>
       </c>
-      <c r="AN263" s="33" t="s">
+      <c r="AN263" s="37" t="s">
         <v>681</v>
       </c>
       <c r="AO263" s="10"/>
@@ -26063,7 +26103,7 @@
       <c r="G264" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="H264" s="64" t="s">
+      <c r="H264" s="67" t="s">
         <v>684</v>
       </c>
       <c r="I264" s="14" t="n">
@@ -26076,12 +26116,12 @@
       <c r="L264" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="M264" s="41" t="s">
+      <c r="M264" s="45" t="s">
         <v>685</v>
       </c>
-      <c r="N264" s="41"/>
-      <c r="O264" s="41"/>
-      <c r="P264" s="41"/>
+      <c r="N264" s="45"/>
+      <c r="O264" s="45"/>
+      <c r="P264" s="45"/>
       <c r="Q264" s="10"/>
       <c r="R264" s="2" t="s">
         <v>574</v>
@@ -26158,12 +26198,12 @@
       <c r="L265" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="M265" s="30" t="s">
+      <c r="M265" s="34" t="s">
         <v>685</v>
       </c>
-      <c r="N265" s="30"/>
-      <c r="O265" s="30"/>
-      <c r="P265" s="30"/>
+      <c r="N265" s="34"/>
+      <c r="O265" s="34"/>
+      <c r="P265" s="34"/>
       <c r="Q265" s="10"/>
       <c r="R265" s="2" t="s">
         <v>574</v>
@@ -26226,29 +26266,29 @@
       <c r="F266" s="14" t="s">
         <v>691</v>
       </c>
-      <c r="G266" s="54" t="s">
+      <c r="G266" s="58" t="s">
         <v>692</v>
       </c>
-      <c r="H266" s="54" t="s">
+      <c r="H266" s="58" t="s">
         <v>422</v>
       </c>
-      <c r="I266" s="54" t="n">
+      <c r="I266" s="58" t="n">
         <v>1</v>
       </c>
       <c r="J266" s="14"/>
       <c r="K266" s="14"/>
       <c r="L266" s="10"/>
-      <c r="M266" s="30"/>
-      <c r="N266" s="30"/>
-      <c r="O266" s="30"/>
-      <c r="P266" s="30"/>
+      <c r="M266" s="34"/>
+      <c r="N266" s="34"/>
+      <c r="O266" s="34"/>
+      <c r="P266" s="34"/>
       <c r="Q266" s="10"/>
       <c r="R266" s="10" t="s">
         <v>693</v>
       </c>
       <c r="S266" s="10"/>
       <c r="T266" s="10"/>
-      <c r="U266" s="36" t="s">
+      <c r="U266" s="40" t="s">
         <v>694</v>
       </c>
       <c r="V266" s="10"/>
@@ -26271,7 +26311,7 @@
       </c>
       <c r="AF266" s="14"/>
       <c r="AG266" s="14"/>
-      <c r="AH266" s="65" t="s">
+      <c r="AH266" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI266" s="14"/>
@@ -26286,7 +26326,7 @@
         <v>265</v>
       </c>
       <c r="AN266" s="10"/>
-      <c r="AO266" s="66" t="s">
+      <c r="AO266" s="69" t="s">
         <v>696</v>
       </c>
       <c r="AP266" s="10"/>
@@ -26317,19 +26357,19 @@
         <v>699</v>
       </c>
       <c r="I267" s="14"/>
-      <c r="J267" s="54" t="n">
+      <c r="J267" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="K267" s="54" t="n">
+      <c r="K267" s="58" t="n">
         <v>23</v>
       </c>
       <c r="L267" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="M267" s="30"/>
-      <c r="N267" s="30"/>
-      <c r="O267" s="30"/>
-      <c r="P267" s="30"/>
+      <c r="M267" s="34"/>
+      <c r="N267" s="34"/>
+      <c r="O267" s="34"/>
+      <c r="P267" s="34"/>
       <c r="Q267" s="10"/>
       <c r="R267" s="10"/>
       <c r="S267" s="10"/>
@@ -26355,7 +26395,7 @@
       </c>
       <c r="AF267" s="14"/>
       <c r="AG267" s="14"/>
-      <c r="AH267" s="65" t="s">
+      <c r="AH267" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI267" s="14"/>
@@ -26370,7 +26410,7 @@
         <v>266</v>
       </c>
       <c r="AN267" s="10"/>
-      <c r="AO267" s="66" t="s">
+      <c r="AO267" s="69" t="s">
         <v>696</v>
       </c>
       <c r="AP267" s="10"/>
@@ -26397,7 +26437,7 @@
       <c r="G268" s="14" t="s">
         <v>701</v>
       </c>
-      <c r="H268" s="54" t="s">
+      <c r="H268" s="58" t="s">
         <v>602</v>
       </c>
       <c r="I268" s="14" t="n">
@@ -26406,10 +26446,10 @@
       <c r="J268" s="14"/>
       <c r="K268" s="14"/>
       <c r="L268" s="10"/>
-      <c r="M268" s="57"/>
-      <c r="N268" s="30"/>
-      <c r="O268" s="30"/>
-      <c r="P268" s="30"/>
+      <c r="M268" s="61"/>
+      <c r="N268" s="34"/>
+      <c r="O268" s="34"/>
+      <c r="P268" s="34"/>
       <c r="Q268" s="14" t="s">
         <v>412</v>
       </c>
@@ -26429,19 +26469,19 @@
       <c r="AC268" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AD268" s="67" t="s">
+      <c r="AD268" s="70" t="s">
         <v>702</v>
       </c>
-      <c r="AE268" s="68" t="n">
+      <c r="AE268" s="20" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AF268" s="69" t="n">
+      <c r="AF268" s="71" t="n">
         <v>0.8</v>
       </c>
-      <c r="AG268" s="36" t="n">
+      <c r="AG268" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="AH268" s="65" t="s">
+      <c r="AH268" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI268" s="14"/>
@@ -26455,10 +26495,10 @@
       <c r="AM268" s="12" t="n">
         <v>267</v>
       </c>
-      <c r="AN268" s="33" t="s">
+      <c r="AN268" s="37" t="s">
         <v>703</v>
       </c>
-      <c r="AO268" s="66" t="s">
+      <c r="AO268" s="69" t="s">
         <v>696</v>
       </c>
       <c r="AP268" s="10"/>
@@ -26482,7 +26522,7 @@
       <c r="F269" s="14" t="s">
         <v>704</v>
       </c>
-      <c r="G269" s="32" t="s">
+      <c r="G269" s="36" t="s">
         <v>705</v>
       </c>
       <c r="H269" s="14" t="s">
@@ -26499,9 +26539,9 @@
       <c r="M269" s="19" t="n">
         <v>40822426</v>
       </c>
-      <c r="N269" s="30"/>
-      <c r="O269" s="30"/>
-      <c r="P269" s="30"/>
+      <c r="N269" s="34"/>
+      <c r="O269" s="34"/>
+      <c r="P269" s="34"/>
       <c r="Q269" s="14" t="s">
         <v>54</v>
       </c>
@@ -26531,7 +26571,7 @@
       </c>
       <c r="AF269" s="14"/>
       <c r="AG269" s="14"/>
-      <c r="AH269" s="65" t="s">
+      <c r="AH269" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI269" s="14"/>
@@ -26570,7 +26610,7 @@
       <c r="F270" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="G270" s="32" t="s">
+      <c r="G270" s="36" t="s">
         <v>707</v>
       </c>
       <c r="H270" s="14" t="s">
@@ -26587,9 +26627,9 @@
       <c r="M270" s="19" t="n">
         <v>5449000131768</v>
       </c>
-      <c r="N270" s="30"/>
-      <c r="O270" s="30"/>
-      <c r="P270" s="30"/>
+      <c r="N270" s="34"/>
+      <c r="O270" s="34"/>
+      <c r="P270" s="34"/>
       <c r="Q270" s="14" t="s">
         <v>54</v>
       </c>
@@ -26619,7 +26659,7 @@
       </c>
       <c r="AF270" s="14"/>
       <c r="AG270" s="14"/>
-      <c r="AH270" s="65" t="s">
+      <c r="AH270" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI270" s="14"/>
@@ -26658,7 +26698,7 @@
       <c r="F271" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="G271" s="32" t="s">
+      <c r="G271" s="36" t="s">
         <v>709</v>
       </c>
       <c r="H271" s="14" t="s">
@@ -26675,9 +26715,9 @@
       <c r="M271" s="19" t="n">
         <v>5449000000996</v>
       </c>
-      <c r="N271" s="30"/>
-      <c r="O271" s="30"/>
-      <c r="P271" s="30"/>
+      <c r="N271" s="34"/>
+      <c r="O271" s="34"/>
+      <c r="P271" s="34"/>
       <c r="Q271" s="14" t="s">
         <v>54</v>
       </c>
@@ -26707,7 +26747,7 @@
       </c>
       <c r="AF271" s="14"/>
       <c r="AG271" s="14"/>
-      <c r="AH271" s="65" t="s">
+      <c r="AH271" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI271" s="14"/>
@@ -26746,7 +26786,7 @@
       <c r="F272" s="14" t="s">
         <v>710</v>
       </c>
-      <c r="G272" s="32" t="s">
+      <c r="G272" s="36" t="s">
         <v>711</v>
       </c>
       <c r="H272" s="14" t="s">
@@ -26763,9 +26803,9 @@
       <c r="M272" s="19" t="n">
         <v>54491472</v>
       </c>
-      <c r="N272" s="30"/>
-      <c r="O272" s="30"/>
-      <c r="P272" s="30"/>
+      <c r="N272" s="34"/>
+      <c r="O272" s="34"/>
+      <c r="P272" s="34"/>
       <c r="Q272" s="14" t="s">
         <v>54</v>
       </c>
@@ -26795,7 +26835,7 @@
       </c>
       <c r="AF272" s="14"/>
       <c r="AG272" s="14"/>
-      <c r="AH272" s="65" t="s">
+      <c r="AH272" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI272" s="14"/>
@@ -26834,7 +26874,7 @@
       <c r="F273" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="G273" s="32" t="s">
+      <c r="G273" s="36" t="s">
         <v>713</v>
       </c>
       <c r="H273" s="14" t="s">
@@ -26851,9 +26891,9 @@
       <c r="M273" s="19" t="n">
         <v>5449000228970</v>
       </c>
-      <c r="N273" s="30"/>
-      <c r="O273" s="30"/>
-      <c r="P273" s="30"/>
+      <c r="N273" s="34"/>
+      <c r="O273" s="34"/>
+      <c r="P273" s="34"/>
       <c r="Q273" s="14" t="s">
         <v>54</v>
       </c>
@@ -26883,7 +26923,7 @@
       </c>
       <c r="AF273" s="14"/>
       <c r="AG273" s="14"/>
-      <c r="AH273" s="65" t="s">
+      <c r="AH273" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI273" s="14"/>
@@ -26922,7 +26962,7 @@
       <c r="F274" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="G274" s="32" t="s">
+      <c r="G274" s="36" t="s">
         <v>715</v>
       </c>
       <c r="H274" s="14" t="s">
@@ -26939,9 +26979,9 @@
       <c r="M274" s="19" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="N274" s="30"/>
-      <c r="O274" s="30"/>
-      <c r="P274" s="30"/>
+      <c r="N274" s="34"/>
+      <c r="O274" s="34"/>
+      <c r="P274" s="34"/>
       <c r="Q274" s="14" t="s">
         <v>54</v>
       </c>
@@ -26971,7 +27011,7 @@
       </c>
       <c r="AF274" s="14"/>
       <c r="AG274" s="14"/>
-      <c r="AH274" s="65" t="s">
+      <c r="AH274" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI274" s="14"/>
@@ -27010,7 +27050,7 @@
       <c r="F275" s="14" t="s">
         <v>716</v>
       </c>
-      <c r="G275" s="32" t="s">
+      <c r="G275" s="36" t="s">
         <v>717</v>
       </c>
       <c r="H275" s="14" t="s">
@@ -27027,9 +27067,9 @@
       <c r="M275" s="19" t="n">
         <v>5449000231659</v>
       </c>
-      <c r="N275" s="30"/>
-      <c r="O275" s="30"/>
-      <c r="P275" s="30"/>
+      <c r="N275" s="34"/>
+      <c r="O275" s="34"/>
+      <c r="P275" s="34"/>
       <c r="Q275" s="14" t="s">
         <v>54</v>
       </c>
@@ -27059,7 +27099,7 @@
       </c>
       <c r="AF275" s="14"/>
       <c r="AG275" s="14"/>
-      <c r="AH275" s="65" t="s">
+      <c r="AH275" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI275" s="14"/>
@@ -27098,7 +27138,7 @@
       <c r="F276" s="14" t="s">
         <v>718</v>
       </c>
-      <c r="G276" s="32" t="s">
+      <c r="G276" s="36" t="s">
         <v>719</v>
       </c>
       <c r="H276" s="14" t="s">
@@ -27115,9 +27155,9 @@
       <c r="M276" s="19" t="n">
         <v>5449000011527</v>
       </c>
-      <c r="N276" s="30"/>
-      <c r="O276" s="30"/>
-      <c r="P276" s="30"/>
+      <c r="N276" s="34"/>
+      <c r="O276" s="34"/>
+      <c r="P276" s="34"/>
       <c r="Q276" s="14" t="s">
         <v>54</v>
       </c>
@@ -27147,7 +27187,7 @@
       </c>
       <c r="AF276" s="14"/>
       <c r="AG276" s="14"/>
-      <c r="AH276" s="65" t="s">
+      <c r="AH276" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI276" s="14"/>
@@ -27186,7 +27226,7 @@
       <c r="F277" s="14" t="s">
         <v>720</v>
       </c>
-      <c r="G277" s="32" t="s">
+      <c r="G277" s="36" t="s">
         <v>721</v>
       </c>
       <c r="H277" s="14" t="s">
@@ -27203,9 +27243,9 @@
       <c r="M277" s="19" t="n">
         <v>40822938</v>
       </c>
-      <c r="N277" s="30"/>
-      <c r="O277" s="30"/>
-      <c r="P277" s="30"/>
+      <c r="N277" s="34"/>
+      <c r="O277" s="34"/>
+      <c r="P277" s="34"/>
       <c r="Q277" s="14" t="s">
         <v>54</v>
       </c>
@@ -27235,7 +27275,7 @@
       </c>
       <c r="AF277" s="14"/>
       <c r="AG277" s="14"/>
-      <c r="AH277" s="65" t="s">
+      <c r="AH277" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI277" s="14"/>
@@ -27274,7 +27314,7 @@
       <c r="F278" s="14" t="s">
         <v>722</v>
       </c>
-      <c r="G278" s="32" t="s">
+      <c r="G278" s="36" t="s">
         <v>723</v>
       </c>
       <c r="H278" s="14" t="s">
@@ -27291,9 +27331,9 @@
       <c r="M278" s="19" t="n">
         <v>5449000228963</v>
       </c>
-      <c r="N278" s="30"/>
-      <c r="O278" s="30"/>
-      <c r="P278" s="30"/>
+      <c r="N278" s="34"/>
+      <c r="O278" s="34"/>
+      <c r="P278" s="34"/>
       <c r="Q278" s="14" t="s">
         <v>54</v>
       </c>
@@ -27323,7 +27363,7 @@
       </c>
       <c r="AF278" s="14"/>
       <c r="AG278" s="14"/>
-      <c r="AH278" s="65" t="s">
+      <c r="AH278" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI278" s="14"/>
@@ -27362,7 +27402,7 @@
       <c r="F279" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="G279" s="32" t="s">
+      <c r="G279" s="36" t="s">
         <v>725</v>
       </c>
       <c r="H279" s="14" t="s">
@@ -27379,9 +27419,9 @@
       <c r="M279" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="N279" s="30"/>
-      <c r="O279" s="30"/>
-      <c r="P279" s="30"/>
+      <c r="N279" s="34"/>
+      <c r="O279" s="34"/>
+      <c r="P279" s="34"/>
       <c r="Q279" s="14" t="s">
         <v>54</v>
       </c>
@@ -27411,7 +27451,7 @@
       </c>
       <c r="AF279" s="14"/>
       <c r="AG279" s="14"/>
-      <c r="AH279" s="65" t="s">
+      <c r="AH279" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI279" s="14"/>
@@ -27450,7 +27490,7 @@
       <c r="F280" s="14" t="s">
         <v>728</v>
       </c>
-      <c r="G280" s="32" t="s">
+      <c r="G280" s="36" t="s">
         <v>729</v>
       </c>
       <c r="H280" s="14" t="s">
@@ -27467,9 +27507,9 @@
       <c r="M280" s="19" t="s">
         <v>731</v>
       </c>
-      <c r="N280" s="30"/>
-      <c r="O280" s="30"/>
-      <c r="P280" s="30"/>
+      <c r="N280" s="34"/>
+      <c r="O280" s="34"/>
+      <c r="P280" s="34"/>
       <c r="Q280" s="14" t="s">
         <v>54</v>
       </c>
@@ -27499,7 +27539,7 @@
       </c>
       <c r="AF280" s="14"/>
       <c r="AG280" s="14"/>
-      <c r="AH280" s="65" t="s">
+      <c r="AH280" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI280" s="14"/>
@@ -27538,7 +27578,7 @@
       <c r="F281" s="14" t="s">
         <v>732</v>
       </c>
-      <c r="G281" s="32" t="s">
+      <c r="G281" s="36" t="s">
         <v>733</v>
       </c>
       <c r="H281" s="14" t="s">
@@ -27555,9 +27595,9 @@
       <c r="M281" s="19" t="n">
         <v>5060335632906</v>
       </c>
-      <c r="N281" s="30"/>
-      <c r="O281" s="30"/>
-      <c r="P281" s="30"/>
+      <c r="N281" s="34"/>
+      <c r="O281" s="34"/>
+      <c r="P281" s="34"/>
       <c r="Q281" s="14" t="s">
         <v>54</v>
       </c>
@@ -27587,7 +27627,7 @@
       </c>
       <c r="AF281" s="14"/>
       <c r="AG281" s="14"/>
-      <c r="AH281" s="65" t="s">
+      <c r="AH281" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI281" s="14"/>
@@ -27626,7 +27666,7 @@
       <c r="F282" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="G282" s="32" t="s">
+      <c r="G282" s="36" t="s">
         <v>735</v>
       </c>
       <c r="H282" s="14" t="s">
@@ -27643,9 +27683,9 @@
       <c r="M282" s="19" t="n">
         <v>5449000014535</v>
       </c>
-      <c r="N282" s="30"/>
-      <c r="O282" s="30"/>
-      <c r="P282" s="30"/>
+      <c r="N282" s="34"/>
+      <c r="O282" s="34"/>
+      <c r="P282" s="34"/>
       <c r="Q282" s="14" t="s">
         <v>54</v>
       </c>
@@ -27675,7 +27715,7 @@
       </c>
       <c r="AF282" s="14"/>
       <c r="AG282" s="14"/>
-      <c r="AH282" s="65" t="s">
+      <c r="AH282" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI282" s="14"/>
@@ -27714,7 +27754,7 @@
       <c r="F283" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="G283" s="32" t="s">
+      <c r="G283" s="36" t="s">
         <v>737</v>
       </c>
       <c r="H283" s="14" t="s">
@@ -27731,9 +27771,9 @@
       <c r="M283" s="19" t="n">
         <v>54491069</v>
       </c>
-      <c r="N283" s="30"/>
-      <c r="O283" s="30"/>
-      <c r="P283" s="30"/>
+      <c r="N283" s="34"/>
+      <c r="O283" s="34"/>
+      <c r="P283" s="34"/>
       <c r="Q283" s="14" t="s">
         <v>54</v>
       </c>
@@ -27763,7 +27803,7 @@
       </c>
       <c r="AF283" s="14"/>
       <c r="AG283" s="14"/>
-      <c r="AH283" s="65" t="s">
+      <c r="AH283" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI283" s="14"/>
@@ -27802,7 +27842,7 @@
       <c r="F284" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="G284" s="32" t="s">
+      <c r="G284" s="36" t="s">
         <v>739</v>
       </c>
       <c r="H284" s="14" t="s">
@@ -27819,9 +27859,9 @@
       <c r="M284" s="19" t="n">
         <v>5449000228956</v>
       </c>
-      <c r="N284" s="30"/>
-      <c r="O284" s="30"/>
-      <c r="P284" s="30"/>
+      <c r="N284" s="34"/>
+      <c r="O284" s="34"/>
+      <c r="P284" s="34"/>
       <c r="Q284" s="14" t="s">
         <v>54</v>
       </c>
@@ -27851,7 +27891,7 @@
       </c>
       <c r="AF284" s="14"/>
       <c r="AG284" s="14"/>
-      <c r="AH284" s="65" t="s">
+      <c r="AH284" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI284" s="14"/>
@@ -27893,19 +27933,19 @@
       <c r="G285" s="10" t="s">
         <v>741</v>
       </c>
-      <c r="H285" s="54" t="s">
+      <c r="H285" s="58" t="s">
         <v>742</v>
       </c>
       <c r="I285" s="14"/>
       <c r="J285" s="14"/>
       <c r="K285" s="14"/>
       <c r="L285" s="14"/>
-      <c r="M285" s="41" t="s">
+      <c r="M285" s="45" t="s">
         <v>685</v>
       </c>
-      <c r="N285" s="41"/>
-      <c r="O285" s="41"/>
-      <c r="P285" s="41"/>
+      <c r="N285" s="45"/>
+      <c r="O285" s="45"/>
+      <c r="P285" s="45"/>
       <c r="Q285" s="10"/>
       <c r="R285" s="10" t="s">
         <v>574</v>
@@ -27933,7 +27973,7 @@
       </c>
       <c r="AF285" s="14"/>
       <c r="AG285" s="14"/>
-      <c r="AH285" s="65" t="s">
+      <c r="AH285" s="68" t="s">
         <v>695</v>
       </c>
       <c r="AI285" s="14"/>
@@ -27948,7 +27988,7 @@
         <v>284</v>
       </c>
       <c r="AN285" s="10"/>
-      <c r="AO285" s="66" t="s">
+      <c r="AO285" s="69" t="s">
         <v>696</v>
       </c>
       <c r="AP285" s="10"/>
@@ -27983,13 +28023,13 @@
       </c>
       <c r="J286" s="14"/>
       <c r="K286" s="14"/>
-      <c r="L286" s="41"/>
-      <c r="M286" s="41" t="s">
+      <c r="L286" s="45"/>
+      <c r="M286" s="45" t="s">
         <v>745</v>
       </c>
-      <c r="N286" s="41"/>
-      <c r="O286" s="41"/>
-      <c r="P286" s="41" t="s">
+      <c r="N286" s="45"/>
+      <c r="O286" s="45"/>
+      <c r="P286" s="45" t="s">
         <v>745</v>
       </c>
       <c r="Q286" s="14" t="s">
@@ -28009,7 +28049,7 @@
       <c r="Y286" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="Z286" s="54"/>
+      <c r="Z286" s="58"/>
       <c r="AA286" s="14"/>
       <c r="AB286" s="14"/>
       <c r="AC286" s="10" t="s">
@@ -28018,7 +28058,7 @@
       <c r="AD286" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="AE286" s="70" t="n">
+      <c r="AE286" s="72" t="n">
         <v>0.005</v>
       </c>
       <c r="AF286" s="14"/>
@@ -28034,7 +28074,7 @@
         <v>285</v>
       </c>
       <c r="AN286" s="10"/>
-      <c r="AO286" s="71" t="s">
+      <c r="AO286" s="73" t="s">
         <v>749</v>
       </c>
       <c r="AP286" s="10"/>
@@ -28049,81 +28089,81 @@
       <c r="C287" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D287" s="72" t="s">
+      <c r="D287" s="74" t="s">
         <v>429</v>
       </c>
-      <c r="E287" s="72" t="s">
+      <c r="E287" s="74" t="s">
         <v>430</v>
       </c>
-      <c r="F287" s="73" t="s">
+      <c r="F287" s="75" t="s">
         <v>750</v>
       </c>
-      <c r="G287" s="52" t="s">
+      <c r="G287" s="56" t="s">
         <v>751</v>
       </c>
-      <c r="H287" s="73" t="s">
+      <c r="H287" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="I287" s="73" t="n">
+      <c r="I287" s="75" t="n">
         <v>5</v>
       </c>
-      <c r="J287" s="73"/>
-      <c r="K287" s="73"/>
-      <c r="L287" s="73"/>
-      <c r="M287" s="74" t="s">
+      <c r="J287" s="75"/>
+      <c r="K287" s="75"/>
+      <c r="L287" s="75"/>
+      <c r="M287" s="76" t="s">
         <v>752</v>
       </c>
-      <c r="N287" s="74"/>
-      <c r="O287" s="74"/>
-      <c r="P287" s="74" t="s">
+      <c r="N287" s="76"/>
+      <c r="O287" s="76"/>
+      <c r="P287" s="76" t="s">
         <v>752</v>
       </c>
-      <c r="Q287" s="73" t="s">
+      <c r="Q287" s="75" t="s">
         <v>54</v>
       </c>
       <c r="R287" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="S287" s="73"/>
-      <c r="T287" s="73"/>
-      <c r="U287" s="73"/>
-      <c r="V287" s="73"/>
+      <c r="S287" s="75"/>
+      <c r="T287" s="75"/>
+      <c r="U287" s="75"/>
+      <c r="V287" s="75"/>
       <c r="W287" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="X287" s="73"/>
+      <c r="X287" s="75"/>
       <c r="Y287" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="Z287" s="75"/>
-      <c r="AA287" s="73"/>
-      <c r="AB287" s="73"/>
-      <c r="AC287" s="52" t="s">
+      <c r="Z287" s="77"/>
+      <c r="AA287" s="75"/>
+      <c r="AB287" s="75"/>
+      <c r="AC287" s="56" t="s">
         <v>49</v>
       </c>
       <c r="AD287" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="AE287" s="70" t="n">
+      <c r="AE287" s="72" t="n">
         <v>0.005</v>
       </c>
       <c r="AF287" s="14"/>
       <c r="AG287" s="14"/>
-      <c r="AH287" s="73"/>
-      <c r="AI287" s="73"/>
-      <c r="AJ287" s="73"/>
-      <c r="AK287" s="73"/>
-      <c r="AL287" s="52" t="n">
+      <c r="AH287" s="75"/>
+      <c r="AI287" s="75"/>
+      <c r="AJ287" s="75"/>
+      <c r="AK287" s="75"/>
+      <c r="AL287" s="56" t="n">
         <v>2</v>
       </c>
       <c r="AM287" s="12" t="n">
         <v>286</v>
       </c>
-      <c r="AN287" s="52"/>
-      <c r="AO287" s="71" t="s">
+      <c r="AN287" s="56"/>
+      <c r="AO287" s="73" t="s">
         <v>749</v>
       </c>
-      <c r="AP287" s="52"/>
+      <c r="AP287" s="56"/>
     </row>
     <row r="288" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="12" t="n">
@@ -28156,10 +28196,10 @@
       <c r="J288" s="14"/>
       <c r="K288" s="14"/>
       <c r="L288" s="14"/>
-      <c r="M288" s="41"/>
-      <c r="N288" s="41"/>
-      <c r="O288" s="41"/>
-      <c r="P288" s="41"/>
+      <c r="M288" s="45"/>
+      <c r="N288" s="45"/>
+      <c r="O288" s="45"/>
+      <c r="P288" s="45"/>
       <c r="Q288" s="14" t="s">
         <v>54</v>
       </c>
@@ -28171,7 +28211,7 @@
       <c r="W288" s="14"/>
       <c r="X288" s="14"/>
       <c r="Y288" s="14"/>
-      <c r="Z288" s="54"/>
+      <c r="Z288" s="58"/>
       <c r="AA288" s="14"/>
       <c r="AB288" s="14"/>
       <c r="AC288" s="10" t="s">
@@ -28195,10 +28235,10 @@
       <c r="AM288" s="12" t="n">
         <v>287</v>
       </c>
-      <c r="AN288" s="33" t="s">
+      <c r="AN288" s="37" t="s">
         <v>755</v>
       </c>
-      <c r="AO288" s="71" t="s">
+      <c r="AO288" s="73" t="s">
         <v>756</v>
       </c>
       <c r="AP288" s="10"/>
@@ -28234,10 +28274,10 @@
       <c r="J289" s="14"/>
       <c r="K289" s="14"/>
       <c r="L289" s="14"/>
-      <c r="M289" s="41"/>
-      <c r="N289" s="41"/>
-      <c r="O289" s="41"/>
-      <c r="P289" s="41"/>
+      <c r="M289" s="45"/>
+      <c r="N289" s="45"/>
+      <c r="O289" s="45"/>
+      <c r="P289" s="45"/>
       <c r="Q289" s="14" t="s">
         <v>54</v>
       </c>
@@ -28314,10 +28354,10 @@
       <c r="J290" s="14"/>
       <c r="K290" s="14"/>
       <c r="L290" s="14"/>
-      <c r="M290" s="41"/>
-      <c r="N290" s="41"/>
-      <c r="O290" s="41"/>
-      <c r="P290" s="41"/>
+      <c r="M290" s="45"/>
+      <c r="N290" s="45"/>
+      <c r="O290" s="45"/>
+      <c r="P290" s="45"/>
       <c r="Q290" s="14" t="s">
         <v>54</v>
       </c>
@@ -28394,10 +28434,10 @@
       <c r="J291" s="14"/>
       <c r="K291" s="14"/>
       <c r="L291" s="14"/>
-      <c r="M291" s="41"/>
-      <c r="N291" s="41"/>
-      <c r="O291" s="41"/>
-      <c r="P291" s="41"/>
+      <c r="M291" s="45"/>
+      <c r="N291" s="45"/>
+      <c r="O291" s="45"/>
+      <c r="P291" s="45"/>
       <c r="Q291" s="14" t="s">
         <v>54</v>
       </c>
@@ -28474,10 +28514,10 @@
       <c r="J292" s="14"/>
       <c r="K292" s="14"/>
       <c r="L292" s="14"/>
-      <c r="M292" s="41"/>
-      <c r="N292" s="41"/>
-      <c r="O292" s="41"/>
-      <c r="P292" s="41"/>
+      <c r="M292" s="45"/>
+      <c r="N292" s="45"/>
+      <c r="O292" s="45"/>
+      <c r="P292" s="45"/>
       <c r="Q292" s="14" t="s">
         <v>54</v>
       </c>
@@ -28556,10 +28596,10 @@
       <c r="L293" s="14" t="s">
         <v>771</v>
       </c>
-      <c r="M293" s="41"/>
-      <c r="N293" s="41"/>
-      <c r="O293" s="41"/>
-      <c r="P293" s="41"/>
+      <c r="M293" s="45"/>
+      <c r="N293" s="45"/>
+      <c r="O293" s="45"/>
+      <c r="P293" s="45"/>
       <c r="Q293" s="14" t="s">
         <v>54</v>
       </c>
@@ -28618,7 +28658,7 @@
       <c r="D294" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="E294" s="76" t="s">
+      <c r="E294" s="78" t="s">
         <v>430</v>
       </c>
       <c r="F294" s="14" t="s">
@@ -28627,7 +28667,7 @@
       <c r="G294" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="H294" s="77" t="s">
+      <c r="H294" s="79" t="s">
         <v>678</v>
       </c>
       <c r="I294" s="14" t="n">
@@ -28636,10 +28676,10 @@
       <c r="J294" s="14"/>
       <c r="K294" s="14"/>
       <c r="L294" s="14"/>
-      <c r="M294" s="41"/>
-      <c r="N294" s="41"/>
-      <c r="O294" s="41"/>
-      <c r="P294" s="41"/>
+      <c r="M294" s="45"/>
+      <c r="N294" s="45"/>
+      <c r="O294" s="45"/>
+      <c r="P294" s="45"/>
       <c r="Q294" s="10" t="s">
         <v>54</v>
       </c>
@@ -28653,7 +28693,7 @@
       </c>
       <c r="X294" s="14"/>
       <c r="Y294" s="14"/>
-      <c r="Z294" s="54"/>
+      <c r="Z294" s="58"/>
       <c r="AA294" s="14"/>
       <c r="AB294" s="14"/>
       <c r="AC294" s="10" t="s">
@@ -28677,10 +28717,10 @@
       <c r="AM294" s="12" t="n">
         <v>293</v>
       </c>
-      <c r="AN294" s="55" t="s">
+      <c r="AN294" s="59" t="s">
         <v>775</v>
       </c>
-      <c r="AO294" s="66" t="s">
+      <c r="AO294" s="69" t="s">
         <v>776</v>
       </c>
       <c r="AP294" s="10"/>
@@ -28698,7 +28738,7 @@
       <c r="D295" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="E295" s="76" t="s">
+      <c r="E295" s="78" t="s">
         <v>430</v>
       </c>
       <c r="F295" s="14" t="s">
@@ -28707,7 +28747,7 @@
       <c r="G295" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="H295" s="78" t="s">
+      <c r="H295" s="80" t="s">
         <v>779</v>
       </c>
       <c r="I295" s="14" t="n">
@@ -28720,12 +28760,12 @@
       <c r="L295" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="M295" s="41" t="s">
+      <c r="M295" s="45" t="s">
         <v>685</v>
       </c>
-      <c r="N295" s="41"/>
-      <c r="O295" s="41"/>
-      <c r="P295" s="41"/>
+      <c r="N295" s="45"/>
+      <c r="O295" s="45"/>
+      <c r="P295" s="45"/>
       <c r="Q295" s="14" t="s">
         <v>54</v>
       </c>
@@ -28741,7 +28781,7 @@
       </c>
       <c r="X295" s="14"/>
       <c r="Y295" s="14"/>
-      <c r="Z295" s="54"/>
+      <c r="Z295" s="58"/>
       <c r="AA295" s="14"/>
       <c r="AB295" s="14"/>
       <c r="AC295" s="10" t="s">
@@ -28768,7 +28808,7 @@
         <v>294</v>
       </c>
       <c r="AN295" s="10"/>
-      <c r="AO295" s="79" t="s">
+      <c r="AO295" s="81" t="s">
         <v>773</v>
       </c>
       <c r="AP295" s="10"/>
@@ -28777,1254 +28817,1254 @@
       <c r="A296" s="12" t="n">
         <v>295</v>
       </c>
-      <c r="B296" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C296" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D296" s="80" t="s">
+      <c r="B296" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C296" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D296" s="82" t="s">
         <v>782</v>
       </c>
-      <c r="E296" s="66" t="s">
+      <c r="E296" s="69" t="s">
         <v>783</v>
       </c>
-      <c r="F296" s="82" t="s">
+      <c r="F296" s="84" t="s">
         <v>605</v>
       </c>
-      <c r="G296" s="81"/>
-      <c r="H296" s="83" t="s">
+      <c r="G296" s="83"/>
+      <c r="H296" s="85" t="s">
         <v>784</v>
       </c>
-      <c r="I296" s="84" t="s">
+      <c r="I296" s="86" t="s">
         <v>785</v>
       </c>
-      <c r="J296" s="81"/>
-      <c r="K296" s="81"/>
-      <c r="L296" s="81"/>
-      <c r="M296" s="81"/>
-      <c r="N296" s="81"/>
-      <c r="O296" s="81"/>
-      <c r="P296" s="81"/>
-      <c r="Q296" s="81"/>
-      <c r="R296" s="81"/>
-      <c r="S296" s="81"/>
-      <c r="T296" s="81"/>
-      <c r="U296" s="81"/>
-      <c r="V296" s="81"/>
-      <c r="W296" s="81"/>
-      <c r="X296" s="81"/>
-      <c r="Y296" s="81"/>
-      <c r="Z296" s="81"/>
-      <c r="AA296" s="81"/>
-      <c r="AB296" s="81"/>
-      <c r="AC296" s="81"/>
-      <c r="AD296" s="81"/>
-      <c r="AE296" s="85" t="n">
+      <c r="J296" s="83"/>
+      <c r="K296" s="83"/>
+      <c r="L296" s="83"/>
+      <c r="M296" s="83"/>
+      <c r="N296" s="83"/>
+      <c r="O296" s="83"/>
+      <c r="P296" s="83"/>
+      <c r="Q296" s="83"/>
+      <c r="R296" s="83"/>
+      <c r="S296" s="83"/>
+      <c r="T296" s="83"/>
+      <c r="U296" s="83"/>
+      <c r="V296" s="83"/>
+      <c r="W296" s="83"/>
+      <c r="X296" s="83"/>
+      <c r="Y296" s="83"/>
+      <c r="Z296" s="83"/>
+      <c r="AA296" s="83"/>
+      <c r="AB296" s="83"/>
+      <c r="AC296" s="83"/>
+      <c r="AD296" s="83"/>
+      <c r="AE296" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="AF296" s="81"/>
-      <c r="AG296" s="81"/>
-      <c r="AH296" s="81"/>
-      <c r="AI296" s="81"/>
-      <c r="AJ296" s="81"/>
-      <c r="AK296" s="81"/>
-      <c r="AL296" s="81" t="s">
+      <c r="AF296" s="83"/>
+      <c r="AG296" s="83"/>
+      <c r="AH296" s="83"/>
+      <c r="AI296" s="83"/>
+      <c r="AJ296" s="83"/>
+      <c r="AK296" s="83"/>
+      <c r="AL296" s="83" t="s">
         <v>430</v>
       </c>
       <c r="AM296" s="12" t="n">
         <v>295</v>
       </c>
-      <c r="AN296" s="81"/>
-      <c r="AO296" s="81"/>
-      <c r="AP296" s="81"/>
+      <c r="AN296" s="83"/>
+      <c r="AO296" s="83"/>
+      <c r="AP296" s="83"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="12" t="n">
         <v>296</v>
       </c>
-      <c r="B297" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C297" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D297" s="80" t="s">
+      <c r="B297" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C297" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D297" s="82" t="s">
         <v>782</v>
       </c>
-      <c r="E297" s="66" t="s">
+      <c r="E297" s="69" t="s">
         <v>786</v>
       </c>
-      <c r="F297" s="86" t="s">
+      <c r="F297" s="88" t="s">
         <v>749</v>
       </c>
-      <c r="G297" s="81"/>
-      <c r="H297" s="81" t="s">
+      <c r="G297" s="83"/>
+      <c r="H297" s="83" t="s">
         <v>787</v>
       </c>
-      <c r="I297" s="84" t="s">
+      <c r="I297" s="86" t="s">
         <v>785</v>
       </c>
-      <c r="J297" s="83"/>
-      <c r="K297" s="81"/>
-      <c r="L297" s="81"/>
-      <c r="M297" s="81"/>
-      <c r="N297" s="81"/>
-      <c r="O297" s="81"/>
-      <c r="P297" s="81"/>
-      <c r="Q297" s="81"/>
-      <c r="R297" s="81"/>
-      <c r="S297" s="81"/>
-      <c r="T297" s="81"/>
-      <c r="U297" s="81"/>
-      <c r="V297" s="81"/>
-      <c r="W297" s="81"/>
-      <c r="X297" s="81"/>
-      <c r="Y297" s="81"/>
-      <c r="Z297" s="81"/>
-      <c r="AA297" s="81"/>
-      <c r="AB297" s="81"/>
-      <c r="AC297" s="81"/>
-      <c r="AD297" s="81"/>
-      <c r="AE297" s="85" t="n">
+      <c r="J297" s="85"/>
+      <c r="K297" s="83"/>
+      <c r="L297" s="83"/>
+      <c r="M297" s="83"/>
+      <c r="N297" s="83"/>
+      <c r="O297" s="83"/>
+      <c r="P297" s="83"/>
+      <c r="Q297" s="83"/>
+      <c r="R297" s="83"/>
+      <c r="S297" s="83"/>
+      <c r="T297" s="83"/>
+      <c r="U297" s="83"/>
+      <c r="V297" s="83"/>
+      <c r="W297" s="83"/>
+      <c r="X297" s="83"/>
+      <c r="Y297" s="83"/>
+      <c r="Z297" s="83"/>
+      <c r="AA297" s="83"/>
+      <c r="AB297" s="83"/>
+      <c r="AC297" s="83"/>
+      <c r="AD297" s="83"/>
+      <c r="AE297" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="AF297" s="81"/>
-      <c r="AG297" s="81"/>
-      <c r="AH297" s="81"/>
-      <c r="AI297" s="81"/>
-      <c r="AJ297" s="81"/>
-      <c r="AK297" s="81"/>
-      <c r="AL297" s="81" t="s">
+      <c r="AF297" s="83"/>
+      <c r="AG297" s="83"/>
+      <c r="AH297" s="83"/>
+      <c r="AI297" s="83"/>
+      <c r="AJ297" s="83"/>
+      <c r="AK297" s="83"/>
+      <c r="AL297" s="83" t="s">
         <v>430</v>
       </c>
       <c r="AM297" s="12" t="n">
         <v>296</v>
       </c>
-      <c r="AN297" s="81"/>
-      <c r="AO297" s="81"/>
-      <c r="AP297" s="81"/>
+      <c r="AN297" s="83"/>
+      <c r="AO297" s="83"/>
+      <c r="AP297" s="83"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="12" t="n">
         <v>297</v>
       </c>
-      <c r="B298" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C298" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D298" s="80" t="s">
+      <c r="B298" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C298" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D298" s="82" t="s">
         <v>782</v>
       </c>
-      <c r="E298" s="66" t="s">
+      <c r="E298" s="69" t="s">
         <v>788</v>
       </c>
-      <c r="F298" s="86" t="s">
+      <c r="F298" s="88" t="s">
         <v>756</v>
       </c>
-      <c r="G298" s="81"/>
-      <c r="H298" s="81" t="s">
+      <c r="G298" s="83"/>
+      <c r="H298" s="83" t="s">
         <v>789</v>
       </c>
-      <c r="I298" s="84" t="s">
+      <c r="I298" s="86" t="s">
         <v>785</v>
       </c>
-      <c r="J298" s="81"/>
-      <c r="K298" s="81"/>
-      <c r="L298" s="81"/>
-      <c r="M298" s="81"/>
-      <c r="N298" s="81"/>
-      <c r="O298" s="81"/>
-      <c r="P298" s="81"/>
-      <c r="Q298" s="81"/>
-      <c r="R298" s="81"/>
-      <c r="S298" s="81"/>
-      <c r="T298" s="81"/>
-      <c r="U298" s="81"/>
-      <c r="V298" s="81"/>
-      <c r="W298" s="81"/>
-      <c r="X298" s="81"/>
-      <c r="Y298" s="81"/>
-      <c r="Z298" s="81"/>
-      <c r="AA298" s="81"/>
-      <c r="AB298" s="81"/>
-      <c r="AC298" s="81"/>
-      <c r="AD298" s="81"/>
-      <c r="AE298" s="85" t="n">
+      <c r="J298" s="83"/>
+      <c r="K298" s="83"/>
+      <c r="L298" s="83"/>
+      <c r="M298" s="83"/>
+      <c r="N298" s="83"/>
+      <c r="O298" s="83"/>
+      <c r="P298" s="83"/>
+      <c r="Q298" s="83"/>
+      <c r="R298" s="83"/>
+      <c r="S298" s="83"/>
+      <c r="T298" s="83"/>
+      <c r="U298" s="83"/>
+      <c r="V298" s="83"/>
+      <c r="W298" s="83"/>
+      <c r="X298" s="83"/>
+      <c r="Y298" s="83"/>
+      <c r="Z298" s="83"/>
+      <c r="AA298" s="83"/>
+      <c r="AB298" s="83"/>
+      <c r="AC298" s="83"/>
+      <c r="AD298" s="83"/>
+      <c r="AE298" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="AF298" s="81"/>
-      <c r="AG298" s="81"/>
-      <c r="AH298" s="81"/>
-      <c r="AI298" s="81"/>
-      <c r="AJ298" s="81"/>
-      <c r="AK298" s="81"/>
-      <c r="AL298" s="81" t="s">
+      <c r="AF298" s="83"/>
+      <c r="AG298" s="83"/>
+      <c r="AH298" s="83"/>
+      <c r="AI298" s="83"/>
+      <c r="AJ298" s="83"/>
+      <c r="AK298" s="83"/>
+      <c r="AL298" s="83" t="s">
         <v>430</v>
       </c>
       <c r="AM298" s="12" t="n">
         <v>297</v>
       </c>
-      <c r="AN298" s="81"/>
-      <c r="AO298" s="81"/>
-      <c r="AP298" s="81"/>
+      <c r="AN298" s="83"/>
+      <c r="AO298" s="83"/>
+      <c r="AP298" s="83"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="12" t="n">
         <v>298</v>
       </c>
-      <c r="B299" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C299" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D299" s="87" t="s">
+      <c r="B299" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C299" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D299" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="E299" s="66" t="s">
+      <c r="E299" s="69" t="s">
         <v>790</v>
       </c>
-      <c r="F299" s="66" t="s">
+      <c r="F299" s="69" t="s">
         <v>696</v>
       </c>
-      <c r="G299" s="81"/>
-      <c r="H299" s="81" t="s">
+      <c r="G299" s="83"/>
+      <c r="H299" s="83" t="s">
         <v>787</v>
       </c>
-      <c r="I299" s="84" t="s">
+      <c r="I299" s="86" t="s">
         <v>785</v>
       </c>
-      <c r="J299" s="81"/>
-      <c r="K299" s="81"/>
-      <c r="L299" s="81"/>
-      <c r="M299" s="81"/>
-      <c r="N299" s="81"/>
-      <c r="O299" s="81"/>
-      <c r="P299" s="81"/>
-      <c r="Q299" s="81"/>
-      <c r="R299" s="81"/>
-      <c r="S299" s="81"/>
-      <c r="T299" s="81"/>
-      <c r="U299" s="81"/>
-      <c r="V299" s="81"/>
-      <c r="W299" s="81"/>
-      <c r="X299" s="81"/>
-      <c r="Y299" s="81"/>
-      <c r="Z299" s="81"/>
-      <c r="AA299" s="81"/>
-      <c r="AB299" s="81"/>
-      <c r="AC299" s="81"/>
-      <c r="AD299" s="81"/>
-      <c r="AE299" s="88" t="n">
+      <c r="J299" s="83"/>
+      <c r="K299" s="83"/>
+      <c r="L299" s="83"/>
+      <c r="M299" s="83"/>
+      <c r="N299" s="83"/>
+      <c r="O299" s="83"/>
+      <c r="P299" s="83"/>
+      <c r="Q299" s="83"/>
+      <c r="R299" s="83"/>
+      <c r="S299" s="83"/>
+      <c r="T299" s="83"/>
+      <c r="U299" s="83"/>
+      <c r="V299" s="83"/>
+      <c r="W299" s="83"/>
+      <c r="X299" s="83"/>
+      <c r="Y299" s="83"/>
+      <c r="Z299" s="83"/>
+      <c r="AA299" s="83"/>
+      <c r="AB299" s="83"/>
+      <c r="AC299" s="83"/>
+      <c r="AD299" s="83"/>
+      <c r="AE299" s="90" t="n">
         <v>0</v>
       </c>
-      <c r="AF299" s="81"/>
-      <c r="AG299" s="81"/>
-      <c r="AH299" s="81"/>
-      <c r="AI299" s="81"/>
-      <c r="AJ299" s="81"/>
-      <c r="AK299" s="81"/>
-      <c r="AL299" s="81" t="s">
+      <c r="AF299" s="83"/>
+      <c r="AG299" s="83"/>
+      <c r="AH299" s="83"/>
+      <c r="AI299" s="83"/>
+      <c r="AJ299" s="83"/>
+      <c r="AK299" s="83"/>
+      <c r="AL299" s="83" t="s">
         <v>430</v>
       </c>
       <c r="AM299" s="12" t="n">
         <v>298</v>
       </c>
-      <c r="AN299" s="81"/>
-      <c r="AO299" s="81"/>
-      <c r="AP299" s="81"/>
+      <c r="AN299" s="83"/>
+      <c r="AO299" s="83"/>
+      <c r="AP299" s="83"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="12" t="n">
         <v>299</v>
       </c>
-      <c r="B300" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C300" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D300" s="87" t="s">
+      <c r="B300" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C300" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D300" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="E300" s="66" t="s">
+      <c r="E300" s="69" t="s">
         <v>791</v>
       </c>
-      <c r="F300" s="66" t="s">
+      <c r="F300" s="69" t="s">
         <v>776</v>
       </c>
-      <c r="G300" s="81"/>
-      <c r="H300" s="81" t="s">
+      <c r="G300" s="83"/>
+      <c r="H300" s="83" t="s">
         <v>789</v>
       </c>
-      <c r="I300" s="84" t="s">
+      <c r="I300" s="86" t="s">
         <v>785</v>
       </c>
-      <c r="J300" s="81"/>
-      <c r="K300" s="81"/>
-      <c r="L300" s="81"/>
-      <c r="M300" s="81"/>
-      <c r="N300" s="81"/>
-      <c r="O300" s="81"/>
-      <c r="P300" s="81"/>
-      <c r="Q300" s="81"/>
-      <c r="R300" s="81"/>
-      <c r="S300" s="81"/>
-      <c r="T300" s="81"/>
-      <c r="U300" s="81"/>
-      <c r="V300" s="81"/>
-      <c r="W300" s="81"/>
-      <c r="X300" s="81"/>
-      <c r="Y300" s="81"/>
-      <c r="Z300" s="81"/>
-      <c r="AA300" s="81"/>
-      <c r="AB300" s="81"/>
-      <c r="AC300" s="81"/>
-      <c r="AD300" s="81"/>
-      <c r="AE300" s="88" t="n">
+      <c r="J300" s="83"/>
+      <c r="K300" s="83"/>
+      <c r="L300" s="83"/>
+      <c r="M300" s="83"/>
+      <c r="N300" s="83"/>
+      <c r="O300" s="83"/>
+      <c r="P300" s="83"/>
+      <c r="Q300" s="83"/>
+      <c r="R300" s="83"/>
+      <c r="S300" s="83"/>
+      <c r="T300" s="83"/>
+      <c r="U300" s="83"/>
+      <c r="V300" s="83"/>
+      <c r="W300" s="83"/>
+      <c r="X300" s="83"/>
+      <c r="Y300" s="83"/>
+      <c r="Z300" s="83"/>
+      <c r="AA300" s="83"/>
+      <c r="AB300" s="83"/>
+      <c r="AC300" s="83"/>
+      <c r="AD300" s="83"/>
+      <c r="AE300" s="90" t="n">
         <v>0</v>
       </c>
-      <c r="AF300" s="81"/>
-      <c r="AG300" s="81"/>
-      <c r="AH300" s="81"/>
-      <c r="AI300" s="81"/>
-      <c r="AJ300" s="81"/>
-      <c r="AK300" s="81"/>
-      <c r="AL300" s="81"/>
+      <c r="AF300" s="83"/>
+      <c r="AG300" s="83"/>
+      <c r="AH300" s="83"/>
+      <c r="AI300" s="83"/>
+      <c r="AJ300" s="83"/>
+      <c r="AK300" s="83"/>
+      <c r="AL300" s="83"/>
       <c r="AM300" s="12" t="n">
         <v>299</v>
       </c>
-      <c r="AN300" s="81"/>
-      <c r="AO300" s="81"/>
-      <c r="AP300" s="81"/>
+      <c r="AN300" s="83"/>
+      <c r="AO300" s="83"/>
+      <c r="AP300" s="83"/>
     </row>
     <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="B301" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C301" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D301" s="87" t="s">
+      <c r="B301" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C301" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D301" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="E301" s="66" t="s">
+      <c r="E301" s="69" t="s">
         <v>792</v>
       </c>
-      <c r="F301" s="66" t="s">
+      <c r="F301" s="69" t="s">
         <v>435</v>
       </c>
-      <c r="G301" s="81"/>
-      <c r="H301" s="83" t="s">
+      <c r="G301" s="83"/>
+      <c r="H301" s="85" t="s">
         <v>784</v>
       </c>
-      <c r="I301" s="84" t="s">
+      <c r="I301" s="86" t="s">
         <v>785</v>
       </c>
-      <c r="J301" s="81"/>
-      <c r="K301" s="81"/>
-      <c r="L301" s="81"/>
-      <c r="M301" s="81"/>
-      <c r="N301" s="81"/>
-      <c r="O301" s="81"/>
-      <c r="P301" s="81"/>
-      <c r="Q301" s="81"/>
-      <c r="R301" s="81"/>
-      <c r="S301" s="81"/>
-      <c r="T301" s="81"/>
-      <c r="U301" s="81"/>
-      <c r="V301" s="81"/>
-      <c r="W301" s="81"/>
-      <c r="X301" s="81"/>
-      <c r="Y301" s="81"/>
-      <c r="Z301" s="81"/>
-      <c r="AA301" s="81"/>
-      <c r="AB301" s="81"/>
-      <c r="AC301" s="81"/>
-      <c r="AD301" s="81"/>
-      <c r="AE301" s="88" t="n">
+      <c r="J301" s="83"/>
+      <c r="K301" s="83"/>
+      <c r="L301" s="83"/>
+      <c r="M301" s="83"/>
+      <c r="N301" s="83"/>
+      <c r="O301" s="83"/>
+      <c r="P301" s="83"/>
+      <c r="Q301" s="83"/>
+      <c r="R301" s="83"/>
+      <c r="S301" s="83"/>
+      <c r="T301" s="83"/>
+      <c r="U301" s="83"/>
+      <c r="V301" s="83"/>
+      <c r="W301" s="83"/>
+      <c r="X301" s="83"/>
+      <c r="Y301" s="83"/>
+      <c r="Z301" s="83"/>
+      <c r="AA301" s="83"/>
+      <c r="AB301" s="83"/>
+      <c r="AC301" s="83"/>
+      <c r="AD301" s="83"/>
+      <c r="AE301" s="90" t="n">
         <v>0</v>
       </c>
-      <c r="AF301" s="81"/>
-      <c r="AG301" s="81"/>
-      <c r="AH301" s="81"/>
-      <c r="AI301" s="81"/>
-      <c r="AJ301" s="81"/>
-      <c r="AK301" s="81"/>
-      <c r="AL301" s="81"/>
+      <c r="AF301" s="83"/>
+      <c r="AG301" s="83"/>
+      <c r="AH301" s="83"/>
+      <c r="AI301" s="83"/>
+      <c r="AJ301" s="83"/>
+      <c r="AK301" s="83"/>
+      <c r="AL301" s="83"/>
       <c r="AM301" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="AN301" s="81"/>
-      <c r="AO301" s="81"/>
-      <c r="AP301" s="81"/>
+      <c r="AN301" s="83"/>
+      <c r="AO301" s="83"/>
+      <c r="AP301" s="83"/>
     </row>
     <row r="302" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="12" t="n">
         <v>301</v>
       </c>
-      <c r="B302" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C302" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D302" s="87" t="s">
+      <c r="B302" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C302" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D302" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="E302" s="66" t="s">
+      <c r="E302" s="69" t="s">
         <v>793</v>
       </c>
-      <c r="F302" s="66" t="s">
+      <c r="F302" s="69" t="s">
         <v>794</v>
       </c>
-      <c r="G302" s="81"/>
-      <c r="H302" s="83" t="s">
+      <c r="G302" s="83"/>
+      <c r="H302" s="85" t="s">
         <v>795</v>
       </c>
-      <c r="I302" s="84" t="s">
+      <c r="I302" s="86" t="s">
         <v>796</v>
       </c>
-      <c r="J302" s="81"/>
-      <c r="K302" s="81"/>
-      <c r="L302" s="81"/>
-      <c r="M302" s="81"/>
-      <c r="N302" s="81"/>
-      <c r="O302" s="81"/>
-      <c r="P302" s="81"/>
-      <c r="Q302" s="81"/>
-      <c r="R302" s="81"/>
-      <c r="S302" s="81"/>
-      <c r="T302" s="81"/>
-      <c r="U302" s="81"/>
-      <c r="V302" s="81"/>
-      <c r="W302" s="81"/>
-      <c r="X302" s="81"/>
-      <c r="Y302" s="81"/>
-      <c r="Z302" s="81"/>
-      <c r="AA302" s="81"/>
-      <c r="AB302" s="81"/>
-      <c r="AC302" s="81"/>
-      <c r="AD302" s="81"/>
-      <c r="AE302" s="81" t="n">
+      <c r="J302" s="83"/>
+      <c r="K302" s="83"/>
+      <c r="L302" s="83"/>
+      <c r="M302" s="83"/>
+      <c r="N302" s="83"/>
+      <c r="O302" s="83"/>
+      <c r="P302" s="83"/>
+      <c r="Q302" s="83"/>
+      <c r="R302" s="83"/>
+      <c r="S302" s="83"/>
+      <c r="T302" s="83"/>
+      <c r="U302" s="83"/>
+      <c r="V302" s="83"/>
+      <c r="W302" s="83"/>
+      <c r="X302" s="83"/>
+      <c r="Y302" s="83"/>
+      <c r="Z302" s="83"/>
+      <c r="AA302" s="83"/>
+      <c r="AB302" s="83"/>
+      <c r="AC302" s="83"/>
+      <c r="AD302" s="83"/>
+      <c r="AE302" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="AF302" s="81"/>
-      <c r="AG302" s="81"/>
-      <c r="AH302" s="81"/>
-      <c r="AI302" s="81"/>
-      <c r="AJ302" s="81"/>
-      <c r="AK302" s="81"/>
-      <c r="AL302" s="81" t="s">
+      <c r="AF302" s="83"/>
+      <c r="AG302" s="83"/>
+      <c r="AH302" s="83"/>
+      <c r="AI302" s="83"/>
+      <c r="AJ302" s="83"/>
+      <c r="AK302" s="83"/>
+      <c r="AL302" s="83" t="s">
         <v>430</v>
       </c>
       <c r="AM302" s="12" t="n">
         <v>301</v>
       </c>
-      <c r="AN302" s="81"/>
-      <c r="AO302" s="81"/>
-      <c r="AP302" s="81"/>
+      <c r="AN302" s="83"/>
+      <c r="AO302" s="83"/>
+      <c r="AP302" s="83"/>
     </row>
     <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="12" t="n">
         <v>302</v>
       </c>
-      <c r="B303" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C303" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D303" s="87" t="s">
+      <c r="B303" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C303" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D303" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="E303" s="66" t="s">
+      <c r="E303" s="69" t="s">
         <v>797</v>
       </c>
-      <c r="F303" s="66" t="s">
+      <c r="F303" s="69" t="s">
         <v>798</v>
       </c>
-      <c r="G303" s="81"/>
-      <c r="H303" s="83" t="s">
+      <c r="G303" s="83"/>
+      <c r="H303" s="85" t="s">
         <v>799</v>
       </c>
-      <c r="I303" s="84" t="s">
+      <c r="I303" s="86" t="s">
         <v>796</v>
       </c>
-      <c r="J303" s="81"/>
-      <c r="K303" s="81"/>
-      <c r="L303" s="81"/>
-      <c r="M303" s="81"/>
-      <c r="N303" s="81"/>
-      <c r="O303" s="81"/>
-      <c r="P303" s="81"/>
-      <c r="Q303" s="81"/>
-      <c r="R303" s="81"/>
-      <c r="S303" s="81"/>
-      <c r="T303" s="81"/>
-      <c r="U303" s="81"/>
-      <c r="V303" s="81"/>
-      <c r="W303" s="81"/>
-      <c r="X303" s="81"/>
-      <c r="Y303" s="81"/>
-      <c r="Z303" s="81"/>
-      <c r="AA303" s="81"/>
-      <c r="AB303" s="81"/>
-      <c r="AC303" s="81"/>
-      <c r="AD303" s="81"/>
-      <c r="AE303" s="81" t="n">
+      <c r="J303" s="83"/>
+      <c r="K303" s="83"/>
+      <c r="L303" s="83"/>
+      <c r="M303" s="83"/>
+      <c r="N303" s="83"/>
+      <c r="O303" s="83"/>
+      <c r="P303" s="83"/>
+      <c r="Q303" s="83"/>
+      <c r="R303" s="83"/>
+      <c r="S303" s="83"/>
+      <c r="T303" s="83"/>
+      <c r="U303" s="83"/>
+      <c r="V303" s="83"/>
+      <c r="W303" s="83"/>
+      <c r="X303" s="83"/>
+      <c r="Y303" s="83"/>
+      <c r="Z303" s="83"/>
+      <c r="AA303" s="83"/>
+      <c r="AB303" s="83"/>
+      <c r="AC303" s="83"/>
+      <c r="AD303" s="83"/>
+      <c r="AE303" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="AF303" s="81"/>
-      <c r="AG303" s="81"/>
-      <c r="AH303" s="81"/>
-      <c r="AI303" s="81"/>
-      <c r="AJ303" s="81"/>
-      <c r="AK303" s="81"/>
-      <c r="AL303" s="81" t="s">
+      <c r="AF303" s="83"/>
+      <c r="AG303" s="83"/>
+      <c r="AH303" s="83"/>
+      <c r="AI303" s="83"/>
+      <c r="AJ303" s="83"/>
+      <c r="AK303" s="83"/>
+      <c r="AL303" s="83" t="s">
         <v>430</v>
       </c>
       <c r="AM303" s="12" t="n">
         <v>302</v>
       </c>
-      <c r="AN303" s="81"/>
-      <c r="AO303" s="81"/>
-      <c r="AP303" s="81"/>
+      <c r="AN303" s="83"/>
+      <c r="AO303" s="83"/>
+      <c r="AP303" s="83"/>
     </row>
     <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="12" t="n">
         <v>303</v>
       </c>
-      <c r="B304" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C304" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D304" s="87" t="s">
+      <c r="B304" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C304" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D304" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="E304" s="66" t="s">
+      <c r="E304" s="69" t="s">
         <v>800</v>
       </c>
-      <c r="F304" s="66" t="s">
+      <c r="F304" s="69" t="s">
         <v>801</v>
       </c>
-      <c r="G304" s="81"/>
-      <c r="H304" s="83" t="s">
+      <c r="G304" s="83"/>
+      <c r="H304" s="85" t="s">
         <v>802</v>
       </c>
-      <c r="I304" s="84" t="s">
+      <c r="I304" s="86" t="s">
         <v>796</v>
       </c>
-      <c r="J304" s="81"/>
-      <c r="K304" s="81"/>
-      <c r="L304" s="81"/>
-      <c r="M304" s="81"/>
-      <c r="N304" s="81"/>
-      <c r="O304" s="81"/>
-      <c r="P304" s="81"/>
-      <c r="Q304" s="81"/>
-      <c r="R304" s="81"/>
-      <c r="S304" s="81"/>
-      <c r="T304" s="81"/>
-      <c r="U304" s="81"/>
-      <c r="V304" s="81"/>
-      <c r="W304" s="81"/>
-      <c r="X304" s="81"/>
-      <c r="Y304" s="81"/>
-      <c r="Z304" s="81"/>
-      <c r="AA304" s="81"/>
-      <c r="AB304" s="81"/>
-      <c r="AC304" s="81"/>
-      <c r="AD304" s="81"/>
-      <c r="AE304" s="81" t="n">
+      <c r="J304" s="83"/>
+      <c r="K304" s="83"/>
+      <c r="L304" s="83"/>
+      <c r="M304" s="83"/>
+      <c r="N304" s="83"/>
+      <c r="O304" s="83"/>
+      <c r="P304" s="83"/>
+      <c r="Q304" s="83"/>
+      <c r="R304" s="83"/>
+      <c r="S304" s="83"/>
+      <c r="T304" s="83"/>
+      <c r="U304" s="83"/>
+      <c r="V304" s="83"/>
+      <c r="W304" s="83"/>
+      <c r="X304" s="83"/>
+      <c r="Y304" s="83"/>
+      <c r="Z304" s="83"/>
+      <c r="AA304" s="83"/>
+      <c r="AB304" s="83"/>
+      <c r="AC304" s="83"/>
+      <c r="AD304" s="83"/>
+      <c r="AE304" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="AF304" s="81"/>
-      <c r="AG304" s="81"/>
-      <c r="AH304" s="81"/>
-      <c r="AI304" s="81"/>
-      <c r="AJ304" s="81"/>
-      <c r="AK304" s="81"/>
-      <c r="AL304" s="81" t="s">
+      <c r="AF304" s="83"/>
+      <c r="AG304" s="83"/>
+      <c r="AH304" s="83"/>
+      <c r="AI304" s="83"/>
+      <c r="AJ304" s="83"/>
+      <c r="AK304" s="83"/>
+      <c r="AL304" s="83" t="s">
         <v>430</v>
       </c>
       <c r="AM304" s="12" t="n">
         <v>303</v>
       </c>
-      <c r="AN304" s="81"/>
-      <c r="AO304" s="81"/>
-      <c r="AP304" s="81"/>
+      <c r="AN304" s="83"/>
+      <c r="AO304" s="83"/>
+      <c r="AP304" s="83"/>
     </row>
     <row r="305" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="12" t="n">
         <v>304</v>
       </c>
-      <c r="B305" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C305" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D305" s="87" t="s">
+      <c r="B305" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C305" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D305" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="E305" s="66" t="s">
+      <c r="E305" s="69" t="s">
         <v>803</v>
       </c>
-      <c r="F305" s="66" t="s">
+      <c r="F305" s="69" t="s">
         <v>804</v>
       </c>
-      <c r="G305" s="81"/>
-      <c r="H305" s="83" t="s">
+      <c r="G305" s="83"/>
+      <c r="H305" s="85" t="s">
         <v>805</v>
       </c>
-      <c r="I305" s="84" t="s">
+      <c r="I305" s="86" t="s">
         <v>796</v>
       </c>
-      <c r="J305" s="81"/>
-      <c r="K305" s="81"/>
-      <c r="L305" s="81"/>
-      <c r="M305" s="81"/>
-      <c r="N305" s="81"/>
-      <c r="O305" s="81"/>
-      <c r="P305" s="81"/>
-      <c r="Q305" s="81"/>
-      <c r="R305" s="81"/>
-      <c r="S305" s="81"/>
-      <c r="T305" s="81"/>
-      <c r="U305" s="81"/>
-      <c r="V305" s="81"/>
-      <c r="W305" s="81"/>
-      <c r="X305" s="81"/>
-      <c r="Y305" s="81"/>
-      <c r="Z305" s="81"/>
-      <c r="AA305" s="81"/>
-      <c r="AB305" s="81"/>
-      <c r="AC305" s="81"/>
-      <c r="AD305" s="81"/>
-      <c r="AE305" s="81" t="n">
+      <c r="J305" s="83"/>
+      <c r="K305" s="83"/>
+      <c r="L305" s="83"/>
+      <c r="M305" s="83"/>
+      <c r="N305" s="83"/>
+      <c r="O305" s="83"/>
+      <c r="P305" s="83"/>
+      <c r="Q305" s="83"/>
+      <c r="R305" s="83"/>
+      <c r="S305" s="83"/>
+      <c r="T305" s="83"/>
+      <c r="U305" s="83"/>
+      <c r="V305" s="83"/>
+      <c r="W305" s="83"/>
+      <c r="X305" s="83"/>
+      <c r="Y305" s="83"/>
+      <c r="Z305" s="83"/>
+      <c r="AA305" s="83"/>
+      <c r="AB305" s="83"/>
+      <c r="AC305" s="83"/>
+      <c r="AD305" s="83"/>
+      <c r="AE305" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="AF305" s="81"/>
-      <c r="AG305" s="81"/>
-      <c r="AH305" s="81"/>
-      <c r="AI305" s="81"/>
-      <c r="AJ305" s="81"/>
-      <c r="AK305" s="81"/>
-      <c r="AL305" s="81" t="s">
+      <c r="AF305" s="83"/>
+      <c r="AG305" s="83"/>
+      <c r="AH305" s="83"/>
+      <c r="AI305" s="83"/>
+      <c r="AJ305" s="83"/>
+      <c r="AK305" s="83"/>
+      <c r="AL305" s="83" t="s">
         <v>430</v>
       </c>
       <c r="AM305" s="12" t="n">
         <v>304</v>
       </c>
-      <c r="AN305" s="81"/>
-      <c r="AO305" s="81"/>
-      <c r="AP305" s="81"/>
+      <c r="AN305" s="83"/>
+      <c r="AO305" s="83"/>
+      <c r="AP305" s="83"/>
     </row>
     <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="12" t="n">
         <v>305</v>
       </c>
-      <c r="B306" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C306" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D306" s="87" t="s">
+      <c r="B306" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C306" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D306" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="E306" s="66" t="s">
+      <c r="E306" s="69" t="s">
         <v>806</v>
       </c>
-      <c r="F306" s="66" t="s">
+      <c r="F306" s="69" t="s">
         <v>807</v>
       </c>
-      <c r="G306" s="81" t="s">
+      <c r="G306" s="83" t="s">
         <v>409</v>
       </c>
-      <c r="H306" s="83" t="s">
+      <c r="H306" s="85" t="s">
         <v>808</v>
       </c>
-      <c r="I306" s="84" t="s">
+      <c r="I306" s="86" t="s">
         <v>796</v>
       </c>
-      <c r="J306" s="81"/>
-      <c r="K306" s="81"/>
-      <c r="L306" s="81"/>
-      <c r="M306" s="81"/>
-      <c r="N306" s="81"/>
-      <c r="O306" s="81"/>
-      <c r="P306" s="81"/>
-      <c r="Q306" s="81"/>
-      <c r="R306" s="81"/>
-      <c r="S306" s="81"/>
-      <c r="T306" s="81"/>
-      <c r="U306" s="81"/>
-      <c r="V306" s="81"/>
-      <c r="W306" s="81"/>
-      <c r="X306" s="81"/>
-      <c r="Y306" s="81"/>
-      <c r="Z306" s="81"/>
-      <c r="AA306" s="81"/>
-      <c r="AB306" s="81"/>
-      <c r="AC306" s="81"/>
-      <c r="AD306" s="81"/>
-      <c r="AE306" s="81" t="n">
+      <c r="J306" s="83"/>
+      <c r="K306" s="83"/>
+      <c r="L306" s="83"/>
+      <c r="M306" s="83"/>
+      <c r="N306" s="83"/>
+      <c r="O306" s="83"/>
+      <c r="P306" s="83"/>
+      <c r="Q306" s="83"/>
+      <c r="R306" s="83"/>
+      <c r="S306" s="83"/>
+      <c r="T306" s="83"/>
+      <c r="U306" s="83"/>
+      <c r="V306" s="83"/>
+      <c r="W306" s="83"/>
+      <c r="X306" s="83"/>
+      <c r="Y306" s="83"/>
+      <c r="Z306" s="83"/>
+      <c r="AA306" s="83"/>
+      <c r="AB306" s="83"/>
+      <c r="AC306" s="83"/>
+      <c r="AD306" s="83"/>
+      <c r="AE306" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="AF306" s="81"/>
-      <c r="AG306" s="81"/>
-      <c r="AH306" s="81"/>
-      <c r="AI306" s="81"/>
-      <c r="AJ306" s="81"/>
-      <c r="AK306" s="81"/>
-      <c r="AL306" s="81"/>
+      <c r="AF306" s="83"/>
+      <c r="AG306" s="83"/>
+      <c r="AH306" s="83"/>
+      <c r="AI306" s="83"/>
+      <c r="AJ306" s="83"/>
+      <c r="AK306" s="83"/>
+      <c r="AL306" s="83"/>
       <c r="AM306" s="12" t="n">
         <v>305</v>
       </c>
-      <c r="AN306" s="81"/>
-      <c r="AO306" s="81"/>
-      <c r="AP306" s="81"/>
+      <c r="AN306" s="83"/>
+      <c r="AO306" s="83"/>
+      <c r="AP306" s="83"/>
     </row>
     <row r="307" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="12" t="n">
         <v>306</v>
       </c>
-      <c r="B307" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C307" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D307" s="87" t="s">
+      <c r="B307" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C307" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D307" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="E307" s="66" t="s">
+      <c r="E307" s="69" t="s">
         <v>806</v>
       </c>
-      <c r="F307" s="66" t="s">
+      <c r="F307" s="69" t="s">
         <v>807</v>
       </c>
-      <c r="G307" s="81" t="s">
+      <c r="G307" s="83" t="s">
         <v>442</v>
       </c>
-      <c r="H307" s="83" t="s">
+      <c r="H307" s="85" t="s">
         <v>809</v>
       </c>
-      <c r="I307" s="84" t="s">
+      <c r="I307" s="86" t="s">
         <v>796</v>
       </c>
-      <c r="J307" s="81"/>
-      <c r="K307" s="81"/>
-      <c r="L307" s="81"/>
-      <c r="M307" s="81"/>
-      <c r="N307" s="81"/>
-      <c r="O307" s="81"/>
-      <c r="P307" s="81"/>
-      <c r="Q307" s="81"/>
-      <c r="R307" s="81"/>
-      <c r="S307" s="81"/>
-      <c r="T307" s="81"/>
-      <c r="U307" s="81"/>
-      <c r="V307" s="81"/>
-      <c r="W307" s="81"/>
-      <c r="X307" s="81"/>
-      <c r="Y307" s="81"/>
-      <c r="Z307" s="81"/>
-      <c r="AA307" s="81"/>
-      <c r="AB307" s="81"/>
-      <c r="AC307" s="81"/>
-      <c r="AD307" s="81"/>
-      <c r="AE307" s="81" t="n">
+      <c r="J307" s="83"/>
+      <c r="K307" s="83"/>
+      <c r="L307" s="83"/>
+      <c r="M307" s="83"/>
+      <c r="N307" s="83"/>
+      <c r="O307" s="83"/>
+      <c r="P307" s="83"/>
+      <c r="Q307" s="83"/>
+      <c r="R307" s="83"/>
+      <c r="S307" s="83"/>
+      <c r="T307" s="83"/>
+      <c r="U307" s="83"/>
+      <c r="V307" s="83"/>
+      <c r="W307" s="83"/>
+      <c r="X307" s="83"/>
+      <c r="Y307" s="83"/>
+      <c r="Z307" s="83"/>
+      <c r="AA307" s="83"/>
+      <c r="AB307" s="83"/>
+      <c r="AC307" s="83"/>
+      <c r="AD307" s="83"/>
+      <c r="AE307" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="AF307" s="81"/>
-      <c r="AG307" s="81"/>
-      <c r="AH307" s="81"/>
-      <c r="AI307" s="81"/>
-      <c r="AJ307" s="81"/>
-      <c r="AK307" s="81"/>
-      <c r="AL307" s="81"/>
+      <c r="AF307" s="83"/>
+      <c r="AG307" s="83"/>
+      <c r="AH307" s="83"/>
+      <c r="AI307" s="83"/>
+      <c r="AJ307" s="83"/>
+      <c r="AK307" s="83"/>
+      <c r="AL307" s="83"/>
       <c r="AM307" s="12" t="n">
         <v>306</v>
       </c>
-      <c r="AN307" s="81"/>
-      <c r="AO307" s="81"/>
-      <c r="AP307" s="81"/>
+      <c r="AN307" s="83"/>
+      <c r="AO307" s="83"/>
+      <c r="AP307" s="83"/>
     </row>
     <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="12" t="n">
         <v>307</v>
       </c>
-      <c r="B308" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C308" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D308" s="87" t="s">
+      <c r="B308" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C308" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D308" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="E308" s="66" t="s">
+      <c r="E308" s="69" t="s">
         <v>806</v>
       </c>
-      <c r="F308" s="66" t="s">
+      <c r="F308" s="69" t="s">
         <v>807</v>
       </c>
-      <c r="G308" s="81" t="s">
+      <c r="G308" s="83" t="s">
         <v>474</v>
       </c>
-      <c r="H308" s="83" t="s">
+      <c r="H308" s="85" t="s">
         <v>809</v>
       </c>
-      <c r="I308" s="84" t="s">
+      <c r="I308" s="86" t="s">
         <v>796</v>
       </c>
-      <c r="J308" s="81"/>
-      <c r="K308" s="81"/>
-      <c r="L308" s="81"/>
-      <c r="M308" s="81"/>
-      <c r="N308" s="81"/>
-      <c r="O308" s="81"/>
-      <c r="P308" s="81"/>
-      <c r="Q308" s="81"/>
-      <c r="R308" s="81"/>
-      <c r="S308" s="81"/>
-      <c r="T308" s="81"/>
-      <c r="U308" s="81"/>
-      <c r="V308" s="81"/>
-      <c r="W308" s="81"/>
-      <c r="X308" s="81"/>
-      <c r="Y308" s="81"/>
-      <c r="Z308" s="81"/>
-      <c r="AA308" s="81"/>
-      <c r="AB308" s="81"/>
-      <c r="AC308" s="81"/>
-      <c r="AD308" s="81"/>
-      <c r="AE308" s="81" t="n">
+      <c r="J308" s="83"/>
+      <c r="K308" s="83"/>
+      <c r="L308" s="83"/>
+      <c r="M308" s="83"/>
+      <c r="N308" s="83"/>
+      <c r="O308" s="83"/>
+      <c r="P308" s="83"/>
+      <c r="Q308" s="83"/>
+      <c r="R308" s="83"/>
+      <c r="S308" s="83"/>
+      <c r="T308" s="83"/>
+      <c r="U308" s="83"/>
+      <c r="V308" s="83"/>
+      <c r="W308" s="83"/>
+      <c r="X308" s="83"/>
+      <c r="Y308" s="83"/>
+      <c r="Z308" s="83"/>
+      <c r="AA308" s="83"/>
+      <c r="AB308" s="83"/>
+      <c r="AC308" s="83"/>
+      <c r="AD308" s="83"/>
+      <c r="AE308" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="AF308" s="81"/>
-      <c r="AG308" s="81"/>
-      <c r="AH308" s="81"/>
-      <c r="AI308" s="81"/>
-      <c r="AJ308" s="81"/>
-      <c r="AK308" s="81"/>
-      <c r="AL308" s="81"/>
+      <c r="AF308" s="83"/>
+      <c r="AG308" s="83"/>
+      <c r="AH308" s="83"/>
+      <c r="AI308" s="83"/>
+      <c r="AJ308" s="83"/>
+      <c r="AK308" s="83"/>
+      <c r="AL308" s="83"/>
       <c r="AM308" s="12" t="n">
         <v>307</v>
       </c>
-      <c r="AN308" s="81"/>
-      <c r="AO308" s="81"/>
-      <c r="AP308" s="81"/>
+      <c r="AN308" s="83"/>
+      <c r="AO308" s="83"/>
+      <c r="AP308" s="83"/>
     </row>
     <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="12" t="n">
         <v>308</v>
       </c>
-      <c r="B309" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C309" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D309" s="87" t="s">
+      <c r="B309" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C309" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D309" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="E309" s="66" t="s">
+      <c r="E309" s="69" t="s">
         <v>806</v>
       </c>
-      <c r="F309" s="66" t="s">
+      <c r="F309" s="69" t="s">
         <v>807</v>
       </c>
-      <c r="G309" s="81" t="s">
+      <c r="G309" s="83" t="s">
         <v>493</v>
       </c>
-      <c r="H309" s="83" t="s">
+      <c r="H309" s="85" t="s">
         <v>810</v>
       </c>
-      <c r="I309" s="84" t="s">
+      <c r="I309" s="86" t="s">
         <v>796</v>
       </c>
-      <c r="J309" s="81"/>
-      <c r="K309" s="81"/>
-      <c r="L309" s="81"/>
-      <c r="M309" s="81"/>
-      <c r="N309" s="81"/>
-      <c r="O309" s="81"/>
-      <c r="P309" s="81"/>
-      <c r="Q309" s="81"/>
-      <c r="R309" s="81"/>
-      <c r="S309" s="81"/>
-      <c r="T309" s="81"/>
-      <c r="U309" s="81"/>
-      <c r="V309" s="81"/>
-      <c r="W309" s="81"/>
-      <c r="X309" s="81"/>
-      <c r="Y309" s="81"/>
-      <c r="Z309" s="81"/>
-      <c r="AA309" s="81"/>
-      <c r="AB309" s="81"/>
-      <c r="AC309" s="81"/>
-      <c r="AD309" s="81"/>
-      <c r="AE309" s="81" t="n">
+      <c r="J309" s="83"/>
+      <c r="K309" s="83"/>
+      <c r="L309" s="83"/>
+      <c r="M309" s="83"/>
+      <c r="N309" s="83"/>
+      <c r="O309" s="83"/>
+      <c r="P309" s="83"/>
+      <c r="Q309" s="83"/>
+      <c r="R309" s="83"/>
+      <c r="S309" s="83"/>
+      <c r="T309" s="83"/>
+      <c r="U309" s="83"/>
+      <c r="V309" s="83"/>
+      <c r="W309" s="83"/>
+      <c r="X309" s="83"/>
+      <c r="Y309" s="83"/>
+      <c r="Z309" s="83"/>
+      <c r="AA309" s="83"/>
+      <c r="AB309" s="83"/>
+      <c r="AC309" s="83"/>
+      <c r="AD309" s="83"/>
+      <c r="AE309" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="AF309" s="81"/>
-      <c r="AG309" s="81"/>
-      <c r="AH309" s="81"/>
-      <c r="AI309" s="81"/>
-      <c r="AJ309" s="81"/>
-      <c r="AK309" s="81"/>
-      <c r="AL309" s="81"/>
+      <c r="AF309" s="83"/>
+      <c r="AG309" s="83"/>
+      <c r="AH309" s="83"/>
+      <c r="AI309" s="83"/>
+      <c r="AJ309" s="83"/>
+      <c r="AK309" s="83"/>
+      <c r="AL309" s="83"/>
       <c r="AM309" s="12" t="n">
         <v>308</v>
       </c>
-      <c r="AN309" s="81"/>
-      <c r="AO309" s="81"/>
-      <c r="AP309" s="81"/>
+      <c r="AN309" s="83"/>
+      <c r="AO309" s="83"/>
+      <c r="AP309" s="83"/>
     </row>
     <row r="310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="12" t="n">
         <v>309</v>
       </c>
-      <c r="B310" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C310" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D310" s="87" t="s">
+      <c r="B310" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C310" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D310" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="E310" s="66" t="s">
+      <c r="E310" s="69" t="s">
         <v>806</v>
       </c>
-      <c r="F310" s="66" t="s">
+      <c r="F310" s="69" t="s">
         <v>807</v>
       </c>
-      <c r="G310" s="81" t="s">
+      <c r="G310" s="83" t="s">
         <v>512</v>
       </c>
-      <c r="H310" s="83" t="s">
+      <c r="H310" s="85" t="s">
         <v>808</v>
       </c>
-      <c r="I310" s="84" t="s">
+      <c r="I310" s="86" t="s">
         <v>796</v>
       </c>
-      <c r="J310" s="81"/>
-      <c r="K310" s="81"/>
-      <c r="L310" s="81"/>
-      <c r="M310" s="81"/>
-      <c r="N310" s="81"/>
-      <c r="O310" s="81"/>
-      <c r="P310" s="81"/>
-      <c r="Q310" s="81"/>
-      <c r="R310" s="81"/>
-      <c r="S310" s="81"/>
-      <c r="T310" s="81"/>
-      <c r="U310" s="81"/>
-      <c r="V310" s="81"/>
-      <c r="W310" s="81"/>
-      <c r="X310" s="81"/>
-      <c r="Y310" s="81"/>
-      <c r="Z310" s="81"/>
-      <c r="AA310" s="81"/>
-      <c r="AB310" s="81"/>
-      <c r="AC310" s="81"/>
-      <c r="AD310" s="81"/>
-      <c r="AE310" s="81" t="n">
+      <c r="J310" s="83"/>
+      <c r="K310" s="83"/>
+      <c r="L310" s="83"/>
+      <c r="M310" s="83"/>
+      <c r="N310" s="83"/>
+      <c r="O310" s="83"/>
+      <c r="P310" s="83"/>
+      <c r="Q310" s="83"/>
+      <c r="R310" s="83"/>
+      <c r="S310" s="83"/>
+      <c r="T310" s="83"/>
+      <c r="U310" s="83"/>
+      <c r="V310" s="83"/>
+      <c r="W310" s="83"/>
+      <c r="X310" s="83"/>
+      <c r="Y310" s="83"/>
+      <c r="Z310" s="83"/>
+      <c r="AA310" s="83"/>
+      <c r="AB310" s="83"/>
+      <c r="AC310" s="83"/>
+      <c r="AD310" s="83"/>
+      <c r="AE310" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="AF310" s="81"/>
-      <c r="AG310" s="81"/>
-      <c r="AH310" s="81"/>
-      <c r="AI310" s="81"/>
-      <c r="AJ310" s="81"/>
-      <c r="AK310" s="81"/>
-      <c r="AL310" s="81"/>
+      <c r="AF310" s="83"/>
+      <c r="AG310" s="83"/>
+      <c r="AH310" s="83"/>
+      <c r="AI310" s="83"/>
+      <c r="AJ310" s="83"/>
+      <c r="AK310" s="83"/>
+      <c r="AL310" s="83"/>
       <c r="AM310" s="12" t="n">
         <v>309</v>
       </c>
-      <c r="AN310" s="81"/>
-      <c r="AO310" s="81"/>
-      <c r="AP310" s="81"/>
+      <c r="AN310" s="83"/>
+      <c r="AO310" s="83"/>
+      <c r="AP310" s="83"/>
     </row>
     <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="12" t="n">
         <v>310</v>
       </c>
-      <c r="B311" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C311" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D311" s="87" t="s">
+      <c r="B311" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C311" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D311" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="E311" s="66" t="s">
+      <c r="E311" s="69" t="s">
         <v>806</v>
       </c>
-      <c r="F311" s="66" t="s">
+      <c r="F311" s="69" t="s">
         <v>807</v>
       </c>
-      <c r="G311" s="81" t="s">
+      <c r="G311" s="83" t="s">
         <v>525</v>
       </c>
-      <c r="H311" s="83" t="s">
+      <c r="H311" s="85" t="s">
         <v>808</v>
       </c>
-      <c r="I311" s="84" t="s">
+      <c r="I311" s="86" t="s">
         <v>796</v>
       </c>
-      <c r="J311" s="81"/>
-      <c r="K311" s="81"/>
-      <c r="L311" s="81"/>
-      <c r="M311" s="81"/>
-      <c r="N311" s="81"/>
-      <c r="O311" s="81"/>
-      <c r="P311" s="81"/>
-      <c r="Q311" s="81"/>
-      <c r="R311" s="81"/>
-      <c r="S311" s="81"/>
-      <c r="T311" s="81"/>
-      <c r="U311" s="81"/>
-      <c r="V311" s="81"/>
-      <c r="W311" s="81"/>
-      <c r="X311" s="81"/>
-      <c r="Y311" s="81"/>
-      <c r="Z311" s="81"/>
-      <c r="AA311" s="81"/>
-      <c r="AB311" s="81"/>
-      <c r="AC311" s="81"/>
-      <c r="AD311" s="81"/>
-      <c r="AE311" s="81" t="n">
+      <c r="J311" s="83"/>
+      <c r="K311" s="83"/>
+      <c r="L311" s="83"/>
+      <c r="M311" s="83"/>
+      <c r="N311" s="83"/>
+      <c r="O311" s="83"/>
+      <c r="P311" s="83"/>
+      <c r="Q311" s="83"/>
+      <c r="R311" s="83"/>
+      <c r="S311" s="83"/>
+      <c r="T311" s="83"/>
+      <c r="U311" s="83"/>
+      <c r="V311" s="83"/>
+      <c r="W311" s="83"/>
+      <c r="X311" s="83"/>
+      <c r="Y311" s="83"/>
+      <c r="Z311" s="83"/>
+      <c r="AA311" s="83"/>
+      <c r="AB311" s="83"/>
+      <c r="AC311" s="83"/>
+      <c r="AD311" s="83"/>
+      <c r="AE311" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="AF311" s="81"/>
-      <c r="AG311" s="81"/>
-      <c r="AH311" s="81"/>
-      <c r="AI311" s="81"/>
-      <c r="AJ311" s="81"/>
-      <c r="AK311" s="81"/>
-      <c r="AL311" s="81"/>
+      <c r="AF311" s="83"/>
+      <c r="AG311" s="83"/>
+      <c r="AH311" s="83"/>
+      <c r="AI311" s="83"/>
+      <c r="AJ311" s="83"/>
+      <c r="AK311" s="83"/>
+      <c r="AL311" s="83"/>
       <c r="AM311" s="12" t="n">
         <v>310</v>
       </c>
-      <c r="AN311" s="81"/>
-      <c r="AO311" s="81"/>
-      <c r="AP311" s="81"/>
+      <c r="AN311" s="83"/>
+      <c r="AO311" s="83"/>
+      <c r="AP311" s="83"/>
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="12" t="n">
         <v>311</v>
       </c>
-      <c r="B312" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C312" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D312" s="87" t="s">
+      <c r="B312" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C312" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D312" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="E312" s="66" t="s">
+      <c r="E312" s="69" t="s">
         <v>806</v>
       </c>
-      <c r="F312" s="66" t="s">
+      <c r="F312" s="69" t="s">
         <v>807</v>
       </c>
-      <c r="G312" s="81" t="s">
+      <c r="G312" s="83" t="s">
         <v>536</v>
       </c>
-      <c r="H312" s="83" t="s">
+      <c r="H312" s="85" t="s">
         <v>810</v>
       </c>
-      <c r="I312" s="84" t="s">
+      <c r="I312" s="86" t="s">
         <v>796</v>
       </c>
-      <c r="J312" s="81"/>
-      <c r="K312" s="81"/>
-      <c r="L312" s="81"/>
-      <c r="M312" s="81"/>
-      <c r="N312" s="81"/>
-      <c r="O312" s="81"/>
-      <c r="P312" s="81"/>
-      <c r="Q312" s="81"/>
-      <c r="R312" s="81"/>
-      <c r="S312" s="81"/>
-      <c r="T312" s="81"/>
-      <c r="U312" s="81"/>
-      <c r="V312" s="81"/>
-      <c r="W312" s="81"/>
-      <c r="X312" s="81"/>
-      <c r="Y312" s="81"/>
-      <c r="Z312" s="81"/>
-      <c r="AA312" s="81"/>
-      <c r="AB312" s="81"/>
-      <c r="AC312" s="81"/>
-      <c r="AD312" s="81"/>
-      <c r="AE312" s="81" t="n">
+      <c r="J312" s="83"/>
+      <c r="K312" s="83"/>
+      <c r="L312" s="83"/>
+      <c r="M312" s="83"/>
+      <c r="N312" s="83"/>
+      <c r="O312" s="83"/>
+      <c r="P312" s="83"/>
+      <c r="Q312" s="83"/>
+      <c r="R312" s="83"/>
+      <c r="S312" s="83"/>
+      <c r="T312" s="83"/>
+      <c r="U312" s="83"/>
+      <c r="V312" s="83"/>
+      <c r="W312" s="83"/>
+      <c r="X312" s="83"/>
+      <c r="Y312" s="83"/>
+      <c r="Z312" s="83"/>
+      <c r="AA312" s="83"/>
+      <c r="AB312" s="83"/>
+      <c r="AC312" s="83"/>
+      <c r="AD312" s="83"/>
+      <c r="AE312" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="AF312" s="81"/>
-      <c r="AG312" s="81"/>
-      <c r="AH312" s="81"/>
-      <c r="AI312" s="81"/>
-      <c r="AJ312" s="81"/>
-      <c r="AK312" s="81"/>
-      <c r="AL312" s="81"/>
+      <c r="AF312" s="83"/>
+      <c r="AG312" s="83"/>
+      <c r="AH312" s="83"/>
+      <c r="AI312" s="83"/>
+      <c r="AJ312" s="83"/>
+      <c r="AK312" s="83"/>
+      <c r="AL312" s="83"/>
       <c r="AM312" s="12" t="n">
         <v>311</v>
       </c>
-      <c r="AN312" s="81"/>
-      <c r="AO312" s="81"/>
-      <c r="AP312" s="81"/>
+      <c r="AN312" s="83"/>
+      <c r="AO312" s="83"/>
+      <c r="AP312" s="83"/>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="12" t="n">
         <v>312</v>
       </c>
-      <c r="B313" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C313" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D313" s="87" t="s">
+      <c r="B313" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C313" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D313" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="E313" s="66" t="s">
+      <c r="E313" s="69" t="s">
         <v>806</v>
       </c>
-      <c r="F313" s="66" t="s">
+      <c r="F313" s="69" t="s">
         <v>807</v>
       </c>
-      <c r="G313" s="81" t="s">
+      <c r="G313" s="83" t="s">
         <v>555</v>
       </c>
-      <c r="H313" s="83" t="s">
+      <c r="H313" s="85" t="s">
         <v>809</v>
       </c>
-      <c r="I313" s="84" t="s">
+      <c r="I313" s="86" t="s">
         <v>796</v>
       </c>
-      <c r="J313" s="81"/>
-      <c r="K313" s="81"/>
-      <c r="L313" s="81"/>
-      <c r="M313" s="81"/>
-      <c r="N313" s="81"/>
-      <c r="O313" s="81"/>
-      <c r="P313" s="81"/>
-      <c r="Q313" s="81"/>
-      <c r="R313" s="81"/>
-      <c r="S313" s="81"/>
-      <c r="T313" s="81"/>
-      <c r="U313" s="81"/>
-      <c r="V313" s="81"/>
-      <c r="W313" s="81"/>
-      <c r="X313" s="81"/>
-      <c r="Y313" s="81"/>
-      <c r="Z313" s="81"/>
-      <c r="AA313" s="81"/>
-      <c r="AB313" s="81"/>
-      <c r="AC313" s="81"/>
-      <c r="AD313" s="81"/>
-      <c r="AE313" s="81" t="n">
+      <c r="J313" s="83"/>
+      <c r="K313" s="83"/>
+      <c r="L313" s="83"/>
+      <c r="M313" s="83"/>
+      <c r="N313" s="83"/>
+      <c r="O313" s="83"/>
+      <c r="P313" s="83"/>
+      <c r="Q313" s="83"/>
+      <c r="R313" s="83"/>
+      <c r="S313" s="83"/>
+      <c r="T313" s="83"/>
+      <c r="U313" s="83"/>
+      <c r="V313" s="83"/>
+      <c r="W313" s="83"/>
+      <c r="X313" s="83"/>
+      <c r="Y313" s="83"/>
+      <c r="Z313" s="83"/>
+      <c r="AA313" s="83"/>
+      <c r="AB313" s="83"/>
+      <c r="AC313" s="83"/>
+      <c r="AD313" s="83"/>
+      <c r="AE313" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="AF313" s="81"/>
-      <c r="AG313" s="81"/>
-      <c r="AH313" s="81"/>
-      <c r="AI313" s="81"/>
-      <c r="AJ313" s="81"/>
-      <c r="AK313" s="81"/>
-      <c r="AL313" s="81"/>
+      <c r="AF313" s="83"/>
+      <c r="AG313" s="83"/>
+      <c r="AH313" s="83"/>
+      <c r="AI313" s="83"/>
+      <c r="AJ313" s="83"/>
+      <c r="AK313" s="83"/>
+      <c r="AL313" s="83"/>
       <c r="AM313" s="12" t="n">
         <v>312</v>
       </c>
-      <c r="AN313" s="81"/>
-      <c r="AO313" s="81"/>
-      <c r="AP313" s="81"/>
+      <c r="AN313" s="83"/>
+      <c r="AO313" s="83"/>
+      <c r="AP313" s="83"/>
     </row>
     <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="12" t="n">
         <v>313</v>
       </c>
-      <c r="B314" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C314" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D314" s="87" t="s">
+      <c r="B314" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C314" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D314" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="E314" s="66" t="s">
+      <c r="E314" s="69" t="s">
         <v>806</v>
       </c>
-      <c r="F314" s="66" t="s">
+      <c r="F314" s="69" t="s">
         <v>807</v>
       </c>
-      <c r="G314" s="81" t="s">
+      <c r="G314" s="83" t="s">
         <v>565</v>
       </c>
-      <c r="H314" s="83" t="s">
+      <c r="H314" s="85" t="s">
         <v>810</v>
       </c>
-      <c r="I314" s="84" t="s">
+      <c r="I314" s="86" t="s">
         <v>796</v>
       </c>
-      <c r="J314" s="81"/>
-      <c r="K314" s="81"/>
-      <c r="L314" s="81"/>
-      <c r="M314" s="81"/>
-      <c r="N314" s="81"/>
-      <c r="O314" s="81"/>
-      <c r="P314" s="81"/>
-      <c r="Q314" s="81"/>
-      <c r="R314" s="81"/>
-      <c r="S314" s="81"/>
-      <c r="T314" s="81"/>
-      <c r="U314" s="81"/>
-      <c r="V314" s="81"/>
-      <c r="W314" s="81"/>
-      <c r="X314" s="81"/>
-      <c r="Y314" s="81"/>
-      <c r="Z314" s="81"/>
-      <c r="AA314" s="81"/>
-      <c r="AB314" s="81"/>
-      <c r="AC314" s="81"/>
-      <c r="AD314" s="81"/>
-      <c r="AE314" s="81" t="n">
+      <c r="J314" s="83"/>
+      <c r="K314" s="83"/>
+      <c r="L314" s="83"/>
+      <c r="M314" s="83"/>
+      <c r="N314" s="83"/>
+      <c r="O314" s="83"/>
+      <c r="P314" s="83"/>
+      <c r="Q314" s="83"/>
+      <c r="R314" s="83"/>
+      <c r="S314" s="83"/>
+      <c r="T314" s="83"/>
+      <c r="U314" s="83"/>
+      <c r="V314" s="83"/>
+      <c r="W314" s="83"/>
+      <c r="X314" s="83"/>
+      <c r="Y314" s="83"/>
+      <c r="Z314" s="83"/>
+      <c r="AA314" s="83"/>
+      <c r="AB314" s="83"/>
+      <c r="AC314" s="83"/>
+      <c r="AD314" s="83"/>
+      <c r="AE314" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="AF314" s="81"/>
-      <c r="AG314" s="81"/>
-      <c r="AH314" s="81"/>
-      <c r="AI314" s="81"/>
-      <c r="AJ314" s="81"/>
-      <c r="AK314" s="81"/>
-      <c r="AL314" s="81"/>
+      <c r="AF314" s="83"/>
+      <c r="AG314" s="83"/>
+      <c r="AH314" s="83"/>
+      <c r="AI314" s="83"/>
+      <c r="AJ314" s="83"/>
+      <c r="AK314" s="83"/>
+      <c r="AL314" s="83"/>
       <c r="AM314" s="12" t="n">
         <v>313</v>
       </c>
-      <c r="AN314" s="81"/>
-      <c r="AO314" s="81"/>
-      <c r="AP314" s="81"/>
+      <c r="AN314" s="83"/>
+      <c r="AO314" s="83"/>
+      <c r="AP314" s="83"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ314"/>
+  <autoFilter ref="A1:AP314"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -30044,22 +30084,22 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AD268:AG268 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F44:M44 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="68" t="s">
         <v>695</v>
       </c>
     </row>
@@ -30081,58 +30121,58 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AD268:AG268 A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F44:M44 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="93" t="s">
         <v>811</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="93" t="s">
         <v>812</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="93" t="s">
         <v>813</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="L1" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="M1" s="93" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="94" t="s">
         <v>814</v>
       </c>
     </row>

--- a/Projects/CCRU_SAND/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Hypermarket PoS 2018.xlsx
@@ -13,40 +13,41 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3383,7 +3384,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3530,6 +3531,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3887,38 +3892,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AR65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G313" activeCellId="0" sqref="G313"/>
+      <selection pane="bottomLeft" activeCell="O84" activeCellId="0" sqref="O84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.6720647773279"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="51.417004048583"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="31" min="21" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="41" min="33" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="44" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.7287449392713"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="52.6396761133603"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.8947368421053"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.2388663967611"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="14.9311740890688"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="80.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4055,7 +4052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="33.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
@@ -4127,7 +4124,7 @@
       <c r="AQ2" s="2"/>
       <c r="AR2" s="12"/>
     </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="n">
         <v>2</v>
       </c>
@@ -4215,7 +4212,7 @@
       </c>
       <c r="AR3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
         <v>3</v>
       </c>
@@ -4303,7 +4300,7 @@
       </c>
       <c r="AR4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="n">
         <v>4</v>
       </c>
@@ -4391,7 +4388,7 @@
       </c>
       <c r="AR5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
         <v>5</v>
       </c>
@@ -4479,7 +4476,7 @@
       </c>
       <c r="AR6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
         <v>6</v>
       </c>
@@ -4567,7 +4564,7 @@
       </c>
       <c r="AR7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
         <v>7</v>
       </c>
@@ -4655,7 +4652,7 @@
       </c>
       <c r="AR8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
         <v>8</v>
       </c>
@@ -4743,7 +4740,7 @@
       </c>
       <c r="AR9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
         <v>9</v>
       </c>
@@ -4831,7 +4828,7 @@
       </c>
       <c r="AR10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="n">
         <v>10</v>
       </c>
@@ -4919,7 +4916,7 @@
       </c>
       <c r="AR11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
         <v>11</v>
       </c>
@@ -5007,7 +5004,7 @@
       </c>
       <c r="AR12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="n">
         <v>12</v>
       </c>
@@ -5095,7 +5092,7 @@
       </c>
       <c r="AR13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="n">
         <v>13</v>
       </c>
@@ -5183,7 +5180,7 @@
       </c>
       <c r="AR14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
         <v>14</v>
       </c>
@@ -5271,7 +5268,7 @@
       </c>
       <c r="AR15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
         <v>15</v>
       </c>
@@ -5359,7 +5356,7 @@
       </c>
       <c r="AR16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
         <v>16</v>
       </c>
@@ -5447,7 +5444,7 @@
       </c>
       <c r="AR17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
         <v>17</v>
       </c>
@@ -5535,7 +5532,7 @@
       </c>
       <c r="AR18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
         <v>18</v>
       </c>
@@ -5623,7 +5620,7 @@
       </c>
       <c r="AR19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="n">
         <v>19</v>
       </c>
@@ -5711,7 +5708,7 @@
       </c>
       <c r="AR20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
         <v>20</v>
       </c>
@@ -5799,7 +5796,7 @@
       </c>
       <c r="AR21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
         <v>21</v>
       </c>
@@ -5887,7 +5884,7 @@
       </c>
       <c r="AR22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="n">
         <v>22</v>
       </c>
@@ -5975,7 +5972,7 @@
       </c>
       <c r="AR23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="n">
         <v>23</v>
       </c>
@@ -6063,7 +6060,7 @@
       </c>
       <c r="AR24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="n">
         <v>24</v>
       </c>
@@ -6151,7 +6148,7 @@
       </c>
       <c r="AR25" s="12"/>
     </row>
-    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="n">
         <v>25</v>
       </c>
@@ -6239,7 +6236,7 @@
       </c>
       <c r="AR26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="n">
         <v>26</v>
       </c>
@@ -6327,7 +6324,7 @@
       </c>
       <c r="AR27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="n">
         <v>27</v>
       </c>
@@ -6415,7 +6412,7 @@
       </c>
       <c r="AR28" s="12"/>
     </row>
-    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="n">
         <v>28</v>
       </c>
@@ -6503,7 +6500,7 @@
       </c>
       <c r="AR29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="n">
         <v>29</v>
       </c>
@@ -6591,7 +6588,7 @@
       </c>
       <c r="AR30" s="12"/>
     </row>
-    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="n">
         <v>30</v>
       </c>
@@ -6679,7 +6676,7 @@
       </c>
       <c r="AR31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="n">
         <v>31</v>
       </c>
@@ -6767,7 +6764,7 @@
       </c>
       <c r="AR32" s="12"/>
     </row>
-    <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="n">
         <v>32</v>
       </c>
@@ -6855,7 +6852,7 @@
       </c>
       <c r="AR33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="n">
         <v>33</v>
       </c>
@@ -6943,7 +6940,7 @@
       </c>
       <c r="AR34" s="12"/>
     </row>
-    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="n">
         <v>34</v>
       </c>
@@ -7031,7 +7028,7 @@
       </c>
       <c r="AR35" s="12"/>
     </row>
-    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="n">
         <v>35</v>
       </c>
@@ -7119,7 +7116,7 @@
       </c>
       <c r="AR36" s="12"/>
     </row>
-    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="n">
         <v>36</v>
       </c>
@@ -7207,7 +7204,7 @@
       </c>
       <c r="AR37" s="12"/>
     </row>
-    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="n">
         <v>37</v>
       </c>
@@ -7295,7 +7292,7 @@
       </c>
       <c r="AR38" s="12"/>
     </row>
-    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="n">
         <v>38</v>
       </c>
@@ -7383,7 +7380,7 @@
       </c>
       <c r="AR39" s="12"/>
     </row>
-    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="n">
         <v>39</v>
       </c>
@@ -7471,7 +7468,7 @@
       </c>
       <c r="AR40" s="12"/>
     </row>
-    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="n">
         <v>40</v>
       </c>
@@ -7559,7 +7556,7 @@
       </c>
       <c r="AR41" s="12"/>
     </row>
-    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="n">
         <v>41</v>
       </c>
@@ -7647,7 +7644,7 @@
       </c>
       <c r="AR42" s="12"/>
     </row>
-    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="n">
         <v>42</v>
       </c>
@@ -7735,7 +7732,7 @@
       </c>
       <c r="AR43" s="12"/>
     </row>
-    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="n">
         <v>43</v>
       </c>
@@ -7823,7 +7820,7 @@
       </c>
       <c r="AR44" s="12"/>
     </row>
-    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="n">
         <v>44</v>
       </c>
@@ -7911,7 +7908,7 @@
       </c>
       <c r="AR45" s="12"/>
     </row>
-    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="n">
         <v>45</v>
       </c>
@@ -7999,7 +7996,7 @@
       </c>
       <c r="AR46" s="12"/>
     </row>
-    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="n">
         <v>46</v>
       </c>
@@ -8087,7 +8084,7 @@
       </c>
       <c r="AR47" s="12"/>
     </row>
-    <row r="48" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="49.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="n">
         <v>47</v>
       </c>
@@ -8159,7 +8156,7 @@
       <c r="AQ48" s="34"/>
       <c r="AR48" s="35"/>
     </row>
-    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="n">
         <v>48</v>
       </c>
@@ -8247,7 +8244,7 @@
       </c>
       <c r="AR49" s="12"/>
     </row>
-    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="n">
         <v>49</v>
       </c>
@@ -8335,7 +8332,7 @@
       </c>
       <c r="AR50" s="12"/>
     </row>
-    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="n">
         <v>50</v>
       </c>
@@ -8423,7 +8420,7 @@
       </c>
       <c r="AR51" s="12"/>
     </row>
-    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="n">
         <v>51</v>
       </c>
@@ -8511,7 +8508,7 @@
       </c>
       <c r="AR52" s="12"/>
     </row>
-    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="n">
         <v>52</v>
       </c>
@@ -8599,7 +8596,7 @@
       </c>
       <c r="AR53" s="12"/>
     </row>
-    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="n">
         <v>53</v>
       </c>
@@ -8687,7 +8684,7 @@
       </c>
       <c r="AR54" s="12"/>
     </row>
-    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="13" t="n">
         <v>54</v>
       </c>
@@ -8775,7 +8772,7 @@
       </c>
       <c r="AR55" s="12"/>
     </row>
-    <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="n">
         <v>55</v>
       </c>
@@ -8863,7 +8860,7 @@
       </c>
       <c r="AR56" s="12"/>
     </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="n">
         <v>56</v>
       </c>
@@ -8951,7 +8948,7 @@
       </c>
       <c r="AR57" s="12"/>
     </row>
-    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="n">
         <v>57</v>
       </c>
@@ -9039,7 +9036,7 @@
       </c>
       <c r="AR58" s="12"/>
     </row>
-    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="n">
         <v>58</v>
       </c>
@@ -9127,7 +9124,7 @@
       </c>
       <c r="AR59" s="12"/>
     </row>
-    <row r="60" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="114.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="n">
         <v>59</v>
       </c>
@@ -9199,7 +9196,7 @@
       <c r="AQ60" s="34"/>
       <c r="AR60" s="35"/>
     </row>
-    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="n">
         <v>60</v>
       </c>
@@ -9287,7 +9284,7 @@
       </c>
       <c r="AR61" s="12"/>
     </row>
-    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="n">
         <v>61</v>
       </c>
@@ -9375,7 +9372,7 @@
       </c>
       <c r="AR62" s="12"/>
     </row>
-    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="n">
         <v>62</v>
       </c>
@@ -9463,7 +9460,7 @@
       </c>
       <c r="AR63" s="12"/>
     </row>
-    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="n">
         <v>63</v>
       </c>
@@ -9551,7 +9548,7 @@
       </c>
       <c r="AR64" s="12"/>
     </row>
-    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="n">
         <v>64</v>
       </c>
@@ -9639,7 +9636,7 @@
       </c>
       <c r="AR65" s="12"/>
     </row>
-    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="26.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="n">
         <v>65</v>
       </c>
@@ -9674,8 +9671,8 @@
       <c r="N66" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="O66" s="19" t="n">
-        <v>4607042431685</v>
+      <c r="O66" s="37" t="n">
+        <v>5060517884710</v>
       </c>
       <c r="P66" s="20"/>
       <c r="Q66" s="20"/>
@@ -9727,7 +9724,7 @@
       </c>
       <c r="AR66" s="12"/>
     </row>
-    <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="n">
         <v>66</v>
       </c>
@@ -9815,7 +9812,7 @@
       </c>
       <c r="AR67" s="12"/>
     </row>
-    <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="n">
         <v>67</v>
       </c>
@@ -9903,7 +9900,7 @@
       </c>
       <c r="AR68" s="12"/>
     </row>
-    <row r="69" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="39.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="n">
         <v>68</v>
       </c>
@@ -9975,7 +9972,7 @@
       <c r="AQ69" s="34"/>
       <c r="AR69" s="35"/>
     </row>
-    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="n">
         <v>69</v>
       </c>
@@ -10063,7 +10060,7 @@
       </c>
       <c r="AR70" s="12"/>
     </row>
-    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="n">
         <v>70</v>
       </c>
@@ -10151,7 +10148,7 @@
       </c>
       <c r="AR71" s="12"/>
     </row>
-    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="n">
         <v>71</v>
       </c>
@@ -10239,7 +10236,7 @@
       </c>
       <c r="AR72" s="12"/>
     </row>
-    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="n">
         <v>72</v>
       </c>
@@ -10327,7 +10324,7 @@
       </c>
       <c r="AR73" s="12"/>
     </row>
-    <row r="74" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="n">
         <v>73</v>
       </c>
@@ -10415,7 +10412,7 @@
       </c>
       <c r="AR74" s="12"/>
     </row>
-    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="n">
         <v>74</v>
       </c>
@@ -10503,7 +10500,7 @@
       </c>
       <c r="AR75" s="12"/>
     </row>
-    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="n">
         <v>75</v>
       </c>
@@ -10591,7 +10588,7 @@
       </c>
       <c r="AR76" s="12"/>
     </row>
-    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="n">
         <v>76</v>
       </c>
@@ -10679,7 +10676,7 @@
       </c>
       <c r="AR77" s="12"/>
     </row>
-    <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="26.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="n">
         <v>77</v>
       </c>
@@ -10714,8 +10711,8 @@
       <c r="N78" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="O78" s="19" t="n">
-        <v>4607042430879</v>
+      <c r="O78" s="37" t="n">
+        <v>5449000027450</v>
       </c>
       <c r="P78" s="20"/>
       <c r="Q78" s="20"/>
@@ -10767,7 +10764,7 @@
       </c>
       <c r="AR78" s="12"/>
     </row>
-    <row r="79" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="n">
         <v>78</v>
       </c>
@@ -10855,7 +10852,7 @@
       </c>
       <c r="AR79" s="12"/>
     </row>
-    <row r="80" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="n">
         <v>79</v>
       </c>
@@ -10943,7 +10940,7 @@
       </c>
       <c r="AR80" s="12"/>
     </row>
-    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="n">
         <v>80</v>
       </c>
@@ -11031,7 +11028,7 @@
       </c>
       <c r="AR81" s="12"/>
     </row>
-    <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="26.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="n">
         <v>81</v>
       </c>
@@ -11066,8 +11063,8 @@
       <c r="N82" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="O82" s="19" t="n">
-        <v>4607042431722</v>
+      <c r="O82" s="37" t="n">
+        <v>5449000027474</v>
       </c>
       <c r="P82" s="20"/>
       <c r="Q82" s="20"/>
@@ -11119,7 +11116,7 @@
       </c>
       <c r="AR82" s="12"/>
     </row>
-    <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="n">
         <v>82</v>
       </c>
@@ -11207,7 +11204,7 @@
       </c>
       <c r="AR83" s="12"/>
     </row>
-    <row r="84" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="26.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="n">
         <v>83</v>
       </c>
@@ -11242,8 +11239,8 @@
       <c r="N84" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="O84" s="19" t="n">
-        <v>4607042431692</v>
+      <c r="O84" s="37" t="n">
+        <v>5449000134912</v>
       </c>
       <c r="P84" s="20"/>
       <c r="Q84" s="20"/>
@@ -11295,7 +11292,7 @@
       </c>
       <c r="AR84" s="12"/>
     </row>
-    <row r="85" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="n">
         <v>84</v>
       </c>
@@ -11367,7 +11364,7 @@
       <c r="AQ85" s="34"/>
       <c r="AR85" s="35"/>
     </row>
-    <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="n">
         <v>85</v>
       </c>
@@ -11455,7 +11452,7 @@
       </c>
       <c r="AR86" s="12"/>
     </row>
-    <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="n">
         <v>86</v>
       </c>
@@ -11543,7 +11540,7 @@
       </c>
       <c r="AR87" s="12"/>
     </row>
-    <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="n">
         <v>87</v>
       </c>
@@ -11631,7 +11628,7 @@
       </c>
       <c r="AR88" s="12"/>
     </row>
-    <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="n">
         <v>88</v>
       </c>
@@ -11719,7 +11716,7 @@
       </c>
       <c r="AR89" s="12"/>
     </row>
-    <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="n">
         <v>89</v>
       </c>
@@ -11807,7 +11804,7 @@
       </c>
       <c r="AR90" s="12"/>
     </row>
-    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="n">
         <v>90</v>
       </c>
@@ -11895,7 +11892,7 @@
       </c>
       <c r="AR91" s="12"/>
     </row>
-    <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="n">
         <v>91</v>
       </c>
@@ -11983,7 +11980,7 @@
       </c>
       <c r="AR92" s="12"/>
     </row>
-    <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="n">
         <v>92</v>
       </c>
@@ -12071,7 +12068,7 @@
       </c>
       <c r="AR93" s="12"/>
     </row>
-    <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="n">
         <v>93</v>
       </c>
@@ -12159,7 +12156,7 @@
       </c>
       <c r="AR94" s="12"/>
     </row>
-    <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="n">
         <v>94</v>
       </c>
@@ -12247,7 +12244,7 @@
       </c>
       <c r="AR95" s="12"/>
     </row>
-    <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="n">
         <v>95</v>
       </c>
@@ -12335,7 +12332,7 @@
       </c>
       <c r="AR96" s="12"/>
     </row>
-    <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="n">
         <v>96</v>
       </c>
@@ -12423,7 +12420,7 @@
       </c>
       <c r="AR97" s="12"/>
     </row>
-    <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="n">
         <v>97</v>
       </c>
@@ -12511,7 +12508,7 @@
       </c>
       <c r="AR98" s="12"/>
     </row>
-    <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="n">
         <v>98</v>
       </c>
@@ -12599,7 +12596,7 @@
       </c>
       <c r="AR99" s="12"/>
     </row>
-    <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="n">
         <v>99</v>
       </c>
@@ -12687,7 +12684,7 @@
       </c>
       <c r="AR100" s="12"/>
     </row>
-    <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="n">
         <v>100</v>
       </c>
@@ -12775,7 +12772,7 @@
       </c>
       <c r="AR101" s="12"/>
     </row>
-    <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="n">
         <v>101</v>
       </c>
@@ -12863,7 +12860,7 @@
       </c>
       <c r="AR102" s="12"/>
     </row>
-    <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="n">
         <v>102</v>
       </c>
@@ -12951,7 +12948,7 @@
       </c>
       <c r="AR103" s="12"/>
     </row>
-    <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="n">
         <v>103</v>
       </c>
@@ -13039,7 +13036,7 @@
       </c>
       <c r="AR104" s="12"/>
     </row>
-    <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="13" t="n">
         <v>104</v>
       </c>
@@ -13127,7 +13124,7 @@
       </c>
       <c r="AR105" s="12"/>
     </row>
-    <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="n">
         <v>105</v>
       </c>
@@ -13215,7 +13212,7 @@
       </c>
       <c r="AR106" s="12"/>
     </row>
-    <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="13" t="n">
         <v>106</v>
       </c>
@@ -13303,7 +13300,7 @@
       </c>
       <c r="AR107" s="12"/>
     </row>
-    <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="13" t="n">
         <v>107</v>
       </c>
@@ -13391,7 +13388,7 @@
       </c>
       <c r="AR108" s="12"/>
     </row>
-    <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="13" t="n">
         <v>108</v>
       </c>
@@ -13479,7 +13476,7 @@
       </c>
       <c r="AR109" s="12"/>
     </row>
-    <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="13" t="n">
         <v>109</v>
       </c>
@@ -13567,7 +13564,7 @@
       </c>
       <c r="AR110" s="12"/>
     </row>
-    <row r="111" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="13" t="n">
         <v>110</v>
       </c>
@@ -13655,7 +13652,7 @@
       </c>
       <c r="AR111" s="12"/>
     </row>
-    <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="13" t="n">
         <v>111</v>
       </c>
@@ -13743,7 +13740,7 @@
       </c>
       <c r="AR112" s="12"/>
     </row>
-    <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="13" t="n">
         <v>112</v>
       </c>
@@ -13831,7 +13828,7 @@
       </c>
       <c r="AR113" s="12"/>
     </row>
-    <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="13" t="n">
         <v>113</v>
       </c>
@@ -13919,7 +13916,7 @@
       </c>
       <c r="AR114" s="12"/>
     </row>
-    <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="13" t="n">
         <v>114</v>
       </c>
@@ -14007,7 +14004,7 @@
       </c>
       <c r="AR115" s="12"/>
     </row>
-    <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="13" t="n">
         <v>115</v>
       </c>
@@ -14042,7 +14039,7 @@
       <c r="N116" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="O116" s="37" t="n">
+      <c r="O116" s="38" t="n">
         <v>4607174577947</v>
       </c>
       <c r="P116" s="20"/>
@@ -14095,7 +14092,7 @@
       </c>
       <c r="AR116" s="12"/>
     </row>
-    <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="13" t="n">
         <v>116</v>
       </c>
@@ -14183,7 +14180,7 @@
       </c>
       <c r="AR117" s="12"/>
     </row>
-    <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="13" t="n">
         <v>117</v>
       </c>
@@ -14271,7 +14268,7 @@
       </c>
       <c r="AR118" s="12"/>
     </row>
-    <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="13" t="n">
         <v>118</v>
       </c>
@@ -14359,7 +14356,7 @@
       </c>
       <c r="AR119" s="12"/>
     </row>
-    <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="13" t="n">
         <v>119</v>
       </c>
@@ -14447,7 +14444,7 @@
       </c>
       <c r="AR120" s="12"/>
     </row>
-    <row r="121" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="13" t="n">
         <v>120</v>
       </c>
@@ -14535,7 +14532,7 @@
       </c>
       <c r="AR121" s="12"/>
     </row>
-    <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="13" t="n">
         <v>121</v>
       </c>
@@ -14623,7 +14620,7 @@
       </c>
       <c r="AR122" s="12"/>
     </row>
-    <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="13" t="n">
         <v>122</v>
       </c>
@@ -14711,7 +14708,7 @@
       </c>
       <c r="AR123" s="12"/>
     </row>
-    <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="13" t="n">
         <v>123</v>
       </c>
@@ -14799,7 +14796,7 @@
       </c>
       <c r="AR124" s="12"/>
     </row>
-    <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="13" t="n">
         <v>124</v>
       </c>
@@ -14887,7 +14884,7 @@
       </c>
       <c r="AR125" s="12"/>
     </row>
-    <row r="126" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="13" t="n">
         <v>125</v>
       </c>
@@ -14975,7 +14972,7 @@
       </c>
       <c r="AR126" s="12"/>
     </row>
-    <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="13" t="n">
         <v>126</v>
       </c>
@@ -15063,7 +15060,7 @@
       </c>
       <c r="AR127" s="12"/>
     </row>
-    <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="13" t="n">
         <v>127</v>
       </c>
@@ -15151,7 +15148,7 @@
       </c>
       <c r="AR128" s="12"/>
     </row>
-    <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="13" t="n">
         <v>128</v>
       </c>
@@ -15239,7 +15236,7 @@
       </c>
       <c r="AR129" s="12"/>
     </row>
-    <row r="130" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="13" t="n">
         <v>129</v>
       </c>
@@ -15327,7 +15324,7 @@
       </c>
       <c r="AR130" s="12"/>
     </row>
-    <row r="131" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="13" t="n">
         <v>130</v>
       </c>
@@ -15415,7 +15412,7 @@
       </c>
       <c r="AR131" s="12"/>
     </row>
-    <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="13" t="n">
         <v>131</v>
       </c>
@@ -15503,7 +15500,7 @@
       </c>
       <c r="AR132" s="12"/>
     </row>
-    <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="13" t="n">
         <v>132</v>
       </c>
@@ -15591,7 +15588,7 @@
       </c>
       <c r="AR133" s="12"/>
     </row>
-    <row r="134" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="13" t="n">
         <v>133</v>
       </c>
@@ -15679,7 +15676,7 @@
       </c>
       <c r="AR134" s="12"/>
     </row>
-    <row r="135" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="13" t="n">
         <v>134</v>
       </c>
@@ -15767,7 +15764,7 @@
       </c>
       <c r="AR135" s="12"/>
     </row>
-    <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="13" t="n">
         <v>135</v>
       </c>
@@ -15855,7 +15852,7 @@
       </c>
       <c r="AR136" s="12"/>
     </row>
-    <row r="137" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="13" t="n">
         <v>136</v>
       </c>
@@ -15943,7 +15940,7 @@
       </c>
       <c r="AR137" s="12"/>
     </row>
-    <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="13" t="n">
         <v>137</v>
       </c>
@@ -16031,7 +16028,7 @@
       </c>
       <c r="AR138" s="12"/>
     </row>
-    <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="13" t="n">
         <v>138</v>
       </c>
@@ -16119,7 +16116,7 @@
       </c>
       <c r="AR139" s="12"/>
     </row>
-    <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="13" t="n">
         <v>139</v>
       </c>
@@ -16207,7 +16204,7 @@
       </c>
       <c r="AR140" s="12"/>
     </row>
-    <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="13" t="n">
         <v>140</v>
       </c>
@@ -16295,7 +16292,7 @@
       </c>
       <c r="AR141" s="12"/>
     </row>
-    <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="13" t="n">
         <v>141</v>
       </c>
@@ -16383,7 +16380,7 @@
       </c>
       <c r="AR142" s="12"/>
     </row>
-    <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="13" t="n">
         <v>142</v>
       </c>
@@ -16471,7 +16468,7 @@
       </c>
       <c r="AR143" s="12"/>
     </row>
-    <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="13" t="n">
         <v>143</v>
       </c>
@@ -16559,7 +16556,7 @@
       </c>
       <c r="AR144" s="12"/>
     </row>
-    <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="13" t="n">
         <v>144</v>
       </c>
@@ -16647,7 +16644,7 @@
       </c>
       <c r="AR145" s="12"/>
     </row>
-    <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="13" t="n">
         <v>145</v>
       </c>
@@ -16735,7 +16732,7 @@
       </c>
       <c r="AR146" s="12"/>
     </row>
-    <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="13" t="n">
         <v>146</v>
       </c>
@@ -16823,7 +16820,7 @@
       </c>
       <c r="AR147" s="12"/>
     </row>
-    <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="13" t="n">
         <v>147</v>
       </c>
@@ -16911,7 +16908,7 @@
       </c>
       <c r="AR148" s="12"/>
     </row>
-    <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="13" t="n">
         <v>148</v>
       </c>
@@ -16999,7 +16996,7 @@
       </c>
       <c r="AR149" s="12"/>
     </row>
-    <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="13" t="n">
         <v>149</v>
       </c>
@@ -17087,7 +17084,7 @@
       </c>
       <c r="AR150" s="12"/>
     </row>
-    <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="13" t="n">
         <v>150</v>
       </c>
@@ -17175,7 +17172,7 @@
       </c>
       <c r="AR151" s="12"/>
     </row>
-    <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="13" t="n">
         <v>151</v>
       </c>
@@ -17263,7 +17260,7 @@
       </c>
       <c r="AR152" s="12"/>
     </row>
-    <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="13" t="n">
         <v>152</v>
       </c>
@@ -17351,7 +17348,7 @@
       </c>
       <c r="AR153" s="12"/>
     </row>
-    <row r="154" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="13" t="n">
         <v>153</v>
       </c>
@@ -17439,7 +17436,7 @@
       </c>
       <c r="AR154" s="12"/>
     </row>
-    <row r="155" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="13" t="n">
         <v>154</v>
       </c>
@@ -17527,7 +17524,7 @@
       </c>
       <c r="AR155" s="12"/>
     </row>
-    <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="13" t="n">
         <v>155</v>
       </c>
@@ -17615,7 +17612,7 @@
       </c>
       <c r="AR156" s="12"/>
     </row>
-    <row r="157" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="13" t="n">
         <v>156</v>
       </c>
@@ -17703,7 +17700,7 @@
       </c>
       <c r="AR157" s="12"/>
     </row>
-    <row r="158" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="13" t="n">
         <v>157</v>
       </c>
@@ -17791,7 +17788,7 @@
       </c>
       <c r="AR158" s="12"/>
     </row>
-    <row r="159" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="13" t="n">
         <v>158</v>
       </c>
@@ -17879,7 +17876,7 @@
       </c>
       <c r="AR159" s="12"/>
     </row>
-    <row r="160" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="13" t="n">
         <v>159</v>
       </c>
@@ -17967,7 +17964,7 @@
       </c>
       <c r="AR160" s="12"/>
     </row>
-    <row r="161" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="13" t="n">
         <v>160</v>
       </c>
@@ -18055,7 +18052,7 @@
       </c>
       <c r="AR161" s="12"/>
     </row>
-    <row r="162" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="13" t="n">
         <v>161</v>
       </c>
@@ -18143,7 +18140,7 @@
       </c>
       <c r="AR162" s="12"/>
     </row>
-    <row r="163" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="13" t="n">
         <v>162</v>
       </c>
@@ -18231,7 +18228,7 @@
       </c>
       <c r="AR163" s="12"/>
     </row>
-    <row r="164" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="13" t="n">
         <v>163</v>
       </c>
@@ -18319,7 +18316,7 @@
       </c>
       <c r="AR164" s="12"/>
     </row>
-    <row r="165" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="13" t="n">
         <v>164</v>
       </c>
@@ -18407,7 +18404,7 @@
       </c>
       <c r="AR165" s="12"/>
     </row>
-    <row r="166" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="13" t="n">
         <v>165</v>
       </c>
@@ -18495,7 +18492,7 @@
       </c>
       <c r="AR166" s="12"/>
     </row>
-    <row r="167" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="13" t="n">
         <v>166</v>
       </c>
@@ -18583,7 +18580,7 @@
       </c>
       <c r="AR167" s="12"/>
     </row>
-    <row r="168" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="13" t="n">
         <v>167</v>
       </c>
@@ -18671,7 +18668,7 @@
       </c>
       <c r="AR168" s="12"/>
     </row>
-    <row r="169" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="13" t="n">
         <v>168</v>
       </c>
@@ -18759,7 +18756,7 @@
       </c>
       <c r="AR169" s="12"/>
     </row>
-    <row r="170" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="13" t="n">
         <v>169</v>
       </c>
@@ -18847,7 +18844,7 @@
       </c>
       <c r="AR170" s="12"/>
     </row>
-    <row r="171" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="13" t="n">
         <v>170</v>
       </c>
@@ -18935,7 +18932,7 @@
       </c>
       <c r="AR171" s="12"/>
     </row>
-    <row r="172" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="13" t="n">
         <v>171</v>
       </c>
@@ -19023,7 +19020,7 @@
       </c>
       <c r="AR172" s="12"/>
     </row>
-    <row r="173" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="37.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="13" t="n">
         <v>172</v>
       </c>
@@ -19111,7 +19108,7 @@
       </c>
       <c r="AR173" s="12"/>
     </row>
-    <row r="174" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="37.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="13" t="n">
         <v>173</v>
       </c>
@@ -19199,7 +19196,7 @@
       </c>
       <c r="AR174" s="12"/>
     </row>
-    <row r="175" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="37.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="13" t="n">
         <v>174</v>
       </c>
@@ -19287,7 +19284,7 @@
       </c>
       <c r="AR175" s="12"/>
     </row>
-    <row r="176" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="13" t="n">
         <v>175</v>
       </c>
@@ -19320,24 +19317,24 @@
       <c r="L176" s="15"/>
       <c r="M176" s="15"/>
       <c r="N176" s="11"/>
-      <c r="O176" s="38"/>
-      <c r="P176" s="38"/>
-      <c r="Q176" s="38"/>
-      <c r="R176" s="38"/>
+      <c r="O176" s="39"/>
+      <c r="P176" s="39"/>
+      <c r="Q176" s="39"/>
+      <c r="R176" s="39"/>
       <c r="S176" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T176" s="11"/>
       <c r="U176" s="11"/>
       <c r="V176" s="11"/>
-      <c r="W176" s="39"/>
+      <c r="W176" s="40"/>
       <c r="X176" s="11"/>
       <c r="Y176" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z176" s="11"/>
       <c r="AA176" s="11"/>
-      <c r="AB176" s="40" t="n">
+      <c r="AB176" s="41" t="n">
         <v>101</v>
       </c>
       <c r="AC176" s="11"/>
@@ -19363,13 +19360,13 @@
       <c r="AO176" s="13" t="n">
         <v>175</v>
       </c>
-      <c r="AP176" s="41" t="s">
+      <c r="AP176" s="42" t="s">
         <v>423</v>
       </c>
       <c r="AQ176" s="11"/>
       <c r="AR176" s="11"/>
     </row>
-    <row r="177" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="13" t="n">
         <v>176</v>
       </c>
@@ -19404,14 +19401,14 @@
       <c r="N177" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O177" s="38" t="s">
+      <c r="O177" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="P177" s="38" t="s">
+      <c r="P177" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="Q177" s="38"/>
-      <c r="R177" s="38"/>
+      <c r="Q177" s="39"/>
+      <c r="R177" s="39"/>
       <c r="S177" s="11" t="s">
         <v>56</v>
       </c>
@@ -19420,14 +19417,14 @@
       </c>
       <c r="U177" s="11"/>
       <c r="V177" s="11"/>
-      <c r="W177" s="39"/>
+      <c r="W177" s="40"/>
       <c r="X177" s="11"/>
       <c r="Y177" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z177" s="11"/>
       <c r="AA177" s="11"/>
-      <c r="AB177" s="40" t="n">
+      <c r="AB177" s="41" t="n">
         <v>101</v>
       </c>
       <c r="AC177" s="11"/>
@@ -19459,7 +19456,7 @@
       </c>
       <c r="AR177" s="11"/>
     </row>
-    <row r="178" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="13" t="n">
         <v>177</v>
       </c>
@@ -19469,83 +19466,83 @@
       <c r="C178" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D178" s="42" t="s">
+      <c r="D178" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E178" s="42" t="s">
+      <c r="E178" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F178" s="42"/>
-      <c r="G178" s="43" t="s">
+      <c r="F178" s="43"/>
+      <c r="G178" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="H178" s="43" t="s">
+      <c r="H178" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="I178" s="44" t="s">
+      <c r="I178" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J178" s="44"/>
-      <c r="K178" s="44" t="n">
+      <c r="J178" s="45"/>
+      <c r="K178" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L178" s="44"/>
-      <c r="M178" s="44"/>
-      <c r="N178" s="43"/>
-      <c r="O178" s="45"/>
-      <c r="P178" s="45"/>
-      <c r="Q178" s="45"/>
-      <c r="R178" s="45"/>
-      <c r="S178" s="43" t="s">
+      <c r="L178" s="45"/>
+      <c r="M178" s="45"/>
+      <c r="N178" s="44"/>
+      <c r="O178" s="46"/>
+      <c r="P178" s="46"/>
+      <c r="Q178" s="46"/>
+      <c r="R178" s="46"/>
+      <c r="S178" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T178" s="43" t="s">
+      <c r="T178" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U178" s="43"/>
-      <c r="V178" s="43"/>
-      <c r="W178" s="44" t="s">
+      <c r="U178" s="44"/>
+      <c r="V178" s="44"/>
+      <c r="W178" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="X178" s="43"/>
-      <c r="Y178" s="43" t="s">
+      <c r="X178" s="44"/>
+      <c r="Y178" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="Z178" s="43"/>
-      <c r="AA178" s="43"/>
-      <c r="AB178" s="40" t="n">
+      <c r="Z178" s="44"/>
+      <c r="AA178" s="44"/>
+      <c r="AB178" s="41" t="n">
         <v>101</v>
       </c>
-      <c r="AC178" s="43"/>
-      <c r="AD178" s="43"/>
-      <c r="AE178" s="43" t="s">
+      <c r="AC178" s="44"/>
+      <c r="AD178" s="44"/>
+      <c r="AE178" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF178" s="44" t="s">
+      <c r="AF178" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG178" s="46" t="n">
+      <c r="AG178" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH178" s="44"/>
-      <c r="AI178" s="44"/>
-      <c r="AJ178" s="44"/>
-      <c r="AK178" s="44"/>
-      <c r="AL178" s="44"/>
-      <c r="AM178" s="44"/>
-      <c r="AN178" s="43" t="n">
+      <c r="AH178" s="45"/>
+      <c r="AI178" s="45"/>
+      <c r="AJ178" s="45"/>
+      <c r="AK178" s="45"/>
+      <c r="AL178" s="45"/>
+      <c r="AM178" s="45"/>
+      <c r="AN178" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO178" s="13" t="n">
         <v>177</v>
       </c>
-      <c r="AP178" s="43"/>
+      <c r="AP178" s="44"/>
       <c r="AQ178" s="11" t="s">
         <v>418</v>
       </c>
       <c r="AR178" s="11"/>
     </row>
-    <row r="179" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="13" t="n">
         <v>178</v>
       </c>
@@ -19568,11 +19565,11 @@
       <c r="H179" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="I179" s="47" t="s">
+      <c r="I179" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J179" s="47"/>
-      <c r="K179" s="48"/>
+      <c r="J179" s="48"/>
+      <c r="K179" s="49"/>
       <c r="L179" s="15"/>
       <c r="M179" s="15"/>
       <c r="N179" s="15" t="s">
@@ -19581,11 +19578,11 @@
       <c r="O179" s="19" t="n">
         <v>5449000000286</v>
       </c>
-      <c r="P179" s="38" t="s">
+      <c r="P179" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="Q179" s="38"/>
-      <c r="R179" s="38"/>
+      <c r="Q179" s="39"/>
+      <c r="R179" s="39"/>
       <c r="S179" s="11" t="s">
         <v>56</v>
       </c>
@@ -19594,14 +19591,14 @@
       </c>
       <c r="U179" s="11"/>
       <c r="V179" s="11"/>
-      <c r="W179" s="39"/>
+      <c r="W179" s="40"/>
       <c r="X179" s="11"/>
       <c r="Y179" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z179" s="11"/>
       <c r="AA179" s="11"/>
-      <c r="AB179" s="40" t="n">
+      <c r="AB179" s="41" t="n">
         <v>101</v>
       </c>
       <c r="AC179" s="11"/>
@@ -19635,7 +19632,7 @@
       </c>
       <c r="AR179" s="11"/>
     </row>
-    <row r="180" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="13" t="n">
         <v>179</v>
       </c>
@@ -19668,24 +19665,24 @@
       <c r="L180" s="15"/>
       <c r="M180" s="15"/>
       <c r="N180" s="11"/>
-      <c r="O180" s="49"/>
-      <c r="P180" s="49"/>
-      <c r="Q180" s="49"/>
-      <c r="R180" s="49"/>
+      <c r="O180" s="50"/>
+      <c r="P180" s="50"/>
+      <c r="Q180" s="50"/>
+      <c r="R180" s="50"/>
       <c r="S180" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T180" s="11"/>
       <c r="U180" s="11"/>
       <c r="V180" s="11"/>
-      <c r="W180" s="39"/>
+      <c r="W180" s="40"/>
       <c r="X180" s="11"/>
       <c r="Y180" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z180" s="11"/>
       <c r="AA180" s="11"/>
-      <c r="AB180" s="40" t="n">
+      <c r="AB180" s="41" t="n">
         <v>101</v>
       </c>
       <c r="AC180" s="11"/>
@@ -19701,12 +19698,12 @@
       </c>
       <c r="AH180" s="15"/>
       <c r="AI180" s="15"/>
-      <c r="AJ180" s="44" t="s">
+      <c r="AJ180" s="45" t="s">
         <v>442</v>
       </c>
       <c r="AK180" s="15"/>
       <c r="AL180" s="15"/>
-      <c r="AM180" s="50" t="s">
+      <c r="AM180" s="51" t="s">
         <v>418</v>
       </c>
       <c r="AN180" s="11" t="n">
@@ -19715,15 +19712,15 @@
       <c r="AO180" s="13" t="n">
         <v>179</v>
       </c>
-      <c r="AP180" s="41" t="s">
+      <c r="AP180" s="42" t="s">
         <v>443</v>
       </c>
-      <c r="AQ180" s="51" t="s">
+      <c r="AQ180" s="52" t="s">
         <v>444</v>
       </c>
       <c r="AR180" s="11"/>
     </row>
-    <row r="181" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="13" t="n">
         <v>180</v>
       </c>
@@ -19761,25 +19758,25 @@
       <c r="O181" s="19" t="n">
         <v>5449000000286</v>
       </c>
-      <c r="P181" s="38"/>
-      <c r="Q181" s="38"/>
-      <c r="R181" s="38"/>
+      <c r="P181" s="39"/>
+      <c r="Q181" s="39"/>
+      <c r="R181" s="39"/>
       <c r="S181" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T181" s="52" t="s">
+      <c r="T181" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U181" s="11"/>
       <c r="V181" s="11"/>
-      <c r="W181" s="39"/>
+      <c r="W181" s="40"/>
       <c r="X181" s="11"/>
       <c r="Y181" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z181" s="11"/>
       <c r="AA181" s="11"/>
-      <c r="AB181" s="40" t="n">
+      <c r="AB181" s="41" t="n">
         <v>101</v>
       </c>
       <c r="AC181" s="11"/>
@@ -19811,7 +19808,7 @@
       </c>
       <c r="AR181" s="11"/>
     </row>
-    <row r="182" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="13" t="n">
         <v>181</v>
       </c>
@@ -19849,25 +19846,25 @@
       <c r="O182" s="19" t="n">
         <v>5449000004864</v>
       </c>
-      <c r="P182" s="38"/>
-      <c r="Q182" s="38"/>
-      <c r="R182" s="38"/>
+      <c r="P182" s="39"/>
+      <c r="Q182" s="39"/>
+      <c r="R182" s="39"/>
       <c r="S182" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T182" s="52" t="s">
+      <c r="T182" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U182" s="11"/>
       <c r="V182" s="11"/>
-      <c r="W182" s="39"/>
+      <c r="W182" s="40"/>
       <c r="X182" s="11"/>
       <c r="Y182" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z182" s="11"/>
       <c r="AA182" s="11"/>
-      <c r="AB182" s="40" t="n">
+      <c r="AB182" s="41" t="n">
         <v>101</v>
       </c>
       <c r="AC182" s="11"/>
@@ -19899,7 +19896,7 @@
       </c>
       <c r="AR182" s="11"/>
     </row>
-    <row r="183" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="13" t="n">
         <v>182</v>
       </c>
@@ -19937,25 +19934,25 @@
       <c r="O183" s="19" t="n">
         <v>5449000004840</v>
       </c>
-      <c r="P183" s="38"/>
-      <c r="Q183" s="38"/>
-      <c r="R183" s="38"/>
+      <c r="P183" s="39"/>
+      <c r="Q183" s="39"/>
+      <c r="R183" s="39"/>
       <c r="S183" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T183" s="52" t="s">
+      <c r="T183" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U183" s="11"/>
       <c r="V183" s="11"/>
-      <c r="W183" s="39"/>
+      <c r="W183" s="40"/>
       <c r="X183" s="11"/>
       <c r="Y183" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z183" s="11"/>
       <c r="AA183" s="11"/>
-      <c r="AB183" s="40" t="n">
+      <c r="AB183" s="41" t="n">
         <v>101</v>
       </c>
       <c r="AC183" s="11"/>
@@ -20020,24 +20017,24 @@
       <c r="L184" s="15"/>
       <c r="M184" s="15"/>
       <c r="N184" s="11"/>
-      <c r="O184" s="38"/>
-      <c r="P184" s="38"/>
-      <c r="Q184" s="38"/>
-      <c r="R184" s="38"/>
+      <c r="O184" s="39"/>
+      <c r="P184" s="39"/>
+      <c r="Q184" s="39"/>
+      <c r="R184" s="39"/>
       <c r="S184" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T184" s="11"/>
       <c r="U184" s="11"/>
       <c r="V184" s="11"/>
-      <c r="W184" s="39"/>
+      <c r="W184" s="40"/>
       <c r="X184" s="11"/>
       <c r="Y184" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z184" s="11"/>
       <c r="AA184" s="11"/>
-      <c r="AB184" s="40" t="n">
+      <c r="AB184" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC184" s="11"/>
@@ -20063,13 +20060,13 @@
       <c r="AO184" s="13" t="n">
         <v>183</v>
       </c>
-      <c r="AP184" s="41" t="s">
+      <c r="AP184" s="42" t="s">
         <v>454</v>
       </c>
       <c r="AQ184" s="11"/>
       <c r="AR184" s="11"/>
     </row>
-    <row r="185" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="13" t="n">
         <v>184</v>
       </c>
@@ -20104,14 +20101,14 @@
       <c r="N185" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O185" s="38" t="s">
+      <c r="O185" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="P185" s="38" t="s">
+      <c r="P185" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="Q185" s="38"/>
-      <c r="R185" s="38"/>
+      <c r="Q185" s="39"/>
+      <c r="R185" s="39"/>
       <c r="S185" s="11" t="s">
         <v>56</v>
       </c>
@@ -20120,14 +20117,14 @@
       </c>
       <c r="U185" s="11"/>
       <c r="V185" s="11"/>
-      <c r="W185" s="39"/>
+      <c r="W185" s="40"/>
       <c r="X185" s="11"/>
       <c r="Y185" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z185" s="11"/>
       <c r="AA185" s="11"/>
-      <c r="AB185" s="40" t="n">
+      <c r="AB185" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC185" s="11"/>
@@ -20159,7 +20156,7 @@
       </c>
       <c r="AR185" s="11"/>
     </row>
-    <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="13" t="n">
         <v>185</v>
       </c>
@@ -20169,83 +20166,83 @@
       <c r="C186" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D186" s="42" t="s">
+      <c r="D186" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E186" s="42" t="s">
+      <c r="E186" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F186" s="42"/>
-      <c r="G186" s="43" t="s">
+      <c r="F186" s="43"/>
+      <c r="G186" s="44" t="s">
         <v>458</v>
       </c>
-      <c r="H186" s="43" t="s">
+      <c r="H186" s="44" t="s">
         <v>459</v>
       </c>
-      <c r="I186" s="44" t="s">
+      <c r="I186" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J186" s="44"/>
-      <c r="K186" s="44" t="n">
+      <c r="J186" s="45"/>
+      <c r="K186" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L186" s="44"/>
-      <c r="M186" s="44"/>
-      <c r="N186" s="43"/>
-      <c r="O186" s="45"/>
-      <c r="P186" s="45"/>
-      <c r="Q186" s="45"/>
-      <c r="R186" s="45"/>
-      <c r="S186" s="43" t="s">
+      <c r="L186" s="45"/>
+      <c r="M186" s="45"/>
+      <c r="N186" s="44"/>
+      <c r="O186" s="46"/>
+      <c r="P186" s="46"/>
+      <c r="Q186" s="46"/>
+      <c r="R186" s="46"/>
+      <c r="S186" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T186" s="43" t="s">
+      <c r="T186" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U186" s="43"/>
-      <c r="V186" s="43"/>
-      <c r="W186" s="44" t="s">
+      <c r="U186" s="44"/>
+      <c r="V186" s="44"/>
+      <c r="W186" s="45" t="s">
         <v>460</v>
       </c>
-      <c r="X186" s="43"/>
-      <c r="Y186" s="43" t="s">
+      <c r="X186" s="44"/>
+      <c r="Y186" s="44" t="s">
         <v>453</v>
       </c>
-      <c r="Z186" s="43"/>
-      <c r="AA186" s="43"/>
-      <c r="AB186" s="40" t="n">
+      <c r="Z186" s="44"/>
+      <c r="AA186" s="44"/>
+      <c r="AB186" s="41" t="n">
         <v>1101</v>
       </c>
-      <c r="AC186" s="43"/>
-      <c r="AD186" s="43"/>
-      <c r="AE186" s="43" t="s">
+      <c r="AC186" s="44"/>
+      <c r="AD186" s="44"/>
+      <c r="AE186" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF186" s="44" t="s">
+      <c r="AF186" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG186" s="46" t="n">
+      <c r="AG186" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH186" s="44"/>
-      <c r="AI186" s="44"/>
-      <c r="AJ186" s="44"/>
-      <c r="AK186" s="44"/>
-      <c r="AL186" s="44"/>
-      <c r="AM186" s="44"/>
-      <c r="AN186" s="43" t="n">
+      <c r="AH186" s="45"/>
+      <c r="AI186" s="45"/>
+      <c r="AJ186" s="45"/>
+      <c r="AK186" s="45"/>
+      <c r="AL186" s="45"/>
+      <c r="AM186" s="45"/>
+      <c r="AN186" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO186" s="13" t="n">
         <v>185</v>
       </c>
-      <c r="AP186" s="43"/>
+      <c r="AP186" s="44"/>
       <c r="AQ186" s="11" t="s">
         <v>451</v>
       </c>
       <c r="AR186" s="11"/>
     </row>
-    <row r="187" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="13" t="n">
         <v>186</v>
       </c>
@@ -20255,13 +20252,13 @@
       <c r="C187" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D187" s="53" t="s">
+      <c r="D187" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E187" s="53" t="s">
+      <c r="E187" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="F187" s="53"/>
+      <c r="F187" s="54"/>
       <c r="G187" s="15" t="s">
         <v>461</v>
       </c>
@@ -20278,24 +20275,24 @@
       <c r="L187" s="15"/>
       <c r="M187" s="15"/>
       <c r="N187" s="11"/>
-      <c r="O187" s="38"/>
-      <c r="P187" s="38"/>
-      <c r="Q187" s="38"/>
-      <c r="R187" s="38"/>
+      <c r="O187" s="39"/>
+      <c r="P187" s="39"/>
+      <c r="Q187" s="39"/>
+      <c r="R187" s="39"/>
       <c r="S187" s="11" t="s">
         <v>56</v>
       </c>
       <c r="T187" s="11"/>
       <c r="U187" s="11"/>
       <c r="V187" s="11"/>
-      <c r="W187" s="39"/>
+      <c r="W187" s="40"/>
       <c r="X187" s="11"/>
       <c r="Y187" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z187" s="11"/>
       <c r="AA187" s="11"/>
-      <c r="AB187" s="40" t="n">
+      <c r="AB187" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC187" s="11"/>
@@ -20321,7 +20318,7 @@
       <c r="AO187" s="13" t="n">
         <v>186</v>
       </c>
-      <c r="AP187" s="41" t="s">
+      <c r="AP187" s="42" t="s">
         <v>464</v>
       </c>
       <c r="AQ187" s="11" t="s">
@@ -20329,7 +20326,7 @@
       </c>
       <c r="AR187" s="11"/>
     </row>
-    <row r="188" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="13" t="n">
         <v>187</v>
       </c>
@@ -20352,17 +20349,17 @@
       <c r="H188" s="31" t="s">
         <v>466</v>
       </c>
-      <c r="I188" s="47" t="s">
+      <c r="I188" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J188" s="47"/>
-      <c r="K188" s="48"/>
+      <c r="J188" s="48"/>
+      <c r="K188" s="49"/>
       <c r="L188" s="15"/>
       <c r="M188" s="15"/>
-      <c r="N188" s="52" t="s">
+      <c r="N188" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="O188" s="54" t="n">
+      <c r="O188" s="55" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P188" s="20"/>
@@ -20376,14 +20373,14 @@
       </c>
       <c r="U188" s="11"/>
       <c r="V188" s="11"/>
-      <c r="W188" s="39"/>
+      <c r="W188" s="40"/>
       <c r="X188" s="11"/>
       <c r="Y188" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z188" s="11"/>
       <c r="AA188" s="11"/>
-      <c r="AB188" s="40" t="n">
+      <c r="AB188" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC188" s="11"/>
@@ -20417,7 +20414,7 @@
       </c>
       <c r="AR188" s="11"/>
     </row>
-    <row r="189" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="13" t="n">
         <v>188</v>
       </c>
@@ -20440,14 +20437,14 @@
       <c r="H189" s="31" t="s">
         <v>469</v>
       </c>
-      <c r="I189" s="47" t="s">
+      <c r="I189" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J189" s="47"/>
-      <c r="K189" s="48"/>
+      <c r="J189" s="48"/>
+      <c r="K189" s="49"/>
       <c r="L189" s="15"/>
       <c r="M189" s="15"/>
-      <c r="N189" s="52" t="s">
+      <c r="N189" s="53" t="s">
         <v>239</v>
       </c>
       <c r="O189" s="20" t="n">
@@ -20464,14 +20461,14 @@
       </c>
       <c r="U189" s="11"/>
       <c r="V189" s="11"/>
-      <c r="W189" s="39"/>
+      <c r="W189" s="40"/>
       <c r="X189" s="11"/>
       <c r="Y189" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z189" s="11"/>
       <c r="AA189" s="11"/>
-      <c r="AB189" s="40" t="n">
+      <c r="AB189" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC189" s="11"/>
@@ -20505,7 +20502,7 @@
       </c>
       <c r="AR189" s="11"/>
     </row>
-    <row r="190" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="13" t="n">
         <v>189</v>
       </c>
@@ -20538,24 +20535,24 @@
       <c r="L190" s="15"/>
       <c r="M190" s="15"/>
       <c r="N190" s="11"/>
-      <c r="O190" s="49"/>
-      <c r="P190" s="49"/>
-      <c r="Q190" s="49"/>
-      <c r="R190" s="49"/>
+      <c r="O190" s="50"/>
+      <c r="P190" s="50"/>
+      <c r="Q190" s="50"/>
+      <c r="R190" s="50"/>
       <c r="S190" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T190" s="11"/>
       <c r="U190" s="11"/>
       <c r="V190" s="11"/>
-      <c r="W190" s="39"/>
+      <c r="W190" s="40"/>
       <c r="X190" s="11"/>
       <c r="Y190" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z190" s="11"/>
       <c r="AA190" s="11"/>
-      <c r="AB190" s="40" t="n">
+      <c r="AB190" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC190" s="11"/>
@@ -20571,12 +20568,12 @@
       </c>
       <c r="AH190" s="15"/>
       <c r="AI190" s="15"/>
-      <c r="AJ190" s="44" t="s">
+      <c r="AJ190" s="45" t="s">
         <v>473</v>
       </c>
       <c r="AK190" s="15"/>
       <c r="AL190" s="15"/>
-      <c r="AM190" s="50" t="s">
+      <c r="AM190" s="51" t="s">
         <v>451</v>
       </c>
       <c r="AN190" s="11" t="n">
@@ -20585,15 +20582,15 @@
       <c r="AO190" s="13" t="n">
         <v>189</v>
       </c>
-      <c r="AP190" s="41" t="s">
+      <c r="AP190" s="42" t="s">
         <v>474</v>
       </c>
-      <c r="AQ190" s="51" t="s">
+      <c r="AQ190" s="52" t="s">
         <v>444</v>
       </c>
       <c r="AR190" s="11"/>
     </row>
-    <row r="191" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="13" t="n">
         <v>190</v>
       </c>
@@ -20625,10 +20622,10 @@
       </c>
       <c r="L191" s="15"/>
       <c r="M191" s="15"/>
-      <c r="N191" s="52" t="s">
+      <c r="N191" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="O191" s="54" t="n">
+      <c r="O191" s="55" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P191" s="20"/>
@@ -20637,19 +20634,19 @@
       <c r="S191" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T191" s="52" t="s">
+      <c r="T191" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U191" s="11"/>
       <c r="V191" s="11"/>
-      <c r="W191" s="39"/>
+      <c r="W191" s="40"/>
       <c r="X191" s="11"/>
       <c r="Y191" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z191" s="11"/>
       <c r="AA191" s="11"/>
-      <c r="AB191" s="40" t="n">
+      <c r="AB191" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC191" s="11"/>
@@ -20681,7 +20678,7 @@
       </c>
       <c r="AR191" s="11"/>
     </row>
-    <row r="192" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="13" t="n">
         <v>191</v>
       </c>
@@ -20713,7 +20710,7 @@
       </c>
       <c r="L192" s="15"/>
       <c r="M192" s="15"/>
-      <c r="N192" s="52" t="s">
+      <c r="N192" s="53" t="s">
         <v>239</v>
       </c>
       <c r="O192" s="20" t="n">
@@ -20725,19 +20722,19 @@
       <c r="S192" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T192" s="52" t="s">
+      <c r="T192" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U192" s="11"/>
       <c r="V192" s="11"/>
-      <c r="W192" s="39"/>
+      <c r="W192" s="40"/>
       <c r="X192" s="11"/>
       <c r="Y192" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z192" s="11"/>
       <c r="AA192" s="11"/>
-      <c r="AB192" s="40" t="n">
+      <c r="AB192" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC192" s="11"/>
@@ -20769,7 +20766,7 @@
       </c>
       <c r="AR192" s="11"/>
     </row>
-    <row r="193" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="13" t="n">
         <v>192</v>
       </c>
@@ -20801,7 +20798,7 @@
       </c>
       <c r="L193" s="15"/>
       <c r="M193" s="15"/>
-      <c r="N193" s="52" t="s">
+      <c r="N193" s="53" t="s">
         <v>241</v>
       </c>
       <c r="O193" s="20" t="n">
@@ -20813,19 +20810,19 @@
       <c r="S193" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T193" s="52" t="s">
+      <c r="T193" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U193" s="11"/>
       <c r="V193" s="11"/>
-      <c r="W193" s="39"/>
+      <c r="W193" s="40"/>
       <c r="X193" s="11"/>
       <c r="Y193" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z193" s="11"/>
       <c r="AA193" s="11"/>
-      <c r="AB193" s="40" t="n">
+      <c r="AB193" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC193" s="11"/>
@@ -20857,7 +20854,7 @@
       </c>
       <c r="AR193" s="11"/>
     </row>
-    <row r="194" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="13" t="n">
         <v>193</v>
       </c>
@@ -20889,7 +20886,7 @@
       </c>
       <c r="L194" s="15"/>
       <c r="M194" s="15"/>
-      <c r="N194" s="52" t="s">
+      <c r="N194" s="53" t="s">
         <v>243</v>
       </c>
       <c r="O194" s="20" t="n">
@@ -20901,19 +20898,19 @@
       <c r="S194" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T194" s="52" t="s">
+      <c r="T194" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U194" s="11"/>
       <c r="V194" s="11"/>
-      <c r="W194" s="39"/>
+      <c r="W194" s="40"/>
       <c r="X194" s="11"/>
       <c r="Y194" s="11" t="s">
         <v>453</v>
       </c>
       <c r="Z194" s="11"/>
       <c r="AA194" s="11"/>
-      <c r="AB194" s="40" t="n">
+      <c r="AB194" s="41" t="n">
         <v>1101</v>
       </c>
       <c r="AC194" s="11"/>
@@ -20945,7 +20942,7 @@
       </c>
       <c r="AR194" s="11"/>
     </row>
-    <row r="195" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="13" t="n">
         <v>194</v>
       </c>
@@ -20978,24 +20975,24 @@
       <c r="L195" s="15"/>
       <c r="M195" s="15"/>
       <c r="N195" s="11"/>
-      <c r="O195" s="38"/>
-      <c r="P195" s="38"/>
-      <c r="Q195" s="38"/>
-      <c r="R195" s="38"/>
+      <c r="O195" s="39"/>
+      <c r="P195" s="39"/>
+      <c r="Q195" s="39"/>
+      <c r="R195" s="39"/>
       <c r="S195" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T195" s="11"/>
       <c r="U195" s="11"/>
       <c r="V195" s="11"/>
-      <c r="W195" s="39"/>
+      <c r="W195" s="40"/>
       <c r="X195" s="11"/>
       <c r="Y195" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z195" s="11"/>
       <c r="AA195" s="11"/>
-      <c r="AB195" s="40" t="n">
+      <c r="AB195" s="41" t="n">
         <v>102</v>
       </c>
       <c r="AC195" s="11"/>
@@ -21021,13 +21018,13 @@
       <c r="AO195" s="13" t="n">
         <v>194</v>
       </c>
-      <c r="AP195" s="41" t="s">
+      <c r="AP195" s="42" t="s">
         <v>485</v>
       </c>
       <c r="AQ195" s="11"/>
       <c r="AR195" s="11"/>
     </row>
-    <row r="196" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="13" t="n">
         <v>195</v>
       </c>
@@ -21062,14 +21059,14 @@
       <c r="N196" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O196" s="38" t="s">
+      <c r="O196" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="P196" s="38" t="s">
+      <c r="P196" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="Q196" s="38"/>
-      <c r="R196" s="38"/>
+      <c r="Q196" s="39"/>
+      <c r="R196" s="39"/>
       <c r="S196" s="11" t="s">
         <v>56</v>
       </c>
@@ -21078,14 +21075,14 @@
       </c>
       <c r="U196" s="11"/>
       <c r="V196" s="11"/>
-      <c r="W196" s="39"/>
+      <c r="W196" s="40"/>
       <c r="X196" s="11"/>
       <c r="Y196" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z196" s="11"/>
       <c r="AA196" s="11"/>
-      <c r="AB196" s="40" t="n">
+      <c r="AB196" s="41" t="n">
         <v>102</v>
       </c>
       <c r="AC196" s="11"/>
@@ -21117,7 +21114,7 @@
       </c>
       <c r="AR196" s="11"/>
     </row>
-    <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="13" t="n">
         <v>196</v>
       </c>
@@ -21127,83 +21124,83 @@
       <c r="C197" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D197" s="42" t="s">
+      <c r="D197" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E197" s="42" t="s">
+      <c r="E197" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F197" s="42"/>
-      <c r="G197" s="43" t="s">
+      <c r="F197" s="43"/>
+      <c r="G197" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="H197" s="43" t="s">
+      <c r="H197" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="I197" s="44" t="s">
+      <c r="I197" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J197" s="44"/>
-      <c r="K197" s="44" t="n">
+      <c r="J197" s="45"/>
+      <c r="K197" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L197" s="44"/>
-      <c r="M197" s="44"/>
-      <c r="N197" s="43"/>
-      <c r="O197" s="45"/>
-      <c r="P197" s="45"/>
-      <c r="Q197" s="45"/>
-      <c r="R197" s="45"/>
-      <c r="S197" s="43" t="s">
+      <c r="L197" s="45"/>
+      <c r="M197" s="45"/>
+      <c r="N197" s="44"/>
+      <c r="O197" s="46"/>
+      <c r="P197" s="46"/>
+      <c r="Q197" s="46"/>
+      <c r="R197" s="46"/>
+      <c r="S197" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T197" s="43" t="s">
+      <c r="T197" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U197" s="43"/>
-      <c r="V197" s="43"/>
-      <c r="W197" s="44" t="s">
+      <c r="U197" s="44"/>
+      <c r="V197" s="44"/>
+      <c r="W197" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="X197" s="43"/>
-      <c r="Y197" s="43" t="s">
+      <c r="X197" s="44"/>
+      <c r="Y197" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="Z197" s="43"/>
-      <c r="AA197" s="43"/>
-      <c r="AB197" s="40" t="n">
+      <c r="Z197" s="44"/>
+      <c r="AA197" s="44"/>
+      <c r="AB197" s="41" t="n">
         <v>102</v>
       </c>
-      <c r="AC197" s="43"/>
-      <c r="AD197" s="43"/>
-      <c r="AE197" s="43" t="s">
+      <c r="AC197" s="44"/>
+      <c r="AD197" s="44"/>
+      <c r="AE197" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF197" s="44" t="s">
+      <c r="AF197" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG197" s="46" t="n">
+      <c r="AG197" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH197" s="44"/>
-      <c r="AI197" s="44"/>
-      <c r="AJ197" s="44"/>
-      <c r="AK197" s="44"/>
-      <c r="AL197" s="44"/>
-      <c r="AM197" s="44"/>
-      <c r="AN197" s="43" t="n">
+      <c r="AH197" s="45"/>
+      <c r="AI197" s="45"/>
+      <c r="AJ197" s="45"/>
+      <c r="AK197" s="45"/>
+      <c r="AL197" s="45"/>
+      <c r="AM197" s="45"/>
+      <c r="AN197" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO197" s="13" t="n">
         <v>196</v>
       </c>
-      <c r="AP197" s="43"/>
+      <c r="AP197" s="44"/>
       <c r="AQ197" s="11" t="s">
         <v>483</v>
       </c>
       <c r="AR197" s="11"/>
     </row>
-    <row r="198" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="13" t="n">
         <v>197</v>
       </c>
@@ -21213,30 +21210,30 @@
       <c r="C198" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D198" s="53" t="s">
+      <c r="D198" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E198" s="53" t="s">
+      <c r="E198" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="F198" s="53"/>
+      <c r="F198" s="54"/>
       <c r="G198" s="15" t="s">
         <v>491</v>
       </c>
       <c r="H198" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="I198" s="47" t="s">
+      <c r="I198" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J198" s="47"/>
-      <c r="K198" s="48"/>
+      <c r="J198" s="48"/>
+      <c r="K198" s="49"/>
       <c r="L198" s="15"/>
       <c r="M198" s="15"/>
       <c r="N198" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="O198" s="38" t="n">
+      <c r="O198" s="39" t="n">
         <v>5449000000439</v>
       </c>
       <c r="P198" s="20" t="s">
@@ -21252,14 +21249,14 @@
       </c>
       <c r="U198" s="11"/>
       <c r="V198" s="11"/>
-      <c r="W198" s="39"/>
+      <c r="W198" s="40"/>
       <c r="X198" s="11"/>
       <c r="Y198" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z198" s="11"/>
       <c r="AA198" s="11"/>
-      <c r="AB198" s="40" t="n">
+      <c r="AB198" s="41" t="n">
         <v>102</v>
       </c>
       <c r="AC198" s="11"/>
@@ -21293,7 +21290,7 @@
       </c>
       <c r="AR198" s="11"/>
     </row>
-    <row r="199" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="13" t="n">
         <v>198</v>
       </c>
@@ -21326,24 +21323,24 @@
       <c r="L199" s="15"/>
       <c r="M199" s="15"/>
       <c r="N199" s="11"/>
-      <c r="O199" s="49"/>
-      <c r="P199" s="49"/>
-      <c r="Q199" s="49"/>
-      <c r="R199" s="49"/>
+      <c r="O199" s="50"/>
+      <c r="P199" s="50"/>
+      <c r="Q199" s="50"/>
+      <c r="R199" s="50"/>
       <c r="S199" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T199" s="11"/>
       <c r="U199" s="11"/>
       <c r="V199" s="11"/>
-      <c r="W199" s="39"/>
+      <c r="W199" s="40"/>
       <c r="X199" s="11"/>
       <c r="Y199" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z199" s="11"/>
       <c r="AA199" s="11"/>
-      <c r="AB199" s="40" t="n">
+      <c r="AB199" s="41" t="n">
         <v>102</v>
       </c>
       <c r="AC199" s="11"/>
@@ -21359,12 +21356,12 @@
       </c>
       <c r="AH199" s="15"/>
       <c r="AI199" s="15"/>
-      <c r="AJ199" s="44" t="s">
+      <c r="AJ199" s="45" t="s">
         <v>496</v>
       </c>
       <c r="AK199" s="15"/>
       <c r="AL199" s="15"/>
-      <c r="AM199" s="50" t="s">
+      <c r="AM199" s="51" t="s">
         <v>483</v>
       </c>
       <c r="AN199" s="11" t="n">
@@ -21373,15 +21370,15 @@
       <c r="AO199" s="13" t="n">
         <v>198</v>
       </c>
-      <c r="AP199" s="41" t="s">
+      <c r="AP199" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="AQ199" s="51" t="s">
+      <c r="AQ199" s="52" t="s">
         <v>444</v>
       </c>
       <c r="AR199" s="11"/>
     </row>
-    <row r="200" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="13" t="n">
         <v>199</v>
       </c>
@@ -21425,19 +21422,19 @@
       <c r="S200" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T200" s="52" t="s">
+      <c r="T200" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U200" s="11"/>
       <c r="V200" s="11"/>
-      <c r="W200" s="39"/>
+      <c r="W200" s="40"/>
       <c r="X200" s="11"/>
       <c r="Y200" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z200" s="11"/>
       <c r="AA200" s="11"/>
-      <c r="AB200" s="40" t="n">
+      <c r="AB200" s="41" t="n">
         <v>102</v>
       </c>
       <c r="AC200" s="11"/>
@@ -21469,7 +21466,7 @@
       </c>
       <c r="AR200" s="11"/>
     </row>
-    <row r="201" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="13" t="n">
         <v>200</v>
       </c>
@@ -21513,19 +21510,19 @@
       <c r="S201" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T201" s="52" t="s">
+      <c r="T201" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U201" s="11"/>
       <c r="V201" s="11"/>
-      <c r="W201" s="39"/>
+      <c r="W201" s="40"/>
       <c r="X201" s="11"/>
       <c r="Y201" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z201" s="11"/>
       <c r="AA201" s="11"/>
-      <c r="AB201" s="40" t="n">
+      <c r="AB201" s="41" t="n">
         <v>102</v>
       </c>
       <c r="AC201" s="11"/>
@@ -21557,7 +21554,7 @@
       </c>
       <c r="AR201" s="11"/>
     </row>
-    <row r="202" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="13" t="n">
         <v>201</v>
       </c>
@@ -21590,17 +21587,17 @@
       <c r="L202" s="15"/>
       <c r="M202" s="15"/>
       <c r="N202" s="11"/>
-      <c r="O202" s="38"/>
-      <c r="P202" s="38"/>
-      <c r="Q202" s="38"/>
-      <c r="R202" s="38"/>
+      <c r="O202" s="39"/>
+      <c r="P202" s="39"/>
+      <c r="Q202" s="39"/>
+      <c r="R202" s="39"/>
       <c r="S202" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T202" s="11"/>
       <c r="U202" s="11"/>
       <c r="V202" s="11"/>
-      <c r="W202" s="39"/>
+      <c r="W202" s="40"/>
       <c r="X202" s="11"/>
       <c r="Y202" s="11" t="s">
         <v>504</v>
@@ -21631,13 +21628,13 @@
       <c r="AO202" s="13" t="n">
         <v>201</v>
       </c>
-      <c r="AP202" s="41" t="s">
+      <c r="AP202" s="42" t="s">
         <v>505</v>
       </c>
       <c r="AQ202" s="11"/>
       <c r="AR202" s="11"/>
     </row>
-    <row r="203" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="13" t="n">
         <v>202</v>
       </c>
@@ -21672,14 +21669,14 @@
       <c r="N203" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O203" s="38" t="s">
+      <c r="O203" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="P203" s="38" t="s">
+      <c r="P203" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="Q203" s="38"/>
-      <c r="R203" s="38"/>
+      <c r="Q203" s="39"/>
+      <c r="R203" s="39"/>
       <c r="S203" s="11" t="s">
         <v>56</v>
       </c>
@@ -21688,7 +21685,7 @@
       </c>
       <c r="U203" s="11"/>
       <c r="V203" s="11"/>
-      <c r="W203" s="39"/>
+      <c r="W203" s="40"/>
       <c r="X203" s="11"/>
       <c r="Y203" s="11" t="s">
         <v>504</v>
@@ -21725,7 +21722,7 @@
       </c>
       <c r="AR203" s="11"/>
     </row>
-    <row r="204" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="13" t="n">
         <v>203</v>
       </c>
@@ -21735,81 +21732,81 @@
       <c r="C204" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D204" s="42" t="s">
+      <c r="D204" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E204" s="42" t="s">
+      <c r="E204" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F204" s="42"/>
-      <c r="G204" s="43" t="s">
+      <c r="F204" s="43"/>
+      <c r="G204" s="44" t="s">
         <v>509</v>
       </c>
-      <c r="H204" s="43" t="s">
+      <c r="H204" s="44" t="s">
         <v>510</v>
       </c>
-      <c r="I204" s="44" t="s">
+      <c r="I204" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J204" s="44"/>
-      <c r="K204" s="44" t="n">
+      <c r="J204" s="45"/>
+      <c r="K204" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L204" s="44"/>
-      <c r="M204" s="44"/>
-      <c r="N204" s="43"/>
-      <c r="O204" s="45"/>
-      <c r="P204" s="45"/>
-      <c r="Q204" s="45"/>
-      <c r="R204" s="45"/>
-      <c r="S204" s="43" t="s">
+      <c r="L204" s="45"/>
+      <c r="M204" s="45"/>
+      <c r="N204" s="44"/>
+      <c r="O204" s="46"/>
+      <c r="P204" s="46"/>
+      <c r="Q204" s="46"/>
+      <c r="R204" s="46"/>
+      <c r="S204" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T204" s="43" t="s">
+      <c r="T204" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U204" s="43"/>
-      <c r="V204" s="43"/>
-      <c r="W204" s="44" t="s">
+      <c r="U204" s="44"/>
+      <c r="V204" s="44"/>
+      <c r="W204" s="45" t="s">
         <v>511</v>
       </c>
-      <c r="X204" s="43"/>
-      <c r="Y204" s="43" t="s">
+      <c r="X204" s="44"/>
+      <c r="Y204" s="44" t="s">
         <v>504</v>
       </c>
-      <c r="Z204" s="43"/>
-      <c r="AA204" s="43"/>
-      <c r="AB204" s="44"/>
-      <c r="AC204" s="43"/>
-      <c r="AD204" s="43"/>
-      <c r="AE204" s="43" t="s">
+      <c r="Z204" s="44"/>
+      <c r="AA204" s="44"/>
+      <c r="AB204" s="45"/>
+      <c r="AC204" s="44"/>
+      <c r="AD204" s="44"/>
+      <c r="AE204" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF204" s="44" t="s">
+      <c r="AF204" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG204" s="46" t="n">
+      <c r="AG204" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH204" s="44"/>
-      <c r="AI204" s="44"/>
-      <c r="AJ204" s="44"/>
-      <c r="AK204" s="44"/>
-      <c r="AL204" s="44"/>
-      <c r="AM204" s="44"/>
-      <c r="AN204" s="43" t="n">
+      <c r="AH204" s="45"/>
+      <c r="AI204" s="45"/>
+      <c r="AJ204" s="45"/>
+      <c r="AK204" s="45"/>
+      <c r="AL204" s="45"/>
+      <c r="AM204" s="45"/>
+      <c r="AN204" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO204" s="13" t="n">
         <v>203</v>
       </c>
-      <c r="AP204" s="43"/>
+      <c r="AP204" s="44"/>
       <c r="AQ204" s="11" t="s">
         <v>502</v>
       </c>
       <c r="AR204" s="11"/>
     </row>
-    <row r="205" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="13" t="n">
         <v>204</v>
       </c>
@@ -21819,13 +21816,13 @@
       <c r="C205" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D205" s="53" t="s">
+      <c r="D205" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E205" s="53" t="s">
+      <c r="E205" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="F205" s="53"/>
+      <c r="F205" s="54"/>
       <c r="G205" s="15" t="s">
         <v>512</v>
       </c>
@@ -21842,17 +21839,17 @@
       <c r="L205" s="15"/>
       <c r="M205" s="15"/>
       <c r="N205" s="11"/>
-      <c r="O205" s="38"/>
-      <c r="P205" s="38"/>
-      <c r="Q205" s="38"/>
-      <c r="R205" s="38"/>
+      <c r="O205" s="39"/>
+      <c r="P205" s="39"/>
+      <c r="Q205" s="39"/>
+      <c r="R205" s="39"/>
       <c r="S205" s="11" t="s">
         <v>56</v>
       </c>
       <c r="T205" s="11"/>
       <c r="U205" s="11"/>
       <c r="V205" s="11"/>
-      <c r="W205" s="39"/>
+      <c r="W205" s="40"/>
       <c r="X205" s="11"/>
       <c r="Y205" s="11" t="s">
         <v>504</v>
@@ -21883,7 +21880,7 @@
       <c r="AO205" s="13" t="n">
         <v>204</v>
       </c>
-      <c r="AP205" s="41" t="s">
+      <c r="AP205" s="42" t="s">
         <v>514</v>
       </c>
       <c r="AQ205" s="11" t="s">
@@ -21891,7 +21888,7 @@
       </c>
       <c r="AR205" s="11"/>
     </row>
-    <row r="206" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="13" t="n">
         <v>205</v>
       </c>
@@ -21901,7 +21898,7 @@
       <c r="C206" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D206" s="53" t="s">
+      <c r="D206" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E206" s="14" t="s">
@@ -21914,11 +21911,11 @@
       <c r="H206" s="31" t="s">
         <v>516</v>
       </c>
-      <c r="I206" s="47" t="s">
+      <c r="I206" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J206" s="47"/>
-      <c r="K206" s="48"/>
+      <c r="J206" s="48"/>
+      <c r="K206" s="49"/>
       <c r="L206" s="15"/>
       <c r="M206" s="15"/>
       <c r="N206" s="15" t="s">
@@ -21938,7 +21935,7 @@
       </c>
       <c r="U206" s="11"/>
       <c r="V206" s="11"/>
-      <c r="W206" s="39"/>
+      <c r="W206" s="40"/>
       <c r="X206" s="11"/>
       <c r="Y206" s="11" t="s">
         <v>504</v>
@@ -21977,7 +21974,7 @@
       </c>
       <c r="AR206" s="11"/>
     </row>
-    <row r="207" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="13" t="n">
         <v>206</v>
       </c>
@@ -21987,7 +21984,7 @@
       <c r="C207" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D207" s="53" t="s">
+      <c r="D207" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E207" s="14" t="s">
@@ -22000,11 +21997,11 @@
       <c r="H207" s="31" t="s">
         <v>519</v>
       </c>
-      <c r="I207" s="47" t="s">
+      <c r="I207" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J207" s="47"/>
-      <c r="K207" s="48"/>
+      <c r="J207" s="48"/>
+      <c r="K207" s="49"/>
       <c r="L207" s="15"/>
       <c r="M207" s="15"/>
       <c r="N207" s="15" t="s">
@@ -22024,7 +22021,7 @@
       </c>
       <c r="U207" s="11"/>
       <c r="V207" s="11"/>
-      <c r="W207" s="39"/>
+      <c r="W207" s="40"/>
       <c r="X207" s="11"/>
       <c r="Y207" s="11" t="s">
         <v>504</v>
@@ -22063,7 +22060,7 @@
       </c>
       <c r="AR207" s="11"/>
     </row>
-    <row r="208" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="13" t="n">
         <v>207</v>
       </c>
@@ -22096,17 +22093,17 @@
       <c r="L208" s="15"/>
       <c r="M208" s="15"/>
       <c r="N208" s="11"/>
-      <c r="O208" s="38"/>
-      <c r="P208" s="38"/>
-      <c r="Q208" s="38"/>
-      <c r="R208" s="38"/>
+      <c r="O208" s="39"/>
+      <c r="P208" s="39"/>
+      <c r="Q208" s="39"/>
+      <c r="R208" s="39"/>
       <c r="S208" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T208" s="11"/>
       <c r="U208" s="11"/>
       <c r="V208" s="11"/>
-      <c r="W208" s="39"/>
+      <c r="W208" s="40"/>
       <c r="X208" s="11"/>
       <c r="Y208" s="11" t="s">
         <v>523</v>
@@ -22137,13 +22134,13 @@
       <c r="AO208" s="13" t="n">
         <v>207</v>
       </c>
-      <c r="AP208" s="41" t="s">
+      <c r="AP208" s="42" t="s">
         <v>524</v>
       </c>
       <c r="AQ208" s="11"/>
       <c r="AR208" s="11"/>
     </row>
-    <row r="209" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="13" t="n">
         <v>208</v>
       </c>
@@ -22178,14 +22175,14 @@
       <c r="N209" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O209" s="38" t="s">
+      <c r="O209" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="P209" s="38" t="s">
+      <c r="P209" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="Q209" s="38"/>
-      <c r="R209" s="38"/>
+      <c r="Q209" s="39"/>
+      <c r="R209" s="39"/>
       <c r="S209" s="11" t="s">
         <v>56</v>
       </c>
@@ -22194,7 +22191,7 @@
       </c>
       <c r="U209" s="11"/>
       <c r="V209" s="11"/>
-      <c r="W209" s="39"/>
+      <c r="W209" s="40"/>
       <c r="X209" s="11"/>
       <c r="Y209" s="11" t="s">
         <v>523</v>
@@ -22231,7 +22228,7 @@
       </c>
       <c r="AR209" s="11"/>
     </row>
-    <row r="210" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="13" t="n">
         <v>209</v>
       </c>
@@ -22241,81 +22238,81 @@
       <c r="C210" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D210" s="42" t="s">
+      <c r="D210" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E210" s="42" t="s">
+      <c r="E210" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F210" s="42"/>
-      <c r="G210" s="43" t="s">
+      <c r="F210" s="43"/>
+      <c r="G210" s="44" t="s">
         <v>528</v>
       </c>
-      <c r="H210" s="43" t="s">
+      <c r="H210" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="I210" s="44" t="s">
+      <c r="I210" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J210" s="44"/>
-      <c r="K210" s="44" t="n">
+      <c r="J210" s="45"/>
+      <c r="K210" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L210" s="44"/>
-      <c r="M210" s="44"/>
-      <c r="N210" s="43"/>
-      <c r="O210" s="45"/>
-      <c r="P210" s="45"/>
-      <c r="Q210" s="45"/>
-      <c r="R210" s="45"/>
-      <c r="S210" s="43" t="s">
+      <c r="L210" s="45"/>
+      <c r="M210" s="45"/>
+      <c r="N210" s="44"/>
+      <c r="O210" s="46"/>
+      <c r="P210" s="46"/>
+      <c r="Q210" s="46"/>
+      <c r="R210" s="46"/>
+      <c r="S210" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T210" s="43" t="s">
+      <c r="T210" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U210" s="43"/>
-      <c r="V210" s="43"/>
-      <c r="W210" s="44" t="s">
+      <c r="U210" s="44"/>
+      <c r="V210" s="44"/>
+      <c r="W210" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="X210" s="43"/>
-      <c r="Y210" s="43" t="s">
+      <c r="X210" s="44"/>
+      <c r="Y210" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="Z210" s="43"/>
-      <c r="AA210" s="43"/>
-      <c r="AB210" s="44"/>
-      <c r="AC210" s="43"/>
-      <c r="AD210" s="43"/>
-      <c r="AE210" s="43" t="s">
+      <c r="Z210" s="44"/>
+      <c r="AA210" s="44"/>
+      <c r="AB210" s="45"/>
+      <c r="AC210" s="44"/>
+      <c r="AD210" s="44"/>
+      <c r="AE210" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF210" s="44" t="s">
+      <c r="AF210" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG210" s="46" t="n">
+      <c r="AG210" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH210" s="44"/>
-      <c r="AI210" s="44"/>
-      <c r="AJ210" s="44"/>
-      <c r="AK210" s="44"/>
-      <c r="AL210" s="44"/>
-      <c r="AM210" s="44"/>
-      <c r="AN210" s="43" t="n">
+      <c r="AH210" s="45"/>
+      <c r="AI210" s="45"/>
+      <c r="AJ210" s="45"/>
+      <c r="AK210" s="45"/>
+      <c r="AL210" s="45"/>
+      <c r="AM210" s="45"/>
+      <c r="AN210" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO210" s="13" t="n">
         <v>209</v>
       </c>
-      <c r="AP210" s="43"/>
+      <c r="AP210" s="44"/>
       <c r="AQ210" s="11" t="s">
         <v>521</v>
       </c>
       <c r="AR210" s="11"/>
     </row>
-    <row r="211" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="13" t="n">
         <v>210</v>
       </c>
@@ -22335,14 +22332,14 @@
       <c r="G211" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="H211" s="40" t="s">
+      <c r="H211" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="I211" s="47" t="s">
+      <c r="I211" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J211" s="47"/>
-      <c r="K211" s="48"/>
+      <c r="J211" s="48"/>
+      <c r="K211" s="49"/>
       <c r="L211" s="15"/>
       <c r="M211" s="15"/>
       <c r="N211" s="15" t="s">
@@ -22351,9 +22348,9 @@
       <c r="O211" s="19" t="n">
         <v>5449000032805</v>
       </c>
-      <c r="P211" s="38"/>
-      <c r="Q211" s="38"/>
-      <c r="R211" s="38"/>
+      <c r="P211" s="39"/>
+      <c r="Q211" s="39"/>
+      <c r="R211" s="39"/>
       <c r="S211" s="11" t="s">
         <v>56</v>
       </c>
@@ -22362,7 +22359,7 @@
       </c>
       <c r="U211" s="11"/>
       <c r="V211" s="11"/>
-      <c r="W211" s="39"/>
+      <c r="W211" s="40"/>
       <c r="X211" s="11"/>
       <c r="Y211" s="11" t="s">
         <v>523</v>
@@ -22401,7 +22398,7 @@
       </c>
       <c r="AR211" s="11"/>
     </row>
-    <row r="212" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="13" t="n">
         <v>211</v>
       </c>
@@ -22434,24 +22431,24 @@
       <c r="L212" s="15"/>
       <c r="M212" s="15"/>
       <c r="N212" s="11"/>
-      <c r="O212" s="38"/>
-      <c r="P212" s="38"/>
-      <c r="Q212" s="38"/>
-      <c r="R212" s="38"/>
+      <c r="O212" s="39"/>
+      <c r="P212" s="39"/>
+      <c r="Q212" s="39"/>
+      <c r="R212" s="39"/>
       <c r="S212" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T212" s="11"/>
       <c r="U212" s="11"/>
       <c r="V212" s="11"/>
-      <c r="W212" s="39"/>
+      <c r="W212" s="40"/>
       <c r="X212" s="11"/>
       <c r="Y212" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z212" s="11"/>
       <c r="AA212" s="11"/>
-      <c r="AB212" s="40" t="n">
+      <c r="AB212" s="41" t="n">
         <v>103</v>
       </c>
       <c r="AC212" s="11"/>
@@ -22477,13 +22474,13 @@
       <c r="AO212" s="13" t="n">
         <v>211</v>
       </c>
-      <c r="AP212" s="41" t="s">
+      <c r="AP212" s="42" t="s">
         <v>536</v>
       </c>
       <c r="AQ212" s="11"/>
       <c r="AR212" s="11"/>
     </row>
-    <row r="213" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="13" t="n">
         <v>212</v>
       </c>
@@ -22518,14 +22515,14 @@
       <c r="N213" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O213" s="38" t="s">
+      <c r="O213" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="P213" s="38" t="s">
+      <c r="P213" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="Q213" s="38"/>
-      <c r="R213" s="38"/>
+      <c r="Q213" s="39"/>
+      <c r="R213" s="39"/>
       <c r="S213" s="11" t="s">
         <v>56</v>
       </c>
@@ -22534,14 +22531,14 @@
       </c>
       <c r="U213" s="11"/>
       <c r="V213" s="11"/>
-      <c r="W213" s="39"/>
+      <c r="W213" s="40"/>
       <c r="X213" s="11"/>
       <c r="Y213" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z213" s="11"/>
       <c r="AA213" s="11"/>
-      <c r="AB213" s="40" t="n">
+      <c r="AB213" s="41" t="n">
         <v>103</v>
       </c>
       <c r="AC213" s="11"/>
@@ -22573,7 +22570,7 @@
       </c>
       <c r="AR213" s="11"/>
     </row>
-    <row r="214" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="13" t="n">
         <v>213</v>
       </c>
@@ -22583,83 +22580,83 @@
       <c r="C214" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D214" s="42" t="s">
+      <c r="D214" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E214" s="42" t="s">
+      <c r="E214" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F214" s="42"/>
-      <c r="G214" s="43" t="s">
+      <c r="F214" s="43"/>
+      <c r="G214" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="H214" s="43" t="s">
+      <c r="H214" s="44" t="s">
         <v>540</v>
       </c>
-      <c r="I214" s="44" t="s">
+      <c r="I214" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J214" s="44"/>
-      <c r="K214" s="44" t="n">
+      <c r="J214" s="45"/>
+      <c r="K214" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L214" s="44"/>
-      <c r="M214" s="44"/>
-      <c r="N214" s="43"/>
-      <c r="O214" s="45"/>
-      <c r="P214" s="45"/>
-      <c r="Q214" s="45"/>
-      <c r="R214" s="45"/>
-      <c r="S214" s="43" t="s">
+      <c r="L214" s="45"/>
+      <c r="M214" s="45"/>
+      <c r="N214" s="44"/>
+      <c r="O214" s="46"/>
+      <c r="P214" s="46"/>
+      <c r="Q214" s="46"/>
+      <c r="R214" s="46"/>
+      <c r="S214" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T214" s="43" t="s">
+      <c r="T214" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U214" s="43"/>
-      <c r="V214" s="43"/>
-      <c r="W214" s="44" t="s">
+      <c r="U214" s="44"/>
+      <c r="V214" s="44"/>
+      <c r="W214" s="45" t="s">
         <v>541</v>
       </c>
-      <c r="X214" s="43"/>
-      <c r="Y214" s="43" t="s">
+      <c r="X214" s="44"/>
+      <c r="Y214" s="44" t="s">
         <v>422</v>
       </c>
-      <c r="Z214" s="43"/>
-      <c r="AA214" s="43"/>
-      <c r="AB214" s="40" t="n">
+      <c r="Z214" s="44"/>
+      <c r="AA214" s="44"/>
+      <c r="AB214" s="41" t="n">
         <v>103</v>
       </c>
-      <c r="AC214" s="43"/>
-      <c r="AD214" s="43"/>
-      <c r="AE214" s="43" t="s">
+      <c r="AC214" s="44"/>
+      <c r="AD214" s="44"/>
+      <c r="AE214" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF214" s="44" t="s">
+      <c r="AF214" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG214" s="46" t="n">
+      <c r="AG214" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH214" s="44"/>
-      <c r="AI214" s="44"/>
-      <c r="AJ214" s="44"/>
-      <c r="AK214" s="44"/>
-      <c r="AL214" s="44"/>
-      <c r="AM214" s="44"/>
-      <c r="AN214" s="43" t="n">
+      <c r="AH214" s="45"/>
+      <c r="AI214" s="45"/>
+      <c r="AJ214" s="45"/>
+      <c r="AK214" s="45"/>
+      <c r="AL214" s="45"/>
+      <c r="AM214" s="45"/>
+      <c r="AN214" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO214" s="13" t="n">
         <v>213</v>
       </c>
-      <c r="AP214" s="43"/>
+      <c r="AP214" s="44"/>
       <c r="AQ214" s="11" t="s">
         <v>534</v>
       </c>
       <c r="AR214" s="11"/>
     </row>
-    <row r="215" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="13" t="n">
         <v>214</v>
       </c>
@@ -22669,24 +22666,24 @@
       <c r="C215" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D215" s="53" t="s">
+      <c r="D215" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E215" s="53" t="s">
+      <c r="E215" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="F215" s="53"/>
+      <c r="F215" s="54"/>
       <c r="G215" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="H215" s="40" t="s">
+      <c r="H215" s="41" t="s">
         <v>543</v>
       </c>
-      <c r="I215" s="47" t="s">
+      <c r="I215" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J215" s="47"/>
-      <c r="K215" s="48"/>
+      <c r="J215" s="48"/>
+      <c r="K215" s="49"/>
       <c r="L215" s="15"/>
       <c r="M215" s="15"/>
       <c r="N215" s="15" t="s">
@@ -22708,14 +22705,14 @@
       </c>
       <c r="U215" s="11"/>
       <c r="V215" s="11"/>
-      <c r="W215" s="39"/>
+      <c r="W215" s="40"/>
       <c r="X215" s="11"/>
       <c r="Y215" s="11" t="s">
         <v>422</v>
       </c>
       <c r="Z215" s="11"/>
       <c r="AA215" s="11"/>
-      <c r="AB215" s="40" t="n">
+      <c r="AB215" s="41" t="n">
         <v>103</v>
       </c>
       <c r="AC215" s="11"/>
@@ -22749,7 +22746,7 @@
       </c>
       <c r="AR215" s="11"/>
     </row>
-    <row r="216" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="13" t="n">
         <v>215</v>
       </c>
@@ -22782,17 +22779,17 @@
       <c r="L216" s="15"/>
       <c r="M216" s="15"/>
       <c r="N216" s="11"/>
-      <c r="O216" s="38"/>
-      <c r="P216" s="38"/>
-      <c r="Q216" s="38"/>
-      <c r="R216" s="38"/>
+      <c r="O216" s="39"/>
+      <c r="P216" s="39"/>
+      <c r="Q216" s="39"/>
+      <c r="R216" s="39"/>
       <c r="S216" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T216" s="11"/>
       <c r="U216" s="11"/>
       <c r="V216" s="11"/>
-      <c r="W216" s="39"/>
+      <c r="W216" s="40"/>
       <c r="X216" s="11"/>
       <c r="Y216" s="11" t="s">
         <v>547</v>
@@ -22823,13 +22820,13 @@
       <c r="AO216" s="13" t="n">
         <v>215</v>
       </c>
-      <c r="AP216" s="41" t="s">
+      <c r="AP216" s="42" t="s">
         <v>548</v>
       </c>
       <c r="AQ216" s="11"/>
       <c r="AR216" s="11"/>
     </row>
-    <row r="217" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="13" t="n">
         <v>216</v>
       </c>
@@ -22864,14 +22861,14 @@
       <c r="N217" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O217" s="38" t="s">
+      <c r="O217" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="P217" s="38" t="s">
+      <c r="P217" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="Q217" s="38"/>
-      <c r="R217" s="38"/>
+      <c r="Q217" s="39"/>
+      <c r="R217" s="39"/>
       <c r="S217" s="11" t="s">
         <v>56</v>
       </c>
@@ -22880,7 +22877,7 @@
       </c>
       <c r="U217" s="11"/>
       <c r="V217" s="11"/>
-      <c r="W217" s="39"/>
+      <c r="W217" s="40"/>
       <c r="X217" s="11"/>
       <c r="Y217" s="11" t="s">
         <v>547</v>
@@ -22917,7 +22914,7 @@
       </c>
       <c r="AR217" s="11"/>
     </row>
-    <row r="218" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="13" t="n">
         <v>217</v>
       </c>
@@ -22927,81 +22924,81 @@
       <c r="C218" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D218" s="42" t="s">
+      <c r="D218" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E218" s="42" t="s">
+      <c r="E218" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F218" s="42"/>
-      <c r="G218" s="43" t="s">
+      <c r="F218" s="43"/>
+      <c r="G218" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="H218" s="43" t="s">
+      <c r="H218" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="I218" s="44" t="s">
+      <c r="I218" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J218" s="44"/>
-      <c r="K218" s="44" t="n">
+      <c r="J218" s="45"/>
+      <c r="K218" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L218" s="44"/>
-      <c r="M218" s="44"/>
-      <c r="N218" s="43"/>
-      <c r="O218" s="45"/>
-      <c r="P218" s="45"/>
-      <c r="Q218" s="45"/>
-      <c r="R218" s="45"/>
-      <c r="S218" s="43" t="s">
+      <c r="L218" s="45"/>
+      <c r="M218" s="45"/>
+      <c r="N218" s="44"/>
+      <c r="O218" s="46"/>
+      <c r="P218" s="46"/>
+      <c r="Q218" s="46"/>
+      <c r="R218" s="46"/>
+      <c r="S218" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T218" s="43" t="s">
+      <c r="T218" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U218" s="43"/>
-      <c r="V218" s="43"/>
-      <c r="W218" s="44" t="s">
+      <c r="U218" s="44"/>
+      <c r="V218" s="44"/>
+      <c r="W218" s="45" t="s">
         <v>554</v>
       </c>
-      <c r="X218" s="43"/>
-      <c r="Y218" s="43" t="s">
+      <c r="X218" s="44"/>
+      <c r="Y218" s="44" t="s">
         <v>547</v>
       </c>
-      <c r="Z218" s="43"/>
-      <c r="AA218" s="43"/>
-      <c r="AB218" s="44"/>
-      <c r="AC218" s="43"/>
-      <c r="AD218" s="43"/>
-      <c r="AE218" s="43" t="s">
+      <c r="Z218" s="44"/>
+      <c r="AA218" s="44"/>
+      <c r="AB218" s="45"/>
+      <c r="AC218" s="44"/>
+      <c r="AD218" s="44"/>
+      <c r="AE218" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF218" s="44" t="s">
+      <c r="AF218" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG218" s="46" t="n">
+      <c r="AG218" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH218" s="44"/>
-      <c r="AI218" s="44"/>
-      <c r="AJ218" s="44"/>
-      <c r="AK218" s="44"/>
-      <c r="AL218" s="44"/>
-      <c r="AM218" s="44"/>
-      <c r="AN218" s="43" t="n">
+      <c r="AH218" s="45"/>
+      <c r="AI218" s="45"/>
+      <c r="AJ218" s="45"/>
+      <c r="AK218" s="45"/>
+      <c r="AL218" s="45"/>
+      <c r="AM218" s="45"/>
+      <c r="AN218" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO218" s="13" t="n">
         <v>217</v>
       </c>
-      <c r="AP218" s="43"/>
+      <c r="AP218" s="44"/>
       <c r="AQ218" s="11" t="s">
         <v>545</v>
       </c>
       <c r="AR218" s="11"/>
     </row>
-    <row r="219" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="13" t="n">
         <v>218</v>
       </c>
@@ -23011,17 +23008,17 @@
       <c r="C219" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D219" s="53" t="s">
+      <c r="D219" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E219" s="53" t="s">
+      <c r="E219" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="F219" s="53"/>
+      <c r="F219" s="54"/>
       <c r="G219" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="H219" s="40" t="s">
+      <c r="H219" s="41" t="s">
         <v>556</v>
       </c>
       <c r="I219" s="15" t="s">
@@ -23034,17 +23031,17 @@
       <c r="L219" s="15"/>
       <c r="M219" s="15"/>
       <c r="N219" s="11"/>
-      <c r="O219" s="38"/>
-      <c r="P219" s="38"/>
-      <c r="Q219" s="38"/>
-      <c r="R219" s="38"/>
+      <c r="O219" s="39"/>
+      <c r="P219" s="39"/>
+      <c r="Q219" s="39"/>
+      <c r="R219" s="39"/>
       <c r="S219" s="11" t="s">
         <v>56</v>
       </c>
       <c r="T219" s="11"/>
       <c r="U219" s="11"/>
       <c r="V219" s="11"/>
-      <c r="W219" s="39"/>
+      <c r="W219" s="40"/>
       <c r="X219" s="11"/>
       <c r="Y219" s="11" t="s">
         <v>547</v>
@@ -23075,7 +23072,7 @@
       <c r="AO219" s="13" t="n">
         <v>218</v>
       </c>
-      <c r="AP219" s="41" t="s">
+      <c r="AP219" s="42" t="s">
         <v>557</v>
       </c>
       <c r="AQ219" s="11" t="s">
@@ -23083,7 +23080,7 @@
       </c>
       <c r="AR219" s="11"/>
     </row>
-    <row r="220" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="13" t="n">
         <v>219</v>
       </c>
@@ -23093,7 +23090,7 @@
       <c r="C220" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D220" s="53" t="s">
+      <c r="D220" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E220" s="14" t="s">
@@ -23103,14 +23100,14 @@
       <c r="G220" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="H220" s="40" t="s">
+      <c r="H220" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="I220" s="47" t="s">
+      <c r="I220" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J220" s="47"/>
-      <c r="K220" s="48"/>
+      <c r="J220" s="48"/>
+      <c r="K220" s="49"/>
       <c r="L220" s="15"/>
       <c r="M220" s="15"/>
       <c r="N220" s="15" t="s">
@@ -23130,7 +23127,7 @@
       </c>
       <c r="U220" s="11"/>
       <c r="V220" s="11"/>
-      <c r="W220" s="39"/>
+      <c r="W220" s="40"/>
       <c r="X220" s="11"/>
       <c r="Y220" s="11" t="s">
         <v>547</v>
@@ -23169,7 +23166,7 @@
       </c>
       <c r="AR220" s="11"/>
     </row>
-    <row r="221" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="13" t="n">
         <v>220</v>
       </c>
@@ -23179,7 +23176,7 @@
       <c r="C221" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D221" s="53" t="s">
+      <c r="D221" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E221" s="14" t="s">
@@ -23189,14 +23186,14 @@
       <c r="G221" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="H221" s="40" t="s">
+      <c r="H221" s="41" t="s">
         <v>562</v>
       </c>
-      <c r="I221" s="47" t="s">
+      <c r="I221" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J221" s="47"/>
-      <c r="K221" s="48"/>
+      <c r="J221" s="48"/>
+      <c r="K221" s="49"/>
       <c r="L221" s="15"/>
       <c r="M221" s="15"/>
       <c r="N221" s="15" t="s">
@@ -23216,7 +23213,7 @@
       </c>
       <c r="U221" s="11"/>
       <c r="V221" s="11"/>
-      <c r="W221" s="39"/>
+      <c r="W221" s="40"/>
       <c r="X221" s="11"/>
       <c r="Y221" s="11" t="s">
         <v>547</v>
@@ -23255,7 +23252,7 @@
       </c>
       <c r="AR221" s="11"/>
     </row>
-    <row r="222" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="13" t="n">
         <v>221</v>
       </c>
@@ -23288,17 +23285,17 @@
       <c r="L222" s="15"/>
       <c r="M222" s="15"/>
       <c r="N222" s="11"/>
-      <c r="O222" s="38"/>
-      <c r="P222" s="38"/>
-      <c r="Q222" s="38"/>
-      <c r="R222" s="38"/>
+      <c r="O222" s="39"/>
+      <c r="P222" s="39"/>
+      <c r="Q222" s="39"/>
+      <c r="R222" s="39"/>
       <c r="S222" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T222" s="11"/>
       <c r="U222" s="11"/>
       <c r="V222" s="11"/>
-      <c r="W222" s="39"/>
+      <c r="W222" s="40"/>
       <c r="X222" s="11"/>
       <c r="Y222" s="11" t="s">
         <v>453</v>
@@ -23331,13 +23328,13 @@
       <c r="AO222" s="13" t="n">
         <v>221</v>
       </c>
-      <c r="AP222" s="41" t="s">
+      <c r="AP222" s="42" t="s">
         <v>566</v>
       </c>
       <c r="AQ222" s="11"/>
       <c r="AR222" s="11"/>
     </row>
-    <row r="223" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="13" t="n">
         <v>222</v>
       </c>
@@ -23372,14 +23369,14 @@
       <c r="N223" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O223" s="38" t="s">
+      <c r="O223" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="P223" s="38" t="s">
+      <c r="P223" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="Q223" s="38"/>
-      <c r="R223" s="38"/>
+      <c r="Q223" s="39"/>
+      <c r="R223" s="39"/>
       <c r="S223" s="11" t="s">
         <v>56</v>
       </c>
@@ -23388,7 +23385,7 @@
       </c>
       <c r="U223" s="11"/>
       <c r="V223" s="11"/>
-      <c r="W223" s="39"/>
+      <c r="W223" s="40"/>
       <c r="X223" s="11"/>
       <c r="Y223" s="11" t="s">
         <v>453</v>
@@ -23427,7 +23424,7 @@
       </c>
       <c r="AR223" s="11"/>
     </row>
-    <row r="224" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="13" t="n">
         <v>223</v>
       </c>
@@ -23437,83 +23434,83 @@
       <c r="C224" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D224" s="42" t="s">
+      <c r="D224" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E224" s="42" t="s">
+      <c r="E224" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F224" s="42"/>
-      <c r="G224" s="43" t="s">
+      <c r="F224" s="43"/>
+      <c r="G224" s="44" t="s">
         <v>569</v>
       </c>
-      <c r="H224" s="43" t="s">
+      <c r="H224" s="44" t="s">
         <v>570</v>
       </c>
-      <c r="I224" s="44" t="s">
+      <c r="I224" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J224" s="44"/>
-      <c r="K224" s="44" t="n">
+      <c r="J224" s="45"/>
+      <c r="K224" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L224" s="44"/>
-      <c r="M224" s="44"/>
-      <c r="N224" s="43"/>
-      <c r="O224" s="45"/>
-      <c r="P224" s="45"/>
-      <c r="Q224" s="45"/>
-      <c r="R224" s="45"/>
-      <c r="S224" s="43" t="s">
+      <c r="L224" s="45"/>
+      <c r="M224" s="45"/>
+      <c r="N224" s="44"/>
+      <c r="O224" s="46"/>
+      <c r="P224" s="46"/>
+      <c r="Q224" s="46"/>
+      <c r="R224" s="46"/>
+      <c r="S224" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T224" s="43" t="s">
+      <c r="T224" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U224" s="43"/>
-      <c r="V224" s="43"/>
-      <c r="W224" s="44" t="s">
+      <c r="U224" s="44"/>
+      <c r="V224" s="44"/>
+      <c r="W224" s="45" t="s">
         <v>571</v>
       </c>
-      <c r="X224" s="43"/>
-      <c r="Y224" s="43" t="s">
+      <c r="X224" s="44"/>
+      <c r="Y224" s="44" t="s">
         <v>453</v>
       </c>
-      <c r="Z224" s="43"/>
-      <c r="AA224" s="43"/>
-      <c r="AB224" s="44" t="n">
+      <c r="Z224" s="44"/>
+      <c r="AA224" s="44"/>
+      <c r="AB224" s="45" t="n">
         <v>1102</v>
       </c>
-      <c r="AC224" s="43"/>
-      <c r="AD224" s="43"/>
-      <c r="AE224" s="43" t="s">
+      <c r="AC224" s="44"/>
+      <c r="AD224" s="44"/>
+      <c r="AE224" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF224" s="44" t="s">
+      <c r="AF224" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG224" s="46" t="n">
+      <c r="AG224" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH224" s="44"/>
-      <c r="AI224" s="44"/>
-      <c r="AJ224" s="44"/>
-      <c r="AK224" s="44"/>
-      <c r="AL224" s="44"/>
-      <c r="AM224" s="44"/>
-      <c r="AN224" s="43" t="n">
+      <c r="AH224" s="45"/>
+      <c r="AI224" s="45"/>
+      <c r="AJ224" s="45"/>
+      <c r="AK224" s="45"/>
+      <c r="AL224" s="45"/>
+      <c r="AM224" s="45"/>
+      <c r="AN224" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO224" s="13" t="n">
         <v>223</v>
       </c>
-      <c r="AP224" s="43"/>
+      <c r="AP224" s="44"/>
       <c r="AQ224" s="11" t="s">
         <v>564</v>
       </c>
       <c r="AR224" s="11"/>
     </row>
-    <row r="225" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="13" t="n">
         <v>224</v>
       </c>
@@ -23523,30 +23520,30 @@
       <c r="C225" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D225" s="53" t="s">
+      <c r="D225" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E225" s="53" t="s">
+      <c r="E225" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="F225" s="53"/>
+      <c r="F225" s="54"/>
       <c r="G225" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="H225" s="40" t="s">
+      <c r="H225" s="41" t="s">
         <v>573</v>
       </c>
-      <c r="I225" s="47" t="s">
+      <c r="I225" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J225" s="47"/>
-      <c r="K225" s="48"/>
+      <c r="J225" s="48"/>
+      <c r="K225" s="49"/>
       <c r="L225" s="15"/>
       <c r="M225" s="15"/>
       <c r="N225" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="O225" s="54" t="n">
+      <c r="O225" s="55" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P225" s="20"/>
@@ -23560,7 +23557,7 @@
       </c>
       <c r="U225" s="11"/>
       <c r="V225" s="11"/>
-      <c r="W225" s="39"/>
+      <c r="W225" s="40"/>
       <c r="X225" s="11"/>
       <c r="Y225" s="11" t="s">
         <v>453</v>
@@ -23601,7 +23598,7 @@
       </c>
       <c r="AR225" s="11"/>
     </row>
-    <row r="226" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="13" t="n">
         <v>225</v>
       </c>
@@ -23634,17 +23631,17 @@
       <c r="L226" s="15"/>
       <c r="M226" s="15"/>
       <c r="N226" s="11"/>
-      <c r="O226" s="38"/>
-      <c r="P226" s="38"/>
-      <c r="Q226" s="38"/>
-      <c r="R226" s="38"/>
+      <c r="O226" s="39"/>
+      <c r="P226" s="39"/>
+      <c r="Q226" s="39"/>
+      <c r="R226" s="39"/>
       <c r="S226" s="11" t="s">
         <v>421</v>
       </c>
       <c r="T226" s="11"/>
       <c r="U226" s="11"/>
       <c r="V226" s="11"/>
-      <c r="W226" s="39"/>
+      <c r="W226" s="40"/>
       <c r="X226" s="11"/>
       <c r="Y226" s="15" t="s">
         <v>576</v>
@@ -23677,13 +23674,13 @@
       <c r="AO226" s="13" t="n">
         <v>225</v>
       </c>
-      <c r="AP226" s="41" t="s">
+      <c r="AP226" s="42" t="s">
         <v>578</v>
       </c>
       <c r="AQ226" s="11"/>
       <c r="AR226" s="11"/>
     </row>
-    <row r="227" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="13" t="n">
         <v>226</v>
       </c>
@@ -23718,14 +23715,14 @@
       <c r="N227" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="O227" s="38" t="s">
+      <c r="O227" s="39" t="s">
         <v>582</v>
       </c>
-      <c r="P227" s="55"/>
-      <c r="Q227" s="55" t="s">
+      <c r="P227" s="56"/>
+      <c r="Q227" s="56" t="s">
         <v>582</v>
       </c>
-      <c r="R227" s="38"/>
+      <c r="R227" s="39"/>
       <c r="S227" s="11" t="s">
         <v>56</v>
       </c>
@@ -23734,7 +23731,7 @@
       </c>
       <c r="U227" s="11"/>
       <c r="V227" s="11"/>
-      <c r="W227" s="39"/>
+      <c r="W227" s="40"/>
       <c r="X227" s="11"/>
       <c r="Y227" s="15" t="s">
         <v>576</v>
@@ -23773,7 +23770,7 @@
       </c>
       <c r="AR227" s="11"/>
     </row>
-    <row r="228" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="13" t="n">
         <v>227</v>
       </c>
@@ -23783,83 +23780,83 @@
       <c r="C228" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D228" s="42" t="s">
+      <c r="D228" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E228" s="42" t="s">
+      <c r="E228" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="F228" s="42"/>
-      <c r="G228" s="43" t="s">
+      <c r="F228" s="43"/>
+      <c r="G228" s="44" t="s">
         <v>584</v>
       </c>
-      <c r="H228" s="43" t="s">
+      <c r="H228" s="44" t="s">
         <v>585</v>
       </c>
-      <c r="I228" s="44" t="s">
+      <c r="I228" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="J228" s="44"/>
-      <c r="K228" s="44" t="n">
+      <c r="J228" s="45"/>
+      <c r="K228" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="L228" s="44"/>
-      <c r="M228" s="44"/>
-      <c r="N228" s="43"/>
-      <c r="O228" s="45"/>
-      <c r="P228" s="45"/>
-      <c r="Q228" s="45"/>
-      <c r="R228" s="45"/>
-      <c r="S228" s="43" t="s">
+      <c r="L228" s="45"/>
+      <c r="M228" s="45"/>
+      <c r="N228" s="44"/>
+      <c r="O228" s="46"/>
+      <c r="P228" s="46"/>
+      <c r="Q228" s="46"/>
+      <c r="R228" s="46"/>
+      <c r="S228" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="T228" s="43" t="s">
+      <c r="T228" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="U228" s="43"/>
-      <c r="V228" s="43"/>
-      <c r="W228" s="44" t="s">
+      <c r="U228" s="44"/>
+      <c r="V228" s="44"/>
+      <c r="W228" s="45" t="s">
         <v>586</v>
       </c>
-      <c r="X228" s="43"/>
-      <c r="Y228" s="44" t="s">
+      <c r="X228" s="44"/>
+      <c r="Y228" s="45" t="s">
         <v>576</v>
       </c>
-      <c r="Z228" s="43" t="s">
+      <c r="Z228" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="AA228" s="43"/>
-      <c r="AB228" s="44"/>
-      <c r="AC228" s="43"/>
-      <c r="AD228" s="43"/>
-      <c r="AE228" s="43" t="s">
+      <c r="AA228" s="44"/>
+      <c r="AB228" s="45"/>
+      <c r="AC228" s="44"/>
+      <c r="AD228" s="44"/>
+      <c r="AE228" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AF228" s="44" t="s">
+      <c r="AF228" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AG228" s="46" t="n">
+      <c r="AG228" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="AH228" s="44"/>
-      <c r="AI228" s="44"/>
-      <c r="AJ228" s="44"/>
-      <c r="AK228" s="44"/>
-      <c r="AL228" s="44"/>
-      <c r="AM228" s="44"/>
-      <c r="AN228" s="43" t="n">
+      <c r="AH228" s="45"/>
+      <c r="AI228" s="45"/>
+      <c r="AJ228" s="45"/>
+      <c r="AK228" s="45"/>
+      <c r="AL228" s="45"/>
+      <c r="AM228" s="45"/>
+      <c r="AN228" s="44" t="n">
         <v>3</v>
       </c>
       <c r="AO228" s="13" t="n">
         <v>227</v>
       </c>
-      <c r="AP228" s="56"/>
+      <c r="AP228" s="57"/>
       <c r="AQ228" s="11" t="s">
         <v>574</v>
       </c>
       <c r="AR228" s="11"/>
     </row>
-    <row r="229" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="58.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="13" t="n">
         <v>228</v>
       </c>
@@ -23869,13 +23866,13 @@
       <c r="C229" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D229" s="53" t="s">
+      <c r="D229" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="E229" s="53" t="s">
+      <c r="E229" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="F229" s="53"/>
+      <c r="F229" s="54"/>
       <c r="G229" s="15" t="s">
         <v>587</v>
       </c>
@@ -23892,17 +23889,17 @@
       <c r="L229" s="15"/>
       <c r="M229" s="15"/>
       <c r="N229" s="11"/>
-      <c r="O229" s="38"/>
-      <c r="P229" s="38"/>
-      <c r="Q229" s="38"/>
-      <c r="R229" s="38"/>
+      <c r="O229" s="39"/>
+      <c r="P229" s="39"/>
+      <c r="Q229" s="39"/>
+      <c r="R229" s="39"/>
       <c r="S229" s="11" t="s">
         <v>56</v>
       </c>
       <c r="T229" s="11"/>
       <c r="U229" s="11"/>
       <c r="V229" s="11"/>
-      <c r="W229" s="39"/>
+      <c r="W229" s="40"/>
       <c r="X229" s="11"/>
       <c r="Y229" s="15" t="s">
         <v>576</v>
@@ -23935,7 +23932,7 @@
       <c r="AO229" s="13" t="n">
         <v>228</v>
       </c>
-      <c r="AP229" s="41" t="s">
+      <c r="AP229" s="42" t="s">
         <v>589</v>
       </c>
       <c r="AQ229" s="11" t="s">
@@ -23943,7 +23940,7 @@
       </c>
       <c r="AR229" s="11"/>
     </row>
-    <row r="230" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="13" t="n">
         <v>229</v>
       </c>
@@ -23953,7 +23950,7 @@
       <c r="C230" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D230" s="53" t="s">
+      <c r="D230" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E230" s="14" t="s">
@@ -23963,14 +23960,14 @@
       <c r="G230" s="22" t="s">
         <v>590</v>
       </c>
-      <c r="H230" s="57" t="s">
+      <c r="H230" s="58" t="s">
         <v>591</v>
       </c>
-      <c r="I230" s="47" t="s">
+      <c r="I230" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J230" s="47"/>
-      <c r="K230" s="48"/>
+      <c r="J230" s="48"/>
+      <c r="K230" s="49"/>
       <c r="L230" s="15"/>
       <c r="M230" s="15"/>
       <c r="N230" s="22" t="s">
@@ -23990,7 +23987,7 @@
       </c>
       <c r="U230" s="11"/>
       <c r="V230" s="11"/>
-      <c r="W230" s="39"/>
+      <c r="W230" s="40"/>
       <c r="X230" s="11"/>
       <c r="Y230" s="15" t="s">
         <v>576</v>
@@ -24031,7 +24028,7 @@
       </c>
       <c r="AR230" s="11"/>
     </row>
-    <row r="231" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="13" t="n">
         <v>230</v>
       </c>
@@ -24041,7 +24038,7 @@
       <c r="C231" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D231" s="53" t="s">
+      <c r="D231" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E231" s="14" t="s">
@@ -24051,20 +24048,20 @@
       <c r="G231" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="H231" s="40" t="s">
+      <c r="H231" s="41" t="s">
         <v>594</v>
       </c>
-      <c r="I231" s="47" t="s">
+      <c r="I231" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J231" s="47"/>
-      <c r="K231" s="48"/>
+      <c r="J231" s="48"/>
+      <c r="K231" s="49"/>
       <c r="L231" s="15"/>
       <c r="M231" s="15"/>
       <c r="N231" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="O231" s="58" t="n">
+      <c r="O231" s="59" t="n">
         <v>5449000000996</v>
       </c>
       <c r="P231" s="20"/>
@@ -24078,7 +24075,7 @@
       </c>
       <c r="U231" s="11"/>
       <c r="V231" s="11"/>
-      <c r="W231" s="39"/>
+      <c r="W231" s="40"/>
       <c r="X231" s="11"/>
       <c r="Y231" s="15" t="s">
         <v>576</v>
@@ -24119,7 +24116,7 @@
       </c>
       <c r="AR231" s="11"/>
     </row>
-    <row r="232" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="13" t="n">
         <v>231</v>
       </c>
@@ -24129,7 +24126,7 @@
       <c r="C232" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D232" s="53" t="s">
+      <c r="D232" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E232" s="14" t="s">
@@ -24139,20 +24136,20 @@
       <c r="G232" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="H232" s="40" t="s">
+      <c r="H232" s="41" t="s">
         <v>597</v>
       </c>
-      <c r="I232" s="47" t="s">
+      <c r="I232" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J232" s="47"/>
-      <c r="K232" s="48"/>
+      <c r="J232" s="48"/>
+      <c r="K232" s="49"/>
       <c r="L232" s="15"/>
       <c r="M232" s="15"/>
       <c r="N232" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O232" s="59" t="n">
+      <c r="O232" s="60" t="n">
         <v>5449000044808</v>
       </c>
       <c r="P232" s="20"/>
@@ -24166,7 +24163,7 @@
       </c>
       <c r="U232" s="11"/>
       <c r="V232" s="11"/>
-      <c r="W232" s="39"/>
+      <c r="W232" s="40"/>
       <c r="X232" s="11"/>
       <c r="Y232" s="15" t="s">
         <v>576</v>
@@ -24207,7 +24204,7 @@
       </c>
       <c r="AR232" s="11"/>
     </row>
-    <row r="233" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="13" t="n">
         <v>232</v>
       </c>
@@ -24217,7 +24214,7 @@
       <c r="C233" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D233" s="53" t="s">
+      <c r="D233" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E233" s="14" t="s">
@@ -24227,20 +24224,20 @@
       <c r="G233" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="H233" s="40" t="s">
+      <c r="H233" s="41" t="s">
         <v>600</v>
       </c>
-      <c r="I233" s="47" t="s">
+      <c r="I233" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="J233" s="47"/>
-      <c r="K233" s="48"/>
+      <c r="J233" s="48"/>
+      <c r="K233" s="49"/>
       <c r="L233" s="15"/>
       <c r="M233" s="15"/>
       <c r="N233" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="O233" s="58" t="n">
+      <c r="O233" s="59" t="n">
         <v>4607042439155</v>
       </c>
       <c r="P233" s="20"/>
@@ -24254,7 +24251,7 @@
       </c>
       <c r="U233" s="11"/>
       <c r="V233" s="11"/>
-      <c r="W233" s="39"/>
+      <c r="W233" s="40"/>
       <c r="X233" s="11"/>
       <c r="Y233" s="15" t="s">
         <v>576</v>
@@ -24295,7 +24292,7 @@
       </c>
       <c r="AR233" s="11"/>
     </row>
-    <row r="234" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="13" t="n">
         <v>233</v>
       </c>
@@ -24330,14 +24327,14 @@
       <c r="N234" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O234" s="38" t="s">
+      <c r="O234" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="P234" s="38" t="s">
+      <c r="P234" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="Q234" s="38"/>
-      <c r="R234" s="38"/>
+      <c r="Q234" s="39"/>
+      <c r="R234" s="39"/>
       <c r="S234" s="11"/>
       <c r="T234" s="11" t="s">
         <v>428</v>
@@ -24360,7 +24357,7 @@
       <c r="AF234" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="AG234" s="60" t="n">
+      <c r="AG234" s="61" t="n">
         <v>0.05</v>
       </c>
       <c r="AH234" s="15"/>
@@ -24376,10 +24373,10 @@
         <v>233</v>
       </c>
       <c r="AP234" s="11"/>
-      <c r="AQ234" s="61"/>
+      <c r="AQ234" s="62"/>
       <c r="AR234" s="11"/>
     </row>
-    <row r="235" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="100.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="13" t="n">
         <v>234</v>
       </c>
@@ -24412,10 +24409,10 @@
       <c r="L235" s="15"/>
       <c r="M235" s="15"/>
       <c r="N235" s="11"/>
-      <c r="O235" s="38"/>
-      <c r="P235" s="38"/>
-      <c r="Q235" s="38"/>
-      <c r="R235" s="38"/>
+      <c r="O235" s="39"/>
+      <c r="P235" s="39"/>
+      <c r="Q235" s="39"/>
+      <c r="R235" s="39"/>
       <c r="S235" s="15" t="s">
         <v>421</v>
       </c>
@@ -24440,7 +24437,7 @@
       <c r="AF235" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG235" s="60" t="n">
+      <c r="AG235" s="61" t="n">
         <v>0.01</v>
       </c>
       <c r="AH235" s="15"/>
@@ -24455,15 +24452,15 @@
       <c r="AO235" s="13" t="n">
         <v>234</v>
       </c>
-      <c r="AP235" s="41" t="s">
+      <c r="AP235" s="42" t="s">
         <v>613</v>
       </c>
-      <c r="AQ235" s="62" t="s">
+      <c r="AQ235" s="63" t="s">
         <v>614</v>
       </c>
       <c r="AR235" s="11"/>
     </row>
-    <row r="236" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="13" t="n">
         <v>235</v>
       </c>
@@ -24483,7 +24480,7 @@
       <c r="G236" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="H236" s="40" t="s">
+      <c r="H236" s="41" t="s">
         <v>616</v>
       </c>
       <c r="I236" s="15" t="s">
@@ -24495,7 +24492,7 @@
       </c>
       <c r="L236" s="15"/>
       <c r="M236" s="15"/>
-      <c r="N236" s="63" t="s">
+      <c r="N236" s="64" t="s">
         <v>68</v>
       </c>
       <c r="O236" s="20" t="n">
@@ -24504,10 +24501,10 @@
       <c r="P236" s="20"/>
       <c r="Q236" s="20"/>
       <c r="R236" s="20"/>
-      <c r="S236" s="63" t="s">
+      <c r="S236" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T236" s="63" t="s">
+      <c r="T236" s="64" t="s">
         <v>57</v>
       </c>
       <c r="U236" s="11"/>
@@ -24530,7 +24527,7 @@
       <c r="AF236" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG236" s="60" t="n">
+      <c r="AG236" s="61" t="n">
         <v>0</v>
       </c>
       <c r="AH236" s="15"/>
@@ -24551,7 +24548,7 @@
       </c>
       <c r="AR236" s="11"/>
     </row>
-    <row r="237" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="13" t="n">
         <v>236</v>
       </c>
@@ -24571,7 +24568,7 @@
       <c r="G237" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="H237" s="40" t="s">
+      <c r="H237" s="41" t="s">
         <v>618</v>
       </c>
       <c r="I237" s="15" t="s">
@@ -24583,7 +24580,7 @@
       </c>
       <c r="L237" s="15"/>
       <c r="M237" s="15"/>
-      <c r="N237" s="63" t="s">
+      <c r="N237" s="64" t="s">
         <v>99</v>
       </c>
       <c r="O237" s="20" t="n">
@@ -24592,10 +24589,10 @@
       <c r="P237" s="20"/>
       <c r="Q237" s="20"/>
       <c r="R237" s="20"/>
-      <c r="S237" s="63" t="s">
+      <c r="S237" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T237" s="63" t="s">
+      <c r="T237" s="64" t="s">
         <v>57</v>
       </c>
       <c r="U237" s="11"/>
@@ -24618,7 +24615,7 @@
       <c r="AF237" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG237" s="60" t="n">
+      <c r="AG237" s="61" t="n">
         <v>0</v>
       </c>
       <c r="AH237" s="15"/>
@@ -24639,7 +24636,7 @@
       </c>
       <c r="AR237" s="11"/>
     </row>
-    <row r="238" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="13" t="n">
         <v>237</v>
       </c>
@@ -24659,7 +24656,7 @@
       <c r="G238" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="H238" s="40" t="s">
+      <c r="H238" s="41" t="s">
         <v>620</v>
       </c>
       <c r="I238" s="15" t="s">
@@ -24680,10 +24677,10 @@
       <c r="P238" s="20"/>
       <c r="Q238" s="20"/>
       <c r="R238" s="20"/>
-      <c r="S238" s="63" t="s">
+      <c r="S238" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T238" s="63" t="s">
+      <c r="T238" s="64" t="s">
         <v>57</v>
       </c>
       <c r="U238" s="11"/>
@@ -24706,7 +24703,7 @@
       <c r="AF238" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG238" s="60" t="n">
+      <c r="AG238" s="61" t="n">
         <v>0</v>
       </c>
       <c r="AH238" s="15"/>
@@ -24727,7 +24724,7 @@
       </c>
       <c r="AR238" s="11"/>
     </row>
-    <row r="239" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="13" t="n">
         <v>238</v>
       </c>
@@ -24747,7 +24744,7 @@
       <c r="G239" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="H239" s="40" t="s">
+      <c r="H239" s="41" t="s">
         <v>622</v>
       </c>
       <c r="I239" s="15" t="s">
@@ -24762,16 +24759,16 @@
       <c r="N239" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="O239" s="49" t="n">
+      <c r="O239" s="50" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="P239" s="49"/>
-      <c r="Q239" s="49"/>
-      <c r="R239" s="49"/>
-      <c r="S239" s="63" t="s">
+      <c r="P239" s="50"/>
+      <c r="Q239" s="50"/>
+      <c r="R239" s="50"/>
+      <c r="S239" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T239" s="63" t="s">
+      <c r="T239" s="64" t="s">
         <v>57</v>
       </c>
       <c r="U239" s="11"/>
@@ -24794,7 +24791,7 @@
       <c r="AF239" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG239" s="60" t="n">
+      <c r="AG239" s="61" t="n">
         <v>0</v>
       </c>
       <c r="AH239" s="15"/>
@@ -24815,7 +24812,7 @@
       </c>
       <c r="AR239" s="11"/>
     </row>
-    <row r="240" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="13" t="n">
         <v>239</v>
       </c>
@@ -24835,7 +24832,7 @@
       <c r="G240" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="H240" s="40" t="s">
+      <c r="H240" s="41" t="s">
         <v>624</v>
       </c>
       <c r="I240" s="15" t="s">
@@ -24856,10 +24853,10 @@
       <c r="P240" s="20"/>
       <c r="Q240" s="20"/>
       <c r="R240" s="20"/>
-      <c r="S240" s="63" t="s">
+      <c r="S240" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T240" s="63" t="s">
+      <c r="T240" s="64" t="s">
         <v>57</v>
       </c>
       <c r="U240" s="11"/>
@@ -24882,7 +24879,7 @@
       <c r="AF240" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG240" s="60" t="n">
+      <c r="AG240" s="61" t="n">
         <v>0</v>
       </c>
       <c r="AH240" s="15"/>
@@ -24903,7 +24900,7 @@
       </c>
       <c r="AR240" s="11"/>
     </row>
-    <row r="241" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="13" t="n">
         <v>240</v>
       </c>
@@ -24923,7 +24920,7 @@
       <c r="G241" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="H241" s="40" t="s">
+      <c r="H241" s="41" t="s">
         <v>627</v>
       </c>
       <c r="I241" s="15" t="s">
@@ -24944,10 +24941,10 @@
       <c r="P241" s="20"/>
       <c r="Q241" s="20"/>
       <c r="R241" s="20"/>
-      <c r="S241" s="63" t="s">
+      <c r="S241" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T241" s="63" t="s">
+      <c r="T241" s="64" t="s">
         <v>57</v>
       </c>
       <c r="U241" s="11"/>
@@ -24970,7 +24967,7 @@
       <c r="AF241" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG241" s="60" t="n">
+      <c r="AG241" s="61" t="n">
         <v>0</v>
       </c>
       <c r="AH241" s="15"/>
@@ -24991,7 +24988,7 @@
       </c>
       <c r="AR241" s="11"/>
     </row>
-    <row r="242" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="13" t="n">
         <v>241</v>
       </c>
@@ -25011,7 +25008,7 @@
       <c r="G242" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="H242" s="40" t="s">
+      <c r="H242" s="41" t="s">
         <v>630</v>
       </c>
       <c r="I242" s="15" t="s">
@@ -25032,10 +25029,10 @@
       <c r="P242" s="20"/>
       <c r="Q242" s="20"/>
       <c r="R242" s="20"/>
-      <c r="S242" s="63" t="s">
+      <c r="S242" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T242" s="63" t="s">
+      <c r="T242" s="64" t="s">
         <v>57</v>
       </c>
       <c r="U242" s="11"/>
@@ -25058,7 +25055,7 @@
       <c r="AF242" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AG242" s="60" t="n">
+      <c r="AG242" s="61" t="n">
         <v>0</v>
       </c>
       <c r="AH242" s="15"/>
@@ -25079,7 +25076,7 @@
       </c>
       <c r="AR242" s="11"/>
     </row>
-    <row r="243" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="13" t="n">
         <v>242</v>
       </c>
@@ -25114,14 +25111,14 @@
       <c r="N243" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O243" s="38" t="s">
+      <c r="O243" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="P243" s="38" t="s">
+      <c r="P243" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="Q243" s="38"/>
-      <c r="R243" s="38"/>
+      <c r="Q243" s="39"/>
+      <c r="R243" s="39"/>
       <c r="S243" s="11"/>
       <c r="T243" s="11" t="s">
         <v>428</v>
@@ -25160,10 +25157,10 @@
         <v>242</v>
       </c>
       <c r="AP243" s="11"/>
-      <c r="AQ243" s="61"/>
+      <c r="AQ243" s="62"/>
       <c r="AR243" s="11"/>
     </row>
-    <row r="244" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="13" t="n">
         <v>243</v>
       </c>
@@ -25196,11 +25193,11 @@
       <c r="L244" s="15"/>
       <c r="M244" s="15"/>
       <c r="N244" s="11"/>
-      <c r="O244" s="38"/>
-      <c r="P244" s="38"/>
-      <c r="Q244" s="38"/>
-      <c r="R244" s="38"/>
-      <c r="S244" s="63" t="s">
+      <c r="O244" s="39"/>
+      <c r="P244" s="39"/>
+      <c r="Q244" s="39"/>
+      <c r="R244" s="39"/>
+      <c r="S244" s="64" t="s">
         <v>421</v>
       </c>
       <c r="T244" s="11"/>
@@ -25239,15 +25236,15 @@
       <c r="AO244" s="13" t="n">
         <v>243</v>
       </c>
-      <c r="AP244" s="64" t="s">
+      <c r="AP244" s="65" t="s">
         <v>637</v>
       </c>
-      <c r="AQ244" s="62" t="s">
+      <c r="AQ244" s="63" t="s">
         <v>614</v>
       </c>
       <c r="AR244" s="11"/>
     </row>
-    <row r="245" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="13" t="n">
         <v>244</v>
       </c>
@@ -25267,7 +25264,7 @@
       <c r="G245" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="H245" s="40" t="s">
+      <c r="H245" s="41" t="s">
         <v>639</v>
       </c>
       <c r="I245" s="15" t="s">
@@ -25279,7 +25276,7 @@
       </c>
       <c r="L245" s="15"/>
       <c r="M245" s="15"/>
-      <c r="N245" s="52" t="s">
+      <c r="N245" s="53" t="s">
         <v>640</v>
       </c>
       <c r="O245" s="20" t="n">
@@ -25288,10 +25285,10 @@
       <c r="P245" s="20"/>
       <c r="Q245" s="20"/>
       <c r="R245" s="20"/>
-      <c r="S245" s="63" t="s">
+      <c r="S245" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T245" s="52" t="s">
+      <c r="T245" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U245" s="11"/>
@@ -25335,7 +25332,7 @@
       </c>
       <c r="AR245" s="11"/>
     </row>
-    <row r="246" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="13" t="n">
         <v>245</v>
       </c>
@@ -25370,14 +25367,14 @@
       <c r="N246" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O246" s="38" t="s">
+      <c r="O246" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="P246" s="38" t="s">
+      <c r="P246" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="Q246" s="38"/>
-      <c r="R246" s="38"/>
+      <c r="Q246" s="39"/>
+      <c r="R246" s="39"/>
       <c r="S246" s="11"/>
       <c r="T246" s="11" t="s">
         <v>428</v>
@@ -25416,10 +25413,10 @@
         <v>245</v>
       </c>
       <c r="AP246" s="11"/>
-      <c r="AQ246" s="61"/>
+      <c r="AQ246" s="62"/>
       <c r="AR246" s="11"/>
     </row>
-    <row r="247" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="72.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="13" t="n">
         <v>246</v>
       </c>
@@ -25452,10 +25449,10 @@
       <c r="L247" s="15"/>
       <c r="M247" s="15"/>
       <c r="N247" s="11"/>
-      <c r="O247" s="38"/>
-      <c r="P247" s="38"/>
-      <c r="Q247" s="38"/>
-      <c r="R247" s="38"/>
+      <c r="O247" s="39"/>
+      <c r="P247" s="39"/>
+      <c r="Q247" s="39"/>
+      <c r="R247" s="39"/>
       <c r="S247" s="15" t="s">
         <v>421</v>
       </c>
@@ -25495,15 +25492,15 @@
       <c r="AO247" s="13" t="n">
         <v>246</v>
       </c>
-      <c r="AP247" s="41" t="s">
+      <c r="AP247" s="42" t="s">
         <v>646</v>
       </c>
-      <c r="AQ247" s="62" t="s">
+      <c r="AQ247" s="63" t="s">
         <v>614</v>
       </c>
       <c r="AR247" s="11"/>
     </row>
-    <row r="248" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="13" t="n">
         <v>247</v>
       </c>
@@ -25523,7 +25520,7 @@
       <c r="G248" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="H248" s="40" t="s">
+      <c r="H248" s="41" t="s">
         <v>648</v>
       </c>
       <c r="I248" s="15" t="s">
@@ -25535,19 +25532,19 @@
       </c>
       <c r="L248" s="15"/>
       <c r="M248" s="15"/>
-      <c r="N248" s="52" t="s">
+      <c r="N248" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="O248" s="65" t="n">
+      <c r="O248" s="66" t="n">
         <v>4607042434877</v>
       </c>
       <c r="P248" s="20"/>
       <c r="Q248" s="20"/>
       <c r="R248" s="20"/>
-      <c r="S248" s="52" t="s">
+      <c r="S248" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="T248" s="52" t="s">
+      <c r="T248" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U248" s="11"/>
@@ -25591,7 +25588,7 @@
       </c>
       <c r="AR248" s="11"/>
     </row>
-    <row r="249" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="13" t="n">
         <v>248</v>
       </c>
@@ -25611,7 +25608,7 @@
       <c r="G249" s="15" t="s">
         <v>649</v>
       </c>
-      <c r="H249" s="40" t="s">
+      <c r="H249" s="41" t="s">
         <v>650</v>
       </c>
       <c r="I249" s="15" t="s">
@@ -25623,7 +25620,7 @@
       </c>
       <c r="L249" s="15"/>
       <c r="M249" s="15"/>
-      <c r="N249" s="52" t="s">
+      <c r="N249" s="53" t="s">
         <v>239</v>
       </c>
       <c r="O249" s="20" t="n">
@@ -25632,10 +25629,10 @@
       <c r="P249" s="20"/>
       <c r="Q249" s="20"/>
       <c r="R249" s="20"/>
-      <c r="S249" s="52" t="s">
+      <c r="S249" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="T249" s="52" t="s">
+      <c r="T249" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U249" s="11"/>
@@ -25679,7 +25676,7 @@
       </c>
       <c r="AR249" s="11"/>
     </row>
-    <row r="250" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="13" t="n">
         <v>249</v>
       </c>
@@ -25699,7 +25696,7 @@
       <c r="G250" s="15" t="s">
         <v>651</v>
       </c>
-      <c r="H250" s="40" t="s">
+      <c r="H250" s="41" t="s">
         <v>652</v>
       </c>
       <c r="I250" s="15" t="s">
@@ -25711,7 +25708,7 @@
       </c>
       <c r="L250" s="15"/>
       <c r="M250" s="15"/>
-      <c r="N250" s="52" t="s">
+      <c r="N250" s="53" t="s">
         <v>241</v>
       </c>
       <c r="O250" s="20" t="n">
@@ -25720,10 +25717,10 @@
       <c r="P250" s="20"/>
       <c r="Q250" s="20"/>
       <c r="R250" s="20"/>
-      <c r="S250" s="52" t="s">
+      <c r="S250" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="T250" s="52" t="s">
+      <c r="T250" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U250" s="11"/>
@@ -25767,7 +25764,7 @@
       </c>
       <c r="AR250" s="11"/>
     </row>
-    <row r="251" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="13" t="n">
         <v>250</v>
       </c>
@@ -25787,7 +25784,7 @@
       <c r="G251" s="15" t="s">
         <v>653</v>
       </c>
-      <c r="H251" s="40" t="s">
+      <c r="H251" s="41" t="s">
         <v>654</v>
       </c>
       <c r="I251" s="15" t="s">
@@ -25799,19 +25796,19 @@
       </c>
       <c r="L251" s="15"/>
       <c r="M251" s="15"/>
-      <c r="N251" s="52" t="s">
+      <c r="N251" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="O251" s="54" t="n">
+      <c r="O251" s="55" t="n">
         <v>4607042439155</v>
       </c>
-      <c r="P251" s="66"/>
-      <c r="Q251" s="66"/>
-      <c r="R251" s="66"/>
-      <c r="S251" s="52" t="s">
+      <c r="P251" s="67"/>
+      <c r="Q251" s="67"/>
+      <c r="R251" s="67"/>
+      <c r="S251" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="T251" s="52" t="s">
+      <c r="T251" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U251" s="11"/>
@@ -25855,7 +25852,7 @@
       </c>
       <c r="AR251" s="11"/>
     </row>
-    <row r="252" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="13" t="n">
         <v>251</v>
       </c>
@@ -25875,7 +25872,7 @@
       <c r="G252" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="H252" s="40" t="s">
+      <c r="H252" s="41" t="s">
         <v>656</v>
       </c>
       <c r="I252" s="15" t="s">
@@ -25887,19 +25884,19 @@
       </c>
       <c r="L252" s="15"/>
       <c r="M252" s="15"/>
-      <c r="N252" s="52" t="s">
+      <c r="N252" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="O252" s="67" t="n">
+      <c r="O252" s="68" t="n">
         <v>4607042439216</v>
       </c>
-      <c r="P252" s="66"/>
-      <c r="Q252" s="66"/>
-      <c r="R252" s="66"/>
-      <c r="S252" s="52" t="s">
+      <c r="P252" s="67"/>
+      <c r="Q252" s="67"/>
+      <c r="R252" s="67"/>
+      <c r="S252" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="T252" s="52" t="s">
+      <c r="T252" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U252" s="11"/>
@@ -25943,7 +25940,7 @@
       </c>
       <c r="AR252" s="11"/>
     </row>
-    <row r="253" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="13" t="n">
         <v>252</v>
       </c>
@@ -25978,15 +25975,15 @@
       <c r="N253" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O253" s="49" t="s">
+      <c r="O253" s="50" t="s">
         <v>508</v>
       </c>
-      <c r="P253" s="49" t="s">
+      <c r="P253" s="50" t="s">
         <v>508</v>
       </c>
-      <c r="Q253" s="49"/>
-      <c r="R253" s="49"/>
-      <c r="S253" s="52"/>
+      <c r="Q253" s="50"/>
+      <c r="R253" s="50"/>
+      <c r="S253" s="53"/>
       <c r="T253" s="11" t="s">
         <v>428</v>
       </c>
@@ -26024,10 +26021,10 @@
         <v>252</v>
       </c>
       <c r="AP253" s="11"/>
-      <c r="AQ253" s="61"/>
+      <c r="AQ253" s="62"/>
       <c r="AR253" s="11"/>
     </row>
-    <row r="254" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="29.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="13" t="n">
         <v>253</v>
       </c>
@@ -26060,11 +26057,11 @@
       <c r="L254" s="15"/>
       <c r="M254" s="15"/>
       <c r="N254" s="11"/>
-      <c r="O254" s="49"/>
-      <c r="P254" s="49"/>
-      <c r="Q254" s="49"/>
-      <c r="R254" s="49"/>
-      <c r="S254" s="63" t="s">
+      <c r="O254" s="50"/>
+      <c r="P254" s="50"/>
+      <c r="Q254" s="50"/>
+      <c r="R254" s="50"/>
+      <c r="S254" s="64" t="s">
         <v>421</v>
       </c>
       <c r="T254" s="11"/>
@@ -26103,15 +26100,15 @@
       <c r="AO254" s="13" t="n">
         <v>253</v>
       </c>
-      <c r="AP254" s="41" t="s">
+      <c r="AP254" s="42" t="s">
         <v>662</v>
       </c>
-      <c r="AQ254" s="62" t="s">
+      <c r="AQ254" s="63" t="s">
         <v>614</v>
       </c>
       <c r="AR254" s="11"/>
     </row>
-    <row r="255" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="13" t="n">
         <v>254</v>
       </c>
@@ -26131,7 +26128,7 @@
       <c r="G255" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="H255" s="40" t="s">
+      <c r="H255" s="41" t="s">
         <v>664</v>
       </c>
       <c r="I255" s="15" t="s">
@@ -26146,16 +26143,16 @@
       <c r="N255" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="O255" s="68" t="n">
+      <c r="O255" s="69" t="n">
         <v>5449000189318</v>
       </c>
-      <c r="P255" s="68"/>
-      <c r="Q255" s="68"/>
-      <c r="R255" s="68"/>
-      <c r="S255" s="63" t="s">
+      <c r="P255" s="69"/>
+      <c r="Q255" s="69"/>
+      <c r="R255" s="69"/>
+      <c r="S255" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T255" s="52" t="s">
+      <c r="T255" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U255" s="11"/>
@@ -26199,7 +26196,7 @@
       </c>
       <c r="AR255" s="11"/>
     </row>
-    <row r="256" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="13" t="n">
         <v>255</v>
       </c>
@@ -26219,7 +26216,7 @@
       <c r="G256" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="H256" s="40" t="s">
+      <c r="H256" s="41" t="s">
         <v>666</v>
       </c>
       <c r="I256" s="15" t="s">
@@ -26234,16 +26231,16 @@
       <c r="N256" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="O256" s="68" t="n">
+      <c r="O256" s="69" t="n">
         <v>5449000233509</v>
       </c>
-      <c r="P256" s="68"/>
-      <c r="Q256" s="68"/>
-      <c r="R256" s="68"/>
-      <c r="S256" s="63" t="s">
+      <c r="P256" s="69"/>
+      <c r="Q256" s="69"/>
+      <c r="R256" s="69"/>
+      <c r="S256" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T256" s="52" t="s">
+      <c r="T256" s="53" t="s">
         <v>57</v>
       </c>
       <c r="U256" s="11"/>
@@ -26287,7 +26284,7 @@
       </c>
       <c r="AR256" s="11"/>
     </row>
-    <row r="257" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="13" t="n">
         <v>256</v>
       </c>
@@ -26322,14 +26319,14 @@
       <c r="N257" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O257" s="49" t="s">
+      <c r="O257" s="50" t="s">
         <v>551</v>
       </c>
-      <c r="P257" s="49" t="s">
+      <c r="P257" s="50" t="s">
         <v>551</v>
       </c>
-      <c r="Q257" s="49"/>
-      <c r="R257" s="49"/>
+      <c r="Q257" s="50"/>
+      <c r="R257" s="50"/>
       <c r="S257" s="11"/>
       <c r="T257" s="11" t="s">
         <v>428</v>
@@ -26371,7 +26368,7 @@
       <c r="AQ257" s="11"/>
       <c r="AR257" s="11"/>
     </row>
-    <row r="258" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="58.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="13" t="n">
         <v>257</v>
       </c>
@@ -26381,13 +26378,13 @@
       <c r="C258" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D258" s="69" t="s">
+      <c r="D258" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="E258" s="69" t="s">
+      <c r="E258" s="70" t="s">
         <v>439</v>
       </c>
-      <c r="F258" s="69"/>
+      <c r="F258" s="70"/>
       <c r="G258" s="15" t="s">
         <v>670</v>
       </c>
@@ -26437,13 +26434,13 @@
       <c r="AO258" s="13" t="n">
         <v>257</v>
       </c>
-      <c r="AP258" s="41" t="s">
+      <c r="AP258" s="42" t="s">
         <v>673</v>
       </c>
       <c r="AQ258" s="11"/>
       <c r="AR258" s="11"/>
     </row>
-    <row r="259" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="13" t="n">
         <v>258</v>
       </c>
@@ -26453,17 +26450,17 @@
       <c r="C259" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D259" s="69" t="s">
+      <c r="D259" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="E259" s="69" t="s">
+      <c r="E259" s="70" t="s">
         <v>439</v>
       </c>
-      <c r="F259" s="69"/>
-      <c r="G259" s="69" t="s">
+      <c r="F259" s="70"/>
+      <c r="G259" s="70" t="s">
         <v>674</v>
       </c>
-      <c r="H259" s="70" t="s">
+      <c r="H259" s="71" t="s">
         <v>675</v>
       </c>
       <c r="I259" s="15" t="s">
@@ -26475,7 +26472,7 @@
       </c>
       <c r="L259" s="15"/>
       <c r="M259" s="15"/>
-      <c r="N259" s="69" t="s">
+      <c r="N259" s="70" t="s">
         <v>674</v>
       </c>
       <c r="O259" s="19" t="n">
@@ -26526,12 +26523,12 @@
         <v>258</v>
       </c>
       <c r="AP259" s="11"/>
-      <c r="AQ259" s="71" t="s">
+      <c r="AQ259" s="72" t="s">
         <v>670</v>
       </c>
       <c r="AR259" s="12"/>
     </row>
-    <row r="260" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="13" t="n">
         <v>259</v>
       </c>
@@ -26541,17 +26538,17 @@
       <c r="C260" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D260" s="69" t="s">
+      <c r="D260" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="E260" s="69" t="s">
+      <c r="E260" s="70" t="s">
         <v>439</v>
       </c>
-      <c r="F260" s="69"/>
-      <c r="G260" s="69" t="s">
+      <c r="F260" s="70"/>
+      <c r="G260" s="70" t="s">
         <v>676</v>
       </c>
-      <c r="H260" s="70" t="s">
+      <c r="H260" s="71" t="s">
         <v>677</v>
       </c>
       <c r="I260" s="15" t="s">
@@ -26563,7 +26560,7 @@
       </c>
       <c r="L260" s="15"/>
       <c r="M260" s="15"/>
-      <c r="N260" s="69" t="s">
+      <c r="N260" s="70" t="s">
         <v>676</v>
       </c>
       <c r="O260" s="19" t="n">
@@ -26614,12 +26611,12 @@
         <v>259</v>
       </c>
       <c r="AP260" s="11"/>
-      <c r="AQ260" s="71" t="s">
+      <c r="AQ260" s="72" t="s">
         <v>670</v>
       </c>
       <c r="AR260" s="12"/>
     </row>
-    <row r="261" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="13" t="n">
         <v>260</v>
       </c>
@@ -26629,13 +26626,13 @@
       <c r="C261" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D261" s="69" t="s">
+      <c r="D261" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="E261" s="69" t="s">
+      <c r="E261" s="70" t="s">
         <v>439</v>
       </c>
-      <c r="F261" s="69"/>
+      <c r="F261" s="70"/>
       <c r="G261" s="11" t="s">
         <v>678</v>
       </c>
@@ -26702,12 +26699,12 @@
         <v>260</v>
       </c>
       <c r="AP261" s="11"/>
-      <c r="AQ261" s="71" t="s">
+      <c r="AQ261" s="72" t="s">
         <v>670</v>
       </c>
       <c r="AR261" s="12"/>
     </row>
-    <row r="262" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="13" t="n">
         <v>261</v>
       </c>
@@ -26717,13 +26714,13 @@
       <c r="C262" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D262" s="69" t="s">
+      <c r="D262" s="70" t="s">
         <v>438</v>
       </c>
-      <c r="E262" s="69" t="s">
+      <c r="E262" s="70" t="s">
         <v>439</v>
       </c>
-      <c r="F262" s="69"/>
+      <c r="F262" s="70"/>
       <c r="G262" s="11" t="s">
         <v>680</v>
       </c>
@@ -26790,12 +26787,12 @@
         <v>261</v>
       </c>
       <c r="AP262" s="11"/>
-      <c r="AQ262" s="71" t="s">
+      <c r="AQ262" s="72" t="s">
         <v>670</v>
       </c>
       <c r="AR262" s="12"/>
     </row>
-    <row r="263" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="13" t="n">
         <v>262</v>
       </c>
@@ -26825,10 +26822,10 @@
       <c r="L263" s="15"/>
       <c r="M263" s="15"/>
       <c r="N263" s="11"/>
-      <c r="O263" s="38"/>
-      <c r="P263" s="38"/>
-      <c r="Q263" s="38"/>
-      <c r="R263" s="38"/>
+      <c r="O263" s="39"/>
+      <c r="P263" s="39"/>
+      <c r="Q263" s="39"/>
+      <c r="R263" s="39"/>
       <c r="S263" s="2" t="s">
         <v>685</v>
       </c>
@@ -26866,13 +26863,13 @@
       <c r="AO263" s="13" t="n">
         <v>262</v>
       </c>
-      <c r="AP263" s="41" t="s">
+      <c r="AP263" s="42" t="s">
         <v>687</v>
       </c>
       <c r="AQ263" s="11"/>
       <c r="AR263" s="11"/>
     </row>
-    <row r="264" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="13" t="n">
         <v>263</v>
       </c>
@@ -26895,10 +26892,10 @@
       <c r="H264" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="I264" s="72" t="s">
+      <c r="I264" s="73" t="s">
         <v>690</v>
       </c>
-      <c r="J264" s="72"/>
+      <c r="J264" s="73"/>
       <c r="K264" s="15" t="n">
         <v>0.5</v>
       </c>
@@ -26909,12 +26906,12 @@
       <c r="N264" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O264" s="49" t="s">
+      <c r="O264" s="50" t="s">
         <v>691</v>
       </c>
-      <c r="P264" s="49"/>
-      <c r="Q264" s="49"/>
-      <c r="R264" s="49"/>
+      <c r="P264" s="50"/>
+      <c r="Q264" s="50"/>
+      <c r="R264" s="50"/>
       <c r="S264" s="11"/>
       <c r="T264" s="2" t="s">
         <v>583</v>
@@ -26958,7 +26955,7 @@
       </c>
       <c r="AR264" s="11"/>
     </row>
-    <row r="265" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="13" t="n">
         <v>264</v>
       </c>
@@ -26993,12 +26990,12 @@
       <c r="N265" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O265" s="38" t="s">
+      <c r="O265" s="39" t="s">
         <v>691</v>
       </c>
-      <c r="P265" s="38"/>
-      <c r="Q265" s="38"/>
-      <c r="R265" s="38"/>
+      <c r="P265" s="39"/>
+      <c r="Q265" s="39"/>
+      <c r="R265" s="39"/>
       <c r="S265" s="11"/>
       <c r="T265" s="2" t="s">
         <v>583</v>
@@ -27042,7 +27039,7 @@
       </c>
       <c r="AR265" s="11"/>
     </row>
-    <row r="266" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="13" t="n">
         <v>265</v>
       </c>
@@ -27062,30 +27059,30 @@
       <c r="G266" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="H266" s="63" t="s">
+      <c r="H266" s="64" t="s">
         <v>698</v>
       </c>
-      <c r="I266" s="63" t="s">
+      <c r="I266" s="64" t="s">
         <v>431</v>
       </c>
-      <c r="J266" s="63"/>
-      <c r="K266" s="63" t="n">
+      <c r="J266" s="64"/>
+      <c r="K266" s="64" t="n">
         <v>1</v>
       </c>
       <c r="L266" s="15"/>
       <c r="M266" s="15"/>
       <c r="N266" s="11"/>
-      <c r="O266" s="38"/>
-      <c r="P266" s="38"/>
-      <c r="Q266" s="38"/>
-      <c r="R266" s="38"/>
+      <c r="O266" s="39"/>
+      <c r="P266" s="39"/>
+      <c r="Q266" s="39"/>
+      <c r="R266" s="39"/>
       <c r="S266" s="11"/>
       <c r="T266" s="11" t="s">
         <v>699</v>
       </c>
       <c r="U266" s="11"/>
       <c r="V266" s="11"/>
-      <c r="W266" s="44" t="s">
+      <c r="W266" s="45" t="s">
         <v>700</v>
       </c>
       <c r="X266" s="11"/>
@@ -27108,7 +27105,7 @@
       </c>
       <c r="AH266" s="15"/>
       <c r="AI266" s="15"/>
-      <c r="AJ266" s="73" t="s">
+      <c r="AJ266" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK266" s="15"/>
@@ -27123,12 +27120,12 @@
         <v>265</v>
       </c>
       <c r="AP266" s="11"/>
-      <c r="AQ266" s="74" t="s">
+      <c r="AQ266" s="75" t="s">
         <v>702</v>
       </c>
       <c r="AR266" s="11"/>
     </row>
-    <row r="267" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="13" t="n">
         <v>266</v>
       </c>
@@ -27156,19 +27153,19 @@
       </c>
       <c r="J267" s="12"/>
       <c r="K267" s="15"/>
-      <c r="L267" s="63" t="n">
+      <c r="L267" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="M267" s="63" t="n">
+      <c r="M267" s="64" t="n">
         <v>23</v>
       </c>
       <c r="N267" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O267" s="38"/>
-      <c r="P267" s="38"/>
-      <c r="Q267" s="38"/>
-      <c r="R267" s="38"/>
+      <c r="O267" s="39"/>
+      <c r="P267" s="39"/>
+      <c r="Q267" s="39"/>
+      <c r="R267" s="39"/>
       <c r="S267" s="11"/>
       <c r="T267" s="11"/>
       <c r="U267" s="11"/>
@@ -27194,7 +27191,7 @@
       </c>
       <c r="AH267" s="15"/>
       <c r="AI267" s="15"/>
-      <c r="AJ267" s="73" t="s">
+      <c r="AJ267" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK267" s="15"/>
@@ -27209,12 +27206,12 @@
         <v>266</v>
       </c>
       <c r="AP267" s="11"/>
-      <c r="AQ267" s="74" t="s">
+      <c r="AQ267" s="75" t="s">
         <v>702</v>
       </c>
       <c r="AR267" s="11"/>
     </row>
-    <row r="268" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="228.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="13" t="n">
         <v>267</v>
       </c>
@@ -27237,20 +27234,20 @@
       <c r="H268" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="I268" s="63" t="s">
+      <c r="I268" s="64" t="s">
         <v>611</v>
       </c>
-      <c r="J268" s="63"/>
+      <c r="J268" s="64"/>
       <c r="K268" s="15" t="n">
         <v>16</v>
       </c>
       <c r="L268" s="15"/>
       <c r="M268" s="15"/>
       <c r="N268" s="11"/>
-      <c r="O268" s="66"/>
-      <c r="P268" s="38"/>
-      <c r="Q268" s="38"/>
-      <c r="R268" s="38"/>
+      <c r="O268" s="67"/>
+      <c r="P268" s="39"/>
+      <c r="Q268" s="39"/>
+      <c r="R268" s="39"/>
       <c r="S268" s="15" t="s">
         <v>421</v>
       </c>
@@ -27270,19 +27267,19 @@
       <c r="AE268" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AF268" s="75" t="s">
+      <c r="AF268" s="76" t="s">
         <v>708</v>
       </c>
       <c r="AG268" s="21" t="n">
         <v>0.0225</v>
       </c>
-      <c r="AH268" s="76" t="n">
+      <c r="AH268" s="77" t="n">
         <v>0.8</v>
       </c>
-      <c r="AI268" s="44" t="n">
+      <c r="AI268" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="AJ268" s="73" t="s">
+      <c r="AJ268" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK268" s="15"/>
@@ -27296,15 +27293,15 @@
       <c r="AO268" s="13" t="n">
         <v>267</v>
       </c>
-      <c r="AP268" s="41" t="s">
+      <c r="AP268" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="AQ268" s="74" t="s">
+      <c r="AQ268" s="75" t="s">
         <v>702</v>
       </c>
       <c r="AR268" s="11"/>
     </row>
-    <row r="269" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="13" t="n">
         <v>268</v>
       </c>
@@ -27324,7 +27321,7 @@
       <c r="G269" s="15" t="s">
         <v>710</v>
       </c>
-      <c r="H269" s="40" t="s">
+      <c r="H269" s="41" t="s">
         <v>711</v>
       </c>
       <c r="I269" s="15" t="s">
@@ -27342,9 +27339,9 @@
       <c r="O269" s="20" t="n">
         <v>40822426</v>
       </c>
-      <c r="P269" s="38"/>
-      <c r="Q269" s="38"/>
-      <c r="R269" s="38"/>
+      <c r="P269" s="39"/>
+      <c r="Q269" s="39"/>
+      <c r="R269" s="39"/>
       <c r="S269" s="15" t="s">
         <v>56</v>
       </c>
@@ -27374,7 +27371,7 @@
       </c>
       <c r="AH269" s="15"/>
       <c r="AI269" s="15"/>
-      <c r="AJ269" s="73" t="s">
+      <c r="AJ269" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK269" s="15"/>
@@ -27394,7 +27391,7 @@
       </c>
       <c r="AR269" s="11"/>
     </row>
-    <row r="270" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="13" t="n">
         <v>269</v>
       </c>
@@ -27414,7 +27411,7 @@
       <c r="G270" s="15" t="s">
         <v>712</v>
       </c>
-      <c r="H270" s="40" t="s">
+      <c r="H270" s="41" t="s">
         <v>713</v>
       </c>
       <c r="I270" s="15" t="s">
@@ -27432,9 +27429,9 @@
       <c r="O270" s="20" t="n">
         <v>5449000131768</v>
       </c>
-      <c r="P270" s="38"/>
-      <c r="Q270" s="38"/>
-      <c r="R270" s="38"/>
+      <c r="P270" s="39"/>
+      <c r="Q270" s="39"/>
+      <c r="R270" s="39"/>
       <c r="S270" s="15" t="s">
         <v>56</v>
       </c>
@@ -27464,7 +27461,7 @@
       </c>
       <c r="AH270" s="15"/>
       <c r="AI270" s="15"/>
-      <c r="AJ270" s="73" t="s">
+      <c r="AJ270" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK270" s="15"/>
@@ -27484,7 +27481,7 @@
       </c>
       <c r="AR270" s="11"/>
     </row>
-    <row r="271" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="13" t="n">
         <v>270</v>
       </c>
@@ -27504,7 +27501,7 @@
       <c r="G271" s="15" t="s">
         <v>714</v>
       </c>
-      <c r="H271" s="40" t="s">
+      <c r="H271" s="41" t="s">
         <v>715</v>
       </c>
       <c r="I271" s="15" t="s">
@@ -27522,9 +27519,9 @@
       <c r="O271" s="20" t="n">
         <v>5449000000996</v>
       </c>
-      <c r="P271" s="38"/>
-      <c r="Q271" s="38"/>
-      <c r="R271" s="38"/>
+      <c r="P271" s="39"/>
+      <c r="Q271" s="39"/>
+      <c r="R271" s="39"/>
       <c r="S271" s="15" t="s">
         <v>56</v>
       </c>
@@ -27554,7 +27551,7 @@
       </c>
       <c r="AH271" s="15"/>
       <c r="AI271" s="15"/>
-      <c r="AJ271" s="73" t="s">
+      <c r="AJ271" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK271" s="15"/>
@@ -27574,7 +27571,7 @@
       </c>
       <c r="AR271" s="11"/>
     </row>
-    <row r="272" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="13" t="n">
         <v>271</v>
       </c>
@@ -27594,7 +27591,7 @@
       <c r="G272" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="H272" s="40" t="s">
+      <c r="H272" s="41" t="s">
         <v>717</v>
       </c>
       <c r="I272" s="15" t="s">
@@ -27612,9 +27609,9 @@
       <c r="O272" s="20" t="n">
         <v>54491472</v>
       </c>
-      <c r="P272" s="38"/>
-      <c r="Q272" s="38"/>
-      <c r="R272" s="38"/>
+      <c r="P272" s="39"/>
+      <c r="Q272" s="39"/>
+      <c r="R272" s="39"/>
       <c r="S272" s="15" t="s">
         <v>56</v>
       </c>
@@ -27644,7 +27641,7 @@
       </c>
       <c r="AH272" s="15"/>
       <c r="AI272" s="15"/>
-      <c r="AJ272" s="73" t="s">
+      <c r="AJ272" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK272" s="15"/>
@@ -27664,7 +27661,7 @@
       </c>
       <c r="AR272" s="11"/>
     </row>
-    <row r="273" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="13" t="n">
         <v>272</v>
       </c>
@@ -27684,7 +27681,7 @@
       <c r="G273" s="22" t="s">
         <v>718</v>
       </c>
-      <c r="H273" s="57" t="s">
+      <c r="H273" s="58" t="s">
         <v>719</v>
       </c>
       <c r="I273" s="15" t="s">
@@ -27696,15 +27693,15 @@
       </c>
       <c r="L273" s="15"/>
       <c r="M273" s="15"/>
-      <c r="N273" s="50" t="s">
+      <c r="N273" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="O273" s="77" t="s">
+      <c r="O273" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="P273" s="38"/>
-      <c r="Q273" s="38"/>
-      <c r="R273" s="38"/>
+      <c r="P273" s="39"/>
+      <c r="Q273" s="39"/>
+      <c r="R273" s="39"/>
       <c r="S273" s="15" t="s">
         <v>56</v>
       </c>
@@ -27734,7 +27731,7 @@
       </c>
       <c r="AH273" s="15"/>
       <c r="AI273" s="15"/>
-      <c r="AJ273" s="73" t="s">
+      <c r="AJ273" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK273" s="15"/>
@@ -27754,7 +27751,7 @@
       </c>
       <c r="AR273" s="11"/>
     </row>
-    <row r="274" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="13" t="n">
         <v>273</v>
       </c>
@@ -27774,7 +27771,7 @@
       <c r="G274" s="15" t="s">
         <v>720</v>
       </c>
-      <c r="H274" s="40" t="s">
+      <c r="H274" s="41" t="s">
         <v>721</v>
       </c>
       <c r="I274" s="15" t="s">
@@ -27792,9 +27789,9 @@
       <c r="O274" s="20" t="n">
         <v>5449000131836</v>
       </c>
-      <c r="P274" s="38"/>
-      <c r="Q274" s="38"/>
-      <c r="R274" s="38"/>
+      <c r="P274" s="39"/>
+      <c r="Q274" s="39"/>
+      <c r="R274" s="39"/>
       <c r="S274" s="15" t="s">
         <v>56</v>
       </c>
@@ -27824,7 +27821,7 @@
       </c>
       <c r="AH274" s="15"/>
       <c r="AI274" s="15"/>
-      <c r="AJ274" s="73" t="s">
+      <c r="AJ274" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK274" s="15"/>
@@ -27844,7 +27841,7 @@
       </c>
       <c r="AR274" s="11"/>
     </row>
-    <row r="275" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="13" t="n">
         <v>274</v>
       </c>
@@ -27864,7 +27861,7 @@
       <c r="G275" s="22" t="s">
         <v>722</v>
       </c>
-      <c r="H275" s="57" t="s">
+      <c r="H275" s="58" t="s">
         <v>723</v>
       </c>
       <c r="I275" s="15" t="s">
@@ -27876,15 +27873,15 @@
       </c>
       <c r="L275" s="15"/>
       <c r="M275" s="15"/>
-      <c r="N275" s="50" t="s">
+      <c r="N275" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="O275" s="77" t="s">
+      <c r="O275" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="P275" s="38"/>
-      <c r="Q275" s="38"/>
-      <c r="R275" s="38"/>
+      <c r="P275" s="39"/>
+      <c r="Q275" s="39"/>
+      <c r="R275" s="39"/>
       <c r="S275" s="15" t="s">
         <v>56</v>
       </c>
@@ -27914,7 +27911,7 @@
       </c>
       <c r="AH275" s="15"/>
       <c r="AI275" s="15"/>
-      <c r="AJ275" s="73" t="s">
+      <c r="AJ275" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK275" s="15"/>
@@ -27934,7 +27931,7 @@
       </c>
       <c r="AR275" s="11"/>
     </row>
-    <row r="276" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="13" t="n">
         <v>275</v>
       </c>
@@ -27954,7 +27951,7 @@
       <c r="G276" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="H276" s="40" t="s">
+      <c r="H276" s="41" t="s">
         <v>725</v>
       </c>
       <c r="I276" s="15" t="s">
@@ -27972,9 +27969,9 @@
       <c r="O276" s="20" t="n">
         <v>5449000011527</v>
       </c>
-      <c r="P276" s="38"/>
-      <c r="Q276" s="38"/>
-      <c r="R276" s="38"/>
+      <c r="P276" s="39"/>
+      <c r="Q276" s="39"/>
+      <c r="R276" s="39"/>
       <c r="S276" s="15" t="s">
         <v>56</v>
       </c>
@@ -28004,7 +28001,7 @@
       </c>
       <c r="AH276" s="15"/>
       <c r="AI276" s="15"/>
-      <c r="AJ276" s="73" t="s">
+      <c r="AJ276" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK276" s="15"/>
@@ -28024,7 +28021,7 @@
       </c>
       <c r="AR276" s="11"/>
     </row>
-    <row r="277" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="13" t="n">
         <v>276</v>
       </c>
@@ -28044,7 +28041,7 @@
       <c r="G277" s="15" t="s">
         <v>726</v>
       </c>
-      <c r="H277" s="40" t="s">
+      <c r="H277" s="41" t="s">
         <v>727</v>
       </c>
       <c r="I277" s="15" t="s">
@@ -28062,9 +28059,9 @@
       <c r="O277" s="20" t="n">
         <v>40822938</v>
       </c>
-      <c r="P277" s="38"/>
-      <c r="Q277" s="38"/>
-      <c r="R277" s="38"/>
+      <c r="P277" s="39"/>
+      <c r="Q277" s="39"/>
+      <c r="R277" s="39"/>
       <c r="S277" s="15" t="s">
         <v>56</v>
       </c>
@@ -28094,7 +28091,7 @@
       </c>
       <c r="AH277" s="15"/>
       <c r="AI277" s="15"/>
-      <c r="AJ277" s="73" t="s">
+      <c r="AJ277" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK277" s="15"/>
@@ -28114,7 +28111,7 @@
       </c>
       <c r="AR277" s="11"/>
     </row>
-    <row r="278" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="13" t="n">
         <v>277</v>
       </c>
@@ -28134,7 +28131,7 @@
       <c r="G278" s="22" t="s">
         <v>728</v>
       </c>
-      <c r="H278" s="57" t="s">
+      <c r="H278" s="58" t="s">
         <v>729</v>
       </c>
       <c r="I278" s="15" t="s">
@@ -28146,15 +28143,15 @@
       </c>
       <c r="L278" s="15"/>
       <c r="M278" s="15"/>
-      <c r="N278" s="50" t="s">
+      <c r="N278" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="O278" s="77" t="s">
+      <c r="O278" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="P278" s="38"/>
-      <c r="Q278" s="38"/>
-      <c r="R278" s="38"/>
+      <c r="P278" s="39"/>
+      <c r="Q278" s="39"/>
+      <c r="R278" s="39"/>
       <c r="S278" s="15" t="s">
         <v>56</v>
       </c>
@@ -28184,7 +28181,7 @@
       </c>
       <c r="AH278" s="15"/>
       <c r="AI278" s="15"/>
-      <c r="AJ278" s="73" t="s">
+      <c r="AJ278" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK278" s="15"/>
@@ -28204,7 +28201,7 @@
       </c>
       <c r="AR278" s="11"/>
     </row>
-    <row r="279" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="13" t="n">
         <v>278</v>
       </c>
@@ -28224,7 +28221,7 @@
       <c r="G279" s="15" t="s">
         <v>730</v>
       </c>
-      <c r="H279" s="40" t="s">
+      <c r="H279" s="41" t="s">
         <v>731</v>
       </c>
       <c r="I279" s="15" t="s">
@@ -28242,9 +28239,9 @@
       <c r="O279" s="20" t="s">
         <v>733</v>
       </c>
-      <c r="P279" s="38"/>
-      <c r="Q279" s="38"/>
-      <c r="R279" s="38"/>
+      <c r="P279" s="39"/>
+      <c r="Q279" s="39"/>
+      <c r="R279" s="39"/>
       <c r="S279" s="15" t="s">
         <v>56</v>
       </c>
@@ -28274,7 +28271,7 @@
       </c>
       <c r="AH279" s="15"/>
       <c r="AI279" s="15"/>
-      <c r="AJ279" s="73" t="s">
+      <c r="AJ279" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK279" s="15"/>
@@ -28294,7 +28291,7 @@
       </c>
       <c r="AR279" s="11"/>
     </row>
-    <row r="280" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="13" t="n">
         <v>279</v>
       </c>
@@ -28314,7 +28311,7 @@
       <c r="G280" s="15" t="s">
         <v>734</v>
       </c>
-      <c r="H280" s="40" t="s">
+      <c r="H280" s="41" t="s">
         <v>735</v>
       </c>
       <c r="I280" s="15" t="s">
@@ -28332,9 +28329,9 @@
       <c r="O280" s="20" t="s">
         <v>737</v>
       </c>
-      <c r="P280" s="38"/>
-      <c r="Q280" s="38"/>
-      <c r="R280" s="38"/>
+      <c r="P280" s="39"/>
+      <c r="Q280" s="39"/>
+      <c r="R280" s="39"/>
       <c r="S280" s="15" t="s">
         <v>56</v>
       </c>
@@ -28364,7 +28361,7 @@
       </c>
       <c r="AH280" s="15"/>
       <c r="AI280" s="15"/>
-      <c r="AJ280" s="73" t="s">
+      <c r="AJ280" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK280" s="15"/>
@@ -28384,7 +28381,7 @@
       </c>
       <c r="AR280" s="11"/>
     </row>
-    <row r="281" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="13" t="n">
         <v>280</v>
       </c>
@@ -28404,7 +28401,7 @@
       <c r="G281" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="H281" s="40" t="s">
+      <c r="H281" s="41" t="s">
         <v>739</v>
       </c>
       <c r="I281" s="15" t="s">
@@ -28422,9 +28419,9 @@
       <c r="O281" s="20" t="n">
         <v>5060335632906</v>
       </c>
-      <c r="P281" s="38"/>
-      <c r="Q281" s="38"/>
-      <c r="R281" s="38"/>
+      <c r="P281" s="39"/>
+      <c r="Q281" s="39"/>
+      <c r="R281" s="39"/>
       <c r="S281" s="15" t="s">
         <v>56</v>
       </c>
@@ -28454,7 +28451,7 @@
       </c>
       <c r="AH281" s="15"/>
       <c r="AI281" s="15"/>
-      <c r="AJ281" s="73" t="s">
+      <c r="AJ281" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK281" s="15"/>
@@ -28474,7 +28471,7 @@
       </c>
       <c r="AR281" s="11"/>
     </row>
-    <row r="282" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="13" t="n">
         <v>281</v>
       </c>
@@ -28494,7 +28491,7 @@
       <c r="G282" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="H282" s="40" t="s">
+      <c r="H282" s="41" t="s">
         <v>741</v>
       </c>
       <c r="I282" s="15" t="s">
@@ -28512,9 +28509,9 @@
       <c r="O282" s="20" t="n">
         <v>5449000014535</v>
       </c>
-      <c r="P282" s="38"/>
-      <c r="Q282" s="38"/>
-      <c r="R282" s="38"/>
+      <c r="P282" s="39"/>
+      <c r="Q282" s="39"/>
+      <c r="R282" s="39"/>
       <c r="S282" s="15" t="s">
         <v>56</v>
       </c>
@@ -28544,7 +28541,7 @@
       </c>
       <c r="AH282" s="15"/>
       <c r="AI282" s="15"/>
-      <c r="AJ282" s="73" t="s">
+      <c r="AJ282" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK282" s="15"/>
@@ -28564,7 +28561,7 @@
       </c>
       <c r="AR282" s="11"/>
     </row>
-    <row r="283" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="13" t="n">
         <v>282</v>
       </c>
@@ -28584,7 +28581,7 @@
       <c r="G283" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="H283" s="40" t="s">
+      <c r="H283" s="41" t="s">
         <v>743</v>
       </c>
       <c r="I283" s="15" t="s">
@@ -28602,9 +28599,9 @@
       <c r="O283" s="20" t="n">
         <v>54491069</v>
       </c>
-      <c r="P283" s="38"/>
-      <c r="Q283" s="38"/>
-      <c r="R283" s="38"/>
+      <c r="P283" s="39"/>
+      <c r="Q283" s="39"/>
+      <c r="R283" s="39"/>
       <c r="S283" s="15" t="s">
         <v>56</v>
       </c>
@@ -28634,7 +28631,7 @@
       </c>
       <c r="AH283" s="15"/>
       <c r="AI283" s="15"/>
-      <c r="AJ283" s="73" t="s">
+      <c r="AJ283" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK283" s="15"/>
@@ -28674,7 +28671,7 @@
       <c r="G284" s="22" t="s">
         <v>744</v>
       </c>
-      <c r="H284" s="57" t="s">
+      <c r="H284" s="58" t="s">
         <v>745</v>
       </c>
       <c r="I284" s="15" t="s">
@@ -28686,15 +28683,15 @@
       </c>
       <c r="L284" s="15"/>
       <c r="M284" s="15"/>
-      <c r="N284" s="50" t="s">
+      <c r="N284" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="O284" s="77" t="s">
+      <c r="O284" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="P284" s="38"/>
-      <c r="Q284" s="38"/>
-      <c r="R284" s="38"/>
+      <c r="P284" s="39"/>
+      <c r="Q284" s="39"/>
+      <c r="R284" s="39"/>
       <c r="S284" s="15" t="s">
         <v>56</v>
       </c>
@@ -28724,7 +28721,7 @@
       </c>
       <c r="AH284" s="15"/>
       <c r="AI284" s="15"/>
-      <c r="AJ284" s="73" t="s">
+      <c r="AJ284" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK284" s="15"/>
@@ -28744,7 +28741,7 @@
       </c>
       <c r="AR284" s="11"/>
     </row>
-    <row r="285" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="13" t="n">
         <v>284</v>
       </c>
@@ -28767,20 +28764,20 @@
       <c r="H285" s="11" t="s">
         <v>747</v>
       </c>
-      <c r="I285" s="63" t="s">
+      <c r="I285" s="64" t="s">
         <v>748</v>
       </c>
-      <c r="J285" s="63"/>
+      <c r="J285" s="64"/>
       <c r="K285" s="15"/>
       <c r="L285" s="15"/>
       <c r="M285" s="15"/>
       <c r="N285" s="15"/>
-      <c r="O285" s="49" t="s">
+      <c r="O285" s="50" t="s">
         <v>691</v>
       </c>
-      <c r="P285" s="49"/>
-      <c r="Q285" s="49"/>
-      <c r="R285" s="49"/>
+      <c r="P285" s="50"/>
+      <c r="Q285" s="50"/>
+      <c r="R285" s="50"/>
       <c r="S285" s="11"/>
       <c r="T285" s="11" t="s">
         <v>583</v>
@@ -28808,7 +28805,7 @@
       </c>
       <c r="AH285" s="15"/>
       <c r="AI285" s="15"/>
-      <c r="AJ285" s="73" t="s">
+      <c r="AJ285" s="74" t="s">
         <v>701</v>
       </c>
       <c r="AK285" s="15"/>
@@ -28823,12 +28820,12 @@
         <v>284</v>
       </c>
       <c r="AP285" s="11"/>
-      <c r="AQ285" s="74" t="s">
+      <c r="AQ285" s="75" t="s">
         <v>702</v>
       </c>
       <c r="AR285" s="11"/>
     </row>
-    <row r="286" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="13" t="n">
         <v>285</v>
       </c>
@@ -28860,13 +28857,13 @@
       </c>
       <c r="L286" s="15"/>
       <c r="M286" s="15"/>
-      <c r="N286" s="49"/>
-      <c r="O286" s="49" t="s">
+      <c r="N286" s="50"/>
+      <c r="O286" s="50" t="s">
         <v>751</v>
       </c>
-      <c r="P286" s="49"/>
-      <c r="Q286" s="49"/>
-      <c r="R286" s="49" t="s">
+      <c r="P286" s="50"/>
+      <c r="Q286" s="50"/>
+      <c r="R286" s="50" t="s">
         <v>751</v>
       </c>
       <c r="S286" s="15" t="s">
@@ -28886,7 +28883,7 @@
       <c r="AA286" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="AB286" s="63"/>
+      <c r="AB286" s="64"/>
       <c r="AC286" s="15"/>
       <c r="AD286" s="15"/>
       <c r="AE286" s="11" t="s">
@@ -28895,7 +28892,7 @@
       <c r="AF286" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="AG286" s="78" t="n">
+      <c r="AG286" s="79" t="n">
         <v>0.005</v>
       </c>
       <c r="AH286" s="15"/>
@@ -28911,12 +28908,12 @@
         <v>285</v>
       </c>
       <c r="AP286" s="11"/>
-      <c r="AQ286" s="79" t="s">
+      <c r="AQ286" s="80" t="s">
         <v>755</v>
       </c>
       <c r="AR286" s="11"/>
     </row>
-    <row r="287" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="13" t="n">
         <v>286</v>
       </c>
@@ -28926,85 +28923,85 @@
       <c r="C287" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D287" s="80" t="s">
+      <c r="D287" s="81" t="s">
         <v>438</v>
       </c>
-      <c r="E287" s="80" t="s">
+      <c r="E287" s="81" t="s">
         <v>439</v>
       </c>
-      <c r="F287" s="80"/>
-      <c r="G287" s="81" t="s">
+      <c r="F287" s="81"/>
+      <c r="G287" s="82" t="s">
         <v>756</v>
       </c>
-      <c r="H287" s="61" t="s">
+      <c r="H287" s="62" t="s">
         <v>757</v>
       </c>
-      <c r="I287" s="81" t="s">
+      <c r="I287" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="J287" s="81"/>
-      <c r="K287" s="81" t="n">
+      <c r="J287" s="82"/>
+      <c r="K287" s="82" t="n">
         <v>5</v>
       </c>
-      <c r="L287" s="81"/>
-      <c r="M287" s="81"/>
-      <c r="N287" s="81"/>
-      <c r="O287" s="82" t="s">
+      <c r="L287" s="82"/>
+      <c r="M287" s="82"/>
+      <c r="N287" s="82"/>
+      <c r="O287" s="83" t="s">
         <v>758</v>
       </c>
-      <c r="P287" s="82"/>
-      <c r="Q287" s="82"/>
-      <c r="R287" s="82" t="s">
+      <c r="P287" s="83"/>
+      <c r="Q287" s="83"/>
+      <c r="R287" s="83" t="s">
         <v>758</v>
       </c>
-      <c r="S287" s="81" t="s">
+      <c r="S287" s="82" t="s">
         <v>56</v>
       </c>
       <c r="T287" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="U287" s="81"/>
-      <c r="V287" s="81"/>
-      <c r="W287" s="81"/>
-      <c r="X287" s="81"/>
+      <c r="U287" s="82"/>
+      <c r="V287" s="82"/>
+      <c r="W287" s="82"/>
+      <c r="X287" s="82"/>
       <c r="Y287" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="Z287" s="81"/>
+      <c r="Z287" s="82"/>
       <c r="AA287" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="AB287" s="83"/>
-      <c r="AC287" s="81"/>
-      <c r="AD287" s="81"/>
-      <c r="AE287" s="61" t="s">
+      <c r="AB287" s="84"/>
+      <c r="AC287" s="82"/>
+      <c r="AD287" s="82"/>
+      <c r="AE287" s="62" t="s">
         <v>51</v>
       </c>
       <c r="AF287" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="AG287" s="78" t="n">
+      <c r="AG287" s="79" t="n">
         <v>0.005</v>
       </c>
       <c r="AH287" s="15"/>
       <c r="AI287" s="15"/>
-      <c r="AJ287" s="81"/>
-      <c r="AK287" s="81"/>
-      <c r="AL287" s="81"/>
-      <c r="AM287" s="81"/>
-      <c r="AN287" s="61" t="n">
+      <c r="AJ287" s="82"/>
+      <c r="AK287" s="82"/>
+      <c r="AL287" s="82"/>
+      <c r="AM287" s="82"/>
+      <c r="AN287" s="62" t="n">
         <v>2</v>
       </c>
       <c r="AO287" s="13" t="n">
         <v>286</v>
       </c>
-      <c r="AP287" s="61"/>
-      <c r="AQ287" s="79" t="s">
+      <c r="AP287" s="62"/>
+      <c r="AQ287" s="80" t="s">
         <v>755</v>
       </c>
-      <c r="AR287" s="61"/>
-    </row>
-    <row r="288" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AR287" s="62"/>
+    </row>
+    <row r="288" customFormat="false" ht="72.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="13" t="n">
         <v>287</v>
       </c>
@@ -29037,10 +29034,10 @@
       <c r="L288" s="15"/>
       <c r="M288" s="15"/>
       <c r="N288" s="15"/>
-      <c r="O288" s="49"/>
-      <c r="P288" s="49"/>
-      <c r="Q288" s="49"/>
-      <c r="R288" s="49"/>
+      <c r="O288" s="50"/>
+      <c r="P288" s="50"/>
+      <c r="Q288" s="50"/>
+      <c r="R288" s="50"/>
       <c r="S288" s="15" t="s">
         <v>56</v>
       </c>
@@ -29052,7 +29049,7 @@
       <c r="Y288" s="15"/>
       <c r="Z288" s="15"/>
       <c r="AA288" s="15"/>
-      <c r="AB288" s="63"/>
+      <c r="AB288" s="64"/>
       <c r="AC288" s="15"/>
       <c r="AD288" s="15"/>
       <c r="AE288" s="11" t="s">
@@ -29076,15 +29073,15 @@
       <c r="AO288" s="13" t="n">
         <v>287</v>
       </c>
-      <c r="AP288" s="41" t="s">
+      <c r="AP288" s="42" t="s">
         <v>761</v>
       </c>
-      <c r="AQ288" s="79" t="s">
+      <c r="AQ288" s="80" t="s">
         <v>762</v>
       </c>
       <c r="AR288" s="11"/>
     </row>
-    <row r="289" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="13" t="n">
         <v>288</v>
       </c>
@@ -29117,10 +29114,10 @@
       <c r="L289" s="15"/>
       <c r="M289" s="15"/>
       <c r="N289" s="15"/>
-      <c r="O289" s="49"/>
-      <c r="P289" s="49"/>
-      <c r="Q289" s="49"/>
-      <c r="R289" s="49"/>
+      <c r="O289" s="50"/>
+      <c r="P289" s="50"/>
+      <c r="Q289" s="50"/>
+      <c r="R289" s="50"/>
       <c r="S289" s="15" t="s">
         <v>56</v>
       </c>
@@ -29166,7 +29163,7 @@
       </c>
       <c r="AR289" s="11"/>
     </row>
-    <row r="290" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="13" t="n">
         <v>289</v>
       </c>
@@ -29199,10 +29196,10 @@
       <c r="L290" s="15"/>
       <c r="M290" s="15"/>
       <c r="N290" s="15"/>
-      <c r="O290" s="49"/>
-      <c r="P290" s="49"/>
-      <c r="Q290" s="49"/>
-      <c r="R290" s="49"/>
+      <c r="O290" s="50"/>
+      <c r="P290" s="50"/>
+      <c r="Q290" s="50"/>
+      <c r="R290" s="50"/>
       <c r="S290" s="15" t="s">
         <v>56</v>
       </c>
@@ -29248,7 +29245,7 @@
       </c>
       <c r="AR290" s="11"/>
     </row>
-    <row r="291" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="13" t="n">
         <v>290</v>
       </c>
@@ -29281,10 +29278,10 @@
       <c r="L291" s="15"/>
       <c r="M291" s="15"/>
       <c r="N291" s="15"/>
-      <c r="O291" s="49"/>
-      <c r="P291" s="49"/>
-      <c r="Q291" s="49"/>
-      <c r="R291" s="49"/>
+      <c r="O291" s="50"/>
+      <c r="P291" s="50"/>
+      <c r="Q291" s="50"/>
+      <c r="R291" s="50"/>
       <c r="S291" s="15" t="s">
         <v>56</v>
       </c>
@@ -29330,7 +29327,7 @@
       </c>
       <c r="AR291" s="11"/>
     </row>
-    <row r="292" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="13" t="n">
         <v>291</v>
       </c>
@@ -29363,10 +29360,10 @@
       <c r="L292" s="15"/>
       <c r="M292" s="15"/>
       <c r="N292" s="15"/>
-      <c r="O292" s="49"/>
-      <c r="P292" s="49"/>
-      <c r="Q292" s="49"/>
-      <c r="R292" s="49"/>
+      <c r="O292" s="50"/>
+      <c r="P292" s="50"/>
+      <c r="Q292" s="50"/>
+      <c r="R292" s="50"/>
       <c r="S292" s="15" t="s">
         <v>56</v>
       </c>
@@ -29412,7 +29409,7 @@
       </c>
       <c r="AR292" s="11"/>
     </row>
-    <row r="293" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="13" t="n">
         <v>292</v>
       </c>
@@ -29447,10 +29444,10 @@
       <c r="N293" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="O293" s="49"/>
-      <c r="P293" s="49"/>
-      <c r="Q293" s="49"/>
-      <c r="R293" s="49"/>
+      <c r="O293" s="50"/>
+      <c r="P293" s="50"/>
+      <c r="Q293" s="50"/>
+      <c r="R293" s="50"/>
       <c r="S293" s="15" t="s">
         <v>56</v>
       </c>
@@ -29496,7 +29493,7 @@
       </c>
       <c r="AR293" s="11"/>
     </row>
-    <row r="294" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="13" t="n">
         <v>293</v>
       </c>
@@ -29509,30 +29506,30 @@
       <c r="D294" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="E294" s="84" t="s">
+      <c r="E294" s="85" t="s">
         <v>439</v>
       </c>
-      <c r="F294" s="84"/>
+      <c r="F294" s="85"/>
       <c r="G294" s="15" t="s">
         <v>779</v>
       </c>
       <c r="H294" s="11" t="s">
         <v>780</v>
       </c>
-      <c r="I294" s="85" t="s">
+      <c r="I294" s="86" t="s">
         <v>684</v>
       </c>
-      <c r="J294" s="85"/>
+      <c r="J294" s="86"/>
       <c r="K294" s="15" t="n">
         <v>4</v>
       </c>
       <c r="L294" s="15"/>
       <c r="M294" s="15"/>
       <c r="N294" s="15"/>
-      <c r="O294" s="49"/>
-      <c r="P294" s="49"/>
-      <c r="Q294" s="49"/>
-      <c r="R294" s="49"/>
+      <c r="O294" s="50"/>
+      <c r="P294" s="50"/>
+      <c r="Q294" s="50"/>
+      <c r="R294" s="50"/>
       <c r="S294" s="11" t="s">
         <v>56</v>
       </c>
@@ -29546,7 +29543,7 @@
       </c>
       <c r="Z294" s="15"/>
       <c r="AA294" s="15"/>
-      <c r="AB294" s="63"/>
+      <c r="AB294" s="64"/>
       <c r="AC294" s="15"/>
       <c r="AD294" s="15"/>
       <c r="AE294" s="11" t="s">
@@ -29570,15 +29567,15 @@
       <c r="AO294" s="13" t="n">
         <v>293</v>
       </c>
-      <c r="AP294" s="64" t="s">
+      <c r="AP294" s="65" t="s">
         <v>781</v>
       </c>
-      <c r="AQ294" s="74" t="s">
+      <c r="AQ294" s="75" t="s">
         <v>782</v>
       </c>
       <c r="AR294" s="11"/>
     </row>
-    <row r="295" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="13" t="n">
         <v>294</v>
       </c>
@@ -29591,20 +29588,20 @@
       <c r="D295" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="E295" s="84" t="s">
+      <c r="E295" s="85" t="s">
         <v>439</v>
       </c>
-      <c r="F295" s="84"/>
+      <c r="F295" s="85"/>
       <c r="G295" s="15" t="s">
         <v>783</v>
       </c>
       <c r="H295" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="I295" s="86" t="s">
+      <c r="I295" s="87" t="s">
         <v>785</v>
       </c>
-      <c r="J295" s="86"/>
+      <c r="J295" s="87"/>
       <c r="K295" s="15" t="n">
         <v>1</v>
       </c>
@@ -29615,12 +29612,12 @@
       <c r="N295" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="O295" s="49" t="s">
+      <c r="O295" s="50" t="s">
         <v>691</v>
       </c>
-      <c r="P295" s="49"/>
-      <c r="Q295" s="49"/>
-      <c r="R295" s="49"/>
+      <c r="P295" s="50"/>
+      <c r="Q295" s="50"/>
+      <c r="R295" s="50"/>
       <c r="S295" s="15" t="s">
         <v>56</v>
       </c>
@@ -29636,7 +29633,7 @@
       </c>
       <c r="Z295" s="15"/>
       <c r="AA295" s="15"/>
-      <c r="AB295" s="63"/>
+      <c r="AB295" s="64"/>
       <c r="AC295" s="15"/>
       <c r="AD295" s="15"/>
       <c r="AE295" s="11" t="s">
@@ -29663,12 +29660,12 @@
         <v>294</v>
       </c>
       <c r="AP295" s="11"/>
-      <c r="AQ295" s="87" t="s">
+      <c r="AQ295" s="88" t="s">
         <v>779</v>
       </c>
       <c r="AR295" s="11"/>
     </row>
-    <row r="296" customFormat="false" ht="64.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="64.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="13" t="n">
         <v>295</v>
       </c>
@@ -29678,69 +29675,69 @@
       <c r="C296" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D296" s="88" t="s">
+      <c r="D296" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E296" s="89" t="s">
+      <c r="E296" s="90" t="s">
         <v>789</v>
       </c>
-      <c r="F296" s="89" t="s">
+      <c r="F296" s="90" t="s">
         <v>790</v>
       </c>
-      <c r="G296" s="90" t="s">
+      <c r="G296" s="91" t="s">
         <v>755</v>
       </c>
-      <c r="H296" s="90"/>
-      <c r="I296" s="91" t="s">
+      <c r="H296" s="91"/>
+      <c r="I296" s="92" t="s">
         <v>791</v>
       </c>
-      <c r="J296" s="92" t="s">
+      <c r="J296" s="93" t="s">
         <v>792</v>
       </c>
-      <c r="K296" s="93"/>
-      <c r="L296" s="93"/>
-      <c r="M296" s="92"/>
-      <c r="N296" s="92"/>
-      <c r="O296" s="93"/>
-      <c r="P296" s="93"/>
-      <c r="Q296" s="93"/>
-      <c r="R296" s="93"/>
-      <c r="S296" s="93"/>
-      <c r="T296" s="93" t="s">
+      <c r="K296" s="94"/>
+      <c r="L296" s="94"/>
+      <c r="M296" s="93"/>
+      <c r="N296" s="93"/>
+      <c r="O296" s="94"/>
+      <c r="P296" s="94"/>
+      <c r="Q296" s="94"/>
+      <c r="R296" s="94"/>
+      <c r="S296" s="94"/>
+      <c r="T296" s="94" t="s">
         <v>793</v>
       </c>
-      <c r="U296" s="93"/>
-      <c r="V296" s="93"/>
-      <c r="W296" s="93"/>
-      <c r="X296" s="93"/>
-      <c r="Y296" s="93"/>
-      <c r="Z296" s="93"/>
-      <c r="AA296" s="93"/>
-      <c r="AB296" s="93"/>
-      <c r="AC296" s="93"/>
-      <c r="AD296" s="93"/>
-      <c r="AE296" s="93"/>
-      <c r="AF296" s="93"/>
-      <c r="AG296" s="94" t="n">
+      <c r="U296" s="94"/>
+      <c r="V296" s="94"/>
+      <c r="W296" s="94"/>
+      <c r="X296" s="94"/>
+      <c r="Y296" s="94"/>
+      <c r="Z296" s="94"/>
+      <c r="AA296" s="94"/>
+      <c r="AB296" s="94"/>
+      <c r="AC296" s="94"/>
+      <c r="AD296" s="94"/>
+      <c r="AE296" s="94"/>
+      <c r="AF296" s="94"/>
+      <c r="AG296" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="AH296" s="93"/>
-      <c r="AI296" s="93"/>
-      <c r="AJ296" s="93"/>
-      <c r="AK296" s="93"/>
-      <c r="AL296" s="93"/>
-      <c r="AM296" s="93"/>
-      <c r="AN296" s="95"/>
+      <c r="AH296" s="94"/>
+      <c r="AI296" s="94"/>
+      <c r="AJ296" s="94"/>
+      <c r="AK296" s="94"/>
+      <c r="AL296" s="94"/>
+      <c r="AM296" s="94"/>
+      <c r="AN296" s="96"/>
       <c r="AO296" s="13" t="n">
         <v>295</v>
       </c>
-      <c r="AP296" s="92" t="s">
+      <c r="AP296" s="93" t="s">
         <v>794</v>
       </c>
-      <c r="AQ296" s="93"/>
-      <c r="AR296" s="93"/>
-    </row>
-    <row r="297" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AQ296" s="94"/>
+      <c r="AR296" s="94"/>
+    </row>
+    <row r="297" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="13" t="n">
         <v>296</v>
       </c>
@@ -29750,69 +29747,69 @@
       <c r="C297" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D297" s="88" t="s">
+      <c r="D297" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E297" s="96" t="s">
+      <c r="E297" s="97" t="s">
         <v>795</v>
       </c>
-      <c r="F297" s="96" t="s">
+      <c r="F297" s="97" t="s">
         <v>796</v>
       </c>
-      <c r="G297" s="96" t="s">
+      <c r="G297" s="97" t="s">
         <v>444</v>
       </c>
-      <c r="H297" s="97"/>
-      <c r="I297" s="98" t="s">
+      <c r="H297" s="98"/>
+      <c r="I297" s="99" t="s">
         <v>797</v>
       </c>
-      <c r="J297" s="92" t="s">
+      <c r="J297" s="93" t="s">
         <v>798</v>
       </c>
-      <c r="K297" s="93"/>
-      <c r="L297" s="93"/>
-      <c r="M297" s="92"/>
-      <c r="N297" s="92"/>
-      <c r="O297" s="93"/>
-      <c r="P297" s="93"/>
-      <c r="Q297" s="93"/>
-      <c r="R297" s="93"/>
-      <c r="S297" s="93"/>
-      <c r="T297" s="93" t="s">
+      <c r="K297" s="94"/>
+      <c r="L297" s="94"/>
+      <c r="M297" s="93"/>
+      <c r="N297" s="93"/>
+      <c r="O297" s="94"/>
+      <c r="P297" s="94"/>
+      <c r="Q297" s="94"/>
+      <c r="R297" s="94"/>
+      <c r="S297" s="94"/>
+      <c r="T297" s="94" t="s">
         <v>793</v>
       </c>
-      <c r="U297" s="93"/>
-      <c r="V297" s="93"/>
-      <c r="W297" s="93"/>
-      <c r="X297" s="93"/>
-      <c r="Y297" s="93"/>
-      <c r="Z297" s="93"/>
-      <c r="AA297" s="93"/>
-      <c r="AB297" s="93"/>
-      <c r="AC297" s="93"/>
-      <c r="AD297" s="93"/>
-      <c r="AE297" s="93"/>
-      <c r="AF297" s="93"/>
-      <c r="AG297" s="94" t="n">
+      <c r="U297" s="94"/>
+      <c r="V297" s="94"/>
+      <c r="W297" s="94"/>
+      <c r="X297" s="94"/>
+      <c r="Y297" s="94"/>
+      <c r="Z297" s="94"/>
+      <c r="AA297" s="94"/>
+      <c r="AB297" s="94"/>
+      <c r="AC297" s="94"/>
+      <c r="AD297" s="94"/>
+      <c r="AE297" s="94"/>
+      <c r="AF297" s="94"/>
+      <c r="AG297" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="AH297" s="93"/>
-      <c r="AI297" s="93"/>
-      <c r="AJ297" s="93"/>
-      <c r="AK297" s="93"/>
-      <c r="AL297" s="93"/>
-      <c r="AM297" s="93"/>
-      <c r="AN297" s="95"/>
+      <c r="AH297" s="94"/>
+      <c r="AI297" s="94"/>
+      <c r="AJ297" s="94"/>
+      <c r="AK297" s="94"/>
+      <c r="AL297" s="94"/>
+      <c r="AM297" s="94"/>
+      <c r="AN297" s="96"/>
       <c r="AO297" s="13" t="n">
         <v>296</v>
       </c>
-      <c r="AP297" s="92" t="s">
+      <c r="AP297" s="93" t="s">
         <v>799</v>
       </c>
-      <c r="AQ297" s="93"/>
-      <c r="AR297" s="93"/>
-    </row>
-    <row r="298" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AQ297" s="94"/>
+      <c r="AR297" s="94"/>
+    </row>
+    <row r="298" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="13" t="n">
         <v>297</v>
       </c>
@@ -29822,69 +29819,69 @@
       <c r="C298" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D298" s="88" t="s">
+      <c r="D298" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E298" s="89" t="s">
+      <c r="E298" s="90" t="s">
         <v>800</v>
       </c>
-      <c r="F298" s="89" t="s">
+      <c r="F298" s="90" t="s">
         <v>801</v>
       </c>
-      <c r="G298" s="90" t="s">
+      <c r="G298" s="91" t="s">
         <v>614</v>
       </c>
-      <c r="H298" s="90"/>
-      <c r="I298" s="91" t="s">
+      <c r="H298" s="91"/>
+      <c r="I298" s="92" t="s">
         <v>797</v>
       </c>
-      <c r="J298" s="93" t="s">
+      <c r="J298" s="94" t="s">
         <v>798</v>
       </c>
-      <c r="K298" s="93"/>
-      <c r="L298" s="93"/>
-      <c r="M298" s="92"/>
-      <c r="N298" s="92"/>
-      <c r="O298" s="93"/>
-      <c r="P298" s="93"/>
-      <c r="Q298" s="93"/>
-      <c r="R298" s="93"/>
-      <c r="S298" s="93"/>
-      <c r="T298" s="93" t="s">
+      <c r="K298" s="94"/>
+      <c r="L298" s="94"/>
+      <c r="M298" s="93"/>
+      <c r="N298" s="93"/>
+      <c r="O298" s="94"/>
+      <c r="P298" s="94"/>
+      <c r="Q298" s="94"/>
+      <c r="R298" s="94"/>
+      <c r="S298" s="94"/>
+      <c r="T298" s="94" t="s">
         <v>793</v>
       </c>
-      <c r="U298" s="93"/>
-      <c r="V298" s="93"/>
-      <c r="W298" s="93"/>
-      <c r="X298" s="93"/>
-      <c r="Y298" s="93"/>
-      <c r="Z298" s="93"/>
-      <c r="AA298" s="93"/>
-      <c r="AB298" s="93"/>
-      <c r="AC298" s="93"/>
-      <c r="AD298" s="93"/>
-      <c r="AE298" s="93"/>
-      <c r="AF298" s="93"/>
-      <c r="AG298" s="94" t="n">
+      <c r="U298" s="94"/>
+      <c r="V298" s="94"/>
+      <c r="W298" s="94"/>
+      <c r="X298" s="94"/>
+      <c r="Y298" s="94"/>
+      <c r="Z298" s="94"/>
+      <c r="AA298" s="94"/>
+      <c r="AB298" s="94"/>
+      <c r="AC298" s="94"/>
+      <c r="AD298" s="94"/>
+      <c r="AE298" s="94"/>
+      <c r="AF298" s="94"/>
+      <c r="AG298" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="AH298" s="93"/>
-      <c r="AI298" s="93"/>
-      <c r="AJ298" s="93"/>
-      <c r="AK298" s="93"/>
-      <c r="AL298" s="93"/>
-      <c r="AM298" s="93"/>
-      <c r="AN298" s="95"/>
+      <c r="AH298" s="94"/>
+      <c r="AI298" s="94"/>
+      <c r="AJ298" s="94"/>
+      <c r="AK298" s="94"/>
+      <c r="AL298" s="94"/>
+      <c r="AM298" s="94"/>
+      <c r="AN298" s="96"/>
       <c r="AO298" s="13" t="n">
         <v>297</v>
       </c>
-      <c r="AP298" s="92" t="s">
+      <c r="AP298" s="93" t="s">
         <v>802</v>
       </c>
-      <c r="AQ298" s="93"/>
-      <c r="AR298" s="93"/>
-    </row>
-    <row r="299" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AQ298" s="94"/>
+      <c r="AR298" s="94"/>
+    </row>
+    <row r="299" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="13" t="n">
         <v>298</v>
       </c>
@@ -29894,71 +29891,71 @@
       <c r="C299" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D299" s="88" t="s">
+      <c r="D299" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E299" s="96" t="s">
+      <c r="E299" s="97" t="s">
         <v>803</v>
       </c>
-      <c r="F299" s="96" t="s">
+      <c r="F299" s="97" t="s">
         <v>804</v>
       </c>
-      <c r="G299" s="99" t="s">
+      <c r="G299" s="100" t="s">
         <v>762</v>
       </c>
-      <c r="H299" s="90" t="s">
+      <c r="H299" s="91" t="s">
         <v>805</v>
       </c>
-      <c r="I299" s="91" t="s">
+      <c r="I299" s="92" t="s">
         <v>806</v>
       </c>
-      <c r="J299" s="93" t="s">
+      <c r="J299" s="94" t="s">
         <v>798</v>
       </c>
-      <c r="K299" s="93"/>
-      <c r="L299" s="93"/>
-      <c r="M299" s="92"/>
-      <c r="N299" s="92"/>
-      <c r="O299" s="93"/>
-      <c r="P299" s="93"/>
-      <c r="Q299" s="93"/>
-      <c r="R299" s="93"/>
-      <c r="S299" s="93"/>
-      <c r="T299" s="93" t="s">
+      <c r="K299" s="94"/>
+      <c r="L299" s="94"/>
+      <c r="M299" s="93"/>
+      <c r="N299" s="93"/>
+      <c r="O299" s="94"/>
+      <c r="P299" s="94"/>
+      <c r="Q299" s="94"/>
+      <c r="R299" s="94"/>
+      <c r="S299" s="94"/>
+      <c r="T299" s="94" t="s">
         <v>793</v>
       </c>
-      <c r="U299" s="93"/>
-      <c r="V299" s="93"/>
-      <c r="W299" s="93"/>
-      <c r="X299" s="93"/>
-      <c r="Y299" s="93"/>
-      <c r="Z299" s="93"/>
-      <c r="AA299" s="93"/>
-      <c r="AB299" s="93"/>
-      <c r="AC299" s="93"/>
-      <c r="AD299" s="93"/>
-      <c r="AE299" s="93"/>
-      <c r="AF299" s="93"/>
-      <c r="AG299" s="100" t="n">
+      <c r="U299" s="94"/>
+      <c r="V299" s="94"/>
+      <c r="W299" s="94"/>
+      <c r="X299" s="94"/>
+      <c r="Y299" s="94"/>
+      <c r="Z299" s="94"/>
+      <c r="AA299" s="94"/>
+      <c r="AB299" s="94"/>
+      <c r="AC299" s="94"/>
+      <c r="AD299" s="94"/>
+      <c r="AE299" s="94"/>
+      <c r="AF299" s="94"/>
+      <c r="AG299" s="101" t="n">
         <v>0</v>
       </c>
-      <c r="AH299" s="93"/>
-      <c r="AI299" s="93"/>
-      <c r="AJ299" s="93"/>
-      <c r="AK299" s="93"/>
-      <c r="AL299" s="93"/>
-      <c r="AM299" s="93"/>
-      <c r="AN299" s="95"/>
+      <c r="AH299" s="94"/>
+      <c r="AI299" s="94"/>
+      <c r="AJ299" s="94"/>
+      <c r="AK299" s="94"/>
+      <c r="AL299" s="94"/>
+      <c r="AM299" s="94"/>
+      <c r="AN299" s="96"/>
       <c r="AO299" s="13" t="n">
         <v>298</v>
       </c>
-      <c r="AP299" s="93" t="n">
+      <c r="AP299" s="94" t="n">
         <v>287</v>
       </c>
-      <c r="AQ299" s="93"/>
-      <c r="AR299" s="93"/>
-    </row>
-    <row r="300" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AQ299" s="94"/>
+      <c r="AR299" s="94"/>
+    </row>
+    <row r="300" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="13" t="n">
         <v>299</v>
       </c>
@@ -29968,69 +29965,69 @@
       <c r="C300" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D300" s="88" t="s">
+      <c r="D300" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E300" s="96" t="s">
+      <c r="E300" s="97" t="s">
         <v>807</v>
       </c>
-      <c r="F300" s="96" t="s">
+      <c r="F300" s="97" t="s">
         <v>808</v>
       </c>
-      <c r="G300" s="96" t="s">
+      <c r="G300" s="97" t="s">
         <v>702</v>
       </c>
-      <c r="H300" s="90"/>
-      <c r="I300" s="91" t="s">
+      <c r="H300" s="91"/>
+      <c r="I300" s="92" t="s">
         <v>809</v>
       </c>
-      <c r="J300" s="93" t="s">
+      <c r="J300" s="94" t="s">
         <v>792</v>
       </c>
-      <c r="K300" s="93"/>
-      <c r="L300" s="93"/>
-      <c r="M300" s="92"/>
-      <c r="N300" s="92"/>
-      <c r="O300" s="93"/>
-      <c r="P300" s="93"/>
-      <c r="Q300" s="93"/>
-      <c r="R300" s="93"/>
-      <c r="S300" s="93"/>
-      <c r="T300" s="93" t="s">
+      <c r="K300" s="94"/>
+      <c r="L300" s="94"/>
+      <c r="M300" s="93"/>
+      <c r="N300" s="93"/>
+      <c r="O300" s="94"/>
+      <c r="P300" s="94"/>
+      <c r="Q300" s="94"/>
+      <c r="R300" s="94"/>
+      <c r="S300" s="94"/>
+      <c r="T300" s="94" t="s">
         <v>793</v>
       </c>
-      <c r="U300" s="93"/>
-      <c r="V300" s="93"/>
-      <c r="W300" s="93"/>
-      <c r="X300" s="93"/>
-      <c r="Y300" s="93"/>
-      <c r="Z300" s="93"/>
-      <c r="AA300" s="93"/>
-      <c r="AB300" s="93"/>
-      <c r="AC300" s="93"/>
-      <c r="AD300" s="93"/>
-      <c r="AE300" s="93"/>
-      <c r="AF300" s="93"/>
-      <c r="AG300" s="94" t="n">
+      <c r="U300" s="94"/>
+      <c r="V300" s="94"/>
+      <c r="W300" s="94"/>
+      <c r="X300" s="94"/>
+      <c r="Y300" s="94"/>
+      <c r="Z300" s="94"/>
+      <c r="AA300" s="94"/>
+      <c r="AB300" s="94"/>
+      <c r="AC300" s="94"/>
+      <c r="AD300" s="94"/>
+      <c r="AE300" s="94"/>
+      <c r="AF300" s="94"/>
+      <c r="AG300" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="AH300" s="93"/>
-      <c r="AI300" s="93"/>
-      <c r="AJ300" s="93"/>
-      <c r="AK300" s="93"/>
-      <c r="AL300" s="93"/>
-      <c r="AM300" s="93"/>
-      <c r="AN300" s="95"/>
+      <c r="AH300" s="94"/>
+      <c r="AI300" s="94"/>
+      <c r="AJ300" s="94"/>
+      <c r="AK300" s="94"/>
+      <c r="AL300" s="94"/>
+      <c r="AM300" s="94"/>
+      <c r="AN300" s="96"/>
       <c r="AO300" s="13" t="n">
         <v>299</v>
       </c>
-      <c r="AP300" s="92" t="s">
+      <c r="AP300" s="93" t="s">
         <v>810</v>
       </c>
-      <c r="AQ300" s="93"/>
-      <c r="AR300" s="93"/>
-    </row>
-    <row r="301" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AQ300" s="94"/>
+      <c r="AR300" s="94"/>
+    </row>
+    <row r="301" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="13" t="n">
         <v>300</v>
       </c>
@@ -30040,71 +30037,71 @@
       <c r="C301" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D301" s="88" t="s">
+      <c r="D301" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E301" s="96" t="s">
+      <c r="E301" s="97" t="s">
         <v>811</v>
       </c>
-      <c r="F301" s="96" t="s">
+      <c r="F301" s="97" t="s">
         <v>812</v>
       </c>
-      <c r="G301" s="96" t="s">
+      <c r="G301" s="97" t="s">
         <v>782</v>
       </c>
-      <c r="H301" s="90" t="s">
+      <c r="H301" s="91" t="s">
         <v>813</v>
       </c>
-      <c r="I301" s="91" t="s">
+      <c r="I301" s="92" t="s">
         <v>806</v>
       </c>
-      <c r="J301" s="93" t="s">
+      <c r="J301" s="94" t="s">
         <v>792</v>
       </c>
-      <c r="K301" s="93"/>
-      <c r="L301" s="93"/>
-      <c r="M301" s="92"/>
-      <c r="N301" s="92"/>
-      <c r="O301" s="93"/>
-      <c r="P301" s="93"/>
-      <c r="Q301" s="93"/>
-      <c r="R301" s="93"/>
-      <c r="S301" s="93"/>
-      <c r="T301" s="93" t="s">
+      <c r="K301" s="94"/>
+      <c r="L301" s="94"/>
+      <c r="M301" s="93"/>
+      <c r="N301" s="93"/>
+      <c r="O301" s="94"/>
+      <c r="P301" s="94"/>
+      <c r="Q301" s="94"/>
+      <c r="R301" s="94"/>
+      <c r="S301" s="94"/>
+      <c r="T301" s="94" t="s">
         <v>793</v>
       </c>
-      <c r="U301" s="93"/>
-      <c r="V301" s="93"/>
-      <c r="W301" s="93"/>
-      <c r="X301" s="93"/>
-      <c r="Y301" s="93"/>
-      <c r="Z301" s="93"/>
-      <c r="AA301" s="93"/>
-      <c r="AB301" s="93"/>
-      <c r="AC301" s="93"/>
-      <c r="AD301" s="93"/>
-      <c r="AE301" s="93"/>
-      <c r="AF301" s="93"/>
-      <c r="AG301" s="94" t="n">
+      <c r="U301" s="94"/>
+      <c r="V301" s="94"/>
+      <c r="W301" s="94"/>
+      <c r="X301" s="94"/>
+      <c r="Y301" s="94"/>
+      <c r="Z301" s="94"/>
+      <c r="AA301" s="94"/>
+      <c r="AB301" s="94"/>
+      <c r="AC301" s="94"/>
+      <c r="AD301" s="94"/>
+      <c r="AE301" s="94"/>
+      <c r="AF301" s="94"/>
+      <c r="AG301" s="95" t="n">
         <v>0</v>
       </c>
-      <c r="AH301" s="93"/>
-      <c r="AI301" s="93"/>
-      <c r="AJ301" s="93"/>
-      <c r="AK301" s="93"/>
-      <c r="AL301" s="93"/>
-      <c r="AM301" s="93"/>
-      <c r="AN301" s="95"/>
+      <c r="AH301" s="94"/>
+      <c r="AI301" s="94"/>
+      <c r="AJ301" s="94"/>
+      <c r="AK301" s="94"/>
+      <c r="AL301" s="94"/>
+      <c r="AM301" s="94"/>
+      <c r="AN301" s="96"/>
       <c r="AO301" s="13" t="n">
         <v>300</v>
       </c>
-      <c r="AP301" s="93" t="n">
+      <c r="AP301" s="94" t="n">
         <v>293</v>
       </c>
-      <c r="AQ301" s="93"/>
-      <c r="AR301" s="93"/>
-    </row>
-    <row r="302" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AQ301" s="94"/>
+      <c r="AR301" s="94"/>
+    </row>
+    <row r="302" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="13" t="n">
         <v>301</v>
       </c>
@@ -30114,71 +30111,71 @@
       <c r="C302" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D302" s="88" t="s">
+      <c r="D302" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E302" s="96" t="s">
+      <c r="E302" s="97" t="s">
         <v>814</v>
       </c>
-      <c r="F302" s="96" t="s">
+      <c r="F302" s="97" t="s">
         <v>815</v>
       </c>
-      <c r="G302" s="96" t="s">
+      <c r="G302" s="97" t="s">
         <v>816</v>
       </c>
-      <c r="H302" s="97"/>
-      <c r="I302" s="98" t="s">
+      <c r="H302" s="98"/>
+      <c r="I302" s="99" t="s">
         <v>817</v>
       </c>
-      <c r="J302" s="92" t="s">
+      <c r="J302" s="93" t="s">
         <v>792</v>
       </c>
-      <c r="K302" s="93"/>
-      <c r="L302" s="93"/>
-      <c r="M302" s="92"/>
-      <c r="N302" s="92"/>
-      <c r="O302" s="93" t="s">
+      <c r="K302" s="94"/>
+      <c r="L302" s="94"/>
+      <c r="M302" s="93"/>
+      <c r="N302" s="93"/>
+      <c r="O302" s="94" t="s">
         <v>818</v>
       </c>
-      <c r="P302" s="93"/>
-      <c r="Q302" s="93"/>
-      <c r="R302" s="93"/>
-      <c r="S302" s="93"/>
-      <c r="T302" s="93" t="s">
+      <c r="P302" s="94"/>
+      <c r="Q302" s="94"/>
+      <c r="R302" s="94"/>
+      <c r="S302" s="94"/>
+      <c r="T302" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U302" s="93"/>
-      <c r="V302" s="93"/>
-      <c r="W302" s="93"/>
-      <c r="X302" s="93"/>
-      <c r="Y302" s="93"/>
-      <c r="Z302" s="92" t="s">
+      <c r="U302" s="94"/>
+      <c r="V302" s="94"/>
+      <c r="W302" s="94"/>
+      <c r="X302" s="94"/>
+      <c r="Y302" s="94"/>
+      <c r="Z302" s="93" t="s">
         <v>820</v>
       </c>
-      <c r="AA302" s="93"/>
-      <c r="AB302" s="93"/>
-      <c r="AC302" s="93"/>
-      <c r="AD302" s="93"/>
-      <c r="AE302" s="93"/>
-      <c r="AF302" s="93"/>
-      <c r="AG302" s="93" t="n">
+      <c r="AA302" s="94"/>
+      <c r="AB302" s="94"/>
+      <c r="AC302" s="94"/>
+      <c r="AD302" s="94"/>
+      <c r="AE302" s="94"/>
+      <c r="AF302" s="94"/>
+      <c r="AG302" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH302" s="93"/>
-      <c r="AI302" s="93"/>
-      <c r="AJ302" s="93"/>
-      <c r="AK302" s="93"/>
-      <c r="AL302" s="93"/>
-      <c r="AM302" s="93"/>
-      <c r="AN302" s="95"/>
+      <c r="AH302" s="94"/>
+      <c r="AI302" s="94"/>
+      <c r="AJ302" s="94"/>
+      <c r="AK302" s="94"/>
+      <c r="AL302" s="94"/>
+      <c r="AM302" s="94"/>
+      <c r="AN302" s="96"/>
       <c r="AO302" s="13" t="n">
         <v>301</v>
       </c>
-      <c r="AP302" s="93"/>
-      <c r="AQ302" s="93"/>
-      <c r="AR302" s="93"/>
-    </row>
-    <row r="303" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AP302" s="94"/>
+      <c r="AQ302" s="94"/>
+      <c r="AR302" s="94"/>
+    </row>
+    <row r="303" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="13" t="n">
         <v>302</v>
       </c>
@@ -30188,71 +30185,71 @@
       <c r="C303" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D303" s="88" t="s">
+      <c r="D303" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E303" s="96" t="s">
+      <c r="E303" s="97" t="s">
         <v>821</v>
       </c>
-      <c r="F303" s="96" t="s">
+      <c r="F303" s="97" t="s">
         <v>822</v>
       </c>
-      <c r="G303" s="96" t="s">
+      <c r="G303" s="97" t="s">
         <v>823</v>
       </c>
-      <c r="H303" s="97"/>
-      <c r="I303" s="98" t="s">
+      <c r="H303" s="98"/>
+      <c r="I303" s="99" t="s">
         <v>824</v>
       </c>
-      <c r="J303" s="92" t="s">
+      <c r="J303" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K303" s="93"/>
-      <c r="L303" s="93"/>
-      <c r="M303" s="92"/>
-      <c r="N303" s="92"/>
-      <c r="O303" s="93" t="s">
+      <c r="K303" s="94"/>
+      <c r="L303" s="94"/>
+      <c r="M303" s="93"/>
+      <c r="N303" s="93"/>
+      <c r="O303" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="P303" s="93"/>
-      <c r="Q303" s="93"/>
-      <c r="R303" s="93"/>
-      <c r="S303" s="93"/>
-      <c r="T303" s="93" t="s">
+      <c r="P303" s="94"/>
+      <c r="Q303" s="94"/>
+      <c r="R303" s="94"/>
+      <c r="S303" s="94"/>
+      <c r="T303" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U303" s="93"/>
-      <c r="V303" s="93"/>
-      <c r="W303" s="93"/>
-      <c r="X303" s="93"/>
-      <c r="Y303" s="93"/>
-      <c r="Z303" s="92" t="s">
+      <c r="U303" s="94"/>
+      <c r="V303" s="94"/>
+      <c r="W303" s="94"/>
+      <c r="X303" s="94"/>
+      <c r="Y303" s="94"/>
+      <c r="Z303" s="93" t="s">
         <v>826</v>
       </c>
-      <c r="AA303" s="93"/>
-      <c r="AB303" s="93"/>
-      <c r="AC303" s="93"/>
-      <c r="AD303" s="93"/>
-      <c r="AE303" s="93"/>
-      <c r="AF303" s="93"/>
-      <c r="AG303" s="93" t="n">
+      <c r="AA303" s="94"/>
+      <c r="AB303" s="94"/>
+      <c r="AC303" s="94"/>
+      <c r="AD303" s="94"/>
+      <c r="AE303" s="94"/>
+      <c r="AF303" s="94"/>
+      <c r="AG303" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH303" s="93"/>
-      <c r="AI303" s="93"/>
-      <c r="AJ303" s="93"/>
-      <c r="AK303" s="93"/>
-      <c r="AL303" s="93"/>
-      <c r="AM303" s="93"/>
-      <c r="AN303" s="95"/>
+      <c r="AH303" s="94"/>
+      <c r="AI303" s="94"/>
+      <c r="AJ303" s="94"/>
+      <c r="AK303" s="94"/>
+      <c r="AL303" s="94"/>
+      <c r="AM303" s="94"/>
+      <c r="AN303" s="96"/>
       <c r="AO303" s="13" t="n">
         <v>302</v>
       </c>
-      <c r="AP303" s="93"/>
-      <c r="AQ303" s="93"/>
-      <c r="AR303" s="93"/>
-    </row>
-    <row r="304" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AP303" s="94"/>
+      <c r="AQ303" s="94"/>
+      <c r="AR303" s="94"/>
+    </row>
+    <row r="304" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="13" t="n">
         <v>303</v>
       </c>
@@ -30262,71 +30259,71 @@
       <c r="C304" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D304" s="88" t="s">
+      <c r="D304" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E304" s="96" t="s">
+      <c r="E304" s="97" t="s">
         <v>827</v>
       </c>
-      <c r="F304" s="96" t="s">
+      <c r="F304" s="97" t="s">
         <v>828</v>
       </c>
-      <c r="G304" s="96" t="s">
+      <c r="G304" s="97" t="s">
         <v>829</v>
       </c>
-      <c r="H304" s="97"/>
-      <c r="I304" s="98" t="s">
+      <c r="H304" s="98"/>
+      <c r="I304" s="99" t="s">
         <v>824</v>
       </c>
-      <c r="J304" s="92" t="s">
+      <c r="J304" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K304" s="93"/>
-      <c r="L304" s="93"/>
-      <c r="M304" s="92"/>
-      <c r="N304" s="92"/>
-      <c r="O304" s="93" t="s">
+      <c r="K304" s="94"/>
+      <c r="L304" s="94"/>
+      <c r="M304" s="93"/>
+      <c r="N304" s="93"/>
+      <c r="O304" s="94" t="s">
         <v>830</v>
       </c>
-      <c r="P304" s="93"/>
-      <c r="Q304" s="93"/>
-      <c r="R304" s="93"/>
-      <c r="S304" s="93"/>
-      <c r="T304" s="93" t="s">
+      <c r="P304" s="94"/>
+      <c r="Q304" s="94"/>
+      <c r="R304" s="94"/>
+      <c r="S304" s="94"/>
+      <c r="T304" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U304" s="93"/>
-      <c r="V304" s="93"/>
-      <c r="W304" s="93"/>
-      <c r="X304" s="93"/>
-      <c r="Y304" s="93"/>
-      <c r="Z304" s="92" t="s">
+      <c r="U304" s="94"/>
+      <c r="V304" s="94"/>
+      <c r="W304" s="94"/>
+      <c r="X304" s="94"/>
+      <c r="Y304" s="94"/>
+      <c r="Z304" s="93" t="s">
         <v>826</v>
       </c>
-      <c r="AA304" s="93"/>
-      <c r="AB304" s="93"/>
-      <c r="AC304" s="93"/>
-      <c r="AD304" s="93"/>
-      <c r="AE304" s="93"/>
-      <c r="AF304" s="93"/>
-      <c r="AG304" s="93" t="n">
+      <c r="AA304" s="94"/>
+      <c r="AB304" s="94"/>
+      <c r="AC304" s="94"/>
+      <c r="AD304" s="94"/>
+      <c r="AE304" s="94"/>
+      <c r="AF304" s="94"/>
+      <c r="AG304" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH304" s="93"/>
-      <c r="AI304" s="93"/>
-      <c r="AJ304" s="93"/>
-      <c r="AK304" s="93"/>
-      <c r="AL304" s="93"/>
-      <c r="AM304" s="93"/>
-      <c r="AN304" s="95"/>
+      <c r="AH304" s="94"/>
+      <c r="AI304" s="94"/>
+      <c r="AJ304" s="94"/>
+      <c r="AK304" s="94"/>
+      <c r="AL304" s="94"/>
+      <c r="AM304" s="94"/>
+      <c r="AN304" s="96"/>
       <c r="AO304" s="13" t="n">
         <v>303</v>
       </c>
-      <c r="AP304" s="93"/>
-      <c r="AQ304" s="93"/>
-      <c r="AR304" s="93"/>
-    </row>
-    <row r="305" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AP304" s="94"/>
+      <c r="AQ304" s="94"/>
+      <c r="AR304" s="94"/>
+    </row>
+    <row r="305" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="13" t="n">
         <v>304</v>
       </c>
@@ -30336,75 +30333,75 @@
       <c r="C305" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D305" s="88" t="s">
+      <c r="D305" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E305" s="96" t="s">
+      <c r="E305" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F305" s="96" t="s">
+      <c r="F305" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G305" s="96" t="s">
+      <c r="G305" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H305" s="97" t="s">
+      <c r="H305" s="98" t="s">
         <v>418</v>
       </c>
-      <c r="I305" s="98" t="s">
+      <c r="I305" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J305" s="92" t="s">
+      <c r="J305" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K305" s="93"/>
-      <c r="L305" s="93"/>
-      <c r="M305" s="92"/>
-      <c r="N305" s="92"/>
-      <c r="O305" s="92" t="s">
+      <c r="K305" s="94"/>
+      <c r="L305" s="94"/>
+      <c r="M305" s="93"/>
+      <c r="N305" s="93"/>
+      <c r="O305" s="93" t="s">
         <v>835</v>
       </c>
-      <c r="P305" s="93"/>
-      <c r="Q305" s="93"/>
-      <c r="R305" s="93"/>
-      <c r="S305" s="93"/>
-      <c r="T305" s="93" t="s">
+      <c r="P305" s="94"/>
+      <c r="Q305" s="94"/>
+      <c r="R305" s="94"/>
+      <c r="S305" s="94"/>
+      <c r="T305" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U305" s="93"/>
-      <c r="V305" s="93"/>
-      <c r="W305" s="93"/>
-      <c r="X305" s="93"/>
-      <c r="Y305" s="93"/>
-      <c r="Z305" s="92" t="s">
+      <c r="U305" s="94"/>
+      <c r="V305" s="94"/>
+      <c r="W305" s="94"/>
+      <c r="X305" s="94"/>
+      <c r="Y305" s="94"/>
+      <c r="Z305" s="93" t="s">
         <v>836</v>
       </c>
-      <c r="AA305" s="93"/>
-      <c r="AB305" s="93"/>
-      <c r="AC305" s="93"/>
-      <c r="AD305" s="93"/>
-      <c r="AE305" s="93"/>
-      <c r="AF305" s="93"/>
-      <c r="AG305" s="93" t="n">
+      <c r="AA305" s="94"/>
+      <c r="AB305" s="94"/>
+      <c r="AC305" s="94"/>
+      <c r="AD305" s="94"/>
+      <c r="AE305" s="94"/>
+      <c r="AF305" s="94"/>
+      <c r="AG305" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH305" s="93"/>
-      <c r="AI305" s="93"/>
-      <c r="AJ305" s="93"/>
-      <c r="AK305" s="93"/>
-      <c r="AL305" s="93"/>
-      <c r="AM305" s="93"/>
-      <c r="AN305" s="95"/>
+      <c r="AH305" s="94"/>
+      <c r="AI305" s="94"/>
+      <c r="AJ305" s="94"/>
+      <c r="AK305" s="94"/>
+      <c r="AL305" s="94"/>
+      <c r="AM305" s="94"/>
+      <c r="AN305" s="96"/>
       <c r="AO305" s="13" t="n">
         <v>304</v>
       </c>
-      <c r="AP305" s="93" t="n">
+      <c r="AP305" s="94" t="n">
         <v>175</v>
       </c>
-      <c r="AQ305" s="93"/>
-      <c r="AR305" s="93"/>
-    </row>
-    <row r="306" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AQ305" s="94"/>
+      <c r="AR305" s="94"/>
+    </row>
+    <row r="306" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="13" t="n">
         <v>305</v>
       </c>
@@ -30414,75 +30411,75 @@
       <c r="C306" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D306" s="88" t="s">
+      <c r="D306" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E306" s="96" t="s">
+      <c r="E306" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F306" s="96" t="s">
+      <c r="F306" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G306" s="96" t="s">
+      <c r="G306" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H306" s="97" t="s">
+      <c r="H306" s="98" t="s">
         <v>451</v>
       </c>
-      <c r="I306" s="98" t="s">
+      <c r="I306" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J306" s="92" t="s">
+      <c r="J306" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K306" s="93"/>
-      <c r="L306" s="93"/>
-      <c r="M306" s="92"/>
-      <c r="N306" s="92"/>
-      <c r="O306" s="92" t="s">
+      <c r="K306" s="94"/>
+      <c r="L306" s="94"/>
+      <c r="M306" s="93"/>
+      <c r="N306" s="93"/>
+      <c r="O306" s="93" t="s">
         <v>837</v>
       </c>
-      <c r="P306" s="93"/>
-      <c r="Q306" s="93"/>
-      <c r="R306" s="93"/>
-      <c r="S306" s="93"/>
-      <c r="T306" s="93" t="s">
+      <c r="P306" s="94"/>
+      <c r="Q306" s="94"/>
+      <c r="R306" s="94"/>
+      <c r="S306" s="94"/>
+      <c r="T306" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U306" s="93"/>
-      <c r="V306" s="93"/>
-      <c r="W306" s="93"/>
-      <c r="X306" s="93"/>
-      <c r="Y306" s="93"/>
-      <c r="Z306" s="92" t="s">
+      <c r="U306" s="94"/>
+      <c r="V306" s="94"/>
+      <c r="W306" s="94"/>
+      <c r="X306" s="94"/>
+      <c r="Y306" s="94"/>
+      <c r="Z306" s="93" t="s">
         <v>838</v>
       </c>
-      <c r="AA306" s="93"/>
-      <c r="AB306" s="93"/>
-      <c r="AC306" s="93"/>
-      <c r="AD306" s="93"/>
-      <c r="AE306" s="93"/>
-      <c r="AF306" s="93"/>
-      <c r="AG306" s="93" t="n">
+      <c r="AA306" s="94"/>
+      <c r="AB306" s="94"/>
+      <c r="AC306" s="94"/>
+      <c r="AD306" s="94"/>
+      <c r="AE306" s="94"/>
+      <c r="AF306" s="94"/>
+      <c r="AG306" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH306" s="93"/>
-      <c r="AI306" s="93"/>
-      <c r="AJ306" s="93"/>
-      <c r="AK306" s="93"/>
-      <c r="AL306" s="93"/>
-      <c r="AM306" s="93"/>
-      <c r="AN306" s="95"/>
+      <c r="AH306" s="94"/>
+      <c r="AI306" s="94"/>
+      <c r="AJ306" s="94"/>
+      <c r="AK306" s="94"/>
+      <c r="AL306" s="94"/>
+      <c r="AM306" s="94"/>
+      <c r="AN306" s="96"/>
       <c r="AO306" s="13" t="n">
         <v>305</v>
       </c>
-      <c r="AP306" s="93" t="n">
+      <c r="AP306" s="94" t="n">
         <v>183</v>
       </c>
-      <c r="AQ306" s="93"/>
-      <c r="AR306" s="93"/>
-    </row>
-    <row r="307" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AQ306" s="94"/>
+      <c r="AR306" s="94"/>
+    </row>
+    <row r="307" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="13" t="n">
         <v>306</v>
       </c>
@@ -30492,75 +30489,75 @@
       <c r="C307" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D307" s="88" t="s">
+      <c r="D307" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E307" s="96" t="s">
+      <c r="E307" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F307" s="96" t="s">
+      <c r="F307" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G307" s="96" t="s">
+      <c r="G307" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H307" s="97" t="s">
+      <c r="H307" s="98" t="s">
         <v>483</v>
       </c>
-      <c r="I307" s="98" t="s">
+      <c r="I307" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J307" s="92" t="s">
+      <c r="J307" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K307" s="93"/>
-      <c r="L307" s="93"/>
-      <c r="M307" s="92"/>
-      <c r="N307" s="92"/>
-      <c r="O307" s="92" t="s">
+      <c r="K307" s="94"/>
+      <c r="L307" s="94"/>
+      <c r="M307" s="93"/>
+      <c r="N307" s="93"/>
+      <c r="O307" s="93" t="s">
         <v>837</v>
       </c>
-      <c r="P307" s="93"/>
-      <c r="Q307" s="93"/>
-      <c r="R307" s="93"/>
-      <c r="S307" s="93"/>
-      <c r="T307" s="93" t="s">
+      <c r="P307" s="94"/>
+      <c r="Q307" s="94"/>
+      <c r="R307" s="94"/>
+      <c r="S307" s="94"/>
+      <c r="T307" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U307" s="93"/>
-      <c r="V307" s="93"/>
-      <c r="W307" s="93"/>
-      <c r="X307" s="93"/>
-      <c r="Y307" s="93"/>
-      <c r="Z307" s="92" t="s">
+      <c r="U307" s="94"/>
+      <c r="V307" s="94"/>
+      <c r="W307" s="94"/>
+      <c r="X307" s="94"/>
+      <c r="Y307" s="94"/>
+      <c r="Z307" s="93" t="s">
         <v>839</v>
       </c>
-      <c r="AA307" s="93"/>
-      <c r="AB307" s="93"/>
-      <c r="AC307" s="93"/>
-      <c r="AD307" s="93"/>
-      <c r="AE307" s="93"/>
-      <c r="AF307" s="93"/>
-      <c r="AG307" s="93" t="n">
+      <c r="AA307" s="94"/>
+      <c r="AB307" s="94"/>
+      <c r="AC307" s="94"/>
+      <c r="AD307" s="94"/>
+      <c r="AE307" s="94"/>
+      <c r="AF307" s="94"/>
+      <c r="AG307" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH307" s="93"/>
-      <c r="AI307" s="93"/>
-      <c r="AJ307" s="93"/>
-      <c r="AK307" s="93"/>
-      <c r="AL307" s="93"/>
-      <c r="AM307" s="93"/>
-      <c r="AN307" s="95"/>
+      <c r="AH307" s="94"/>
+      <c r="AI307" s="94"/>
+      <c r="AJ307" s="94"/>
+      <c r="AK307" s="94"/>
+      <c r="AL307" s="94"/>
+      <c r="AM307" s="94"/>
+      <c r="AN307" s="96"/>
       <c r="AO307" s="13" t="n">
         <v>306</v>
       </c>
-      <c r="AP307" s="93" t="n">
+      <c r="AP307" s="94" t="n">
         <v>194</v>
       </c>
-      <c r="AQ307" s="93"/>
-      <c r="AR307" s="93"/>
-    </row>
-    <row r="308" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AQ307" s="94"/>
+      <c r="AR307" s="94"/>
+    </row>
+    <row r="308" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="13" t="n">
         <v>307</v>
       </c>
@@ -30570,75 +30567,75 @@
       <c r="C308" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D308" s="88" t="s">
+      <c r="D308" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E308" s="96" t="s">
+      <c r="E308" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F308" s="96" t="s">
+      <c r="F308" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G308" s="96" t="s">
+      <c r="G308" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H308" s="97" t="s">
+      <c r="H308" s="98" t="s">
         <v>502</v>
       </c>
-      <c r="I308" s="98" t="s">
+      <c r="I308" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J308" s="92" t="s">
+      <c r="J308" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K308" s="93"/>
-      <c r="L308" s="93"/>
-      <c r="M308" s="92"/>
-      <c r="N308" s="92"/>
-      <c r="O308" s="92" t="s">
+      <c r="K308" s="94"/>
+      <c r="L308" s="94"/>
+      <c r="M308" s="93"/>
+      <c r="N308" s="93"/>
+      <c r="O308" s="93" t="s">
         <v>840</v>
       </c>
-      <c r="P308" s="93"/>
-      <c r="Q308" s="93"/>
-      <c r="R308" s="93"/>
-      <c r="S308" s="93"/>
-      <c r="T308" s="93" t="s">
+      <c r="P308" s="94"/>
+      <c r="Q308" s="94"/>
+      <c r="R308" s="94"/>
+      <c r="S308" s="94"/>
+      <c r="T308" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U308" s="93"/>
-      <c r="V308" s="93"/>
-      <c r="W308" s="93"/>
-      <c r="X308" s="93"/>
-      <c r="Y308" s="93"/>
-      <c r="Z308" s="101" t="s">
+      <c r="U308" s="94"/>
+      <c r="V308" s="94"/>
+      <c r="W308" s="94"/>
+      <c r="X308" s="94"/>
+      <c r="Y308" s="94"/>
+      <c r="Z308" s="102" t="s">
         <v>841</v>
       </c>
-      <c r="AA308" s="93"/>
-      <c r="AB308" s="93"/>
-      <c r="AC308" s="93"/>
-      <c r="AD308" s="93"/>
-      <c r="AE308" s="93"/>
-      <c r="AF308" s="93"/>
-      <c r="AG308" s="93" t="n">
+      <c r="AA308" s="94"/>
+      <c r="AB308" s="94"/>
+      <c r="AC308" s="94"/>
+      <c r="AD308" s="94"/>
+      <c r="AE308" s="94"/>
+      <c r="AF308" s="94"/>
+      <c r="AG308" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH308" s="93"/>
-      <c r="AI308" s="93"/>
-      <c r="AJ308" s="93"/>
-      <c r="AK308" s="93"/>
-      <c r="AL308" s="93"/>
-      <c r="AM308" s="93"/>
-      <c r="AN308" s="95"/>
+      <c r="AH308" s="94"/>
+      <c r="AI308" s="94"/>
+      <c r="AJ308" s="94"/>
+      <c r="AK308" s="94"/>
+      <c r="AL308" s="94"/>
+      <c r="AM308" s="94"/>
+      <c r="AN308" s="96"/>
       <c r="AO308" s="13" t="n">
         <v>307</v>
       </c>
-      <c r="AP308" s="93" t="n">
+      <c r="AP308" s="94" t="n">
         <v>201</v>
       </c>
-      <c r="AQ308" s="93"/>
-      <c r="AR308" s="93"/>
-    </row>
-    <row r="309" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AQ308" s="94"/>
+      <c r="AR308" s="94"/>
+    </row>
+    <row r="309" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="13" t="n">
         <v>308</v>
       </c>
@@ -30648,75 +30645,75 @@
       <c r="C309" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D309" s="88" t="s">
+      <c r="D309" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E309" s="96" t="s">
+      <c r="E309" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F309" s="96" t="s">
+      <c r="F309" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G309" s="96" t="s">
+      <c r="G309" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H309" s="97" t="s">
+      <c r="H309" s="98" t="s">
         <v>521</v>
       </c>
-      <c r="I309" s="98" t="s">
+      <c r="I309" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J309" s="92" t="s">
+      <c r="J309" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K309" s="93"/>
-      <c r="L309" s="93"/>
-      <c r="M309" s="92"/>
-      <c r="N309" s="92"/>
-      <c r="O309" s="92" t="s">
+      <c r="K309" s="94"/>
+      <c r="L309" s="94"/>
+      <c r="M309" s="93"/>
+      <c r="N309" s="93"/>
+      <c r="O309" s="93" t="s">
         <v>835</v>
       </c>
-      <c r="P309" s="93"/>
-      <c r="Q309" s="93"/>
-      <c r="R309" s="93"/>
-      <c r="S309" s="93"/>
-      <c r="T309" s="93" t="s">
+      <c r="P309" s="94"/>
+      <c r="Q309" s="94"/>
+      <c r="R309" s="94"/>
+      <c r="S309" s="94"/>
+      <c r="T309" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U309" s="93"/>
-      <c r="V309" s="93"/>
-      <c r="W309" s="93"/>
-      <c r="X309" s="93"/>
-      <c r="Y309" s="93"/>
-      <c r="Z309" s="92" t="s">
+      <c r="U309" s="94"/>
+      <c r="V309" s="94"/>
+      <c r="W309" s="94"/>
+      <c r="X309" s="94"/>
+      <c r="Y309" s="94"/>
+      <c r="Z309" s="93" t="s">
         <v>842</v>
       </c>
-      <c r="AA309" s="93"/>
-      <c r="AB309" s="93"/>
-      <c r="AC309" s="93"/>
-      <c r="AD309" s="93"/>
-      <c r="AE309" s="93"/>
-      <c r="AF309" s="93"/>
-      <c r="AG309" s="93" t="n">
+      <c r="AA309" s="94"/>
+      <c r="AB309" s="94"/>
+      <c r="AC309" s="94"/>
+      <c r="AD309" s="94"/>
+      <c r="AE309" s="94"/>
+      <c r="AF309" s="94"/>
+      <c r="AG309" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH309" s="93"/>
-      <c r="AI309" s="93"/>
-      <c r="AJ309" s="93"/>
-      <c r="AK309" s="93"/>
-      <c r="AL309" s="93"/>
-      <c r="AM309" s="93"/>
-      <c r="AN309" s="95"/>
+      <c r="AH309" s="94"/>
+      <c r="AI309" s="94"/>
+      <c r="AJ309" s="94"/>
+      <c r="AK309" s="94"/>
+      <c r="AL309" s="94"/>
+      <c r="AM309" s="94"/>
+      <c r="AN309" s="96"/>
       <c r="AO309" s="13" t="n">
         <v>308</v>
       </c>
-      <c r="AP309" s="93" t="n">
+      <c r="AP309" s="94" t="n">
         <v>207</v>
       </c>
-      <c r="AQ309" s="93"/>
-      <c r="AR309" s="93"/>
-    </row>
-    <row r="310" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AQ309" s="94"/>
+      <c r="AR309" s="94"/>
+    </row>
+    <row r="310" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="13" t="n">
         <v>309</v>
       </c>
@@ -30726,75 +30723,75 @@
       <c r="C310" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D310" s="88" t="s">
+      <c r="D310" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E310" s="96" t="s">
+      <c r="E310" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F310" s="96" t="s">
+      <c r="F310" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G310" s="96" t="s">
+      <c r="G310" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H310" s="97" t="s">
+      <c r="H310" s="98" t="s">
         <v>534</v>
       </c>
-      <c r="I310" s="98" t="s">
+      <c r="I310" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J310" s="92" t="s">
+      <c r="J310" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K310" s="93"/>
-      <c r="L310" s="93"/>
-      <c r="M310" s="92"/>
-      <c r="N310" s="92"/>
-      <c r="O310" s="92" t="s">
+      <c r="K310" s="94"/>
+      <c r="L310" s="94"/>
+      <c r="M310" s="93"/>
+      <c r="N310" s="93"/>
+      <c r="O310" s="93" t="s">
         <v>835</v>
       </c>
-      <c r="P310" s="93"/>
-      <c r="Q310" s="93"/>
-      <c r="R310" s="93"/>
-      <c r="S310" s="93"/>
-      <c r="T310" s="93" t="s">
+      <c r="P310" s="94"/>
+      <c r="Q310" s="94"/>
+      <c r="R310" s="94"/>
+      <c r="S310" s="94"/>
+      <c r="T310" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U310" s="93"/>
-      <c r="V310" s="93"/>
-      <c r="W310" s="93"/>
-      <c r="X310" s="93"/>
-      <c r="Y310" s="93"/>
-      <c r="Z310" s="92" t="s">
+      <c r="U310" s="94"/>
+      <c r="V310" s="94"/>
+      <c r="W310" s="94"/>
+      <c r="X310" s="94"/>
+      <c r="Y310" s="94"/>
+      <c r="Z310" s="93" t="s">
         <v>843</v>
       </c>
-      <c r="AA310" s="93"/>
-      <c r="AB310" s="93"/>
-      <c r="AC310" s="93"/>
-      <c r="AD310" s="93"/>
-      <c r="AE310" s="93"/>
-      <c r="AF310" s="93"/>
-      <c r="AG310" s="93" t="n">
+      <c r="AA310" s="94"/>
+      <c r="AB310" s="94"/>
+      <c r="AC310" s="94"/>
+      <c r="AD310" s="94"/>
+      <c r="AE310" s="94"/>
+      <c r="AF310" s="94"/>
+      <c r="AG310" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH310" s="93"/>
-      <c r="AI310" s="93"/>
-      <c r="AJ310" s="93"/>
-      <c r="AK310" s="93"/>
-      <c r="AL310" s="93"/>
-      <c r="AM310" s="93"/>
-      <c r="AN310" s="95"/>
+      <c r="AH310" s="94"/>
+      <c r="AI310" s="94"/>
+      <c r="AJ310" s="94"/>
+      <c r="AK310" s="94"/>
+      <c r="AL310" s="94"/>
+      <c r="AM310" s="94"/>
+      <c r="AN310" s="96"/>
       <c r="AO310" s="13" t="n">
         <v>309</v>
       </c>
-      <c r="AP310" s="93" t="n">
+      <c r="AP310" s="94" t="n">
         <v>211</v>
       </c>
-      <c r="AQ310" s="93"/>
-      <c r="AR310" s="93"/>
-    </row>
-    <row r="311" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AQ310" s="94"/>
+      <c r="AR310" s="94"/>
+    </row>
+    <row r="311" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="13" t="n">
         <v>310</v>
       </c>
@@ -30804,75 +30801,75 @@
       <c r="C311" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D311" s="88" t="s">
+      <c r="D311" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E311" s="96" t="s">
+      <c r="E311" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F311" s="96" t="s">
+      <c r="F311" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G311" s="96" t="s">
+      <c r="G311" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H311" s="97" t="s">
+      <c r="H311" s="98" t="s">
         <v>545</v>
       </c>
-      <c r="I311" s="98" t="s">
+      <c r="I311" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J311" s="92" t="s">
+      <c r="J311" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K311" s="93"/>
-      <c r="L311" s="93"/>
-      <c r="M311" s="92"/>
-      <c r="N311" s="92"/>
-      <c r="O311" s="92" t="s">
+      <c r="K311" s="94"/>
+      <c r="L311" s="94"/>
+      <c r="M311" s="93"/>
+      <c r="N311" s="93"/>
+      <c r="O311" s="93" t="s">
         <v>840</v>
       </c>
-      <c r="P311" s="93"/>
-      <c r="Q311" s="93"/>
-      <c r="R311" s="93"/>
-      <c r="S311" s="93"/>
-      <c r="T311" s="93" t="s">
+      <c r="P311" s="94"/>
+      <c r="Q311" s="94"/>
+      <c r="R311" s="94"/>
+      <c r="S311" s="94"/>
+      <c r="T311" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U311" s="93"/>
-      <c r="V311" s="93"/>
-      <c r="W311" s="93"/>
-      <c r="X311" s="93"/>
-      <c r="Y311" s="93"/>
-      <c r="Z311" s="92" t="s">
+      <c r="U311" s="94"/>
+      <c r="V311" s="94"/>
+      <c r="W311" s="94"/>
+      <c r="X311" s="94"/>
+      <c r="Y311" s="94"/>
+      <c r="Z311" s="93" t="s">
         <v>844</v>
       </c>
-      <c r="AA311" s="93"/>
-      <c r="AB311" s="93"/>
-      <c r="AC311" s="93"/>
-      <c r="AD311" s="93"/>
-      <c r="AE311" s="93"/>
-      <c r="AF311" s="93"/>
-      <c r="AG311" s="93" t="n">
+      <c r="AA311" s="94"/>
+      <c r="AB311" s="94"/>
+      <c r="AC311" s="94"/>
+      <c r="AD311" s="94"/>
+      <c r="AE311" s="94"/>
+      <c r="AF311" s="94"/>
+      <c r="AG311" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH311" s="93"/>
-      <c r="AI311" s="93"/>
-      <c r="AJ311" s="93"/>
-      <c r="AK311" s="93"/>
-      <c r="AL311" s="93"/>
-      <c r="AM311" s="93"/>
-      <c r="AN311" s="95"/>
+      <c r="AH311" s="94"/>
+      <c r="AI311" s="94"/>
+      <c r="AJ311" s="94"/>
+      <c r="AK311" s="94"/>
+      <c r="AL311" s="94"/>
+      <c r="AM311" s="94"/>
+      <c r="AN311" s="96"/>
       <c r="AO311" s="13" t="n">
         <v>310</v>
       </c>
-      <c r="AP311" s="93" t="n">
+      <c r="AP311" s="94" t="n">
         <v>215</v>
       </c>
-      <c r="AQ311" s="93"/>
-      <c r="AR311" s="93"/>
-    </row>
-    <row r="312" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AQ311" s="94"/>
+      <c r="AR311" s="94"/>
+    </row>
+    <row r="312" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="13" t="n">
         <v>311</v>
       </c>
@@ -30882,75 +30879,75 @@
       <c r="C312" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D312" s="88" t="s">
+      <c r="D312" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E312" s="96" t="s">
+      <c r="E312" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F312" s="96" t="s">
+      <c r="F312" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G312" s="96" t="s">
+      <c r="G312" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H312" s="97" t="s">
+      <c r="H312" s="98" t="s">
         <v>564</v>
       </c>
-      <c r="I312" s="98" t="s">
+      <c r="I312" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J312" s="92" t="s">
+      <c r="J312" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K312" s="93"/>
-      <c r="L312" s="93"/>
-      <c r="M312" s="92"/>
-      <c r="N312" s="92"/>
-      <c r="O312" s="92" t="s">
+      <c r="K312" s="94"/>
+      <c r="L312" s="94"/>
+      <c r="M312" s="93"/>
+      <c r="N312" s="93"/>
+      <c r="O312" s="93" t="s">
         <v>837</v>
       </c>
-      <c r="P312" s="93"/>
-      <c r="Q312" s="93"/>
-      <c r="R312" s="93"/>
-      <c r="S312" s="93"/>
-      <c r="T312" s="93" t="s">
+      <c r="P312" s="94"/>
+      <c r="Q312" s="94"/>
+      <c r="R312" s="94"/>
+      <c r="S312" s="94"/>
+      <c r="T312" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U312" s="93"/>
-      <c r="V312" s="93"/>
-      <c r="W312" s="93"/>
-      <c r="X312" s="93"/>
-      <c r="Y312" s="93"/>
-      <c r="Z312" s="92" t="s">
+      <c r="U312" s="94"/>
+      <c r="V312" s="94"/>
+      <c r="W312" s="94"/>
+      <c r="X312" s="94"/>
+      <c r="Y312" s="94"/>
+      <c r="Z312" s="93" t="s">
         <v>845</v>
       </c>
-      <c r="AA312" s="93"/>
-      <c r="AB312" s="93"/>
-      <c r="AC312" s="93"/>
-      <c r="AD312" s="93"/>
-      <c r="AE312" s="93"/>
-      <c r="AF312" s="93"/>
-      <c r="AG312" s="93" t="n">
+      <c r="AA312" s="94"/>
+      <c r="AB312" s="94"/>
+      <c r="AC312" s="94"/>
+      <c r="AD312" s="94"/>
+      <c r="AE312" s="94"/>
+      <c r="AF312" s="94"/>
+      <c r="AG312" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH312" s="93"/>
-      <c r="AI312" s="93"/>
-      <c r="AJ312" s="93"/>
-      <c r="AK312" s="93"/>
-      <c r="AL312" s="93"/>
-      <c r="AM312" s="93"/>
-      <c r="AN312" s="95"/>
+      <c r="AH312" s="94"/>
+      <c r="AI312" s="94"/>
+      <c r="AJ312" s="94"/>
+      <c r="AK312" s="94"/>
+      <c r="AL312" s="94"/>
+      <c r="AM312" s="94"/>
+      <c r="AN312" s="96"/>
       <c r="AO312" s="13" t="n">
         <v>311</v>
       </c>
-      <c r="AP312" s="93" t="n">
+      <c r="AP312" s="94" t="n">
         <v>211</v>
       </c>
-      <c r="AQ312" s="93"/>
-      <c r="AR312" s="93"/>
-    </row>
-    <row r="313" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AQ312" s="94"/>
+      <c r="AR312" s="94"/>
+    </row>
+    <row r="313" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="13" t="n">
         <v>312</v>
       </c>
@@ -30960,77 +30957,85 @@
       <c r="C313" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D313" s="88" t="s">
+      <c r="D313" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="E313" s="96" t="s">
+      <c r="E313" s="97" t="s">
         <v>831</v>
       </c>
-      <c r="F313" s="96" t="s">
+      <c r="F313" s="97" t="s">
         <v>832</v>
       </c>
-      <c r="G313" s="96" t="s">
+      <c r="G313" s="97" t="s">
         <v>833</v>
       </c>
-      <c r="H313" s="97" t="s">
+      <c r="H313" s="98" t="s">
         <v>574</v>
       </c>
-      <c r="I313" s="98" t="s">
+      <c r="I313" s="99" t="s">
         <v>834</v>
       </c>
-      <c r="J313" s="92" t="s">
+      <c r="J313" s="93" t="s">
         <v>825</v>
       </c>
-      <c r="K313" s="93"/>
-      <c r="L313" s="93"/>
-      <c r="M313" s="92"/>
-      <c r="N313" s="92"/>
-      <c r="O313" s="92" t="s">
+      <c r="K313" s="94"/>
+      <c r="L313" s="94"/>
+      <c r="M313" s="93"/>
+      <c r="N313" s="93"/>
+      <c r="O313" s="93" t="s">
         <v>840</v>
       </c>
-      <c r="P313" s="93"/>
-      <c r="Q313" s="93"/>
-      <c r="R313" s="93"/>
-      <c r="S313" s="93"/>
-      <c r="T313" s="93" t="s">
+      <c r="P313" s="94"/>
+      <c r="Q313" s="94"/>
+      <c r="R313" s="94"/>
+      <c r="S313" s="94"/>
+      <c r="T313" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="U313" s="93"/>
-      <c r="V313" s="93"/>
-      <c r="W313" s="93"/>
-      <c r="X313" s="93"/>
-      <c r="Y313" s="93"/>
-      <c r="Z313" s="92" t="s">
+      <c r="U313" s="94"/>
+      <c r="V313" s="94"/>
+      <c r="W313" s="94"/>
+      <c r="X313" s="94"/>
+      <c r="Y313" s="94"/>
+      <c r="Z313" s="93" t="s">
         <v>577</v>
       </c>
-      <c r="AA313" s="93"/>
-      <c r="AB313" s="93"/>
-      <c r="AC313" s="93"/>
-      <c r="AD313" s="93"/>
-      <c r="AE313" s="93"/>
-      <c r="AF313" s="93"/>
-      <c r="AG313" s="93" t="n">
+      <c r="AA313" s="94"/>
+      <c r="AB313" s="94"/>
+      <c r="AC313" s="94"/>
+      <c r="AD313" s="94"/>
+      <c r="AE313" s="94"/>
+      <c r="AF313" s="94"/>
+      <c r="AG313" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="AH313" s="93"/>
-      <c r="AI313" s="93"/>
-      <c r="AJ313" s="93"/>
-      <c r="AK313" s="93"/>
-      <c r="AL313" s="93"/>
-      <c r="AM313" s="93"/>
-      <c r="AN313" s="95"/>
+      <c r="AH313" s="94"/>
+      <c r="AI313" s="94"/>
+      <c r="AJ313" s="94"/>
+      <c r="AK313" s="94"/>
+      <c r="AL313" s="94"/>
+      <c r="AM313" s="94"/>
+      <c r="AN313" s="96"/>
       <c r="AO313" s="13" t="n">
         <v>312</v>
       </c>
-      <c r="AP313" s="93" t="n">
+      <c r="AP313" s="94" t="n">
         <v>225</v>
       </c>
-      <c r="AQ313" s="93"/>
-      <c r="AR313" s="93"/>
+      <c r="AQ313" s="94"/>
+      <c r="AR313" s="94"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AR313"/>
+  <autoFilter ref="A1:AS313">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="283"/>
+        <filter val="83"/>
+        <filter val="183"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -31055,17 +31060,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="103" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>701</v>
       </c>
     </row>
@@ -31092,53 +31094,50 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="105" t="s">
         <v>846</v>
       </c>
-      <c r="H1" s="104" t="s">
+      <c r="H1" s="105" t="s">
         <v>847</v>
       </c>
-      <c r="I1" s="104" t="s">
+      <c r="I1" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="104" t="s">
+      <c r="J1" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="105" t="s">
         <v>848</v>
       </c>
-      <c r="L1" s="104" t="s">
+      <c r="L1" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="104" t="s">
+      <c r="M1" s="105" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="106" t="s">
         <v>849</v>
       </c>
     </row>

--- a/Projects/CCRU_SAND/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Hypermarket PoS 2018.xlsx
@@ -3892,7 +3892,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AR65536"/>
@@ -3900,7 +3900,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O84" activeCellId="0" sqref="O84"/>
+      <selection pane="bottomLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4052,7 +4052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="33.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
@@ -4124,7 +4124,7 @@
       <c r="AQ2" s="2"/>
       <c r="AR2" s="12"/>
     </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="n">
         <v>2</v>
       </c>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="AR3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
         <v>3</v>
       </c>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="AR4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="n">
         <v>4</v>
       </c>
@@ -4388,7 +4388,7 @@
       </c>
       <c r="AR5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
         <v>5</v>
       </c>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="AR6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
         <v>6</v>
       </c>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="AR7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
         <v>7</v>
       </c>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="AR8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
         <v>8</v>
       </c>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="AR9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
         <v>9</v>
       </c>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="AR10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="n">
         <v>10</v>
       </c>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="AR11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
         <v>11</v>
       </c>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="AR12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="n">
         <v>12</v>
       </c>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="AR13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="n">
         <v>13</v>
       </c>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="AR14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
         <v>14</v>
       </c>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="AR15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
         <v>15</v>
       </c>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="AR16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
         <v>16</v>
       </c>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="AR17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
         <v>17</v>
       </c>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="AR18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
         <v>18</v>
       </c>
@@ -5620,7 +5620,7 @@
       </c>
       <c r="AR19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="n">
         <v>19</v>
       </c>
@@ -5708,7 +5708,7 @@
       </c>
       <c r="AR20" s="12"/>
     </row>
-    <row r="21" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
         <v>20</v>
       </c>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="AR21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
         <v>21</v>
       </c>
@@ -5884,7 +5884,7 @@
       </c>
       <c r="AR22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="n">
         <v>22</v>
       </c>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="AR23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="n">
         <v>23</v>
       </c>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="AR24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="n">
         <v>24</v>
       </c>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="AR25" s="12"/>
     </row>
-    <row r="26" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="n">
         <v>25</v>
       </c>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="AR26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="n">
         <v>26</v>
       </c>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="AR27" s="12"/>
     </row>
-    <row r="28" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="n">
         <v>27</v>
       </c>
@@ -6412,7 +6412,7 @@
       </c>
       <c r="AR28" s="12"/>
     </row>
-    <row r="29" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="n">
         <v>28</v>
       </c>
@@ -6500,7 +6500,7 @@
       </c>
       <c r="AR29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="n">
         <v>29</v>
       </c>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="AR30" s="12"/>
     </row>
-    <row r="31" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="n">
         <v>30</v>
       </c>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="AR31" s="12"/>
     </row>
-    <row r="32" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="n">
         <v>31</v>
       </c>
@@ -6764,7 +6764,7 @@
       </c>
       <c r="AR32" s="12"/>
     </row>
-    <row r="33" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="n">
         <v>32</v>
       </c>
@@ -6852,7 +6852,7 @@
       </c>
       <c r="AR33" s="12"/>
     </row>
-    <row r="34" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="n">
         <v>33</v>
       </c>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="AR34" s="12"/>
     </row>
-    <row r="35" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="n">
         <v>34</v>
       </c>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="AR35" s="12"/>
     </row>
-    <row r="36" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="n">
         <v>35</v>
       </c>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="AR36" s="12"/>
     </row>
-    <row r="37" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="n">
         <v>36</v>
       </c>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="AR37" s="12"/>
     </row>
-    <row r="38" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="n">
         <v>37</v>
       </c>
@@ -7292,7 +7292,7 @@
       </c>
       <c r="AR38" s="12"/>
     </row>
-    <row r="39" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="n">
         <v>38</v>
       </c>
@@ -7380,7 +7380,7 @@
       </c>
       <c r="AR39" s="12"/>
     </row>
-    <row r="40" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="n">
         <v>39</v>
       </c>
@@ -7468,7 +7468,7 @@
       </c>
       <c r="AR40" s="12"/>
     </row>
-    <row r="41" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="n">
         <v>40</v>
       </c>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="AR41" s="12"/>
     </row>
-    <row r="42" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="n">
         <v>41</v>
       </c>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="AR42" s="12"/>
     </row>
-    <row r="43" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="n">
         <v>42</v>
       </c>
@@ -7732,7 +7732,7 @@
       </c>
       <c r="AR43" s="12"/>
     </row>
-    <row r="44" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="n">
         <v>43</v>
       </c>
@@ -7820,7 +7820,7 @@
       </c>
       <c r="AR44" s="12"/>
     </row>
-    <row r="45" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="n">
         <v>44</v>
       </c>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="AR45" s="12"/>
     </row>
-    <row r="46" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="n">
         <v>45</v>
       </c>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="AR46" s="12"/>
     </row>
-    <row r="47" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="n">
         <v>46</v>
       </c>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="AR47" s="12"/>
     </row>
-    <row r="48" customFormat="false" ht="49.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="n">
         <v>47</v>
       </c>
@@ -8156,7 +8156,7 @@
       <c r="AQ48" s="34"/>
       <c r="AR48" s="35"/>
     </row>
-    <row r="49" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="n">
         <v>48</v>
       </c>
@@ -8244,7 +8244,7 @@
       </c>
       <c r="AR49" s="12"/>
     </row>
-    <row r="50" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="n">
         <v>49</v>
       </c>
@@ -8332,7 +8332,7 @@
       </c>
       <c r="AR50" s="12"/>
     </row>
-    <row r="51" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="n">
         <v>50</v>
       </c>
@@ -8420,7 +8420,7 @@
       </c>
       <c r="AR51" s="12"/>
     </row>
-    <row r="52" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="n">
         <v>51</v>
       </c>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="AR52" s="12"/>
     </row>
-    <row r="53" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="n">
         <v>52</v>
       </c>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="AR53" s="12"/>
     </row>
-    <row r="54" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="n">
         <v>53</v>
       </c>
@@ -8684,7 +8684,7 @@
       </c>
       <c r="AR54" s="12"/>
     </row>
-    <row r="55" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="13" t="n">
         <v>54</v>
       </c>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="AR55" s="12"/>
     </row>
-    <row r="56" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="n">
         <v>55</v>
       </c>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="AR56" s="12"/>
     </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="n">
         <v>56</v>
       </c>
@@ -8948,7 +8948,7 @@
       </c>
       <c r="AR57" s="12"/>
     </row>
-    <row r="58" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="n">
         <v>57</v>
       </c>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="AR58" s="12"/>
     </row>
-    <row r="59" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="n">
         <v>58</v>
       </c>
@@ -9124,7 +9124,7 @@
       </c>
       <c r="AR59" s="12"/>
     </row>
-    <row r="60" customFormat="false" ht="114.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="114.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="n">
         <v>59</v>
       </c>
@@ -9196,7 +9196,7 @@
       <c r="AQ60" s="34"/>
       <c r="AR60" s="35"/>
     </row>
-    <row r="61" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="n">
         <v>60</v>
       </c>
@@ -9284,7 +9284,7 @@
       </c>
       <c r="AR61" s="12"/>
     </row>
-    <row r="62" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="n">
         <v>61</v>
       </c>
@@ -9372,7 +9372,7 @@
       </c>
       <c r="AR62" s="12"/>
     </row>
-    <row r="63" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="n">
         <v>62</v>
       </c>
@@ -9460,7 +9460,7 @@
       </c>
       <c r="AR63" s="12"/>
     </row>
-    <row r="64" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="n">
         <v>63</v>
       </c>
@@ -9548,7 +9548,7 @@
       </c>
       <c r="AR64" s="12"/>
     </row>
-    <row r="65" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="n">
         <v>64</v>
       </c>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="AR65" s="12"/>
     </row>
-    <row r="66" customFormat="false" ht="26.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="26.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="n">
         <v>65</v>
       </c>
@@ -9724,7 +9724,7 @@
       </c>
       <c r="AR66" s="12"/>
     </row>
-    <row r="67" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="n">
         <v>66</v>
       </c>
@@ -9812,7 +9812,7 @@
       </c>
       <c r="AR67" s="12"/>
     </row>
-    <row r="68" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="n">
         <v>67</v>
       </c>
@@ -9900,7 +9900,7 @@
       </c>
       <c r="AR68" s="12"/>
     </row>
-    <row r="69" customFormat="false" ht="39.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="n">
         <v>68</v>
       </c>
@@ -9972,7 +9972,7 @@
       <c r="AQ69" s="34"/>
       <c r="AR69" s="35"/>
     </row>
-    <row r="70" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="n">
         <v>69</v>
       </c>
@@ -10060,7 +10060,7 @@
       </c>
       <c r="AR70" s="12"/>
     </row>
-    <row r="71" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="n">
         <v>70</v>
       </c>
@@ -10148,7 +10148,7 @@
       </c>
       <c r="AR71" s="12"/>
     </row>
-    <row r="72" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="n">
         <v>71</v>
       </c>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="AR72" s="12"/>
     </row>
-    <row r="73" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="n">
         <v>72</v>
       </c>
@@ -10324,7 +10324,7 @@
       </c>
       <c r="AR73" s="12"/>
     </row>
-    <row r="74" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="n">
         <v>73</v>
       </c>
@@ -10412,7 +10412,7 @@
       </c>
       <c r="AR74" s="12"/>
     </row>
-    <row r="75" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="n">
         <v>74</v>
       </c>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="AR75" s="12"/>
     </row>
-    <row r="76" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="n">
         <v>75</v>
       </c>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="AR76" s="12"/>
     </row>
-    <row r="77" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="n">
         <v>76</v>
       </c>
@@ -10676,7 +10676,7 @@
       </c>
       <c r="AR77" s="12"/>
     </row>
-    <row r="78" customFormat="false" ht="26.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="26.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="n">
         <v>77</v>
       </c>
@@ -10764,7 +10764,7 @@
       </c>
       <c r="AR78" s="12"/>
     </row>
-    <row r="79" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="n">
         <v>78</v>
       </c>
@@ -10852,7 +10852,7 @@
       </c>
       <c r="AR79" s="12"/>
     </row>
-    <row r="80" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="n">
         <v>79</v>
       </c>
@@ -10940,7 +10940,7 @@
       </c>
       <c r="AR80" s="12"/>
     </row>
-    <row r="81" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="n">
         <v>80</v>
       </c>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="AR81" s="12"/>
     </row>
-    <row r="82" customFormat="false" ht="26.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="26.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="n">
         <v>81</v>
       </c>
@@ -11116,7 +11116,7 @@
       </c>
       <c r="AR82" s="12"/>
     </row>
-    <row r="83" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="n">
         <v>82</v>
       </c>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="AR84" s="12"/>
     </row>
-    <row r="85" customFormat="false" ht="48" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="n">
         <v>84</v>
       </c>
@@ -11364,7 +11364,7 @@
       <c r="AQ85" s="34"/>
       <c r="AR85" s="35"/>
     </row>
-    <row r="86" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="n">
         <v>85</v>
       </c>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="AR86" s="12"/>
     </row>
-    <row r="87" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="n">
         <v>86</v>
       </c>
@@ -11540,7 +11540,7 @@
       </c>
       <c r="AR87" s="12"/>
     </row>
-    <row r="88" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="n">
         <v>87</v>
       </c>
@@ -11628,7 +11628,7 @@
       </c>
       <c r="AR88" s="12"/>
     </row>
-    <row r="89" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="n">
         <v>88</v>
       </c>
@@ -11716,7 +11716,7 @@
       </c>
       <c r="AR89" s="12"/>
     </row>
-    <row r="90" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="n">
         <v>89</v>
       </c>
@@ -11804,7 +11804,7 @@
       </c>
       <c r="AR90" s="12"/>
     </row>
-    <row r="91" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="n">
         <v>90</v>
       </c>
@@ -11892,7 +11892,7 @@
       </c>
       <c r="AR91" s="12"/>
     </row>
-    <row r="92" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="n">
         <v>91</v>
       </c>
@@ -11980,7 +11980,7 @@
       </c>
       <c r="AR92" s="12"/>
     </row>
-    <row r="93" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="n">
         <v>92</v>
       </c>
@@ -12068,7 +12068,7 @@
       </c>
       <c r="AR93" s="12"/>
     </row>
-    <row r="94" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="n">
         <v>93</v>
       </c>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="AR94" s="12"/>
     </row>
-    <row r="95" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="n">
         <v>94</v>
       </c>
@@ -12244,7 +12244,7 @@
       </c>
       <c r="AR95" s="12"/>
     </row>
-    <row r="96" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="n">
         <v>95</v>
       </c>
@@ -12332,7 +12332,7 @@
       </c>
       <c r="AR96" s="12"/>
     </row>
-    <row r="97" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="n">
         <v>96</v>
       </c>
@@ -12420,7 +12420,7 @@
       </c>
       <c r="AR97" s="12"/>
     </row>
-    <row r="98" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="n">
         <v>97</v>
       </c>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="AR98" s="12"/>
     </row>
-    <row r="99" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="n">
         <v>98</v>
       </c>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="AR99" s="12"/>
     </row>
-    <row r="100" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="n">
         <v>99</v>
       </c>
@@ -12684,7 +12684,7 @@
       </c>
       <c r="AR100" s="12"/>
     </row>
-    <row r="101" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="n">
         <v>100</v>
       </c>
@@ -12772,7 +12772,7 @@
       </c>
       <c r="AR101" s="12"/>
     </row>
-    <row r="102" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="n">
         <v>101</v>
       </c>
@@ -12860,7 +12860,7 @@
       </c>
       <c r="AR102" s="12"/>
     </row>
-    <row r="103" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="n">
         <v>102</v>
       </c>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="AR103" s="12"/>
     </row>
-    <row r="104" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="13" t="n">
         <v>103</v>
       </c>
@@ -13036,7 +13036,7 @@
       </c>
       <c r="AR104" s="12"/>
     </row>
-    <row r="105" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="13" t="n">
         <v>104</v>
       </c>
@@ -13124,7 +13124,7 @@
       </c>
       <c r="AR105" s="12"/>
     </row>
-    <row r="106" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="13" t="n">
         <v>105</v>
       </c>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="AR106" s="12"/>
     </row>
-    <row r="107" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="13" t="n">
         <v>106</v>
       </c>
@@ -13300,7 +13300,7 @@
       </c>
       <c r="AR107" s="12"/>
     </row>
-    <row r="108" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="13" t="n">
         <v>107</v>
       </c>
@@ -13388,7 +13388,7 @@
       </c>
       <c r="AR108" s="12"/>
     </row>
-    <row r="109" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="13" t="n">
         <v>108</v>
       </c>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="AR109" s="12"/>
     </row>
-    <row r="110" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="13" t="n">
         <v>109</v>
       </c>
@@ -13564,7 +13564,7 @@
       </c>
       <c r="AR110" s="12"/>
     </row>
-    <row r="111" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="13" t="n">
         <v>110</v>
       </c>
@@ -13652,7 +13652,7 @@
       </c>
       <c r="AR111" s="12"/>
     </row>
-    <row r="112" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="13" t="n">
         <v>111</v>
       </c>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="AR112" s="12"/>
     </row>
-    <row r="113" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="13" t="n">
         <v>112</v>
       </c>
@@ -13828,7 +13828,7 @@
       </c>
       <c r="AR113" s="12"/>
     </row>
-    <row r="114" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="13" t="n">
         <v>113</v>
       </c>
@@ -13916,7 +13916,7 @@
       </c>
       <c r="AR114" s="12"/>
     </row>
-    <row r="115" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="13" t="n">
         <v>114</v>
       </c>
@@ -14004,7 +14004,7 @@
       </c>
       <c r="AR115" s="12"/>
     </row>
-    <row r="116" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="13" t="n">
         <v>115</v>
       </c>
@@ -14092,7 +14092,7 @@
       </c>
       <c r="AR116" s="12"/>
     </row>
-    <row r="117" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="13" t="n">
         <v>116</v>
       </c>
@@ -14180,7 +14180,7 @@
       </c>
       <c r="AR117" s="12"/>
     </row>
-    <row r="118" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="13" t="n">
         <v>117</v>
       </c>
@@ -14268,7 +14268,7 @@
       </c>
       <c r="AR118" s="12"/>
     </row>
-    <row r="119" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="13" t="n">
         <v>118</v>
       </c>
@@ -14356,7 +14356,7 @@
       </c>
       <c r="AR119" s="12"/>
     </row>
-    <row r="120" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="13" t="n">
         <v>119</v>
       </c>
@@ -14444,7 +14444,7 @@
       </c>
       <c r="AR120" s="12"/>
     </row>
-    <row r="121" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="13" t="n">
         <v>120</v>
       </c>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="AR121" s="12"/>
     </row>
-    <row r="122" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="13" t="n">
         <v>121</v>
       </c>
@@ -14620,7 +14620,7 @@
       </c>
       <c r="AR122" s="12"/>
     </row>
-    <row r="123" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="13" t="n">
         <v>122</v>
       </c>
@@ -14708,7 +14708,7 @@
       </c>
       <c r="AR123" s="12"/>
     </row>
-    <row r="124" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="13" t="n">
         <v>123</v>
       </c>
@@ -14796,7 +14796,7 @@
       </c>
       <c r="AR124" s="12"/>
     </row>
-    <row r="125" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="13" t="n">
         <v>124</v>
       </c>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="AR125" s="12"/>
     </row>
-    <row r="126" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="13" t="n">
         <v>125</v>
       </c>
@@ -14972,7 +14972,7 @@
       </c>
       <c r="AR126" s="12"/>
     </row>
-    <row r="127" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="13" t="n">
         <v>126</v>
       </c>
@@ -15060,7 +15060,7 @@
       </c>
       <c r="AR127" s="12"/>
     </row>
-    <row r="128" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="13" t="n">
         <v>127</v>
       </c>
@@ -15148,7 +15148,7 @@
       </c>
       <c r="AR128" s="12"/>
     </row>
-    <row r="129" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="13" t="n">
         <v>128</v>
       </c>
@@ -15236,7 +15236,7 @@
       </c>
       <c r="AR129" s="12"/>
     </row>
-    <row r="130" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="13" t="n">
         <v>129</v>
       </c>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="AR130" s="12"/>
     </row>
-    <row r="131" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="13" t="n">
         <v>130</v>
       </c>
@@ -15412,7 +15412,7 @@
       </c>
       <c r="AR131" s="12"/>
     </row>
-    <row r="132" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="13" t="n">
         <v>131</v>
       </c>
@@ -15500,7 +15500,7 @@
       </c>
       <c r="AR132" s="12"/>
     </row>
-    <row r="133" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="13" t="n">
         <v>132</v>
       </c>
@@ -15588,7 +15588,7 @@
       </c>
       <c r="AR133" s="12"/>
     </row>
-    <row r="134" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="13" t="n">
         <v>133</v>
       </c>
@@ -15676,7 +15676,7 @@
       </c>
       <c r="AR134" s="12"/>
     </row>
-    <row r="135" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="13" t="n">
         <v>134</v>
       </c>
@@ -15764,7 +15764,7 @@
       </c>
       <c r="AR135" s="12"/>
     </row>
-    <row r="136" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="13" t="n">
         <v>135</v>
       </c>
@@ -15852,7 +15852,7 @@
       </c>
       <c r="AR136" s="12"/>
     </row>
-    <row r="137" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="13" t="n">
         <v>136</v>
       </c>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="AR137" s="12"/>
     </row>
-    <row r="138" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="13" t="n">
         <v>137</v>
       </c>
@@ -16028,7 +16028,7 @@
       </c>
       <c r="AR138" s="12"/>
     </row>
-    <row r="139" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="13" t="n">
         <v>138</v>
       </c>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="AR139" s="12"/>
     </row>
-    <row r="140" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="13" t="n">
         <v>139</v>
       </c>
@@ -16204,7 +16204,7 @@
       </c>
       <c r="AR140" s="12"/>
     </row>
-    <row r="141" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="13" t="n">
         <v>140</v>
       </c>
@@ -16292,7 +16292,7 @@
       </c>
       <c r="AR141" s="12"/>
     </row>
-    <row r="142" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="13" t="n">
         <v>141</v>
       </c>
@@ -16380,7 +16380,7 @@
       </c>
       <c r="AR142" s="12"/>
     </row>
-    <row r="143" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="13" t="n">
         <v>142</v>
       </c>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="AR143" s="12"/>
     </row>
-    <row r="144" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="13" t="n">
         <v>143</v>
       </c>
@@ -16556,7 +16556,7 @@
       </c>
       <c r="AR144" s="12"/>
     </row>
-    <row r="145" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="13" t="n">
         <v>144</v>
       </c>
@@ -16644,7 +16644,7 @@
       </c>
       <c r="AR145" s="12"/>
     </row>
-    <row r="146" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="13" t="n">
         <v>145</v>
       </c>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="AR146" s="12"/>
     </row>
-    <row r="147" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="13" t="n">
         <v>146</v>
       </c>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="AR147" s="12"/>
     </row>
-    <row r="148" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="13" t="n">
         <v>147</v>
       </c>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="AR148" s="12"/>
     </row>
-    <row r="149" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="13" t="n">
         <v>148</v>
       </c>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="AR149" s="12"/>
     </row>
-    <row r="150" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="13" t="n">
         <v>149</v>
       </c>
@@ -17084,7 +17084,7 @@
       </c>
       <c r="AR150" s="12"/>
     </row>
-    <row r="151" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="13" t="n">
         <v>150</v>
       </c>
@@ -17172,7 +17172,7 @@
       </c>
       <c r="AR151" s="12"/>
     </row>
-    <row r="152" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="13" t="n">
         <v>151</v>
       </c>
@@ -17260,7 +17260,7 @@
       </c>
       <c r="AR152" s="12"/>
     </row>
-    <row r="153" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="13" t="n">
         <v>152</v>
       </c>
@@ -17348,7 +17348,7 @@
       </c>
       <c r="AR153" s="12"/>
     </row>
-    <row r="154" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="13" t="n">
         <v>153</v>
       </c>
@@ -17436,7 +17436,7 @@
       </c>
       <c r="AR154" s="12"/>
     </row>
-    <row r="155" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="13" t="n">
         <v>154</v>
       </c>
@@ -17524,7 +17524,7 @@
       </c>
       <c r="AR155" s="12"/>
     </row>
-    <row r="156" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="13" t="n">
         <v>155</v>
       </c>
@@ -17612,7 +17612,7 @@
       </c>
       <c r="AR156" s="12"/>
     </row>
-    <row r="157" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="13" t="n">
         <v>156</v>
       </c>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="AR157" s="12"/>
     </row>
-    <row r="158" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="13" t="n">
         <v>157</v>
       </c>
@@ -17788,7 +17788,7 @@
       </c>
       <c r="AR158" s="12"/>
     </row>
-    <row r="159" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="13" t="n">
         <v>158</v>
       </c>
@@ -17876,7 +17876,7 @@
       </c>
       <c r="AR159" s="12"/>
     </row>
-    <row r="160" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="13" t="n">
         <v>159</v>
       </c>
@@ -17964,7 +17964,7 @@
       </c>
       <c r="AR160" s="12"/>
     </row>
-    <row r="161" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="13" t="n">
         <v>160</v>
       </c>
@@ -18052,7 +18052,7 @@
       </c>
       <c r="AR161" s="12"/>
     </row>
-    <row r="162" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="13" t="n">
         <v>161</v>
       </c>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="AR162" s="12"/>
     </row>
-    <row r="163" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="13" t="n">
         <v>162</v>
       </c>
@@ -18228,7 +18228,7 @@
       </c>
       <c r="AR163" s="12"/>
     </row>
-    <row r="164" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="13" t="n">
         <v>163</v>
       </c>
@@ -18316,7 +18316,7 @@
       </c>
       <c r="AR164" s="12"/>
     </row>
-    <row r="165" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="13" t="n">
         <v>164</v>
       </c>
@@ -18404,7 +18404,7 @@
       </c>
       <c r="AR165" s="12"/>
     </row>
-    <row r="166" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="13" t="n">
         <v>165</v>
       </c>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="AR166" s="12"/>
     </row>
-    <row r="167" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="13" t="n">
         <v>166</v>
       </c>
@@ -18580,7 +18580,7 @@
       </c>
       <c r="AR167" s="12"/>
     </row>
-    <row r="168" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="13" t="n">
         <v>167</v>
       </c>
@@ -18668,7 +18668,7 @@
       </c>
       <c r="AR168" s="12"/>
     </row>
-    <row r="169" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="13" t="n">
         <v>168</v>
       </c>
@@ -18756,7 +18756,7 @@
       </c>
       <c r="AR169" s="12"/>
     </row>
-    <row r="170" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="13" t="n">
         <v>169</v>
       </c>
@@ -18844,7 +18844,7 @@
       </c>
       <c r="AR170" s="12"/>
     </row>
-    <row r="171" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="13" t="n">
         <v>170</v>
       </c>
@@ -18932,7 +18932,7 @@
       </c>
       <c r="AR171" s="12"/>
     </row>
-    <row r="172" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="13" t="n">
         <v>171</v>
       </c>
@@ -19020,7 +19020,7 @@
       </c>
       <c r="AR172" s="12"/>
     </row>
-    <row r="173" customFormat="false" ht="37.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="13" t="n">
         <v>172</v>
       </c>
@@ -19108,7 +19108,7 @@
       </c>
       <c r="AR173" s="12"/>
     </row>
-    <row r="174" customFormat="false" ht="37.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="13" t="n">
         <v>173</v>
       </c>
@@ -19196,7 +19196,7 @@
       </c>
       <c r="AR174" s="12"/>
     </row>
-    <row r="175" customFormat="false" ht="37.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="13" t="n">
         <v>174</v>
       </c>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="AR175" s="12"/>
     </row>
-    <row r="176" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="13" t="n">
         <v>175</v>
       </c>
@@ -19366,7 +19366,7 @@
       <c r="AQ176" s="11"/>
       <c r="AR176" s="11"/>
     </row>
-    <row r="177" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="13" t="n">
         <v>176</v>
       </c>
@@ -19456,7 +19456,7 @@
       </c>
       <c r="AR177" s="11"/>
     </row>
-    <row r="178" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="13" t="n">
         <v>177</v>
       </c>
@@ -19542,7 +19542,7 @@
       </c>
       <c r="AR178" s="11"/>
     </row>
-    <row r="179" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="13" t="n">
         <v>178</v>
       </c>
@@ -19632,7 +19632,7 @@
       </c>
       <c r="AR179" s="11"/>
     </row>
-    <row r="180" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="13" t="n">
         <v>179</v>
       </c>
@@ -19720,7 +19720,7 @@
       </c>
       <c r="AR180" s="11"/>
     </row>
-    <row r="181" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="13" t="n">
         <v>180</v>
       </c>
@@ -19808,7 +19808,7 @@
       </c>
       <c r="AR181" s="11"/>
     </row>
-    <row r="182" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="13" t="n">
         <v>181</v>
       </c>
@@ -19896,7 +19896,7 @@
       </c>
       <c r="AR182" s="11"/>
     </row>
-    <row r="183" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="13" t="n">
         <v>182</v>
       </c>
@@ -20066,7 +20066,7 @@
       <c r="AQ184" s="11"/>
       <c r="AR184" s="11"/>
     </row>
-    <row r="185" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="13" t="n">
         <v>184</v>
       </c>
@@ -20156,7 +20156,7 @@
       </c>
       <c r="AR185" s="11"/>
     </row>
-    <row r="186" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="13" t="n">
         <v>185</v>
       </c>
@@ -20242,7 +20242,7 @@
       </c>
       <c r="AR186" s="11"/>
     </row>
-    <row r="187" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="13" t="n">
         <v>186</v>
       </c>
@@ -20326,7 +20326,7 @@
       </c>
       <c r="AR187" s="11"/>
     </row>
-    <row r="188" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="13" t="n">
         <v>187</v>
       </c>
@@ -20414,7 +20414,7 @@
       </c>
       <c r="AR188" s="11"/>
     </row>
-    <row r="189" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="13" t="n">
         <v>188</v>
       </c>
@@ -20502,7 +20502,7 @@
       </c>
       <c r="AR189" s="11"/>
     </row>
-    <row r="190" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="13" t="n">
         <v>189</v>
       </c>
@@ -20590,7 +20590,7 @@
       </c>
       <c r="AR190" s="11"/>
     </row>
-    <row r="191" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="13" t="n">
         <v>190</v>
       </c>
@@ -20678,7 +20678,7 @@
       </c>
       <c r="AR191" s="11"/>
     </row>
-    <row r="192" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="13" t="n">
         <v>191</v>
       </c>
@@ -20766,7 +20766,7 @@
       </c>
       <c r="AR192" s="11"/>
     </row>
-    <row r="193" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="13" t="n">
         <v>192</v>
       </c>
@@ -20854,7 +20854,7 @@
       </c>
       <c r="AR193" s="11"/>
     </row>
-    <row r="194" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="13" t="n">
         <v>193</v>
       </c>
@@ -20942,7 +20942,7 @@
       </c>
       <c r="AR194" s="11"/>
     </row>
-    <row r="195" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="13" t="n">
         <v>194</v>
       </c>
@@ -21024,7 +21024,7 @@
       <c r="AQ195" s="11"/>
       <c r="AR195" s="11"/>
     </row>
-    <row r="196" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="13" t="n">
         <v>195</v>
       </c>
@@ -21114,7 +21114,7 @@
       </c>
       <c r="AR196" s="11"/>
     </row>
-    <row r="197" customFormat="false" ht="14.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="13" t="n">
         <v>196</v>
       </c>
@@ -21200,7 +21200,7 @@
       </c>
       <c r="AR197" s="11"/>
     </row>
-    <row r="198" customFormat="false" ht="122.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="13" t="n">
         <v>197</v>
       </c>
@@ -21290,7 +21290,7 @@
       </c>
       <c r="AR198" s="11"/>
     </row>
-    <row r="199" customFormat="false" ht="108.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="13" t="n">
         <v>198</v>
       </c>
@@ -21378,7 +21378,7 @@
       </c>
       <c r="AR199" s="11"/>
     </row>
-    <row r="200" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="13" t="n">
         <v>199</v>
       </c>
@@ -21466,7 +21466,7 @@
       </c>
       <c r="AR200" s="11"/>
     </row>
-    <row r="201" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="13" t="n">
         <v>200</v>
       </c>
@@ -21554,7 +21554,7 @@
       </c>
       <c r="AR201" s="11"/>
     </row>
-    <row r="202" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="13" t="n">
         <v>201</v>
       </c>
@@ -21634,7 +21634,7 @@
       <c r="AQ202" s="11"/>
       <c r="AR202" s="11"/>
     </row>
-    <row r="203" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="13" t="n">
         <v>202</v>
       </c>
@@ -21722,7 +21722,7 @@
       </c>
       <c r="AR203" s="11"/>
     </row>
-    <row r="204" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="13" t="n">
         <v>203</v>
       </c>
@@ -21806,7 +21806,7 @@
       </c>
       <c r="AR204" s="11"/>
     </row>
-    <row r="205" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="13" t="n">
         <v>204</v>
       </c>
@@ -21888,7 +21888,7 @@
       </c>
       <c r="AR205" s="11"/>
     </row>
-    <row r="206" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="13" t="n">
         <v>205</v>
       </c>
@@ -21974,7 +21974,7 @@
       </c>
       <c r="AR206" s="11"/>
     </row>
-    <row r="207" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="13" t="n">
         <v>206</v>
       </c>
@@ -22060,7 +22060,7 @@
       </c>
       <c r="AR207" s="11"/>
     </row>
-    <row r="208" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="13" t="n">
         <v>207</v>
       </c>
@@ -22140,7 +22140,7 @@
       <c r="AQ208" s="11"/>
       <c r="AR208" s="11"/>
     </row>
-    <row r="209" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="13" t="n">
         <v>208</v>
       </c>
@@ -22228,7 +22228,7 @@
       </c>
       <c r="AR209" s="11"/>
     </row>
-    <row r="210" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="13" t="n">
         <v>209</v>
       </c>
@@ -22312,7 +22312,7 @@
       </c>
       <c r="AR210" s="11"/>
     </row>
-    <row r="211" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="13" t="n">
         <v>210</v>
       </c>
@@ -22398,7 +22398,7 @@
       </c>
       <c r="AR211" s="11"/>
     </row>
-    <row r="212" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="13" t="n">
         <v>211</v>
       </c>
@@ -22480,7 +22480,7 @@
       <c r="AQ212" s="11"/>
       <c r="AR212" s="11"/>
     </row>
-    <row r="213" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="13" t="n">
         <v>212</v>
       </c>
@@ -22570,7 +22570,7 @@
       </c>
       <c r="AR213" s="11"/>
     </row>
-    <row r="214" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="13" t="n">
         <v>213</v>
       </c>
@@ -22656,7 +22656,7 @@
       </c>
       <c r="AR214" s="11"/>
     </row>
-    <row r="215" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="13" t="n">
         <v>214</v>
       </c>
@@ -22746,7 +22746,7 @@
       </c>
       <c r="AR215" s="11"/>
     </row>
-    <row r="216" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="13" t="n">
         <v>215</v>
       </c>
@@ -22826,7 +22826,7 @@
       <c r="AQ216" s="11"/>
       <c r="AR216" s="11"/>
     </row>
-    <row r="217" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="13" t="n">
         <v>216</v>
       </c>
@@ -22914,7 +22914,7 @@
       </c>
       <c r="AR217" s="11"/>
     </row>
-    <row r="218" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="13" t="n">
         <v>217</v>
       </c>
@@ -22998,7 +22998,7 @@
       </c>
       <c r="AR218" s="11"/>
     </row>
-    <row r="219" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="13" t="n">
         <v>218</v>
       </c>
@@ -23080,7 +23080,7 @@
       </c>
       <c r="AR219" s="11"/>
     </row>
-    <row r="220" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="13" t="n">
         <v>219</v>
       </c>
@@ -23166,7 +23166,7 @@
       </c>
       <c r="AR220" s="11"/>
     </row>
-    <row r="221" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="13" t="n">
         <v>220</v>
       </c>
@@ -23252,7 +23252,7 @@
       </c>
       <c r="AR221" s="11"/>
     </row>
-    <row r="222" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="13" t="n">
         <v>221</v>
       </c>
@@ -23334,7 +23334,7 @@
       <c r="AQ222" s="11"/>
       <c r="AR222" s="11"/>
     </row>
-    <row r="223" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="13" t="n">
         <v>222</v>
       </c>
@@ -23424,7 +23424,7 @@
       </c>
       <c r="AR223" s="11"/>
     </row>
-    <row r="224" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="13" t="n">
         <v>223</v>
       </c>
@@ -23510,7 +23510,7 @@
       </c>
       <c r="AR224" s="11"/>
     </row>
-    <row r="225" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="13" t="n">
         <v>224</v>
       </c>
@@ -23598,7 +23598,7 @@
       </c>
       <c r="AR225" s="11"/>
     </row>
-    <row r="226" customFormat="false" ht="44" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="13" t="n">
         <v>225</v>
       </c>
@@ -23680,7 +23680,7 @@
       <c r="AQ226" s="11"/>
       <c r="AR226" s="11"/>
     </row>
-    <row r="227" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="13" t="n">
         <v>226</v>
       </c>
@@ -23770,7 +23770,7 @@
       </c>
       <c r="AR227" s="11"/>
     </row>
-    <row r="228" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="13" t="n">
         <v>227</v>
       </c>
@@ -23856,7 +23856,7 @@
       </c>
       <c r="AR228" s="11"/>
     </row>
-    <row r="229" customFormat="false" ht="58.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="13" t="n">
         <v>228</v>
       </c>
@@ -23940,7 +23940,7 @@
       </c>
       <c r="AR229" s="11"/>
     </row>
-    <row r="230" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="13" t="n">
         <v>229</v>
       </c>
@@ -24028,7 +24028,7 @@
       </c>
       <c r="AR230" s="11"/>
     </row>
-    <row r="231" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="13" t="n">
         <v>230</v>
       </c>
@@ -24116,7 +24116,7 @@
       </c>
       <c r="AR231" s="11"/>
     </row>
-    <row r="232" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="13" t="n">
         <v>231</v>
       </c>
@@ -24204,7 +24204,7 @@
       </c>
       <c r="AR232" s="11"/>
     </row>
-    <row r="233" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="13" t="n">
         <v>232</v>
       </c>
@@ -24292,7 +24292,7 @@
       </c>
       <c r="AR233" s="11"/>
     </row>
-    <row r="234" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="13" t="n">
         <v>233</v>
       </c>
@@ -24376,7 +24376,7 @@
       <c r="AQ234" s="62"/>
       <c r="AR234" s="11"/>
     </row>
-    <row r="235" customFormat="false" ht="100.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="13" t="n">
         <v>234</v>
       </c>
@@ -24460,7 +24460,7 @@
       </c>
       <c r="AR235" s="11"/>
     </row>
-    <row r="236" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="13" t="n">
         <v>235</v>
       </c>
@@ -24548,7 +24548,7 @@
       </c>
       <c r="AR236" s="11"/>
     </row>
-    <row r="237" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="13" t="n">
         <v>236</v>
       </c>
@@ -24636,7 +24636,7 @@
       </c>
       <c r="AR237" s="11"/>
     </row>
-    <row r="238" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="13" t="n">
         <v>237</v>
       </c>
@@ -24724,7 +24724,7 @@
       </c>
       <c r="AR238" s="11"/>
     </row>
-    <row r="239" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="13" t="n">
         <v>238</v>
       </c>
@@ -24812,7 +24812,7 @@
       </c>
       <c r="AR239" s="11"/>
     </row>
-    <row r="240" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="13" t="n">
         <v>239</v>
       </c>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="AR240" s="11"/>
     </row>
-    <row r="241" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="13" t="n">
         <v>240</v>
       </c>
@@ -24988,7 +24988,7 @@
       </c>
       <c r="AR241" s="11"/>
     </row>
-    <row r="242" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="13" t="n">
         <v>241</v>
       </c>
@@ -25076,7 +25076,7 @@
       </c>
       <c r="AR242" s="11"/>
     </row>
-    <row r="243" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="13" t="n">
         <v>242</v>
       </c>
@@ -25160,7 +25160,7 @@
       <c r="AQ243" s="62"/>
       <c r="AR243" s="11"/>
     </row>
-    <row r="244" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="13" t="n">
         <v>243</v>
       </c>
@@ -25244,7 +25244,7 @@
       </c>
       <c r="AR244" s="11"/>
     </row>
-    <row r="245" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="13" t="n">
         <v>244</v>
       </c>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="AR245" s="11"/>
     </row>
-    <row r="246" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="13" t="n">
         <v>245</v>
       </c>
@@ -25416,7 +25416,7 @@
       <c r="AQ246" s="62"/>
       <c r="AR246" s="11"/>
     </row>
-    <row r="247" customFormat="false" ht="72.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="13" t="n">
         <v>246</v>
       </c>
@@ -25500,7 +25500,7 @@
       </c>
       <c r="AR247" s="11"/>
     </row>
-    <row r="248" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="13" t="n">
         <v>247</v>
       </c>
@@ -25588,7 +25588,7 @@
       </c>
       <c r="AR248" s="11"/>
     </row>
-    <row r="249" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="13" t="n">
         <v>248</v>
       </c>
@@ -25676,7 +25676,7 @@
       </c>
       <c r="AR249" s="11"/>
     </row>
-    <row r="250" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="13" t="n">
         <v>249</v>
       </c>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="AR250" s="11"/>
     </row>
-    <row r="251" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="13" t="n">
         <v>250</v>
       </c>
@@ -25852,7 +25852,7 @@
       </c>
       <c r="AR251" s="11"/>
     </row>
-    <row r="252" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="13" t="n">
         <v>251</v>
       </c>
@@ -25940,7 +25940,7 @@
       </c>
       <c r="AR252" s="11"/>
     </row>
-    <row r="253" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="13" t="n">
         <v>252</v>
       </c>
@@ -26024,7 +26024,7 @@
       <c r="AQ253" s="62"/>
       <c r="AR253" s="11"/>
     </row>
-    <row r="254" customFormat="false" ht="29.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="13" t="n">
         <v>253</v>
       </c>
@@ -26108,7 +26108,7 @@
       </c>
       <c r="AR254" s="11"/>
     </row>
-    <row r="255" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="13" t="n">
         <v>254</v>
       </c>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="AR255" s="11"/>
     </row>
-    <row r="256" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="13" t="n">
         <v>255</v>
       </c>
@@ -26284,7 +26284,7 @@
       </c>
       <c r="AR256" s="11"/>
     </row>
-    <row r="257" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="13" t="n">
         <v>256</v>
       </c>
@@ -26368,7 +26368,7 @@
       <c r="AQ257" s="11"/>
       <c r="AR257" s="11"/>
     </row>
-    <row r="258" customFormat="false" ht="58.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="13" t="n">
         <v>257</v>
       </c>
@@ -26440,7 +26440,7 @@
       <c r="AQ258" s="11"/>
       <c r="AR258" s="11"/>
     </row>
-    <row r="259" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="13" t="n">
         <v>258</v>
       </c>
@@ -26528,7 +26528,7 @@
       </c>
       <c r="AR259" s="12"/>
     </row>
-    <row r="260" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="13" t="n">
         <v>259</v>
       </c>
@@ -26616,7 +26616,7 @@
       </c>
       <c r="AR260" s="12"/>
     </row>
-    <row r="261" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="13" t="n">
         <v>260</v>
       </c>
@@ -26704,7 +26704,7 @@
       </c>
       <c r="AR261" s="12"/>
     </row>
-    <row r="262" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="13" t="n">
         <v>261</v>
       </c>
@@ -26792,7 +26792,7 @@
       </c>
       <c r="AR262" s="12"/>
     </row>
-    <row r="263" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="13" t="n">
         <v>262</v>
       </c>
@@ -26869,7 +26869,7 @@
       <c r="AQ263" s="11"/>
       <c r="AR263" s="11"/>
     </row>
-    <row r="264" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="13" t="n">
         <v>263</v>
       </c>
@@ -26955,7 +26955,7 @@
       </c>
       <c r="AR264" s="11"/>
     </row>
-    <row r="265" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="13" t="n">
         <v>264</v>
       </c>
@@ -27039,7 +27039,7 @@
       </c>
       <c r="AR265" s="11"/>
     </row>
-    <row r="266" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="13" t="n">
         <v>265</v>
       </c>
@@ -27125,7 +27125,7 @@
       </c>
       <c r="AR266" s="11"/>
     </row>
-    <row r="267" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="13" t="n">
         <v>266</v>
       </c>
@@ -27211,7 +27211,7 @@
       </c>
       <c r="AR267" s="11"/>
     </row>
-    <row r="268" customFormat="false" ht="228.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="228.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="13" t="n">
         <v>267</v>
       </c>
@@ -27301,7 +27301,7 @@
       </c>
       <c r="AR268" s="11"/>
     </row>
-    <row r="269" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="13" t="n">
         <v>268</v>
       </c>
@@ -27391,7 +27391,7 @@
       </c>
       <c r="AR269" s="11"/>
     </row>
-    <row r="270" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="13" t="n">
         <v>269</v>
       </c>
@@ -27481,7 +27481,7 @@
       </c>
       <c r="AR270" s="11"/>
     </row>
-    <row r="271" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="13" t="n">
         <v>270</v>
       </c>
@@ -27571,7 +27571,7 @@
       </c>
       <c r="AR271" s="11"/>
     </row>
-    <row r="272" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="13" t="n">
         <v>271</v>
       </c>
@@ -27661,7 +27661,7 @@
       </c>
       <c r="AR272" s="11"/>
     </row>
-    <row r="273" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="13" t="n">
         <v>272</v>
       </c>
@@ -27751,7 +27751,7 @@
       </c>
       <c r="AR273" s="11"/>
     </row>
-    <row r="274" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="13" t="n">
         <v>273</v>
       </c>
@@ -27841,7 +27841,7 @@
       </c>
       <c r="AR274" s="11"/>
     </row>
-    <row r="275" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="13" t="n">
         <v>274</v>
       </c>
@@ -27931,7 +27931,7 @@
       </c>
       <c r="AR275" s="11"/>
     </row>
-    <row r="276" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="13" t="n">
         <v>275</v>
       </c>
@@ -28021,7 +28021,7 @@
       </c>
       <c r="AR276" s="11"/>
     </row>
-    <row r="277" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="13" t="n">
         <v>276</v>
       </c>
@@ -28111,7 +28111,7 @@
       </c>
       <c r="AR277" s="11"/>
     </row>
-    <row r="278" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="13" t="n">
         <v>277</v>
       </c>
@@ -28201,7 +28201,7 @@
       </c>
       <c r="AR278" s="11"/>
     </row>
-    <row r="279" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="13" t="n">
         <v>278</v>
       </c>
@@ -28291,7 +28291,7 @@
       </c>
       <c r="AR279" s="11"/>
     </row>
-    <row r="280" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="13" t="n">
         <v>279</v>
       </c>
@@ -28381,7 +28381,7 @@
       </c>
       <c r="AR280" s="11"/>
     </row>
-    <row r="281" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="13" t="n">
         <v>280</v>
       </c>
@@ -28471,7 +28471,7 @@
       </c>
       <c r="AR281" s="11"/>
     </row>
-    <row r="282" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="13" t="n">
         <v>281</v>
       </c>
@@ -28561,7 +28561,7 @@
       </c>
       <c r="AR282" s="11"/>
     </row>
-    <row r="283" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="13" t="n">
         <v>282</v>
       </c>
@@ -28741,7 +28741,7 @@
       </c>
       <c r="AR284" s="11"/>
     </row>
-    <row r="285" customFormat="false" ht="135.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="13" t="n">
         <v>284</v>
       </c>
@@ -28825,7 +28825,7 @@
       </c>
       <c r="AR285" s="11"/>
     </row>
-    <row r="286" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="13" t="n">
         <v>285</v>
       </c>
@@ -28913,7 +28913,7 @@
       </c>
       <c r="AR286" s="11"/>
     </row>
-    <row r="287" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="13" t="n">
         <v>286</v>
       </c>
@@ -29001,7 +29001,7 @@
       </c>
       <c r="AR287" s="62"/>
     </row>
-    <row r="288" customFormat="false" ht="72.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="13" t="n">
         <v>287</v>
       </c>
@@ -29081,7 +29081,7 @@
       </c>
       <c r="AR288" s="11"/>
     </row>
-    <row r="289" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="13" t="n">
         <v>288</v>
       </c>
@@ -29163,7 +29163,7 @@
       </c>
       <c r="AR289" s="11"/>
     </row>
-    <row r="290" customFormat="false" ht="202.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="13" t="n">
         <v>289</v>
       </c>
@@ -29245,7 +29245,7 @@
       </c>
       <c r="AR290" s="11"/>
     </row>
-    <row r="291" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="13" t="n">
         <v>290</v>
       </c>
@@ -29327,7 +29327,7 @@
       </c>
       <c r="AR291" s="11"/>
     </row>
-    <row r="292" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="13" t="n">
         <v>291</v>
       </c>
@@ -29409,7 +29409,7 @@
       </c>
       <c r="AR292" s="11"/>
     </row>
-    <row r="293" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="13" t="n">
         <v>292</v>
       </c>
@@ -29493,7 +29493,7 @@
       </c>
       <c r="AR293" s="11"/>
     </row>
-    <row r="294" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="13" t="n">
         <v>293</v>
       </c>
@@ -29575,7 +29575,7 @@
       </c>
       <c r="AR294" s="11"/>
     </row>
-    <row r="295" customFormat="false" ht="95.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="13" t="n">
         <v>294</v>
       </c>
@@ -29665,7 +29665,7 @@
       </c>
       <c r="AR295" s="11"/>
     </row>
-    <row r="296" customFormat="false" ht="64.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="64.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="13" t="n">
         <v>295</v>
       </c>
@@ -29737,7 +29737,7 @@
       <c r="AQ296" s="94"/>
       <c r="AR296" s="94"/>
     </row>
-    <row r="297" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="13" t="n">
         <v>296</v>
       </c>
@@ -29809,7 +29809,7 @@
       <c r="AQ297" s="94"/>
       <c r="AR297" s="94"/>
     </row>
-    <row r="298" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="13" t="n">
         <v>297</v>
       </c>
@@ -29881,7 +29881,7 @@
       <c r="AQ298" s="94"/>
       <c r="AR298" s="94"/>
     </row>
-    <row r="299" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="13" t="n">
         <v>298</v>
       </c>
@@ -29955,7 +29955,7 @@
       <c r="AQ299" s="94"/>
       <c r="AR299" s="94"/>
     </row>
-    <row r="300" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="13" t="n">
         <v>299</v>
       </c>
@@ -30027,7 +30027,7 @@
       <c r="AQ300" s="94"/>
       <c r="AR300" s="94"/>
     </row>
-    <row r="301" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="13" t="n">
         <v>300</v>
       </c>
@@ -30101,7 +30101,7 @@
       <c r="AQ301" s="94"/>
       <c r="AR301" s="94"/>
     </row>
-    <row r="302" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="13" t="n">
         <v>301</v>
       </c>
@@ -30175,7 +30175,7 @@
       <c r="AQ302" s="94"/>
       <c r="AR302" s="94"/>
     </row>
-    <row r="303" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="13" t="n">
         <v>302</v>
       </c>
@@ -30249,7 +30249,7 @@
       <c r="AQ303" s="94"/>
       <c r="AR303" s="94"/>
     </row>
-    <row r="304" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="13" t="n">
         <v>303</v>
       </c>
@@ -30323,7 +30323,7 @@
       <c r="AQ304" s="94"/>
       <c r="AR304" s="94"/>
     </row>
-    <row r="305" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="13" t="n">
         <v>304</v>
       </c>
@@ -30401,7 +30401,7 @@
       <c r="AQ305" s="94"/>
       <c r="AR305" s="94"/>
     </row>
-    <row r="306" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="13" t="n">
         <v>305</v>
       </c>
@@ -30479,7 +30479,7 @@
       <c r="AQ306" s="94"/>
       <c r="AR306" s="94"/>
     </row>
-    <row r="307" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="13" t="n">
         <v>306</v>
       </c>
@@ -30557,7 +30557,7 @@
       <c r="AQ307" s="94"/>
       <c r="AR307" s="94"/>
     </row>
-    <row r="308" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="13" t="n">
         <v>307</v>
       </c>
@@ -30635,7 +30635,7 @@
       <c r="AQ308" s="94"/>
       <c r="AR308" s="94"/>
     </row>
-    <row r="309" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="13" t="n">
         <v>308</v>
       </c>
@@ -30713,7 +30713,7 @@
       <c r="AQ309" s="94"/>
       <c r="AR309" s="94"/>
     </row>
-    <row r="310" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="13" t="n">
         <v>309</v>
       </c>
@@ -30791,7 +30791,7 @@
       <c r="AQ310" s="94"/>
       <c r="AR310" s="94"/>
     </row>
-    <row r="311" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="13" t="n">
         <v>310</v>
       </c>
@@ -30869,7 +30869,7 @@
       <c r="AQ311" s="94"/>
       <c r="AR311" s="94"/>
     </row>
-    <row r="312" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="13" t="n">
         <v>311</v>
       </c>
@@ -30947,7 +30947,7 @@
       <c r="AQ312" s="94"/>
       <c r="AR312" s="94"/>
     </row>
-    <row r="313" customFormat="false" ht="49.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="13" t="n">
         <v>312</v>
       </c>
@@ -31027,15 +31027,7 @@
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AS313">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="283"/>
-        <filter val="83"/>
-        <filter val="183"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AS313"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU_SAND/Data/Hypermarket PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Hypermarket PoS 2018.xlsx
@@ -13,48 +13,49 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AR$313</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Hypermarket!$A$1:$AS$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1366,9 +1367,7 @@
     <t xml:space="preserve">Рич - Грейпфрут - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Dobriy - Berry Smoothie - 0.11L
-</t>
+    <t xml:space="preserve">Dobriy - Berry Smoothie - 0.11L</t>
   </si>
   <si>
     <t xml:space="preserve">Добрый Смуззи - Ягодный Дэнс - 110 гр</t>
@@ -3564,7 +3563,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3773,16 +3772,16 @@
   <dimension ref="A1:AR313"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G175" activeCellId="0" sqref="G175"/>
+      <selection pane="bottomLeft" activeCell="G129" activeCellId="0" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="43.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="1" width="14.7125506072875"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="45.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="14.7125506072875"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="33.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30894,7 +30893,7 @@
       <c r="AR313" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR313"/>
+  <autoFilter ref="A1:AS313"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
